--- a/RAAL/Production/Input/weather.xlsx
+++ b/RAAL/Production/Input/weather.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mynexte-my.sharepoint.com/personal/andrei_ionita_mynexte_com/Documents/Desktop/ML/Forecast_app/RAAL/Production/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_7051D2511CAA682C307326524E2E083178FA898C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07CE7861-7CA1-4117-91DE-BADAA7147792}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_7051D2511CAA682C307326524E2E083178FA898C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B693A13-62B7-4162-ABD2-2035EDE4FAAF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,7 +149,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -213,7 +213,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -221,7 +221,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="date_style" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -527,14 +527,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">

--- a/RAAL/Production/Input/weather.xlsx
+++ b/RAAL/Production/Input/weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="127">
   <si>
     <t>dt</t>
   </si>
@@ -76,183 +76,39 @@
     <t>wind.gust</t>
   </si>
   <si>
+    <t>sys.pod</t>
+  </si>
+  <si>
     <t>rain.1h</t>
   </si>
   <si>
-    <t>sys.pod</t>
-  </si>
-  <si>
     <t>Lookup</t>
   </si>
   <si>
-    <t>[{'id': 501, 'main': 'Rain', 'description': 'moderate rain', 'icon': '10d'}]</t>
+    <t>[{'id': 804, 'main': 'Clouds', 'description': 'overcast clouds', 'icon': '04d'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 803, 'main': 'Clouds', 'description': 'broken clouds', 'icon': '04d'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 803, 'main': 'Clouds', 'description': 'broken clouds', 'icon': '04n'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 804, 'main': 'Clouds', 'description': 'overcast clouds', 'icon': '04n'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 500, 'main': 'Rain', 'description': 'light rain', 'icon': '10n'}]</t>
   </si>
   <si>
     <t>[{'id': 500, 'main': 'Rain', 'description': 'light rain', 'icon': '10d'}]</t>
   </si>
   <si>
-    <t>[{'id': 804, 'main': 'Clouds', 'description': 'overcast clouds', 'icon': '04n'}]</t>
-  </si>
-  <si>
-    <t>[{'id': 500, 'main': 'Rain', 'description': 'light rain', 'icon': '10n'}]</t>
-  </si>
-  <si>
-    <t>[{'id': 804, 'main': 'Clouds', 'description': 'overcast clouds', 'icon': '04d'}]</t>
-  </si>
-  <si>
-    <t>[{'id': 803, 'main': 'Clouds', 'description': 'broken clouds', 'icon': '04d'}]</t>
-  </si>
-  <si>
-    <t>[{'id': 803, 'main': 'Clouds', 'description': 'broken clouds', 'icon': '04n'}]</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
     <t>n</t>
   </si>
   <si>
-    <t>05.02.202413</t>
-  </si>
-  <si>
-    <t>05.02.202414</t>
-  </si>
-  <si>
-    <t>05.02.202415</t>
-  </si>
-  <si>
-    <t>05.02.202416</t>
-  </si>
-  <si>
-    <t>05.02.202417</t>
-  </si>
-  <si>
-    <t>05.02.202418</t>
-  </si>
-  <si>
-    <t>05.02.202419</t>
-  </si>
-  <si>
-    <t>05.02.202420</t>
-  </si>
-  <si>
-    <t>05.02.202421</t>
-  </si>
-  <si>
-    <t>05.02.202422</t>
-  </si>
-  <si>
-    <t>05.02.202423</t>
-  </si>
-  <si>
-    <t>06.02.20240</t>
-  </si>
-  <si>
-    <t>06.02.20241</t>
-  </si>
-  <si>
-    <t>06.02.20242</t>
-  </si>
-  <si>
-    <t>06.02.20243</t>
-  </si>
-  <si>
-    <t>06.02.20244</t>
-  </si>
-  <si>
-    <t>06.02.20245</t>
-  </si>
-  <si>
-    <t>06.02.20246</t>
-  </si>
-  <si>
-    <t>06.02.20247</t>
-  </si>
-  <si>
-    <t>06.02.20248</t>
-  </si>
-  <si>
-    <t>06.02.20249</t>
-  </si>
-  <si>
-    <t>06.02.202410</t>
-  </si>
-  <si>
-    <t>06.02.202411</t>
-  </si>
-  <si>
-    <t>06.02.202412</t>
-  </si>
-  <si>
-    <t>06.02.202413</t>
-  </si>
-  <si>
-    <t>06.02.202414</t>
-  </si>
-  <si>
-    <t>06.02.202415</t>
-  </si>
-  <si>
-    <t>06.02.202416</t>
-  </si>
-  <si>
-    <t>06.02.202417</t>
-  </si>
-  <si>
-    <t>06.02.202418</t>
-  </si>
-  <si>
-    <t>06.02.202419</t>
-  </si>
-  <si>
-    <t>06.02.202420</t>
-  </si>
-  <si>
-    <t>06.02.202421</t>
-  </si>
-  <si>
-    <t>06.02.202422</t>
-  </si>
-  <si>
-    <t>06.02.202423</t>
-  </si>
-  <si>
-    <t>07.02.20240</t>
-  </si>
-  <si>
-    <t>07.02.20241</t>
-  </si>
-  <si>
-    <t>07.02.20242</t>
-  </si>
-  <si>
-    <t>07.02.20243</t>
-  </si>
-  <si>
-    <t>07.02.20244</t>
-  </si>
-  <si>
-    <t>07.02.20245</t>
-  </si>
-  <si>
-    <t>07.02.20246</t>
-  </si>
-  <si>
-    <t>07.02.20247</t>
-  </si>
-  <si>
-    <t>07.02.20248</t>
-  </si>
-  <si>
-    <t>07.02.20249</t>
-  </si>
-  <si>
-    <t>07.02.202410</t>
-  </si>
-  <si>
-    <t>07.02.202411</t>
-  </si>
-  <si>
     <t>07.02.202412</t>
   </si>
   <si>
@@ -398,6 +254,147 @@
   </si>
   <si>
     <t>09.02.202412</t>
+  </si>
+  <si>
+    <t>09.02.202413</t>
+  </si>
+  <si>
+    <t>09.02.202414</t>
+  </si>
+  <si>
+    <t>09.02.202415</t>
+  </si>
+  <si>
+    <t>09.02.202416</t>
+  </si>
+  <si>
+    <t>09.02.202417</t>
+  </si>
+  <si>
+    <t>09.02.202418</t>
+  </si>
+  <si>
+    <t>09.02.202419</t>
+  </si>
+  <si>
+    <t>09.02.202420</t>
+  </si>
+  <si>
+    <t>09.02.202421</t>
+  </si>
+  <si>
+    <t>09.02.202422</t>
+  </si>
+  <si>
+    <t>09.02.202423</t>
+  </si>
+  <si>
+    <t>10.02.20240</t>
+  </si>
+  <si>
+    <t>10.02.20241</t>
+  </si>
+  <si>
+    <t>10.02.20242</t>
+  </si>
+  <si>
+    <t>10.02.20243</t>
+  </si>
+  <si>
+    <t>10.02.20244</t>
+  </si>
+  <si>
+    <t>10.02.20245</t>
+  </si>
+  <si>
+    <t>10.02.20246</t>
+  </si>
+  <si>
+    <t>10.02.20247</t>
+  </si>
+  <si>
+    <t>10.02.20248</t>
+  </si>
+  <si>
+    <t>10.02.20249</t>
+  </si>
+  <si>
+    <t>10.02.202410</t>
+  </si>
+  <si>
+    <t>10.02.202411</t>
+  </si>
+  <si>
+    <t>10.02.202412</t>
+  </si>
+  <si>
+    <t>10.02.202413</t>
+  </si>
+  <si>
+    <t>10.02.202414</t>
+  </si>
+  <si>
+    <t>10.02.202415</t>
+  </si>
+  <si>
+    <t>10.02.202416</t>
+  </si>
+  <si>
+    <t>10.02.202417</t>
+  </si>
+  <si>
+    <t>10.02.202418</t>
+  </si>
+  <si>
+    <t>10.02.202419</t>
+  </si>
+  <si>
+    <t>10.02.202420</t>
+  </si>
+  <si>
+    <t>10.02.202421</t>
+  </si>
+  <si>
+    <t>10.02.202422</t>
+  </si>
+  <si>
+    <t>10.02.202423</t>
+  </si>
+  <si>
+    <t>11.02.20240</t>
+  </si>
+  <si>
+    <t>11.02.20241</t>
+  </si>
+  <si>
+    <t>11.02.20242</t>
+  </si>
+  <si>
+    <t>11.02.20243</t>
+  </si>
+  <si>
+    <t>11.02.20244</t>
+  </si>
+  <si>
+    <t>11.02.20245</t>
+  </si>
+  <si>
+    <t>11.02.20246</t>
+  </si>
+  <si>
+    <t>11.02.20247</t>
+  </si>
+  <si>
+    <t>11.02.20248</t>
+  </si>
+  <si>
+    <t>11.02.20249</t>
+  </si>
+  <si>
+    <t>11.02.202410</t>
+  </si>
+  <si>
+    <t>11.02.202411</t>
   </si>
 </sst>
 </file>
@@ -838,1790 +835,1778 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2">
-        <v>1707138000</v>
+        <v>1707307200</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2">
-        <v>2708</v>
+        <v>10000</v>
       </c>
       <c r="D2">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>45327.54166666666</v>
+        <v>45329.5</v>
       </c>
       <c r="F2" s="2">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2">
-        <v>8.76</v>
+        <v>8.34</v>
       </c>
       <c r="I2">
-        <v>5.15</v>
+        <v>4.93</v>
       </c>
       <c r="J2">
-        <v>6.61</v>
+        <v>8.34</v>
       </c>
       <c r="K2">
-        <v>8.76</v>
+        <v>8.34</v>
       </c>
       <c r="L2">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="M2">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="N2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="P2">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="R2">
-        <v>7.69</v>
+        <v>6.62</v>
       </c>
       <c r="S2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="T2">
-        <v>16.27</v>
-      </c>
-      <c r="U2">
-        <v>1.39</v>
-      </c>
-      <c r="V2" t="s">
-        <v>30</v>
+        <v>16.23</v>
+      </c>
+      <c r="U2" t="s">
+        <v>29</v>
       </c>
       <c r="W2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3">
-        <v>1707141600</v>
+        <v>1707310800</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3">
-        <v>4799</v>
+        <v>10000</v>
       </c>
       <c r="D3">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>45327.58333333334</v>
+        <v>45329.54166666666</v>
       </c>
       <c r="F3" s="2">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>8.32</v>
+        <v>8.4</v>
       </c>
       <c r="I3">
-        <v>4.55</v>
+        <v>5.11</v>
       </c>
       <c r="J3">
-        <v>6.55</v>
+        <v>8.4</v>
       </c>
       <c r="K3">
-        <v>8.32</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="L3">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="M3">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="N3">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="O3">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="P3">
-        <v>1.77</v>
+        <v>-0.24</v>
       </c>
       <c r="Q3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="R3">
-        <v>7.77</v>
+        <v>6.3</v>
       </c>
       <c r="S3">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="T3">
-        <v>16.38</v>
-      </c>
-      <c r="U3">
-        <v>1.02</v>
-      </c>
-      <c r="V3" t="s">
-        <v>30</v>
+        <v>15.47</v>
+      </c>
+      <c r="U3" t="s">
+        <v>29</v>
       </c>
       <c r="W3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4">
-        <v>1707145200</v>
+        <v>1707314400</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>4904</v>
+        <v>10000</v>
       </c>
       <c r="D4">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>45327.625</v>
+        <v>45329.58333333334</v>
       </c>
       <c r="F4" s="2">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4">
-        <v>7.79</v>
+        <v>8.48</v>
       </c>
       <c r="I4">
-        <v>4.35</v>
+        <v>5.51</v>
       </c>
       <c r="J4">
-        <v>6.34</v>
+        <v>8.48</v>
       </c>
       <c r="K4">
-        <v>7.79</v>
+        <v>8.68</v>
       </c>
       <c r="L4">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="M4">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="N4">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="O4">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="P4">
-        <v>1.45</v>
+        <v>-0.2</v>
       </c>
       <c r="Q4">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="R4">
-        <v>6.24</v>
+        <v>5.45</v>
       </c>
       <c r="S4">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="T4">
-        <v>14.48</v>
-      </c>
-      <c r="U4">
-        <v>0.32</v>
-      </c>
-      <c r="V4" t="s">
-        <v>30</v>
+        <v>13.72</v>
+      </c>
+      <c r="U4" t="s">
+        <v>29</v>
       </c>
       <c r="W4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5">
-        <v>1707148800</v>
+        <v>1707318000</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>4617</v>
+        <v>10000</v>
       </c>
       <c r="D5">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>45327.66666666666</v>
+        <v>45329.625</v>
       </c>
       <c r="F5" s="2">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>7.21</v>
+        <v>7.87</v>
       </c>
       <c r="I5">
-        <v>3.75</v>
+        <v>5.14</v>
       </c>
       <c r="J5">
-        <v>6.17</v>
+        <v>7.56</v>
       </c>
       <c r="K5">
-        <v>7.21</v>
+        <v>7.87</v>
       </c>
       <c r="L5">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M5">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="N5">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="O5">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="P5">
-        <v>1.04</v>
+        <v>0.31</v>
       </c>
       <c r="Q5">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="R5">
-        <v>5.88</v>
+        <v>4.52</v>
       </c>
       <c r="S5">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="T5">
-        <v>14.26</v>
-      </c>
-      <c r="V5" t="s">
-        <v>31</v>
+        <v>10.85</v>
+      </c>
+      <c r="U5" t="s">
+        <v>29</v>
       </c>
       <c r="W5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6">
-        <v>1707152400</v>
+        <v>1707321600</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>3946</v>
+        <v>10000</v>
       </c>
       <c r="D6">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>45327.70833333334</v>
+        <v>45329.66666666666</v>
       </c>
       <c r="F6" s="2">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6">
-        <v>6.66</v>
+        <v>6.47</v>
       </c>
       <c r="I6">
-        <v>2.95</v>
+        <v>3.56</v>
       </c>
       <c r="J6">
-        <v>6.14</v>
+        <v>6</v>
       </c>
       <c r="K6">
-        <v>6.66</v>
+        <v>6.47</v>
       </c>
       <c r="L6">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M6">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="N6">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="O6">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P6">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="Q6">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="R6">
-        <v>6.13</v>
+        <v>4.19</v>
       </c>
       <c r="S6">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="T6">
-        <v>13.37</v>
-      </c>
-      <c r="U6">
-        <v>0.11</v>
-      </c>
-      <c r="V6" t="s">
-        <v>31</v>
+        <v>9.76</v>
+      </c>
+      <c r="U6" t="s">
+        <v>30</v>
       </c>
       <c r="W6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7">
-        <v>1707156000</v>
+        <v>1707325200</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>6091</v>
+        <v>10000</v>
       </c>
       <c r="D7">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>45327.75</v>
+        <v>45329.70833333334</v>
       </c>
       <c r="F7" s="2">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="I7">
-        <v>2.31</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="K7">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="L7">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="M7">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="N7">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="O7">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R7">
-        <v>5.88</v>
+        <v>4.13</v>
       </c>
       <c r="S7">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="T7">
-        <v>13.14</v>
-      </c>
-      <c r="U7">
-        <v>0.16</v>
-      </c>
-      <c r="V7" t="s">
-        <v>31</v>
+        <v>10.02</v>
+      </c>
+      <c r="U7" t="s">
+        <v>30</v>
       </c>
       <c r="W7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8">
-        <v>1707159600</v>
+        <v>1707328800</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8">
-        <v>5271</v>
+        <v>10000</v>
       </c>
       <c r="D8">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>45327.79166666666</v>
+        <v>45329.75</v>
       </c>
       <c r="F8" s="2">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8">
-        <v>5.84</v>
+        <v>6.04</v>
       </c>
       <c r="I8">
-        <v>2.19</v>
+        <v>3.11</v>
       </c>
       <c r="J8">
-        <v>5.84</v>
+        <v>6.04</v>
       </c>
       <c r="K8">
-        <v>5.84</v>
+        <v>6.04</v>
       </c>
       <c r="L8">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="M8">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="N8">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="O8">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="R8">
-        <v>5.45</v>
+        <v>4.04</v>
       </c>
       <c r="S8">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="T8">
-        <v>12.31</v>
-      </c>
-      <c r="V8" t="s">
-        <v>31</v>
+        <v>10.44</v>
+      </c>
+      <c r="U8" t="s">
+        <v>30</v>
       </c>
       <c r="W8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9">
-        <v>1707163200</v>
+        <v>1707332400</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>5646</v>
+        <v>10000</v>
       </c>
       <c r="D9">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>45327.83333333334</v>
+        <v>45329.79166666666</v>
       </c>
       <c r="F9" s="2">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9">
-        <v>5.61</v>
+        <v>5.86</v>
       </c>
       <c r="I9">
-        <v>1.85</v>
+        <v>2.87</v>
       </c>
       <c r="J9">
-        <v>5.61</v>
+        <v>5.86</v>
       </c>
       <c r="K9">
-        <v>5.61</v>
+        <v>5.86</v>
       </c>
       <c r="L9">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="M9">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="N9">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="O9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R9">
-        <v>5.56</v>
+        <v>4.08</v>
       </c>
       <c r="S9">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="T9">
-        <v>12.35</v>
-      </c>
-      <c r="V9" t="s">
-        <v>31</v>
+        <v>10.67</v>
+      </c>
+      <c r="U9" t="s">
+        <v>30</v>
       </c>
       <c r="W9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10">
-        <v>1707166800</v>
+        <v>1707336000</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>5338</v>
+        <v>10000</v>
       </c>
       <c r="D10">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>45327.875</v>
+        <v>45329.83333333334</v>
       </c>
       <c r="F10" s="2">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="I10">
-        <v>1.56</v>
+        <v>2.84</v>
       </c>
       <c r="J10">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="K10">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="L10">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="M10">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="N10">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="O10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R10">
-        <v>5.33</v>
+        <v>3.79</v>
       </c>
       <c r="S10">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="T10">
-        <v>12.25</v>
-      </c>
-      <c r="V10" t="s">
-        <v>31</v>
+        <v>11.98</v>
+      </c>
+      <c r="U10" t="s">
+        <v>30</v>
       </c>
       <c r="W10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11">
-        <v>1707170400</v>
+        <v>1707339600</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>4479</v>
+        <v>10000</v>
       </c>
       <c r="D11">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>45327.91666666666</v>
+        <v>45329.875</v>
       </c>
       <c r="F11" s="2">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11">
-        <v>5.05</v>
+        <v>5.56</v>
       </c>
       <c r="I11">
-        <v>1.11</v>
+        <v>2.85</v>
       </c>
       <c r="J11">
-        <v>5.05</v>
+        <v>5.56</v>
       </c>
       <c r="K11">
-        <v>5.05</v>
+        <v>5.56</v>
       </c>
       <c r="L11">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="M11">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="N11">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="O11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="R11">
-        <v>5.63</v>
+        <v>3.49</v>
       </c>
       <c r="S11">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="T11">
-        <v>12.29</v>
-      </c>
-      <c r="V11" t="s">
-        <v>31</v>
+        <v>11.33</v>
+      </c>
+      <c r="U11" t="s">
+        <v>30</v>
       </c>
       <c r="W11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12">
-        <v>1707174000</v>
+        <v>1707343200</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>6197</v>
+        <v>10000</v>
       </c>
       <c r="D12">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>45327.95833333334</v>
+        <v>45329.91666666666</v>
       </c>
       <c r="F12" s="2">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="G12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12">
-        <v>5.01</v>
+        <v>5.5</v>
       </c>
       <c r="I12">
-        <v>1.24</v>
+        <v>3.04</v>
       </c>
       <c r="J12">
-        <v>5.01</v>
+        <v>5.5</v>
       </c>
       <c r="K12">
-        <v>5.01</v>
+        <v>5.5</v>
       </c>
       <c r="L12">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="M12">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="N12">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="O12">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="R12">
-        <v>5.23</v>
+        <v>3.1</v>
       </c>
       <c r="S12">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="T12">
-        <v>12.07</v>
-      </c>
-      <c r="V12" t="s">
-        <v>31</v>
+        <v>10.51</v>
+      </c>
+      <c r="U12" t="s">
+        <v>30</v>
       </c>
       <c r="W12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13">
-        <v>1707177600</v>
+        <v>1707346800</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>6690</v>
+        <v>10000</v>
       </c>
       <c r="D13">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E13" s="2">
-        <v>45328</v>
+        <v>45329.95833333334</v>
       </c>
       <c r="F13" s="2">
-        <v>45328</v>
+        <v>45329</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H13">
-        <v>4.96</v>
+        <v>5.43</v>
       </c>
       <c r="I13">
-        <v>1.5</v>
+        <v>3.22</v>
       </c>
       <c r="J13">
-        <v>4.96</v>
+        <v>5.43</v>
       </c>
       <c r="K13">
-        <v>4.96</v>
+        <v>5.43</v>
       </c>
       <c r="L13">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="M13">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="N13">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="O13">
+        <v>93</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>94</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>100</v>
-      </c>
       <c r="R13">
-        <v>4.56</v>
+        <v>2.73</v>
       </c>
       <c r="S13">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="T13">
-        <v>11.41</v>
-      </c>
-      <c r="V13" t="s">
-        <v>31</v>
+        <v>10.43</v>
+      </c>
+      <c r="U13" t="s">
+        <v>30</v>
       </c>
       <c r="W13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14">
-        <v>1707181200</v>
+        <v>1707350400</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>6194</v>
+        <v>10000</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="E14" s="2">
-        <v>45328.04166666666</v>
+        <v>45330</v>
       </c>
       <c r="F14" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>4.62</v>
+        <v>5.54</v>
       </c>
       <c r="I14">
-        <v>1.68</v>
+        <v>2.98</v>
       </c>
       <c r="J14">
-        <v>4.62</v>
+        <v>5.54</v>
       </c>
       <c r="K14">
-        <v>4.62</v>
+        <v>5.54</v>
       </c>
       <c r="L14">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="M14">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="N14">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="O14">
+        <v>93</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>95</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>99</v>
-      </c>
       <c r="R14">
-        <v>3.53</v>
+        <v>3.25</v>
       </c>
       <c r="S14">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="T14">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="V14" t="s">
-        <v>31</v>
+        <v>11.46</v>
+      </c>
+      <c r="U14" t="s">
+        <v>30</v>
+      </c>
+      <c r="V14">
+        <v>0.11</v>
       </c>
       <c r="W14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15">
-        <v>1707184800</v>
+        <v>1707354000</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>5438</v>
+        <v>10000</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="E15" s="2">
-        <v>45328.08333333334</v>
+        <v>45330.04166666666</v>
       </c>
       <c r="F15" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>4.27</v>
+        <v>5.46</v>
       </c>
       <c r="I15">
-        <v>1.67</v>
+        <v>2.94</v>
       </c>
       <c r="J15">
-        <v>4.27</v>
+        <v>5.46</v>
       </c>
       <c r="K15">
-        <v>4.27</v>
+        <v>5.46</v>
       </c>
       <c r="L15">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="M15">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="N15">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="O15">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R15">
-        <v>2.95</v>
+        <v>3.17</v>
       </c>
       <c r="S15">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="T15">
-        <v>8.6</v>
-      </c>
-      <c r="V15" t="s">
-        <v>31</v>
+        <v>11.57</v>
+      </c>
+      <c r="U15" t="s">
+        <v>30</v>
       </c>
       <c r="W15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16">
-        <v>1707188400</v>
+        <v>1707357600</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>10000</v>
+        <v>8888</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E16" s="2">
-        <v>45328.125</v>
+        <v>45330.08333333334</v>
       </c>
       <c r="F16" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>4.13</v>
+        <v>5.42</v>
       </c>
       <c r="I16">
-        <v>1.81</v>
+        <v>2.97</v>
       </c>
       <c r="J16">
-        <v>4.13</v>
+        <v>5.42</v>
       </c>
       <c r="K16">
-        <v>4.13</v>
+        <v>5.42</v>
       </c>
       <c r="L16">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="M16">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="N16">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="O16">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R16">
-        <v>2.57</v>
+        <v>3.06</v>
       </c>
       <c r="S16">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="T16">
-        <v>7.58</v>
-      </c>
-      <c r="V16" t="s">
-        <v>31</v>
+        <v>11.11</v>
+      </c>
+      <c r="U16" t="s">
+        <v>30</v>
       </c>
       <c r="W16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17">
-        <v>1707192000</v>
+        <v>1707361200</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17">
-        <v>10000</v>
+        <v>6955</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E17" s="2">
-        <v>45328.16666666666</v>
+        <v>45330.125</v>
       </c>
       <c r="F17" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>4.03</v>
+        <v>5.36</v>
       </c>
       <c r="I17">
-        <v>1.81</v>
+        <v>3.09</v>
       </c>
       <c r="J17">
-        <v>4.03</v>
+        <v>5.36</v>
       </c>
       <c r="K17">
-        <v>4.03</v>
+        <v>5.36</v>
       </c>
       <c r="L17">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="M17">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="N17">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="O17">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R17">
-        <v>2.43</v>
+        <v>2.79</v>
       </c>
       <c r="S17">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T17">
-        <v>6.45</v>
-      </c>
-      <c r="V17" t="s">
-        <v>31</v>
+        <v>9.85</v>
+      </c>
+      <c r="U17" t="s">
+        <v>30</v>
       </c>
       <c r="W17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18">
-        <v>1707195600</v>
+        <v>1707364800</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>10000</v>
+        <v>8191</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E18" s="2">
-        <v>45328.20833333334</v>
+        <v>45330.16666666666</v>
       </c>
       <c r="F18" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>3.95</v>
+        <v>5.41</v>
       </c>
       <c r="I18">
-        <v>1.95</v>
+        <v>3.07</v>
       </c>
       <c r="J18">
-        <v>3.95</v>
+        <v>5.41</v>
       </c>
       <c r="K18">
-        <v>3.95</v>
+        <v>5.41</v>
       </c>
       <c r="L18">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="M18">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="N18">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="O18">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="R18">
-        <v>2.19</v>
+        <v>2.9</v>
       </c>
       <c r="S18">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="T18">
-        <v>5.34</v>
-      </c>
-      <c r="V18" t="s">
-        <v>31</v>
+        <v>9.94</v>
+      </c>
+      <c r="U18" t="s">
+        <v>30</v>
       </c>
       <c r="W18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19">
-        <v>1707199200</v>
+        <v>1707368400</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>10000</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="E19" s="2">
-        <v>45328.25</v>
+        <v>45330.20833333334</v>
       </c>
       <c r="F19" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>3.3</v>
+        <v>5.31</v>
       </c>
       <c r="I19">
-        <v>1.4</v>
+        <v>3.07</v>
       </c>
       <c r="J19">
-        <v>3.3</v>
+        <v>5.31</v>
       </c>
       <c r="K19">
-        <v>3.3</v>
+        <v>5.31</v>
       </c>
       <c r="L19">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="M19">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="N19">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="O19">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="R19">
-        <v>1.99</v>
+        <v>2.75</v>
       </c>
       <c r="S19">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="T19">
-        <v>4.2</v>
-      </c>
-      <c r="V19" t="s">
+        <v>7.76</v>
+      </c>
+      <c r="U19" t="s">
         <v>30</v>
       </c>
       <c r="W19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20">
-        <v>1707202800</v>
+        <v>1707372000</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>10000</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E20" s="2">
-        <v>45328.29166666666</v>
+        <v>45330.25</v>
       </c>
       <c r="F20" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H20">
-        <v>4.2</v>
+        <v>5.19</v>
       </c>
       <c r="I20">
-        <v>2.26</v>
+        <v>3.09</v>
       </c>
       <c r="J20">
-        <v>4.2</v>
+        <v>5.19</v>
       </c>
       <c r="K20">
-        <v>4.2</v>
+        <v>5.19</v>
       </c>
       <c r="L20">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="M20">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="N20">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="O20">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="R20">
-        <v>2.17</v>
+        <v>2.54</v>
       </c>
       <c r="S20">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="T20">
-        <v>4.85</v>
-      </c>
-      <c r="V20" t="s">
-        <v>30</v>
+        <v>6.74</v>
+      </c>
+      <c r="U20" t="s">
+        <v>29</v>
       </c>
       <c r="W20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21">
-        <v>1707206400</v>
+        <v>1707375600</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>10000</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="E21" s="2">
-        <v>45328.33333333334</v>
+        <v>45330.29166666666</v>
       </c>
       <c r="F21" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21">
-        <v>5.63</v>
+        <v>5.23</v>
       </c>
       <c r="I21">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J21">
-        <v>5.63</v>
+        <v>5.23</v>
       </c>
       <c r="K21">
-        <v>5.63</v>
+        <v>5.23</v>
       </c>
       <c r="L21">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="M21">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="N21">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="O21">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="R21">
-        <v>3.24</v>
+        <v>2.41</v>
       </c>
       <c r="S21">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="T21">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="V21" t="s">
-        <v>30</v>
+        <v>6.42</v>
+      </c>
+      <c r="U21" t="s">
+        <v>29</v>
       </c>
       <c r="W21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22">
-        <v>1707210000</v>
+        <v>1707379200</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>10000</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="E22" s="2">
-        <v>45328.375</v>
+        <v>45330.33333333334</v>
       </c>
       <c r="F22" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H22">
-        <v>6.47</v>
+        <v>5.38</v>
       </c>
       <c r="I22">
-        <v>4.27</v>
+        <v>3.33</v>
       </c>
       <c r="J22">
-        <v>6.47</v>
+        <v>5.38</v>
       </c>
       <c r="K22">
-        <v>6.47</v>
+        <v>5.38</v>
       </c>
       <c r="L22">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="M22">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="N22">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="O22">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="R22">
-        <v>3</v>
+        <v>2.53</v>
       </c>
       <c r="S22">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="T22">
-        <v>7.71</v>
-      </c>
-      <c r="V22" t="s">
-        <v>30</v>
+        <v>7.39</v>
+      </c>
+      <c r="U22" t="s">
+        <v>29</v>
       </c>
       <c r="W22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23">
-        <v>1707213600</v>
+        <v>1707382800</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>10000</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E23" s="2">
-        <v>45328.41666666666</v>
+        <v>45330.375</v>
       </c>
       <c r="F23" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23">
-        <v>7.45</v>
+        <v>5.75</v>
       </c>
       <c r="I23">
-        <v>4.98</v>
+        <v>3.73</v>
       </c>
       <c r="J23">
-        <v>7.45</v>
+        <v>5.75</v>
       </c>
       <c r="K23">
-        <v>7.45</v>
+        <v>5.75</v>
       </c>
       <c r="L23">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="M23">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="N23">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="O23">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="R23">
-        <v>3.79</v>
+        <v>2.57</v>
       </c>
       <c r="S23">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="T23">
-        <v>9</v>
-      </c>
-      <c r="V23" t="s">
-        <v>30</v>
+        <v>7.16</v>
+      </c>
+      <c r="U23" t="s">
+        <v>29</v>
       </c>
       <c r="W23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24">
-        <v>1707217200</v>
+        <v>1707386400</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>10000</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E24" s="2">
-        <v>45328.45833333334</v>
+        <v>45330.41666666666</v>
       </c>
       <c r="F24" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24">
-        <v>8.52</v>
+        <v>6.11</v>
       </c>
       <c r="I24">
-        <v>5.92</v>
+        <v>3.91</v>
       </c>
       <c r="J24">
-        <v>8.52</v>
+        <v>6.11</v>
       </c>
       <c r="K24">
-        <v>8.52</v>
+        <v>6.11</v>
       </c>
       <c r="L24">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="M24">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="N24">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="O24">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="R24">
-        <v>4.56</v>
+        <v>2.9</v>
       </c>
       <c r="S24">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="T24">
-        <v>11.02</v>
-      </c>
-      <c r="V24" t="s">
-        <v>30</v>
+        <v>9.789999999999999</v>
+      </c>
+      <c r="U24" t="s">
+        <v>29</v>
       </c>
       <c r="W24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25">
-        <v>1707220800</v>
+        <v>1707390000</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>10000</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E25" s="2">
-        <v>45328.5</v>
+        <v>45330.45833333334</v>
       </c>
       <c r="F25" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25">
-        <v>8.800000000000001</v>
+        <v>6.56</v>
       </c>
       <c r="I25">
-        <v>6.21</v>
+        <v>4.54</v>
       </c>
       <c r="J25">
-        <v>8.800000000000001</v>
+        <v>6.56</v>
       </c>
       <c r="K25">
-        <v>8.800000000000001</v>
+        <v>6.56</v>
       </c>
       <c r="L25">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="M25">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="N25">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="O25">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="R25">
-        <v>4.7</v>
+        <v>2.77</v>
       </c>
       <c r="S25">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T25">
-        <v>12.1</v>
-      </c>
-      <c r="V25" t="s">
-        <v>30</v>
+        <v>10.19</v>
+      </c>
+      <c r="U25" t="s">
+        <v>29</v>
       </c>
       <c r="W25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26">
-        <v>1707224400</v>
+        <v>1707393600</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>10000</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E26" s="2">
-        <v>45328.54166666666</v>
+        <v>45330.5</v>
       </c>
       <c r="F26" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26">
-        <v>8.98</v>
+        <v>6.68</v>
       </c>
       <c r="I26">
-        <v>6.45</v>
+        <v>4.51</v>
       </c>
       <c r="J26">
-        <v>8.98</v>
+        <v>6.68</v>
       </c>
       <c r="K26">
-        <v>8.98</v>
+        <v>6.68</v>
       </c>
       <c r="L26">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="M26">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="N26">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="O26">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="R26">
-        <v>4.67</v>
+        <v>3.02</v>
       </c>
       <c r="S26">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="T26">
-        <v>10.7</v>
-      </c>
-      <c r="V26" t="s">
-        <v>30</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="U26" t="s">
+        <v>29</v>
       </c>
       <c r="W26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27">
-        <v>1707228000</v>
+        <v>1707397200</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C27">
         <v>10000</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="E27" s="2">
-        <v>45328.58333333334</v>
+        <v>45330.54166666666</v>
       </c>
       <c r="F27" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27">
-        <v>8.25</v>
+        <v>6.62</v>
       </c>
       <c r="I27">
-        <v>5.72</v>
+        <v>4.93</v>
       </c>
       <c r="J27">
-        <v>8.25</v>
+        <v>6.62</v>
       </c>
       <c r="K27">
-        <v>8.25</v>
+        <v>6.62</v>
       </c>
       <c r="L27">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="M27">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="N27">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="O27">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="R27">
-        <v>4.27</v>
+        <v>2.36</v>
       </c>
       <c r="S27">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="T27">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="V27" t="s">
-        <v>30</v>
+        <v>6.27</v>
+      </c>
+      <c r="U27" t="s">
+        <v>29</v>
       </c>
       <c r="W27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28">
-        <v>1707231600</v>
+        <v>1707400800</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -2630,341 +2615,347 @@
         <v>10000</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="E28" s="2">
-        <v>45328.625</v>
+        <v>45330.58333333334</v>
       </c>
       <c r="F28" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H28">
-        <v>7.3</v>
+        <v>6.25</v>
       </c>
       <c r="I28">
-        <v>5.05</v>
+        <v>4.77</v>
       </c>
       <c r="J28">
-        <v>7.3</v>
+        <v>6.25</v>
       </c>
       <c r="K28">
-        <v>7.3</v>
+        <v>6.25</v>
       </c>
       <c r="L28">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="M28">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="N28">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="O28">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="R28">
-        <v>3.34</v>
+        <v>2.06</v>
       </c>
       <c r="S28">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="T28">
-        <v>7.73</v>
-      </c>
-      <c r="V28" t="s">
-        <v>30</v>
+        <v>5.14</v>
+      </c>
+      <c r="U28" t="s">
+        <v>29</v>
+      </c>
+      <c r="V28">
+        <v>0.16</v>
       </c>
       <c r="W28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29">
-        <v>1707235200</v>
+        <v>1707404400</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <v>10000</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="E29" s="2">
-        <v>45328.66666666666</v>
+        <v>45330.625</v>
       </c>
       <c r="F29" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G29">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H29">
-        <v>6.3</v>
+        <v>6.22</v>
       </c>
       <c r="I29">
-        <v>4.35</v>
+        <v>4.8</v>
       </c>
       <c r="J29">
-        <v>6.3</v>
+        <v>6.22</v>
       </c>
       <c r="K29">
-        <v>6.3</v>
+        <v>6.22</v>
       </c>
       <c r="L29">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="M29">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="N29">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="O29">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="R29">
-        <v>2.62</v>
+        <v>1.99</v>
       </c>
       <c r="S29">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="T29">
-        <v>6.36</v>
-      </c>
-      <c r="V29" t="s">
-        <v>31</v>
+        <v>4.75</v>
+      </c>
+      <c r="U29" t="s">
+        <v>29</v>
       </c>
       <c r="W29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30">
-        <v>1707238800</v>
+        <v>1707408000</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30">
         <v>10000</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="E30" s="2">
-        <v>45328.70833333334</v>
+        <v>45330.66666666666</v>
       </c>
       <c r="F30" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G30">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H30">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="I30">
-        <v>4.17</v>
+        <v>4.58</v>
       </c>
       <c r="J30">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="K30">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="L30">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="M30">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="N30">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="O30">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="R30">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="S30">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="T30">
-        <v>6.29</v>
-      </c>
-      <c r="V30" t="s">
-        <v>31</v>
+        <v>5.19</v>
+      </c>
+      <c r="U30" t="s">
+        <v>30</v>
       </c>
       <c r="W30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31">
-        <v>1707242400</v>
+        <v>1707411600</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>10000</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="E31" s="2">
-        <v>45328.75</v>
+        <v>45330.70833333334</v>
       </c>
       <c r="F31" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G31">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H31">
-        <v>6.12</v>
+        <v>6.37</v>
       </c>
       <c r="I31">
-        <v>3.87</v>
+        <v>4.61</v>
       </c>
       <c r="J31">
-        <v>6.12</v>
+        <v>6.37</v>
       </c>
       <c r="K31">
-        <v>6.12</v>
+        <v>6.37</v>
       </c>
       <c r="L31">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="M31">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="N31">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="O31">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="R31">
-        <v>2.97</v>
+        <v>2.39</v>
       </c>
       <c r="S31">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="T31">
-        <v>7.54</v>
-      </c>
-      <c r="V31" t="s">
-        <v>31</v>
+        <v>6.68</v>
+      </c>
+      <c r="U31" t="s">
+        <v>30</v>
+      </c>
+      <c r="V31">
+        <v>0.16</v>
       </c>
       <c r="W31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32">
-        <v>1707246000</v>
+        <v>1707415200</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32">
         <v>10000</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="E32" s="2">
-        <v>45328.79166666666</v>
+        <v>45330.75</v>
       </c>
       <c r="F32" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G32">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H32">
-        <v>5.79</v>
+        <v>6.68</v>
       </c>
       <c r="I32">
-        <v>3.49</v>
+        <v>4.81</v>
       </c>
       <c r="J32">
-        <v>5.79</v>
+        <v>6.68</v>
       </c>
       <c r="K32">
-        <v>5.79</v>
+        <v>6.68</v>
       </c>
       <c r="L32">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="M32">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="N32">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="O32">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="R32">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="S32">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T32">
-        <v>7.8</v>
-      </c>
-      <c r="V32" t="s">
-        <v>31</v>
+        <v>8.710000000000001</v>
+      </c>
+      <c r="U32" t="s">
+        <v>30</v>
       </c>
       <c r="W32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33">
-        <v>1707249600</v>
+        <v>1707418800</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33">
         <v>10000</v>
@@ -2973,66 +2964,66 @@
         <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>45328.83333333334</v>
+        <v>45330.79166666666</v>
       </c>
       <c r="F33" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G33">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H33">
-        <v>5.68</v>
+        <v>6.39</v>
       </c>
       <c r="I33">
-        <v>3.7</v>
+        <v>4.88</v>
       </c>
       <c r="J33">
-        <v>5.68</v>
+        <v>6.39</v>
       </c>
       <c r="K33">
-        <v>5.68</v>
+        <v>6.39</v>
       </c>
       <c r="L33">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="M33">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="N33">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="O33">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="R33">
-        <v>2.51</v>
+        <v>2.11</v>
       </c>
       <c r="S33">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="T33">
-        <v>6.6</v>
-      </c>
-      <c r="V33" t="s">
-        <v>31</v>
+        <v>5.09</v>
+      </c>
+      <c r="U33" t="s">
+        <v>30</v>
       </c>
       <c r="W33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34">
-        <v>1707253200</v>
+        <v>1707422400</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C34">
         <v>10000</v>
@@ -3041,66 +3032,66 @@
         <v>0</v>
       </c>
       <c r="E34" s="2">
-        <v>45328.875</v>
+        <v>45330.83333333334</v>
       </c>
       <c r="F34" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G34">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H34">
-        <v>5.6</v>
+        <v>6.23</v>
       </c>
       <c r="I34">
-        <v>3.7</v>
+        <v>4.86</v>
       </c>
       <c r="J34">
-        <v>5.6</v>
+        <v>6.23</v>
       </c>
       <c r="K34">
-        <v>5.6</v>
+        <v>6.23</v>
       </c>
       <c r="L34">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="M34">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="N34">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="O34">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="R34">
-        <v>2.39</v>
+        <v>1.94</v>
       </c>
       <c r="S34">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="T34">
-        <v>6.88</v>
-      </c>
-      <c r="V34" t="s">
-        <v>31</v>
+        <v>4.46</v>
+      </c>
+      <c r="U34" t="s">
+        <v>30</v>
       </c>
       <c r="W34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35">
-        <v>1707256800</v>
+        <v>1707426000</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C35">
         <v>10000</v>
@@ -3109,34 +3100,34 @@
         <v>0</v>
       </c>
       <c r="E35" s="2">
-        <v>45328.91666666666</v>
+        <v>45330.875</v>
       </c>
       <c r="F35" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G35">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H35">
-        <v>5.62</v>
+        <v>6.21</v>
       </c>
       <c r="I35">
-        <v>3.27</v>
+        <v>4.7</v>
       </c>
       <c r="J35">
-        <v>5.62</v>
+        <v>6.21</v>
       </c>
       <c r="K35">
-        <v>5.62</v>
+        <v>6.21</v>
       </c>
       <c r="L35">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="M35">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="N35">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="O35">
         <v>90</v>
@@ -3145,30 +3136,30 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="R35">
-        <v>2.97</v>
+        <v>2.08</v>
       </c>
       <c r="S35">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="T35">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="V35" t="s">
-        <v>31</v>
+        <v>4.87</v>
+      </c>
+      <c r="U35" t="s">
+        <v>30</v>
       </c>
       <c r="W35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36">
-        <v>1707260400</v>
+        <v>1707429600</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36">
         <v>10000</v>
@@ -3177,66 +3168,66 @@
         <v>0</v>
       </c>
       <c r="E36" s="2">
-        <v>45328.95833333334</v>
+        <v>45330.91666666666</v>
       </c>
       <c r="F36" s="2">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="G36">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H36">
-        <v>5.75</v>
+        <v>6.21</v>
       </c>
       <c r="I36">
-        <v>2.73</v>
+        <v>4.94</v>
       </c>
       <c r="J36">
-        <v>5.75</v>
+        <v>6.21</v>
       </c>
       <c r="K36">
-        <v>5.75</v>
+        <v>6.21</v>
       </c>
       <c r="L36">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="M36">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="N36">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="O36">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="R36">
-        <v>4.09</v>
+        <v>1.84</v>
       </c>
       <c r="S36">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="T36">
-        <v>11.12</v>
-      </c>
-      <c r="V36" t="s">
-        <v>31</v>
+        <v>4.35</v>
+      </c>
+      <c r="U36" t="s">
+        <v>30</v>
       </c>
       <c r="W36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37">
-        <v>1707264000</v>
+        <v>1707433200</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C37">
         <v>10000</v>
@@ -3245,66 +3236,66 @@
         <v>0</v>
       </c>
       <c r="E37" s="2">
-        <v>45329</v>
+        <v>45330.95833333334</v>
       </c>
       <c r="F37" s="2">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H37">
-        <v>5.66</v>
+        <v>6.06</v>
       </c>
       <c r="I37">
-        <v>2.51</v>
+        <v>4.96</v>
       </c>
       <c r="J37">
-        <v>5.66</v>
+        <v>6.06</v>
       </c>
       <c r="K37">
-        <v>5.66</v>
+        <v>6.06</v>
       </c>
       <c r="L37">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="M37">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="N37">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="O37">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="R37">
-        <v>4.29</v>
+        <v>1.66</v>
       </c>
       <c r="S37">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="T37">
-        <v>11.4</v>
-      </c>
-      <c r="V37" t="s">
-        <v>31</v>
+        <v>3.25</v>
+      </c>
+      <c r="U37" t="s">
+        <v>30</v>
       </c>
       <c r="W37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38">
-        <v>1707267600</v>
+        <v>1707436800</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38">
         <v>10000</v>
@@ -3313,66 +3304,66 @@
         <v>0</v>
       </c>
       <c r="E38" s="2">
-        <v>45329.04166666666</v>
+        <v>45331</v>
       </c>
       <c r="F38" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>5.43</v>
+        <v>6.01</v>
       </c>
       <c r="I38">
-        <v>2.18</v>
+        <v>4.83</v>
       </c>
       <c r="J38">
-        <v>5.43</v>
+        <v>6.01</v>
       </c>
       <c r="K38">
-        <v>5.43</v>
+        <v>6.01</v>
       </c>
       <c r="L38">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="M38">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="N38">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="O38">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R38">
-        <v>4.39</v>
+        <v>1.73</v>
       </c>
       <c r="S38">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="T38">
-        <v>12.93</v>
-      </c>
-      <c r="V38" t="s">
-        <v>31</v>
+        <v>3.18</v>
+      </c>
+      <c r="U38" t="s">
+        <v>30</v>
       </c>
       <c r="W38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:23">
       <c r="A39">
-        <v>1707271200</v>
+        <v>1707440400</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C39">
         <v>10000</v>
@@ -3381,66 +3372,66 @@
         <v>0</v>
       </c>
       <c r="E39" s="2">
-        <v>45329.08333333334</v>
+        <v>45331.04166666666</v>
       </c>
       <c r="F39" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>5.15</v>
+        <v>5.93</v>
       </c>
       <c r="I39">
-        <v>1.95</v>
+        <v>4.79</v>
       </c>
       <c r="J39">
-        <v>5.15</v>
+        <v>5.93</v>
       </c>
       <c r="K39">
-        <v>5.15</v>
+        <v>5.93</v>
       </c>
       <c r="L39">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="M39">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="N39">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="O39">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="R39">
-        <v>4.17</v>
+        <v>1.68</v>
       </c>
       <c r="S39">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="T39">
-        <v>12.95</v>
-      </c>
-      <c r="V39" t="s">
-        <v>31</v>
+        <v>2.62</v>
+      </c>
+      <c r="U39" t="s">
+        <v>30</v>
       </c>
       <c r="W39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40">
-        <v>1707274800</v>
+        <v>1707444000</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C40">
         <v>10000</v>
@@ -3449,66 +3440,66 @@
         <v>0</v>
       </c>
       <c r="E40" s="2">
-        <v>45329.125</v>
+        <v>45331.08333333334</v>
       </c>
       <c r="F40" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>5.16</v>
+        <v>5.91</v>
       </c>
       <c r="I40">
-        <v>1.89</v>
+        <v>4.9</v>
       </c>
       <c r="J40">
-        <v>5.16</v>
+        <v>5.91</v>
       </c>
       <c r="K40">
-        <v>5.16</v>
+        <v>5.91</v>
       </c>
       <c r="L40">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="M40">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="N40">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="O40">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="R40">
-        <v>4.29</v>
+        <v>1.57</v>
       </c>
       <c r="S40">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="T40">
-        <v>13.45</v>
-      </c>
-      <c r="V40" t="s">
-        <v>31</v>
+        <v>2.18</v>
+      </c>
+      <c r="U40" t="s">
+        <v>30</v>
       </c>
       <c r="W40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:23">
       <c r="A41">
-        <v>1707278400</v>
+        <v>1707447600</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C41">
         <v>10000</v>
@@ -3517,66 +3508,66 @@
         <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>45329.16666666666</v>
+        <v>45331.125</v>
       </c>
       <c r="F41" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41">
-        <v>4.98</v>
+        <v>5.97</v>
       </c>
       <c r="I41">
-        <v>1.97</v>
+        <v>5.05</v>
       </c>
       <c r="J41">
-        <v>4.98</v>
+        <v>5.97</v>
       </c>
       <c r="K41">
-        <v>4.98</v>
+        <v>5.97</v>
       </c>
       <c r="L41">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="M41">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="N41">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="O41">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P41">
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="R41">
-        <v>3.77</v>
+        <v>1.5</v>
       </c>
       <c r="S41">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="T41">
-        <v>11.59</v>
-      </c>
-      <c r="V41" t="s">
-        <v>31</v>
+        <v>1.98</v>
+      </c>
+      <c r="U41" t="s">
+        <v>30</v>
       </c>
       <c r="W41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:23">
       <c r="A42">
-        <v>1707282000</v>
+        <v>1707451200</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>10000</v>
@@ -3585,2216 +3576,2267 @@
         <v>0</v>
       </c>
       <c r="E42" s="2">
-        <v>45329.20833333334</v>
+        <v>45331.16666666666</v>
       </c>
       <c r="F42" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <v>4.6</v>
+        <v>5.63</v>
       </c>
       <c r="I42">
-        <v>1.92</v>
+        <v>4.65</v>
       </c>
       <c r="J42">
-        <v>4.6</v>
+        <v>5.63</v>
       </c>
       <c r="K42">
-        <v>4.6</v>
+        <v>5.63</v>
       </c>
       <c r="L42">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="M42">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="N42">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="O42">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R42">
-        <v>3.14</v>
+        <v>1.51</v>
       </c>
       <c r="S42">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="T42">
-        <v>10.12</v>
-      </c>
-      <c r="V42" t="s">
-        <v>31</v>
+        <v>1.65</v>
+      </c>
+      <c r="U42" t="s">
+        <v>30</v>
       </c>
       <c r="W42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:23">
       <c r="A43">
-        <v>1707285600</v>
+        <v>1707454800</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43">
-        <v>4531</v>
+        <v>10000</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" s="2">
-        <v>45329.25</v>
+        <v>45331.20833333334</v>
       </c>
       <c r="F43" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H43">
-        <v>4.65</v>
+        <v>5.97</v>
       </c>
       <c r="I43">
-        <v>1.98</v>
+        <v>4.84</v>
       </c>
       <c r="J43">
-        <v>4.65</v>
+        <v>5.97</v>
       </c>
       <c r="K43">
-        <v>4.65</v>
+        <v>5.97</v>
       </c>
       <c r="L43">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="M43">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="N43">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="O43">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="P43">
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="R43">
-        <v>3.14</v>
+        <v>1.68</v>
       </c>
       <c r="S43">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="T43">
-        <v>10.5</v>
-      </c>
-      <c r="V43" t="s">
+        <v>1.89</v>
+      </c>
+      <c r="U43" t="s">
         <v>30</v>
       </c>
       <c r="W43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:23">
       <c r="A44">
-        <v>1707289200</v>
+        <v>1707458400</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C44">
-        <v>2959</v>
+        <v>10000</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" s="2">
-        <v>45329.29166666666</v>
+        <v>45331.25</v>
       </c>
       <c r="F44" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H44">
-        <v>4.99</v>
+        <v>6.03</v>
       </c>
       <c r="I44">
-        <v>2.3</v>
+        <v>5.24</v>
       </c>
       <c r="J44">
-        <v>4.99</v>
+        <v>6.03</v>
       </c>
       <c r="K44">
-        <v>4.99</v>
+        <v>6.03</v>
       </c>
       <c r="L44">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="M44">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="N44">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="O44">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R44">
-        <v>3.28</v>
+        <v>1.41</v>
       </c>
       <c r="S44">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="T44">
-        <v>9.52</v>
-      </c>
-      <c r="V44" t="s">
-        <v>30</v>
+        <v>1.7</v>
+      </c>
+      <c r="U44" t="s">
+        <v>29</v>
       </c>
       <c r="W44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:23">
       <c r="A45">
-        <v>1707292800</v>
+        <v>1707462000</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C45">
-        <v>3011</v>
+        <v>10000</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E45" s="2">
-        <v>45329.33333333334</v>
+        <v>45331.29166666666</v>
       </c>
       <c r="F45" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H45">
-        <v>5.39</v>
+        <v>6.24</v>
       </c>
       <c r="I45">
-        <v>2.76</v>
+        <v>5.34</v>
       </c>
       <c r="J45">
-        <v>5.39</v>
+        <v>6.24</v>
       </c>
       <c r="K45">
-        <v>5.39</v>
+        <v>6.24</v>
       </c>
       <c r="L45">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="M45">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="N45">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="O45">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="R45">
-        <v>3.31</v>
+        <v>1.52</v>
       </c>
       <c r="S45">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="T45">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="V45" t="s">
-        <v>30</v>
+        <v>2.41</v>
+      </c>
+      <c r="U45" t="s">
+        <v>29</v>
       </c>
       <c r="W45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:23">
       <c r="A46">
-        <v>1707296400</v>
+        <v>1707465600</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C46">
-        <v>4861</v>
+        <v>10000</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E46" s="2">
-        <v>45329.375</v>
+        <v>45331.33333333334</v>
       </c>
       <c r="F46" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H46">
-        <v>6.25</v>
+        <v>6.26</v>
       </c>
       <c r="I46">
-        <v>3.49</v>
+        <v>6.26</v>
       </c>
       <c r="J46">
-        <v>6.25</v>
+        <v>6.26</v>
       </c>
       <c r="K46">
-        <v>6.25</v>
+        <v>6.26</v>
       </c>
       <c r="L46">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="M46">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="N46">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="O46">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="P46">
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="R46">
-        <v>3.82</v>
+        <v>1.17</v>
       </c>
       <c r="S46">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="T46">
-        <v>10.05</v>
-      </c>
-      <c r="V46" t="s">
-        <v>30</v>
+        <v>2.32</v>
+      </c>
+      <c r="U46" t="s">
+        <v>29</v>
       </c>
       <c r="W46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:23">
       <c r="A47">
-        <v>1707300000</v>
+        <v>1707469200</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C47">
         <v>10000</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E47" s="2">
-        <v>45329.41666666666</v>
+        <v>45331.375</v>
       </c>
       <c r="F47" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H47">
-        <v>7.55</v>
+        <v>6.33</v>
       </c>
       <c r="I47">
-        <v>4.5</v>
+        <v>6.33</v>
       </c>
       <c r="J47">
-        <v>7.55</v>
+        <v>6.33</v>
       </c>
       <c r="K47">
-        <v>7.55</v>
+        <v>6.33</v>
       </c>
       <c r="L47">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="M47">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="N47">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="O47">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="R47">
-        <v>5.07</v>
+        <v>1.08</v>
       </c>
       <c r="S47">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="T47">
-        <v>13.88</v>
-      </c>
-      <c r="V47" t="s">
-        <v>30</v>
+        <v>2.24</v>
+      </c>
+      <c r="U47" t="s">
+        <v>29</v>
       </c>
       <c r="W47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:23">
       <c r="A48">
-        <v>1707303600</v>
+        <v>1707472800</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C48">
         <v>10000</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E48" s="2">
-        <v>45329.45833333334</v>
+        <v>45331.41666666666</v>
       </c>
       <c r="F48" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G48">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H48">
-        <v>8.83</v>
+        <v>6.64</v>
       </c>
       <c r="I48">
-        <v>5.53</v>
+        <v>6.64</v>
       </c>
       <c r="J48">
-        <v>8.83</v>
+        <v>6.64</v>
       </c>
       <c r="K48">
-        <v>8.83</v>
+        <v>6.64</v>
       </c>
       <c r="L48">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="M48">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="N48">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="O48">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="R48">
-        <v>6.7</v>
+        <v>1.31</v>
       </c>
       <c r="S48">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="T48">
-        <v>16.47</v>
-      </c>
-      <c r="V48" t="s">
-        <v>30</v>
+        <v>2.67</v>
+      </c>
+      <c r="U48" t="s">
+        <v>29</v>
       </c>
       <c r="W48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:23">
       <c r="A49">
-        <v>1707307200</v>
+        <v>1707476400</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C49">
         <v>10000</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E49" s="2">
-        <v>45329.5</v>
+        <v>45331.45833333334</v>
       </c>
       <c r="F49" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G49">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49">
-        <v>9.34</v>
+        <v>6.8</v>
       </c>
       <c r="I49">
-        <v>6.16</v>
+        <v>5.79</v>
       </c>
       <c r="J49">
-        <v>9.34</v>
+        <v>6.8</v>
       </c>
       <c r="K49">
-        <v>9.34</v>
+        <v>6.8</v>
       </c>
       <c r="L49">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M49">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="N49">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="O49">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="R49">
-        <v>6.78</v>
+        <v>1.68</v>
       </c>
       <c r="S49">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="T49">
-        <v>16.41</v>
-      </c>
-      <c r="V49" t="s">
-        <v>30</v>
+        <v>4.35</v>
+      </c>
+      <c r="U49" t="s">
+        <v>29</v>
       </c>
       <c r="W49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:23">
       <c r="A50">
-        <v>1707310800</v>
+        <v>1707480000</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C50">
         <v>10000</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E50" s="2">
-        <v>45329.54166666666</v>
+        <v>45331.5</v>
       </c>
       <c r="F50" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G50">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H50">
-        <v>9.369999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="I50">
-        <v>6.09</v>
+        <v>6.6</v>
       </c>
       <c r="J50">
-        <v>9.369999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="K50">
-        <v>9.369999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="L50">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M50">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="N50">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="O50">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="P50">
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="R50">
-        <v>7.12</v>
+        <v>1.19</v>
       </c>
       <c r="S50">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="T50">
-        <v>15.28</v>
-      </c>
-      <c r="V50" t="s">
-        <v>30</v>
+        <v>3.48</v>
+      </c>
+      <c r="U50" t="s">
+        <v>29</v>
       </c>
       <c r="W50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:23">
       <c r="A51">
-        <v>1707314400</v>
+        <v>1707483600</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C51">
         <v>10000</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="E51" s="2">
-        <v>45329.58333333334</v>
+        <v>45331.54166666666</v>
       </c>
       <c r="F51" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G51">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H51">
-        <v>8.93</v>
+        <v>6.48</v>
       </c>
       <c r="I51">
-        <v>5.69</v>
+        <v>6.48</v>
       </c>
       <c r="J51">
-        <v>8.93</v>
+        <v>6.48</v>
       </c>
       <c r="K51">
-        <v>8.93</v>
+        <v>6.48</v>
       </c>
       <c r="L51">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M51">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="N51">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="O51">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="R51">
-        <v>6.58</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S51">
-        <v>267</v>
+        <v>185</v>
       </c>
       <c r="T51">
-        <v>13.12</v>
-      </c>
-      <c r="V51" t="s">
-        <v>30</v>
+        <v>1.81</v>
+      </c>
+      <c r="U51" t="s">
+        <v>29</v>
       </c>
       <c r="W51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:23">
       <c r="A52">
-        <v>1707318000</v>
+        <v>1707487200</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>10000</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="E52" s="2">
-        <v>45329.625</v>
+        <v>45331.58333333334</v>
       </c>
       <c r="F52" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G52">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H52">
-        <v>8.1</v>
+        <v>6.46</v>
       </c>
       <c r="I52">
-        <v>5.31</v>
+        <v>6.46</v>
       </c>
       <c r="J52">
-        <v>8.1</v>
+        <v>6.46</v>
       </c>
       <c r="K52">
-        <v>8.1</v>
+        <v>6.46</v>
       </c>
       <c r="L52">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="M52">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="N52">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="O52">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="P52">
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="R52">
-        <v>4.78</v>
+        <v>0.46</v>
       </c>
       <c r="S52">
-        <v>265</v>
+        <v>163</v>
       </c>
       <c r="T52">
-        <v>10.47</v>
-      </c>
-      <c r="V52" t="s">
-        <v>30</v>
+        <v>1.47</v>
+      </c>
+      <c r="U52" t="s">
+        <v>29</v>
+      </c>
+      <c r="V52">
+        <v>0.11</v>
       </c>
       <c r="W52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:23">
       <c r="A53">
-        <v>1707321600</v>
+        <v>1707490800</v>
       </c>
       <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53">
+        <v>10000</v>
+      </c>
+      <c r="D53">
+        <v>0.55</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45331.625</v>
+      </c>
+      <c r="F53" s="2">
+        <v>45331</v>
+      </c>
+      <c r="G53">
+        <v>15</v>
+      </c>
+      <c r="H53">
+        <v>6.28</v>
+      </c>
+      <c r="I53">
+        <v>6.28</v>
+      </c>
+      <c r="J53">
+        <v>6.28</v>
+      </c>
+      <c r="K53">
+        <v>6.28</v>
+      </c>
+      <c r="L53">
+        <v>1005</v>
+      </c>
+      <c r="M53">
+        <v>1005</v>
+      </c>
+      <c r="N53">
+        <v>946</v>
+      </c>
+      <c r="O53">
+        <v>89</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>100</v>
+      </c>
+      <c r="R53">
+        <v>0.58</v>
+      </c>
+      <c r="S53">
+        <v>208</v>
+      </c>
+      <c r="T53">
+        <v>1.65</v>
+      </c>
+      <c r="U53" t="s">
         <v>29</v>
       </c>
-      <c r="C53">
-        <v>10000</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53" s="2">
-        <v>45329.66666666666</v>
-      </c>
-      <c r="F53" s="2">
-        <v>45329</v>
-      </c>
-      <c r="G53">
-        <v>16</v>
-      </c>
-      <c r="H53">
-        <v>6.25</v>
-      </c>
-      <c r="I53">
-        <v>4.22</v>
-      </c>
-      <c r="J53">
-        <v>6.25</v>
-      </c>
-      <c r="K53">
-        <v>6.25</v>
-      </c>
-      <c r="L53">
-        <v>1009</v>
-      </c>
-      <c r="M53">
-        <v>1009</v>
-      </c>
-      <c r="N53">
-        <v>950</v>
-      </c>
-      <c r="O53">
-        <v>85</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>84</v>
-      </c>
-      <c r="R53">
-        <v>2.7</v>
-      </c>
-      <c r="S53">
-        <v>256</v>
-      </c>
-      <c r="T53">
-        <v>6.86</v>
-      </c>
-      <c r="V53" t="s">
-        <v>31</v>
+      <c r="V53">
+        <v>0.34</v>
       </c>
       <c r="W53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:23">
       <c r="A54">
-        <v>1707325200</v>
+        <v>1707494400</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C54">
         <v>10000</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="E54" s="2">
-        <v>45329.70833333334</v>
+        <v>45331.66666666666</v>
       </c>
       <c r="F54" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G54">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H54">
-        <v>5.31</v>
+        <v>6.37</v>
       </c>
       <c r="I54">
-        <v>3.37</v>
+        <v>6.37</v>
       </c>
       <c r="J54">
-        <v>5.31</v>
+        <v>6.37</v>
       </c>
       <c r="K54">
-        <v>5.31</v>
+        <v>6.37</v>
       </c>
       <c r="L54">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="M54">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="N54">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="O54">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="R54">
-        <v>2.38</v>
+        <v>0.88</v>
       </c>
       <c r="S54">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="T54">
-        <v>5.25</v>
-      </c>
-      <c r="V54" t="s">
-        <v>31</v>
+        <v>1.47</v>
+      </c>
+      <c r="U54" t="s">
+        <v>30</v>
+      </c>
+      <c r="V54">
+        <v>0.27</v>
       </c>
       <c r="W54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:23">
       <c r="A55">
-        <v>1707328800</v>
+        <v>1707498000</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C55">
         <v>10000</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="E55" s="2">
-        <v>45329.75</v>
+        <v>45331.70833333334</v>
       </c>
       <c r="F55" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G55">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H55">
-        <v>4.99</v>
+        <v>6.7</v>
       </c>
       <c r="I55">
-        <v>3.07</v>
+        <v>6.7</v>
       </c>
       <c r="J55">
-        <v>4.99</v>
+        <v>6.7</v>
       </c>
       <c r="K55">
-        <v>4.99</v>
+        <v>6.7</v>
       </c>
       <c r="L55">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="M55">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="N55">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="O55">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="R55">
-        <v>2.29</v>
+        <v>0.59</v>
       </c>
       <c r="S55">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="T55">
-        <v>5.62</v>
-      </c>
-      <c r="V55" t="s">
-        <v>31</v>
+        <v>0.96</v>
+      </c>
+      <c r="U55" t="s">
+        <v>30</v>
       </c>
       <c r="W55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:23">
       <c r="A56">
-        <v>1707332400</v>
+        <v>1707501600</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C56">
         <v>10000</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="E56" s="2">
-        <v>45329.79166666666</v>
+        <v>45331.75</v>
       </c>
       <c r="F56" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G56">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H56">
-        <v>4.86</v>
+        <v>6.64</v>
       </c>
       <c r="I56">
-        <v>2.97</v>
+        <v>6.64</v>
       </c>
       <c r="J56">
-        <v>4.86</v>
+        <v>6.64</v>
       </c>
       <c r="K56">
-        <v>4.86</v>
+        <v>6.64</v>
       </c>
       <c r="L56">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="M56">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="N56">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="O56">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="R56">
-        <v>2.24</v>
+        <v>0.6</v>
       </c>
       <c r="S56">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="T56">
-        <v>4.82</v>
-      </c>
-      <c r="V56" t="s">
-        <v>31</v>
+        <v>1.01</v>
+      </c>
+      <c r="U56" t="s">
+        <v>30</v>
+      </c>
+      <c r="V56">
+        <v>0.17</v>
       </c>
       <c r="W56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:23">
       <c r="A57">
-        <v>1707336000</v>
+        <v>1707505200</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C57">
         <v>10000</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="E57" s="2">
-        <v>45329.83333333334</v>
+        <v>45331.79166666666</v>
       </c>
       <c r="F57" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G57">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H57">
-        <v>4.55</v>
+        <v>6.68</v>
       </c>
       <c r="I57">
-        <v>2.54</v>
+        <v>6.68</v>
       </c>
       <c r="J57">
-        <v>4.55</v>
+        <v>6.68</v>
       </c>
       <c r="K57">
-        <v>4.55</v>
+        <v>6.68</v>
       </c>
       <c r="L57">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="M57">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="N57">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="O57">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="R57">
-        <v>2.31</v>
+        <v>1.22</v>
       </c>
       <c r="S57">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="T57">
-        <v>4.96</v>
-      </c>
-      <c r="V57" t="s">
-        <v>31</v>
+        <v>1.54</v>
+      </c>
+      <c r="U57" t="s">
+        <v>30</v>
+      </c>
+      <c r="V57">
+        <v>0.34</v>
       </c>
       <c r="W57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:23">
       <c r="A58">
-        <v>1707339600</v>
+        <v>1707508800</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C58">
         <v>10000</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="E58" s="2">
-        <v>45329.875</v>
+        <v>45331.83333333334</v>
       </c>
       <c r="F58" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G58">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H58">
-        <v>4.33</v>
+        <v>6.74</v>
       </c>
       <c r="I58">
-        <v>2.33</v>
+        <v>5.93</v>
       </c>
       <c r="J58">
-        <v>4.33</v>
+        <v>6.74</v>
       </c>
       <c r="K58">
-        <v>4.33</v>
+        <v>6.74</v>
       </c>
       <c r="L58">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M58">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="N58">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="O58">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="R58">
-        <v>2.26</v>
+        <v>1.5</v>
       </c>
       <c r="S58">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="T58">
-        <v>4.82</v>
-      </c>
-      <c r="V58" t="s">
-        <v>31</v>
+        <v>2.72</v>
+      </c>
+      <c r="U58" t="s">
+        <v>30</v>
+      </c>
+      <c r="V58">
+        <v>0.5</v>
       </c>
       <c r="W58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:23">
       <c r="A59">
-        <v>1707343200</v>
+        <v>1707512400</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C59">
         <v>10000</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E59" s="2">
-        <v>45329.91666666666</v>
+        <v>45331.875</v>
       </c>
       <c r="F59" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G59">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H59">
-        <v>4.46</v>
+        <v>6.65</v>
       </c>
       <c r="I59">
-        <v>2.4</v>
+        <v>5.77</v>
       </c>
       <c r="J59">
-        <v>4.46</v>
+        <v>6.65</v>
       </c>
       <c r="K59">
-        <v>4.46</v>
+        <v>6.65</v>
       </c>
       <c r="L59">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M59">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="N59">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O59">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P59">
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="R59">
-        <v>2.34</v>
+        <v>1.55</v>
       </c>
       <c r="S59">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="T59">
-        <v>5.1</v>
-      </c>
-      <c r="V59" t="s">
-        <v>31</v>
+        <v>2.47</v>
+      </c>
+      <c r="U59" t="s">
+        <v>30</v>
+      </c>
+      <c r="V59">
+        <v>0.62</v>
       </c>
       <c r="W59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:23">
       <c r="A60">
-        <v>1707346800</v>
+        <v>1707516000</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C60">
         <v>10000</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="E60" s="2">
-        <v>45329.95833333334</v>
+        <v>45331.91666666666</v>
       </c>
       <c r="F60" s="2">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="G60">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H60">
-        <v>4.67</v>
+        <v>6.58</v>
       </c>
       <c r="I60">
-        <v>2.7</v>
+        <v>5.42</v>
       </c>
       <c r="J60">
-        <v>4.67</v>
+        <v>6.58</v>
       </c>
       <c r="K60">
-        <v>4.67</v>
+        <v>6.58</v>
       </c>
       <c r="L60">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M60">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="N60">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O60">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="R60">
-        <v>2.29</v>
+        <v>1.79</v>
       </c>
       <c r="S60">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="T60">
-        <v>5.94</v>
-      </c>
-      <c r="V60" t="s">
-        <v>31</v>
+        <v>2.39</v>
+      </c>
+      <c r="U60" t="s">
+        <v>30</v>
+      </c>
+      <c r="V60">
+        <v>0.6899999999999999</v>
       </c>
       <c r="W60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:23">
       <c r="A61">
-        <v>1707350400</v>
+        <v>1707519600</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C61">
         <v>10000</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="E61" s="2">
-        <v>45330</v>
+        <v>45331.95833333334</v>
       </c>
       <c r="F61" s="2">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H61">
-        <v>4.71</v>
+        <v>6.52</v>
       </c>
       <c r="I61">
-        <v>2.82</v>
+        <v>5.58</v>
       </c>
       <c r="J61">
-        <v>4.71</v>
+        <v>6.52</v>
       </c>
       <c r="K61">
-        <v>4.71</v>
+        <v>6.52</v>
       </c>
       <c r="L61">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M61">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="N61">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O61">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="R61">
-        <v>2.21</v>
+        <v>1.58</v>
       </c>
       <c r="S61">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="T61">
-        <v>5.85</v>
-      </c>
-      <c r="V61" t="s">
-        <v>31</v>
+        <v>2.11</v>
+      </c>
+      <c r="U61" t="s">
+        <v>30</v>
+      </c>
+      <c r="V61">
+        <v>0.35</v>
       </c>
       <c r="W61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:23">
       <c r="A62">
-        <v>1707354000</v>
+        <v>1707523200</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C62">
-        <v>10000</v>
+        <v>8544</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="E62" s="2">
-        <v>45330.04166666666</v>
+        <v>45332</v>
       </c>
       <c r="F62" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>4.66</v>
+        <v>6.39</v>
       </c>
       <c r="I62">
-        <v>2.64</v>
+        <v>5.34</v>
       </c>
       <c r="J62">
-        <v>4.66</v>
+        <v>6.39</v>
       </c>
       <c r="K62">
-        <v>4.66</v>
+        <v>6.39</v>
       </c>
       <c r="L62">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M62">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="N62">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O62">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P62">
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="R62">
-        <v>2.34</v>
+        <v>1.66</v>
       </c>
       <c r="S62">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="T62">
-        <v>6.33</v>
-      </c>
-      <c r="V62" t="s">
-        <v>31</v>
+        <v>2.43</v>
+      </c>
+      <c r="U62" t="s">
+        <v>30</v>
+      </c>
+      <c r="V62">
+        <v>0.59</v>
       </c>
       <c r="W62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:23">
       <c r="A63">
-        <v>1707357600</v>
+        <v>1707526800</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C63">
-        <v>10000</v>
+        <v>7581</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="E63" s="2">
-        <v>45330.08333333334</v>
+        <v>45332.04166666666</v>
       </c>
       <c r="F63" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>4.66</v>
+        <v>6.45</v>
       </c>
       <c r="I63">
-        <v>2.56</v>
+        <v>5.38</v>
       </c>
       <c r="J63">
-        <v>4.66</v>
+        <v>6.45</v>
       </c>
       <c r="K63">
-        <v>4.66</v>
+        <v>6.45</v>
       </c>
       <c r="L63">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M63">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="N63">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O63">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="R63">
-        <v>2.43</v>
+        <v>1.69</v>
       </c>
       <c r="S63">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="T63">
-        <v>6.68</v>
-      </c>
-      <c r="V63" t="s">
-        <v>31</v>
+        <v>2.41</v>
+      </c>
+      <c r="U63" t="s">
+        <v>30</v>
+      </c>
+      <c r="V63">
+        <v>0.95</v>
       </c>
       <c r="W63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:23">
       <c r="A64">
-        <v>1707361200</v>
+        <v>1707530400</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C64">
-        <v>10000</v>
+        <v>8626</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="E64" s="2">
-        <v>45330.125</v>
+        <v>45332.08333333334</v>
       </c>
       <c r="F64" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64">
-        <v>4.83</v>
+        <v>6.59</v>
       </c>
       <c r="I64">
-        <v>2.85</v>
+        <v>5.42</v>
       </c>
       <c r="J64">
-        <v>4.83</v>
+        <v>6.59</v>
       </c>
       <c r="K64">
-        <v>4.83</v>
+        <v>6.59</v>
       </c>
       <c r="L64">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M64">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="N64">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O64">
+        <v>96</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>100</v>
+      </c>
+      <c r="R64">
+        <v>1.8</v>
+      </c>
+      <c r="S64">
+        <v>159</v>
+      </c>
+      <c r="T64">
+        <v>2.67</v>
+      </c>
+      <c r="U64" t="s">
+        <v>30</v>
+      </c>
+      <c r="V64">
+        <v>0.7</v>
+      </c>
+      <c r="W64" t="s">
         <v>93</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>95</v>
-      </c>
-      <c r="R64">
-        <v>2.33</v>
-      </c>
-      <c r="S64">
-        <v>217</v>
-      </c>
-      <c r="T64">
-        <v>6.59</v>
-      </c>
-      <c r="V64" t="s">
-        <v>31</v>
-      </c>
-      <c r="W64" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:23">
       <c r="A65">
-        <v>1707364800</v>
+        <v>1707534000</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C65">
         <v>10000</v>
       </c>
       <c r="D65">
-        <v>0.04</v>
+        <v>0.98</v>
       </c>
       <c r="E65" s="2">
-        <v>45330.16666666666</v>
+        <v>45332.125</v>
       </c>
       <c r="F65" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H65">
-        <v>4.85</v>
+        <v>6.82</v>
       </c>
       <c r="I65">
-        <v>2.84</v>
+        <v>5.72</v>
       </c>
       <c r="J65">
-        <v>4.85</v>
+        <v>6.82</v>
       </c>
       <c r="K65">
-        <v>4.85</v>
+        <v>6.82</v>
       </c>
       <c r="L65">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="M65">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="N65">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="O65">
+        <v>95</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>100</v>
+      </c>
+      <c r="R65">
+        <v>1.77</v>
+      </c>
+      <c r="S65">
+        <v>156</v>
+      </c>
+      <c r="T65">
+        <v>2.56</v>
+      </c>
+      <c r="U65" t="s">
+        <v>30</v>
+      </c>
+      <c r="V65">
+        <v>0.22</v>
+      </c>
+      <c r="W65" t="s">
         <v>94</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>95</v>
-      </c>
-      <c r="R65">
-        <v>2.37</v>
-      </c>
-      <c r="S65">
-        <v>216</v>
-      </c>
-      <c r="T65">
-        <v>6.35</v>
-      </c>
-      <c r="V65" t="s">
-        <v>31</v>
-      </c>
-      <c r="W65" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:23">
       <c r="A66">
-        <v>1707368400</v>
+        <v>1707537600</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C66">
-        <v>6865</v>
+        <v>10000</v>
       </c>
       <c r="D66">
-        <v>0.11</v>
+        <v>0.78</v>
       </c>
       <c r="E66" s="2">
-        <v>45330.20833333334</v>
+        <v>45332.16666666666</v>
       </c>
       <c r="F66" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H66">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="I66">
-        <v>2.53</v>
+        <v>6.18</v>
       </c>
       <c r="J66">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="K66">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="L66">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="M66">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="N66">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O66">
+        <v>94</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>100</v>
+      </c>
+      <c r="R66">
+        <v>1.54</v>
+      </c>
+      <c r="S66">
+        <v>162</v>
+      </c>
+      <c r="T66">
+        <v>1.7</v>
+      </c>
+      <c r="U66" t="s">
+        <v>30</v>
+      </c>
+      <c r="W66" t="s">
         <v>95</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>96</v>
-      </c>
-      <c r="R66">
-        <v>2.52</v>
-      </c>
-      <c r="S66">
-        <v>216</v>
-      </c>
-      <c r="T66">
-        <v>6.77</v>
-      </c>
-      <c r="V66" t="s">
-        <v>31</v>
-      </c>
-      <c r="W66" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:23">
       <c r="A67">
-        <v>1707372000</v>
+        <v>1707541200</v>
       </c>
       <c r="B67" t="s">
         <v>27</v>
       </c>
       <c r="C67">
-        <v>8646</v>
+        <v>10000</v>
       </c>
       <c r="D67">
-        <v>0.15</v>
+        <v>0.97</v>
       </c>
       <c r="E67" s="2">
-        <v>45330.25</v>
+        <v>45332.20833333334</v>
       </c>
       <c r="F67" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H67">
-        <v>4.69</v>
+        <v>6.93</v>
       </c>
       <c r="I67">
-        <v>2.64</v>
+        <v>6.02</v>
       </c>
       <c r="J67">
-        <v>4.69</v>
+        <v>6.93</v>
       </c>
       <c r="K67">
-        <v>4.69</v>
+        <v>6.93</v>
       </c>
       <c r="L67">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="M67">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="N67">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O67">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
+        <v>100</v>
+      </c>
+      <c r="R67">
+        <v>1.61</v>
+      </c>
+      <c r="S67">
+        <v>157</v>
+      </c>
+      <c r="T67">
+        <v>1.81</v>
+      </c>
+      <c r="U67" t="s">
+        <v>30</v>
+      </c>
+      <c r="V67">
+        <v>0.33</v>
+      </c>
+      <c r="W67" t="s">
         <v>96</v>
-      </c>
-      <c r="R67">
-        <v>2.38</v>
-      </c>
-      <c r="S67">
-        <v>217</v>
-      </c>
-      <c r="T67">
-        <v>6.23</v>
-      </c>
-      <c r="V67" t="s">
-        <v>30</v>
-      </c>
-      <c r="W67" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:23">
       <c r="A68">
-        <v>1707375600</v>
+        <v>1707544800</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68">
-        <v>4388</v>
+        <v>10000</v>
       </c>
       <c r="D68">
-        <v>0.07000000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="E68" s="2">
-        <v>45330.29166666666</v>
+        <v>45332.25</v>
       </c>
       <c r="F68" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H68">
-        <v>5.14</v>
+        <v>6.82</v>
       </c>
       <c r="I68">
-        <v>3.21</v>
+        <v>6.16</v>
       </c>
       <c r="J68">
-        <v>5.14</v>
+        <v>6.82</v>
       </c>
       <c r="K68">
-        <v>5.14</v>
+        <v>6.82</v>
       </c>
       <c r="L68">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M68">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="N68">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O68">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="R68">
-        <v>2.34</v>
+        <v>1.39</v>
       </c>
       <c r="S68">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="T68">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="V68" t="s">
-        <v>30</v>
+        <v>1.65</v>
+      </c>
+      <c r="U68" t="s">
+        <v>29</v>
+      </c>
+      <c r="V68">
+        <v>0.5600000000000001</v>
       </c>
       <c r="W68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:23">
       <c r="A69">
-        <v>1707379200</v>
+        <v>1707548400</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69">
         <v>10000</v>
       </c>
       <c r="D69">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="E69" s="2">
-        <v>45330.33333333334</v>
+        <v>45332.29166666666</v>
       </c>
       <c r="F69" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H69">
-        <v>5.8</v>
+        <v>6.95</v>
       </c>
       <c r="I69">
-        <v>3.5</v>
+        <v>6.24</v>
       </c>
       <c r="J69">
-        <v>5.8</v>
+        <v>6.95</v>
       </c>
       <c r="K69">
-        <v>5.8</v>
+        <v>6.95</v>
       </c>
       <c r="L69">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M69">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="N69">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="O69">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="R69">
-        <v>2.95</v>
+        <v>1.44</v>
       </c>
       <c r="S69">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="T69">
-        <v>9.4</v>
-      </c>
-      <c r="V69" t="s">
-        <v>30</v>
+        <v>1.7</v>
+      </c>
+      <c r="U69" t="s">
+        <v>29</v>
+      </c>
+      <c r="V69">
+        <v>0.5600000000000001</v>
       </c>
       <c r="W69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:23">
       <c r="A70">
-        <v>1707382800</v>
+        <v>1707552000</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70">
         <v>10000</v>
       </c>
       <c r="D70">
-        <v>0.07000000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="E70" s="2">
-        <v>45330.375</v>
+        <v>45332.33333333334</v>
       </c>
       <c r="F70" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H70">
-        <v>5.98</v>
+        <v>7.13</v>
       </c>
       <c r="I70">
-        <v>3.73</v>
+        <v>6.47</v>
       </c>
       <c r="J70">
-        <v>5.98</v>
+        <v>7.13</v>
       </c>
       <c r="K70">
-        <v>5.98</v>
+        <v>7.13</v>
       </c>
       <c r="L70">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M70">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="N70">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="O70">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="R70">
-        <v>2.93</v>
+        <v>1.42</v>
       </c>
       <c r="S70">
-        <v>236</v>
+        <v>122</v>
       </c>
       <c r="T70">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="V70" t="s">
-        <v>30</v>
+        <v>1.74</v>
+      </c>
+      <c r="U70" t="s">
+        <v>29</v>
+      </c>
+      <c r="V70">
+        <v>0.22</v>
       </c>
       <c r="W70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:23">
       <c r="A71">
-        <v>1707386400</v>
+        <v>1707555600</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C71">
         <v>10000</v>
       </c>
       <c r="D71">
-        <v>0.07000000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="E71" s="2">
-        <v>45330.41666666666</v>
+        <v>45332.375</v>
       </c>
       <c r="F71" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H71">
-        <v>6.34</v>
+        <v>7.37</v>
       </c>
       <c r="I71">
-        <v>4.12</v>
+        <v>6.69</v>
       </c>
       <c r="J71">
-        <v>6.34</v>
+        <v>7.37</v>
       </c>
       <c r="K71">
-        <v>6.34</v>
+        <v>7.37</v>
       </c>
       <c r="L71">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M71">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="N71">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="O71">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="R71">
-        <v>3</v>
+        <v>1.47</v>
       </c>
       <c r="S71">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="T71">
-        <v>9.35</v>
-      </c>
-      <c r="V71" t="s">
-        <v>30</v>
+        <v>1.78</v>
+      </c>
+      <c r="U71" t="s">
+        <v>29</v>
       </c>
       <c r="W71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:23">
       <c r="A72">
-        <v>1707390000</v>
+        <v>1707559200</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C72">
         <v>10000</v>
       </c>
       <c r="D72">
-        <v>0.27</v>
+        <v>0.47</v>
       </c>
       <c r="E72" s="2">
-        <v>45330.45833333334</v>
+        <v>45332.41666666666</v>
       </c>
       <c r="F72" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G72">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H72">
-        <v>7.14</v>
+        <v>7.45</v>
       </c>
       <c r="I72">
-        <v>4.5</v>
+        <v>6.87</v>
       </c>
       <c r="J72">
-        <v>7.14</v>
+        <v>7.45</v>
       </c>
       <c r="K72">
-        <v>7.14</v>
+        <v>7.45</v>
       </c>
       <c r="L72">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M72">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="N72">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="O72">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="R72">
-        <v>3.98</v>
+        <v>1.39</v>
       </c>
       <c r="S72">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c r="T72">
-        <v>11.03</v>
-      </c>
-      <c r="U72">
+        <v>1.77</v>
+      </c>
+      <c r="U72" t="s">
+        <v>29</v>
+      </c>
+      <c r="V72">
         <v>0.12</v>
       </c>
-      <c r="V72" t="s">
-        <v>30</v>
-      </c>
       <c r="W72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:23">
       <c r="A73">
-        <v>1707393600</v>
+        <v>1707562800</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C73">
         <v>10000</v>
       </c>
       <c r="D73">
-        <v>0.28</v>
+        <v>0.43</v>
       </c>
       <c r="E73" s="2">
-        <v>45330.5</v>
+        <v>45332.45833333334</v>
       </c>
       <c r="F73" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G73">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H73">
-        <v>7.8</v>
+        <v>7.49</v>
       </c>
       <c r="I73">
-        <v>5.13</v>
+        <v>7.49</v>
       </c>
       <c r="J73">
-        <v>7.8</v>
+        <v>7.49</v>
       </c>
       <c r="K73">
-        <v>7.8</v>
+        <v>7.49</v>
       </c>
       <c r="L73">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="M73">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="N73">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O73">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R73">
-        <v>4.34</v>
+        <v>1.25</v>
       </c>
       <c r="S73">
-        <v>254</v>
+        <v>117</v>
       </c>
       <c r="T73">
-        <v>11.02</v>
-      </c>
-      <c r="U73">
-        <v>0.17</v>
-      </c>
-      <c r="V73" t="s">
-        <v>30</v>
+        <v>1.6</v>
+      </c>
+      <c r="U73" t="s">
+        <v>29</v>
+      </c>
+      <c r="V73">
+        <v>0.11</v>
       </c>
       <c r="W73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:23">
       <c r="A74">
-        <v>1707397200</v>
+        <v>1707566400</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C74">
         <v>10000</v>
       </c>
       <c r="D74">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="E74" s="2">
-        <v>45330.54166666666</v>
+        <v>45332.5</v>
       </c>
       <c r="F74" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G74">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H74">
-        <v>7.57</v>
+        <v>8.02</v>
       </c>
       <c r="I74">
-        <v>4.85</v>
+        <v>8.02</v>
       </c>
       <c r="J74">
-        <v>7.57</v>
+        <v>8.02</v>
       </c>
       <c r="K74">
-        <v>7.57</v>
+        <v>8.02</v>
       </c>
       <c r="L74">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="M74">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="N74">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O74">
         <v>87</v>
@@ -5806,66 +5848,66 @@
         <v>100</v>
       </c>
       <c r="R74">
-        <v>4.34</v>
+        <v>0.99</v>
       </c>
       <c r="S74">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="T74">
-        <v>10.73</v>
-      </c>
-      <c r="U74">
-        <v>0.17</v>
-      </c>
-      <c r="V74" t="s">
-        <v>30</v>
+        <v>1.43</v>
+      </c>
+      <c r="U74" t="s">
+        <v>29</v>
+      </c>
+      <c r="V74">
+        <v>0.16</v>
       </c>
       <c r="W74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:23">
       <c r="A75">
-        <v>1707400800</v>
+        <v>1707570000</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C75">
         <v>10000</v>
       </c>
       <c r="D75">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="E75" s="2">
-        <v>45330.58333333334</v>
+        <v>45332.54166666666</v>
       </c>
       <c r="F75" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G75">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H75">
-        <v>7.61</v>
+        <v>7.93</v>
       </c>
       <c r="I75">
-        <v>5.01</v>
+        <v>7.93</v>
       </c>
       <c r="J75">
-        <v>7.61</v>
+        <v>7.93</v>
       </c>
       <c r="K75">
-        <v>7.61</v>
+        <v>7.93</v>
       </c>
       <c r="L75">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="M75">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="N75">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O75">
         <v>87</v>
@@ -5874,72 +5916,69 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R75">
-        <v>4.11</v>
+        <v>0.88</v>
       </c>
       <c r="S75">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="T75">
-        <v>11.64</v>
-      </c>
-      <c r="U75">
-        <v>0.11</v>
-      </c>
-      <c r="V75" t="s">
-        <v>30</v>
+        <v>1.31</v>
+      </c>
+      <c r="U75" t="s">
+        <v>29</v>
       </c>
       <c r="W75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:23">
       <c r="A76">
-        <v>1707404400</v>
+        <v>1707573600</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C76">
         <v>10000</v>
       </c>
       <c r="D76">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
       <c r="E76" s="2">
-        <v>45330.625</v>
+        <v>45332.58333333334</v>
       </c>
       <c r="F76" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G76">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H76">
-        <v>7.26</v>
+        <v>7.77</v>
       </c>
       <c r="I76">
-        <v>4.65</v>
+        <v>7.29</v>
       </c>
       <c r="J76">
-        <v>7.26</v>
+        <v>7.77</v>
       </c>
       <c r="K76">
-        <v>7.26</v>
+        <v>7.77</v>
       </c>
       <c r="L76">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M76">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="N76">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O76">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -5948,66 +5987,69 @@
         <v>100</v>
       </c>
       <c r="R76">
-        <v>3.98</v>
+        <v>1.35</v>
       </c>
       <c r="S76">
-        <v>251</v>
+        <v>104</v>
       </c>
       <c r="T76">
-        <v>10.64</v>
-      </c>
-      <c r="V76" t="s">
-        <v>30</v>
+        <v>1.5</v>
+      </c>
+      <c r="U76" t="s">
+        <v>29</v>
+      </c>
+      <c r="V76">
+        <v>0.12</v>
       </c>
       <c r="W76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:23">
       <c r="A77">
-        <v>1707408000</v>
+        <v>1707577200</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C77">
         <v>10000</v>
       </c>
       <c r="D77">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="E77" s="2">
-        <v>45330.66666666666</v>
+        <v>45332.625</v>
       </c>
       <c r="F77" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G77">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H77">
-        <v>6.84</v>
+        <v>7.77</v>
       </c>
       <c r="I77">
-        <v>4.45</v>
+        <v>7.21</v>
       </c>
       <c r="J77">
-        <v>6.84</v>
+        <v>7.77</v>
       </c>
       <c r="K77">
-        <v>6.84</v>
+        <v>7.77</v>
       </c>
       <c r="L77">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="M77">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="N77">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O77">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -6016,69 +6058,69 @@
         <v>100</v>
       </c>
       <c r="R77">
-        <v>3.42</v>
+        <v>1.41</v>
       </c>
       <c r="S77">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="T77">
-        <v>10.22</v>
-      </c>
-      <c r="U77">
-        <v>0.17</v>
-      </c>
-      <c r="V77" t="s">
-        <v>31</v>
+        <v>1.62</v>
+      </c>
+      <c r="U77" t="s">
+        <v>29</v>
+      </c>
+      <c r="V77">
+        <v>0.12</v>
       </c>
       <c r="W77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:23">
       <c r="A78">
-        <v>1707411600</v>
+        <v>1707580800</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C78">
         <v>10000</v>
       </c>
       <c r="D78">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="E78" s="2">
-        <v>45330.70833333334</v>
+        <v>45332.66666666666</v>
       </c>
       <c r="F78" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G78">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H78">
-        <v>6.58</v>
+        <v>7.55</v>
       </c>
       <c r="I78">
-        <v>4.35</v>
+        <v>6.91</v>
       </c>
       <c r="J78">
-        <v>6.58</v>
+        <v>7.55</v>
       </c>
       <c r="K78">
-        <v>6.58</v>
+        <v>7.55</v>
       </c>
       <c r="L78">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M78">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="N78">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="O78">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -6087,69 +6129,69 @@
         <v>100</v>
       </c>
       <c r="R78">
-        <v>3.08</v>
+        <v>1.45</v>
       </c>
       <c r="S78">
-        <v>246</v>
+        <v>110</v>
       </c>
       <c r="T78">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="U78">
-        <v>0.22</v>
-      </c>
-      <c r="V78" t="s">
-        <v>31</v>
+        <v>1.5</v>
+      </c>
+      <c r="U78" t="s">
+        <v>30</v>
+      </c>
+      <c r="V78">
+        <v>0.27</v>
       </c>
       <c r="W78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:23">
       <c r="A79">
-        <v>1707415200</v>
+        <v>1707584400</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C79">
         <v>10000</v>
       </c>
       <c r="D79">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="E79" s="2">
-        <v>45330.75</v>
+        <v>45332.70833333334</v>
       </c>
       <c r="F79" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G79">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H79">
-        <v>6.21</v>
+        <v>7.52</v>
       </c>
       <c r="I79">
-        <v>4.42</v>
+        <v>6.88</v>
       </c>
       <c r="J79">
-        <v>6.21</v>
+        <v>7.52</v>
       </c>
       <c r="K79">
-        <v>6.21</v>
+        <v>7.52</v>
       </c>
       <c r="L79">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M79">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="N79">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="O79">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -6158,69 +6200,69 @@
         <v>100</v>
       </c>
       <c r="R79">
-        <v>2.39</v>
+        <v>1.45</v>
       </c>
       <c r="S79">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="T79">
-        <v>6.48</v>
-      </c>
-      <c r="U79">
-        <v>0.12</v>
-      </c>
-      <c r="V79" t="s">
-        <v>31</v>
+        <v>1.47</v>
+      </c>
+      <c r="U79" t="s">
+        <v>30</v>
+      </c>
+      <c r="V79">
+        <v>0.24</v>
       </c>
       <c r="W79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:23">
       <c r="A80">
-        <v>1707418800</v>
+        <v>1707588000</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C80">
-        <v>3417</v>
+        <v>10000</v>
       </c>
       <c r="D80">
-        <v>0.23</v>
+        <v>0.5</v>
       </c>
       <c r="E80" s="2">
-        <v>45330.79166666666</v>
+        <v>45332.75</v>
       </c>
       <c r="F80" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G80">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H80">
-        <v>6.08</v>
+        <v>7.55</v>
       </c>
       <c r="I80">
-        <v>4.15</v>
+        <v>6.41</v>
       </c>
       <c r="J80">
-        <v>6.08</v>
+        <v>7.55</v>
       </c>
       <c r="K80">
-        <v>6.08</v>
+        <v>7.55</v>
       </c>
       <c r="L80">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M80">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="N80">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="O80">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -6229,69 +6271,69 @@
         <v>100</v>
       </c>
       <c r="R80">
-        <v>2.54</v>
+        <v>1.92</v>
       </c>
       <c r="S80">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="T80">
-        <v>7.11</v>
-      </c>
-      <c r="U80">
+        <v>1.8</v>
+      </c>
+      <c r="U80" t="s">
+        <v>30</v>
+      </c>
+      <c r="V80">
         <v>0.11</v>
       </c>
-      <c r="V80" t="s">
-        <v>31</v>
-      </c>
       <c r="W80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:23">
       <c r="A81">
-        <v>1707422400</v>
+        <v>1707591600</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
       </c>
       <c r="C81">
-        <v>3247</v>
+        <v>10000</v>
       </c>
       <c r="D81">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="E81" s="2">
-        <v>45330.83333333334</v>
+        <v>45332.79166666666</v>
       </c>
       <c r="F81" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G81">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H81">
-        <v>6.08</v>
+        <v>7.64</v>
       </c>
       <c r="I81">
-        <v>4.13</v>
+        <v>6.54</v>
       </c>
       <c r="J81">
-        <v>6.08</v>
+        <v>7.64</v>
       </c>
       <c r="K81">
-        <v>6.08</v>
+        <v>7.64</v>
       </c>
       <c r="L81">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M81">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="N81">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="O81">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -6300,69 +6342,66 @@
         <v>100</v>
       </c>
       <c r="R81">
-        <v>2.56</v>
+        <v>1.9</v>
       </c>
       <c r="S81">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="T81">
-        <v>7.32</v>
-      </c>
-      <c r="U81">
-        <v>0.11</v>
-      </c>
-      <c r="V81" t="s">
-        <v>31</v>
+        <v>1.88</v>
+      </c>
+      <c r="U81" t="s">
+        <v>30</v>
       </c>
       <c r="W81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:23">
       <c r="A82">
-        <v>1707426000</v>
+        <v>1707595200</v>
       </c>
       <c r="B82" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C82">
-        <v>3227</v>
+        <v>10000</v>
       </c>
       <c r="D82">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
       <c r="E82" s="2">
-        <v>45330.875</v>
+        <v>45332.83333333334</v>
       </c>
       <c r="F82" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G82">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H82">
-        <v>6.03</v>
+        <v>7.78</v>
       </c>
       <c r="I82">
-        <v>4.36</v>
+        <v>6.71</v>
       </c>
       <c r="J82">
-        <v>6.03</v>
+        <v>7.78</v>
       </c>
       <c r="K82">
-        <v>6.03</v>
+        <v>7.78</v>
       </c>
       <c r="L82">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M82">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="N82">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="O82">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -6371,66 +6410,66 @@
         <v>100</v>
       </c>
       <c r="R82">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="S82">
-        <v>218</v>
+        <v>84</v>
       </c>
       <c r="T82">
-        <v>6.06</v>
-      </c>
-      <c r="V82" t="s">
-        <v>31</v>
+        <v>1.79</v>
+      </c>
+      <c r="U82" t="s">
+        <v>30</v>
       </c>
       <c r="W82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:23">
       <c r="A83">
-        <v>1707429600</v>
+        <v>1707598800</v>
       </c>
       <c r="B83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C83">
-        <v>3331</v>
+        <v>10000</v>
       </c>
       <c r="D83">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
       <c r="E83" s="2">
-        <v>45330.91666666666</v>
+        <v>45332.875</v>
       </c>
       <c r="F83" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G83">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H83">
-        <v>5.98</v>
+        <v>7.93</v>
       </c>
       <c r="I83">
-        <v>4.55</v>
+        <v>6.7</v>
       </c>
       <c r="J83">
-        <v>5.98</v>
+        <v>7.93</v>
       </c>
       <c r="K83">
-        <v>5.98</v>
+        <v>7.93</v>
       </c>
       <c r="L83">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="M83">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="N83">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="O83">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -6439,66 +6478,66 @@
         <v>100</v>
       </c>
       <c r="R83">
-        <v>1.96</v>
+        <v>2.09</v>
       </c>
       <c r="S83">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="T83">
-        <v>4.47</v>
-      </c>
-      <c r="V83" t="s">
-        <v>31</v>
+        <v>1.91</v>
+      </c>
+      <c r="U83" t="s">
+        <v>30</v>
       </c>
       <c r="W83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:23">
       <c r="A84">
-        <v>1707433200</v>
+        <v>1707602400</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C84">
-        <v>4837</v>
+        <v>10000</v>
       </c>
       <c r="D84">
-        <v>0.04</v>
+        <v>0.27</v>
       </c>
       <c r="E84" s="2">
-        <v>45330.95833333334</v>
+        <v>45332.91666666666</v>
       </c>
       <c r="F84" s="2">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="G84">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H84">
-        <v>5.94</v>
+        <v>7.2</v>
       </c>
       <c r="I84">
-        <v>4.61</v>
+        <v>6.22</v>
       </c>
       <c r="J84">
-        <v>5.94</v>
+        <v>7.2</v>
       </c>
       <c r="K84">
-        <v>5.94</v>
+        <v>7.2</v>
       </c>
       <c r="L84">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="M84">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="N84">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="O84">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -6507,66 +6546,66 @@
         <v>100</v>
       </c>
       <c r="R84">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="S84">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="T84">
-        <v>3.96</v>
-      </c>
-      <c r="V84" t="s">
-        <v>31</v>
+        <v>1.71</v>
+      </c>
+      <c r="U84" t="s">
+        <v>30</v>
       </c>
       <c r="W84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:23">
       <c r="A85">
-        <v>1707436800</v>
+        <v>1707606000</v>
       </c>
       <c r="B85" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C85">
-        <v>5311</v>
+        <v>10000</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="E85" s="2">
-        <v>45331</v>
+        <v>45332.95833333334</v>
       </c>
       <c r="F85" s="2">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H85">
-        <v>5.86</v>
+        <v>7.38</v>
       </c>
       <c r="I85">
-        <v>4.82</v>
+        <v>6.45</v>
       </c>
       <c r="J85">
-        <v>5.86</v>
+        <v>7.38</v>
       </c>
       <c r="K85">
-        <v>5.86</v>
+        <v>7.38</v>
       </c>
       <c r="L85">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="M85">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="N85">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="O85">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -6575,66 +6614,66 @@
         <v>100</v>
       </c>
       <c r="R85">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="S85">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="T85">
-        <v>3.17</v>
-      </c>
-      <c r="V85" t="s">
-        <v>31</v>
+        <v>1.67</v>
+      </c>
+      <c r="U85" t="s">
+        <v>30</v>
       </c>
       <c r="W85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:23">
       <c r="A86">
-        <v>1707440400</v>
+        <v>1707609600</v>
       </c>
       <c r="B86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C86">
-        <v>7243</v>
+        <v>10000</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="E86" s="2">
-        <v>45331.04166666666</v>
+        <v>45333</v>
       </c>
       <c r="F86" s="2">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>5.71</v>
+        <v>7.6</v>
       </c>
       <c r="I86">
-        <v>4.68</v>
+        <v>6.33</v>
       </c>
       <c r="J86">
-        <v>5.71</v>
+        <v>7.6</v>
       </c>
       <c r="K86">
-        <v>5.71</v>
+        <v>7.6</v>
       </c>
       <c r="L86">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="M86">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="N86">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="O86">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -6643,27 +6682,27 @@
         <v>100</v>
       </c>
       <c r="R86">
-        <v>1.56</v>
+        <v>2.07</v>
       </c>
       <c r="S86">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="T86">
-        <v>2.72</v>
-      </c>
-      <c r="V86" t="s">
-        <v>31</v>
+        <v>1.86</v>
+      </c>
+      <c r="U86" t="s">
+        <v>30</v>
       </c>
       <c r="W86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:23">
       <c r="A87">
-        <v>1707444000</v>
+        <v>1707613200</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C87">
         <v>10000</v>
@@ -6672,37 +6711,37 @@
         <v>0</v>
       </c>
       <c r="E87" s="2">
-        <v>45331.08333333334</v>
+        <v>45333.04166666666</v>
       </c>
       <c r="F87" s="2">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>5.7</v>
+        <v>7.66</v>
       </c>
       <c r="I87">
-        <v>4.65</v>
+        <v>6.17</v>
       </c>
       <c r="J87">
-        <v>5.7</v>
+        <v>7.66</v>
       </c>
       <c r="K87">
-        <v>5.7</v>
+        <v>7.66</v>
       </c>
       <c r="L87">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="M87">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="N87">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="O87">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -6711,27 +6750,27 @@
         <v>100</v>
       </c>
       <c r="R87">
-        <v>1.58</v>
+        <v>2.35</v>
       </c>
       <c r="S87">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="T87">
-        <v>2.31</v>
-      </c>
-      <c r="V87" t="s">
-        <v>31</v>
+        <v>2.81</v>
+      </c>
+      <c r="U87" t="s">
+        <v>30</v>
       </c>
       <c r="W87" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:23">
       <c r="A88">
-        <v>1707447600</v>
+        <v>1707616800</v>
       </c>
       <c r="B88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C88">
         <v>10000</v>
@@ -6740,66 +6779,66 @@
         <v>0</v>
       </c>
       <c r="E88" s="2">
-        <v>45331.125</v>
+        <v>45333.08333333334</v>
       </c>
       <c r="F88" s="2">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H88">
-        <v>5.4</v>
+        <v>7.45</v>
       </c>
       <c r="I88">
-        <v>5.4</v>
+        <v>5.89</v>
       </c>
       <c r="J88">
-        <v>5.4</v>
+        <v>7.45</v>
       </c>
       <c r="K88">
-        <v>5.4</v>
+        <v>7.45</v>
       </c>
       <c r="L88">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="M88">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="N88">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="O88">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="P88">
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R88">
-        <v>1.33</v>
+        <v>2.39</v>
       </c>
       <c r="S88">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="T88">
-        <v>1.7</v>
-      </c>
-      <c r="V88" t="s">
-        <v>31</v>
+        <v>2.17</v>
+      </c>
+      <c r="U88" t="s">
+        <v>30</v>
       </c>
       <c r="W88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:23">
       <c r="A89">
-        <v>1707451200</v>
+        <v>1707620400</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C89">
         <v>10000</v>
@@ -6808,66 +6847,66 @@
         <v>0</v>
       </c>
       <c r="E89" s="2">
-        <v>45331.16666666666</v>
+        <v>45333.125</v>
       </c>
       <c r="F89" s="2">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H89">
-        <v>5.5</v>
+        <v>7.53</v>
       </c>
       <c r="I89">
-        <v>4.65</v>
+        <v>6.58</v>
       </c>
       <c r="J89">
-        <v>5.5</v>
+        <v>7.53</v>
       </c>
       <c r="K89">
-        <v>5.5</v>
+        <v>7.53</v>
       </c>
       <c r="L89">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="M89">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="N89">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="O89">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="P89">
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R89">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="S89">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="T89">
-        <v>1.85</v>
-      </c>
-      <c r="V89" t="s">
-        <v>31</v>
+        <v>1.68</v>
+      </c>
+      <c r="U89" t="s">
+        <v>30</v>
       </c>
       <c r="W89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:23">
       <c r="A90">
-        <v>1707454800</v>
+        <v>1707624000</v>
       </c>
       <c r="B90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C90">
         <v>10000</v>
@@ -6876,66 +6915,66 @@
         <v>0</v>
       </c>
       <c r="E90" s="2">
-        <v>45331.20833333334</v>
+        <v>45333.16666666666</v>
       </c>
       <c r="F90" s="2">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H90">
-        <v>5.19</v>
+        <v>7.68</v>
       </c>
       <c r="I90">
-        <v>4.16</v>
+        <v>6.5</v>
       </c>
       <c r="J90">
-        <v>5.19</v>
+        <v>7.68</v>
       </c>
       <c r="K90">
-        <v>5.19</v>
+        <v>7.68</v>
       </c>
       <c r="L90">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="M90">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="N90">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="O90">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="P90">
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R90">
-        <v>1.5</v>
+        <v>1.99</v>
       </c>
       <c r="S90">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="T90">
-        <v>1.73</v>
-      </c>
-      <c r="V90" t="s">
-        <v>31</v>
+        <v>1.99</v>
+      </c>
+      <c r="U90" t="s">
+        <v>30</v>
       </c>
       <c r="W90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:23">
       <c r="A91">
-        <v>1707458400</v>
+        <v>1707627600</v>
       </c>
       <c r="B91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C91">
         <v>10000</v>
@@ -6944,66 +6983,66 @@
         <v>0</v>
       </c>
       <c r="E91" s="2">
-        <v>45331.25</v>
+        <v>45333.20833333334</v>
       </c>
       <c r="F91" s="2">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="G91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H91">
-        <v>5.66</v>
+        <v>7.17</v>
       </c>
       <c r="I91">
-        <v>4.78</v>
+        <v>5.63</v>
       </c>
       <c r="J91">
-        <v>5.66</v>
+        <v>7.17</v>
       </c>
       <c r="K91">
-        <v>5.66</v>
+        <v>7.17</v>
       </c>
       <c r="L91">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="M91">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="N91">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="O91">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
       <c r="Q91">
+        <v>100</v>
+      </c>
+      <c r="R91">
+        <v>2.3</v>
+      </c>
+      <c r="S91">
         <v>99</v>
       </c>
-      <c r="R91">
-        <v>1.44</v>
-      </c>
-      <c r="S91">
-        <v>201</v>
-      </c>
       <c r="T91">
-        <v>2.47</v>
-      </c>
-      <c r="V91" t="s">
+        <v>2.18</v>
+      </c>
+      <c r="U91" t="s">
         <v>30</v>
       </c>
       <c r="W91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:23">
       <c r="A92">
-        <v>1707462000</v>
+        <v>1707631200</v>
       </c>
       <c r="B92" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C92">
         <v>10000</v>
@@ -7012,37 +7051,37 @@
         <v>0</v>
       </c>
       <c r="E92" s="2">
-        <v>45331.29166666666</v>
+        <v>45333.25</v>
       </c>
       <c r="F92" s="2">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="G92">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H92">
-        <v>6.24</v>
+        <v>7.55</v>
       </c>
       <c r="I92">
-        <v>5.26</v>
+        <v>6.14</v>
       </c>
       <c r="J92">
-        <v>6.24</v>
+        <v>7.55</v>
       </c>
       <c r="K92">
-        <v>6.24</v>
+        <v>7.55</v>
       </c>
       <c r="L92">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="M92">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="N92">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="O92">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -7051,27 +7090,27 @@
         <v>100</v>
       </c>
       <c r="R92">
-        <v>1.58</v>
+        <v>2.23</v>
       </c>
       <c r="S92">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="T92">
-        <v>3.63</v>
-      </c>
-      <c r="V92" t="s">
-        <v>30</v>
+        <v>2.41</v>
+      </c>
+      <c r="U92" t="s">
+        <v>29</v>
       </c>
       <c r="W92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:23">
       <c r="A93">
-        <v>1707465600</v>
+        <v>1707634800</v>
       </c>
       <c r="B93" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C93">
         <v>10000</v>
@@ -7080,37 +7119,37 @@
         <v>0</v>
       </c>
       <c r="E93" s="2">
-        <v>45331.33333333334</v>
+        <v>45333.29166666666</v>
       </c>
       <c r="F93" s="2">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="G93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H93">
-        <v>7.01</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="I93">
-        <v>6.12</v>
+        <v>7.46</v>
       </c>
       <c r="J93">
-        <v>7.01</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="K93">
-        <v>7.01</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="L93">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="M93">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="N93">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="O93">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -7119,27 +7158,27 @@
         <v>100</v>
       </c>
       <c r="R93">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="S93">
-        <v>236</v>
+        <v>97</v>
       </c>
       <c r="T93">
-        <v>3.56</v>
-      </c>
-      <c r="V93" t="s">
-        <v>30</v>
+        <v>2.94</v>
+      </c>
+      <c r="U93" t="s">
+        <v>29</v>
       </c>
       <c r="W93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:23">
       <c r="A94">
-        <v>1707469200</v>
+        <v>1707638400</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C94">
         <v>10000</v>
@@ -7148,37 +7187,37 @@
         <v>0</v>
       </c>
       <c r="E94" s="2">
-        <v>45331.375</v>
+        <v>45333.33333333334</v>
       </c>
       <c r="F94" s="2">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="G94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H94">
-        <v>7.6</v>
+        <v>9.94</v>
       </c>
       <c r="I94">
-        <v>6.54</v>
+        <v>9.31</v>
       </c>
       <c r="J94">
-        <v>7.6</v>
+        <v>9.94</v>
       </c>
       <c r="K94">
-        <v>7.6</v>
+        <v>9.94</v>
       </c>
       <c r="L94">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="M94">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="N94">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="O94">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -7187,27 +7226,27 @@
         <v>100</v>
       </c>
       <c r="R94">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="S94">
-        <v>243</v>
+        <v>90</v>
       </c>
       <c r="T94">
-        <v>3.79</v>
-      </c>
-      <c r="V94" t="s">
-        <v>30</v>
+        <v>4.38</v>
+      </c>
+      <c r="U94" t="s">
+        <v>29</v>
       </c>
       <c r="W94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" spans="1:23">
       <c r="A95">
-        <v>1707472800</v>
+        <v>1707642000</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C95">
         <v>10000</v>
@@ -7216,37 +7255,37 @@
         <v>0</v>
       </c>
       <c r="E95" s="2">
-        <v>45331.41666666666</v>
+        <v>45333.375</v>
       </c>
       <c r="F95" s="2">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="G95">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H95">
-        <v>8.01</v>
+        <v>12.3</v>
       </c>
       <c r="I95">
-        <v>7.06</v>
+        <v>11.02</v>
       </c>
       <c r="J95">
-        <v>8.01</v>
+        <v>12.3</v>
       </c>
       <c r="K95">
-        <v>8.01</v>
+        <v>12.3</v>
       </c>
       <c r="L95">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="M95">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="N95">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="O95">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -7255,27 +7294,27 @@
         <v>100</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.37</v>
       </c>
       <c r="S95">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="T95">
-        <v>3.68</v>
-      </c>
-      <c r="V95" t="s">
-        <v>30</v>
+        <v>5.8</v>
+      </c>
+      <c r="U95" t="s">
+        <v>29</v>
       </c>
       <c r="W95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:23">
       <c r="A96">
-        <v>1707476400</v>
+        <v>1707645600</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C96">
         <v>10000</v>
@@ -7284,37 +7323,37 @@
         <v>0</v>
       </c>
       <c r="E96" s="2">
-        <v>45331.45833333334</v>
+        <v>45333.41666666666</v>
       </c>
       <c r="F96" s="2">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="G96">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H96">
-        <v>8.33</v>
+        <v>13.19</v>
       </c>
       <c r="I96">
-        <v>7.09</v>
+        <v>11.84</v>
       </c>
       <c r="J96">
-        <v>8.33</v>
+        <v>13.19</v>
       </c>
       <c r="K96">
-        <v>8.33</v>
+        <v>13.19</v>
       </c>
       <c r="L96">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="M96">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="N96">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="O96">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -7323,27 +7362,27 @@
         <v>100</v>
       </c>
       <c r="R96">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="S96">
-        <v>241</v>
+        <v>152</v>
       </c>
       <c r="T96">
-        <v>4.57</v>
-      </c>
-      <c r="V96" t="s">
-        <v>30</v>
+        <v>5.85</v>
+      </c>
+      <c r="U96" t="s">
+        <v>29</v>
       </c>
       <c r="W96" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="1:23">
       <c r="A97">
-        <v>1707480000</v>
+        <v>1707649200</v>
       </c>
       <c r="B97" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C97">
         <v>10000</v>
@@ -7352,37 +7391,37 @@
         <v>0</v>
       </c>
       <c r="E97" s="2">
-        <v>45331.5</v>
+        <v>45333.45833333334</v>
       </c>
       <c r="F97" s="2">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="G97">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H97">
-        <v>7.99</v>
+        <v>13.67</v>
       </c>
       <c r="I97">
-        <v>7.13</v>
+        <v>12.32</v>
       </c>
       <c r="J97">
-        <v>7.99</v>
+        <v>13.67</v>
       </c>
       <c r="K97">
-        <v>7.99</v>
+        <v>13.67</v>
       </c>
       <c r="L97">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="M97">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="N97">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="O97">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -7391,19 +7430,19 @@
         <v>100</v>
       </c>
       <c r="R97">
-        <v>1.71</v>
+        <v>2.33</v>
       </c>
       <c r="S97">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="T97">
-        <v>3.62</v>
-      </c>
-      <c r="V97" t="s">
-        <v>30</v>
+        <v>6.02</v>
+      </c>
+      <c r="U97" t="s">
+        <v>29</v>
       </c>
       <c r="W97" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/RAAL/Production/Input/weather.xlsx
+++ b/RAAL/Production/Input/weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="133">
   <si>
     <t>dt</t>
   </si>
@@ -76,31 +76,49 @@
     <t>wind.gust</t>
   </si>
   <si>
+    <t>rain.1h</t>
+  </si>
+  <si>
     <t>sys.pod</t>
   </si>
   <si>
-    <t>rain.1h</t>
-  </si>
-  <si>
     <t>Lookup</t>
   </si>
   <si>
+    <t>[{'id': 500, 'main': 'Rain', 'description': 'light rain', 'icon': '10d'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 804, 'main': 'Clouds', 'description': 'overcast clouds', 'icon': '04n'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 500, 'main': 'Rain', 'description': 'light rain', 'icon': '10n'}]</t>
+  </si>
+  <si>
     <t>[{'id': 804, 'main': 'Clouds', 'description': 'overcast clouds', 'icon': '04d'}]</t>
   </si>
   <si>
+    <t>[{'id': 803, 'main': 'Clouds', 'description': 'broken clouds', 'icon': '04n'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 802, 'main': 'Clouds', 'description': 'scattered clouds', 'icon': '03n'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 801, 'main': 'Clouds', 'description': 'few clouds', 'icon': '02n'}]</t>
+  </si>
+  <si>
     <t>[{'id': 803, 'main': 'Clouds', 'description': 'broken clouds', 'icon': '04d'}]</t>
   </si>
   <si>
-    <t>[{'id': 803, 'main': 'Clouds', 'description': 'broken clouds', 'icon': '04n'}]</t>
-  </si>
-  <si>
-    <t>[{'id': 804, 'main': 'Clouds', 'description': 'overcast clouds', 'icon': '04n'}]</t>
-  </si>
-  <si>
-    <t>[{'id': 500, 'main': 'Rain', 'description': 'light rain', 'icon': '10n'}]</t>
-  </si>
-  <si>
-    <t>[{'id': 500, 'main': 'Rain', 'description': 'light rain', 'icon': '10d'}]</t>
+    <t>[{'id': 802, 'main': 'Clouds', 'description': 'scattered clouds', 'icon': '03d'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 801, 'main': 'Clouds', 'description': 'few clouds', 'icon': '02d'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 800, 'main': 'Clear', 'description': 'clear sky', 'icon': '01n'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 800, 'main': 'Clear', 'description': 'clear sky', 'icon': '01d'}]</t>
   </si>
   <si>
     <t>d</t>
@@ -109,292 +127,292 @@
     <t>n</t>
   </si>
   <si>
-    <t>07.02.202412</t>
-  </si>
-  <si>
-    <t>07.02.202413</t>
-  </si>
-  <si>
-    <t>07.02.202414</t>
-  </si>
-  <si>
-    <t>07.02.202415</t>
-  </si>
-  <si>
-    <t>07.02.202416</t>
-  </si>
-  <si>
-    <t>07.02.202417</t>
-  </si>
-  <si>
-    <t>07.02.202418</t>
-  </si>
-  <si>
-    <t>07.02.202419</t>
-  </si>
-  <si>
-    <t>07.02.202420</t>
-  </si>
-  <si>
-    <t>07.02.202421</t>
-  </si>
-  <si>
-    <t>07.02.202422</t>
-  </si>
-  <si>
-    <t>07.02.202423</t>
-  </si>
-  <si>
-    <t>08.02.20240</t>
-  </si>
-  <si>
-    <t>08.02.20241</t>
-  </si>
-  <si>
-    <t>08.02.20242</t>
-  </si>
-  <si>
-    <t>08.02.20243</t>
-  </si>
-  <si>
-    <t>08.02.20244</t>
-  </si>
-  <si>
-    <t>08.02.20245</t>
-  </si>
-  <si>
-    <t>08.02.20246</t>
-  </si>
-  <si>
-    <t>08.02.20247</t>
-  </si>
-  <si>
-    <t>08.02.20248</t>
-  </si>
-  <si>
-    <t>08.02.20249</t>
-  </si>
-  <si>
-    <t>08.02.202410</t>
-  </si>
-  <si>
-    <t>08.02.202411</t>
-  </si>
-  <si>
-    <t>08.02.202412</t>
-  </si>
-  <si>
-    <t>08.02.202413</t>
-  </si>
-  <si>
-    <t>08.02.202414</t>
-  </si>
-  <si>
-    <t>08.02.202415</t>
-  </si>
-  <si>
-    <t>08.02.202416</t>
-  </si>
-  <si>
-    <t>08.02.202417</t>
-  </si>
-  <si>
-    <t>08.02.202418</t>
-  </si>
-  <si>
-    <t>08.02.202419</t>
-  </si>
-  <si>
-    <t>08.02.202420</t>
-  </si>
-  <si>
-    <t>08.02.202421</t>
-  </si>
-  <si>
-    <t>08.02.202422</t>
-  </si>
-  <si>
-    <t>08.02.202423</t>
-  </si>
-  <si>
-    <t>09.02.20240</t>
-  </si>
-  <si>
-    <t>09.02.20241</t>
-  </si>
-  <si>
-    <t>09.02.20242</t>
-  </si>
-  <si>
-    <t>09.02.20243</t>
-  </si>
-  <si>
-    <t>09.02.20244</t>
-  </si>
-  <si>
-    <t>09.02.20245</t>
-  </si>
-  <si>
-    <t>09.02.20246</t>
-  </si>
-  <si>
-    <t>09.02.20247</t>
-  </si>
-  <si>
-    <t>09.02.20248</t>
-  </si>
-  <si>
-    <t>09.02.20249</t>
-  </si>
-  <si>
-    <t>09.02.202410</t>
-  </si>
-  <si>
-    <t>09.02.202411</t>
-  </si>
-  <si>
-    <t>09.02.202412</t>
-  </si>
-  <si>
-    <t>09.02.202413</t>
-  </si>
-  <si>
-    <t>09.02.202414</t>
-  </si>
-  <si>
-    <t>09.02.202415</t>
-  </si>
-  <si>
-    <t>09.02.202416</t>
-  </si>
-  <si>
-    <t>09.02.202417</t>
-  </si>
-  <si>
-    <t>09.02.202418</t>
-  </si>
-  <si>
-    <t>09.02.202419</t>
-  </si>
-  <si>
-    <t>09.02.202420</t>
-  </si>
-  <si>
-    <t>09.02.202421</t>
-  </si>
-  <si>
-    <t>09.02.202422</t>
-  </si>
-  <si>
-    <t>09.02.202423</t>
-  </si>
-  <si>
-    <t>10.02.20240</t>
-  </si>
-  <si>
-    <t>10.02.20241</t>
-  </si>
-  <si>
-    <t>10.02.20242</t>
-  </si>
-  <si>
-    <t>10.02.20243</t>
-  </si>
-  <si>
-    <t>10.02.20244</t>
-  </si>
-  <si>
-    <t>10.02.20245</t>
-  </si>
-  <si>
-    <t>10.02.20246</t>
-  </si>
-  <si>
-    <t>10.02.20247</t>
-  </si>
-  <si>
-    <t>10.02.20248</t>
-  </si>
-  <si>
-    <t>10.02.20249</t>
-  </si>
-  <si>
-    <t>10.02.202410</t>
-  </si>
-  <si>
-    <t>10.02.202411</t>
-  </si>
-  <si>
-    <t>10.02.202412</t>
-  </si>
-  <si>
-    <t>10.02.202413</t>
-  </si>
-  <si>
-    <t>10.02.202414</t>
-  </si>
-  <si>
-    <t>10.02.202415</t>
-  </si>
-  <si>
-    <t>10.02.202416</t>
-  </si>
-  <si>
-    <t>10.02.202417</t>
-  </si>
-  <si>
-    <t>10.02.202418</t>
-  </si>
-  <si>
-    <t>10.02.202419</t>
-  </si>
-  <si>
-    <t>10.02.202420</t>
-  </si>
-  <si>
-    <t>10.02.202421</t>
-  </si>
-  <si>
-    <t>10.02.202422</t>
-  </si>
-  <si>
-    <t>10.02.202423</t>
-  </si>
-  <si>
-    <t>11.02.20240</t>
-  </si>
-  <si>
-    <t>11.02.20241</t>
-  </si>
-  <si>
-    <t>11.02.20242</t>
-  </si>
-  <si>
-    <t>11.02.20243</t>
-  </si>
-  <si>
-    <t>11.02.20244</t>
-  </si>
-  <si>
-    <t>11.02.20245</t>
-  </si>
-  <si>
-    <t>11.02.20246</t>
-  </si>
-  <si>
-    <t>11.02.20247</t>
-  </si>
-  <si>
-    <t>11.02.20248</t>
-  </si>
-  <si>
-    <t>11.02.20249</t>
-  </si>
-  <si>
-    <t>11.02.202410</t>
-  </si>
-  <si>
-    <t>11.02.202411</t>
+    <t>12.02.202414</t>
+  </si>
+  <si>
+    <t>12.02.202415</t>
+  </si>
+  <si>
+    <t>12.02.202416</t>
+  </si>
+  <si>
+    <t>12.02.202417</t>
+  </si>
+  <si>
+    <t>12.02.202418</t>
+  </si>
+  <si>
+    <t>12.02.202419</t>
+  </si>
+  <si>
+    <t>12.02.202420</t>
+  </si>
+  <si>
+    <t>12.02.202421</t>
+  </si>
+  <si>
+    <t>12.02.202422</t>
+  </si>
+  <si>
+    <t>12.02.202423</t>
+  </si>
+  <si>
+    <t>13.02.20240</t>
+  </si>
+  <si>
+    <t>13.02.20241</t>
+  </si>
+  <si>
+    <t>13.02.20242</t>
+  </si>
+  <si>
+    <t>13.02.20243</t>
+  </si>
+  <si>
+    <t>13.02.20244</t>
+  </si>
+  <si>
+    <t>13.02.20245</t>
+  </si>
+  <si>
+    <t>13.02.20246</t>
+  </si>
+  <si>
+    <t>13.02.20247</t>
+  </si>
+  <si>
+    <t>13.02.20248</t>
+  </si>
+  <si>
+    <t>13.02.20249</t>
+  </si>
+  <si>
+    <t>13.02.202410</t>
+  </si>
+  <si>
+    <t>13.02.202411</t>
+  </si>
+  <si>
+    <t>13.02.202412</t>
+  </si>
+  <si>
+    <t>13.02.202413</t>
+  </si>
+  <si>
+    <t>13.02.202414</t>
+  </si>
+  <si>
+    <t>13.02.202415</t>
+  </si>
+  <si>
+    <t>13.02.202416</t>
+  </si>
+  <si>
+    <t>13.02.202417</t>
+  </si>
+  <si>
+    <t>13.02.202418</t>
+  </si>
+  <si>
+    <t>13.02.202419</t>
+  </si>
+  <si>
+    <t>13.02.202420</t>
+  </si>
+  <si>
+    <t>13.02.202421</t>
+  </si>
+  <si>
+    <t>13.02.202422</t>
+  </si>
+  <si>
+    <t>13.02.202423</t>
+  </si>
+  <si>
+    <t>14.02.20240</t>
+  </si>
+  <si>
+    <t>14.02.20241</t>
+  </si>
+  <si>
+    <t>14.02.20242</t>
+  </si>
+  <si>
+    <t>14.02.20243</t>
+  </si>
+  <si>
+    <t>14.02.20244</t>
+  </si>
+  <si>
+    <t>14.02.20245</t>
+  </si>
+  <si>
+    <t>14.02.20246</t>
+  </si>
+  <si>
+    <t>14.02.20247</t>
+  </si>
+  <si>
+    <t>14.02.20248</t>
+  </si>
+  <si>
+    <t>14.02.20249</t>
+  </si>
+  <si>
+    <t>14.02.202410</t>
+  </si>
+  <si>
+    <t>14.02.202411</t>
+  </si>
+  <si>
+    <t>14.02.202412</t>
+  </si>
+  <si>
+    <t>14.02.202413</t>
+  </si>
+  <si>
+    <t>14.02.202414</t>
+  </si>
+  <si>
+    <t>14.02.202415</t>
+  </si>
+  <si>
+    <t>14.02.202416</t>
+  </si>
+  <si>
+    <t>14.02.202417</t>
+  </si>
+  <si>
+    <t>14.02.202418</t>
+  </si>
+  <si>
+    <t>14.02.202419</t>
+  </si>
+  <si>
+    <t>14.02.202420</t>
+  </si>
+  <si>
+    <t>14.02.202421</t>
+  </si>
+  <si>
+    <t>14.02.202422</t>
+  </si>
+  <si>
+    <t>14.02.202423</t>
+  </si>
+  <si>
+    <t>15.02.20240</t>
+  </si>
+  <si>
+    <t>15.02.20241</t>
+  </si>
+  <si>
+    <t>15.02.20242</t>
+  </si>
+  <si>
+    <t>15.02.20243</t>
+  </si>
+  <si>
+    <t>15.02.20244</t>
+  </si>
+  <si>
+    <t>15.02.20245</t>
+  </si>
+  <si>
+    <t>15.02.20246</t>
+  </si>
+  <si>
+    <t>15.02.20247</t>
+  </si>
+  <si>
+    <t>15.02.20248</t>
+  </si>
+  <si>
+    <t>15.02.20249</t>
+  </si>
+  <si>
+    <t>15.02.202410</t>
+  </si>
+  <si>
+    <t>15.02.202411</t>
+  </si>
+  <si>
+    <t>15.02.202412</t>
+  </si>
+  <si>
+    <t>15.02.202413</t>
+  </si>
+  <si>
+    <t>15.02.202414</t>
+  </si>
+  <si>
+    <t>15.02.202415</t>
+  </si>
+  <si>
+    <t>15.02.202416</t>
+  </si>
+  <si>
+    <t>15.02.202417</t>
+  </si>
+  <si>
+    <t>15.02.202418</t>
+  </si>
+  <si>
+    <t>15.02.202419</t>
+  </si>
+  <si>
+    <t>15.02.202420</t>
+  </si>
+  <si>
+    <t>15.02.202421</t>
+  </si>
+  <si>
+    <t>15.02.202422</t>
+  </si>
+  <si>
+    <t>15.02.202423</t>
+  </si>
+  <si>
+    <t>16.02.20240</t>
+  </si>
+  <si>
+    <t>16.02.20241</t>
+  </si>
+  <si>
+    <t>16.02.20242</t>
+  </si>
+  <si>
+    <t>16.02.20243</t>
+  </si>
+  <si>
+    <t>16.02.20244</t>
+  </si>
+  <si>
+    <t>16.02.20245</t>
+  </si>
+  <si>
+    <t>16.02.20246</t>
+  </si>
+  <si>
+    <t>16.02.20247</t>
+  </si>
+  <si>
+    <t>16.02.20248</t>
+  </si>
+  <si>
+    <t>16.02.20249</t>
+  </si>
+  <si>
+    <t>16.02.202410</t>
+  </si>
+  <si>
+    <t>16.02.202411</t>
+  </si>
+  <si>
+    <t>16.02.202412</t>
+  </si>
+  <si>
+    <t>16.02.202413</t>
   </si>
 </sst>
 </file>
@@ -835,7 +853,7 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2">
-        <v>1707307200</v>
+        <v>1707746400</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -844,66 +862,69 @@
         <v>10000</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="E2" s="2">
-        <v>45329.5</v>
+        <v>45334.58333333334</v>
       </c>
       <c r="F2" s="2">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>11.54</v>
+      </c>
+      <c r="I2">
+        <v>10.53</v>
+      </c>
+      <c r="J2">
+        <v>11.54</v>
+      </c>
+      <c r="K2">
         <v>12</v>
       </c>
-      <c r="H2">
-        <v>8.34</v>
-      </c>
-      <c r="I2">
-        <v>4.93</v>
-      </c>
-      <c r="J2">
-        <v>8.34</v>
-      </c>
-      <c r="K2">
-        <v>8.34</v>
-      </c>
       <c r="L2">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="M2">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="N2">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="O2">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-0.46</v>
       </c>
       <c r="Q2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="R2">
-        <v>6.62</v>
+        <v>1.2</v>
       </c>
       <c r="S2">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="T2">
-        <v>16.23</v>
-      </c>
-      <c r="U2" t="s">
-        <v>29</v>
+        <v>1.47</v>
+      </c>
+      <c r="U2">
+        <v>0.26</v>
+      </c>
+      <c r="V2" t="s">
+        <v>35</v>
       </c>
       <c r="W2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3">
-        <v>1707310800</v>
+        <v>1707750000</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -912,134 +933,137 @@
         <v>10000</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="E3" s="2">
-        <v>45329.54166666666</v>
+        <v>45334.625</v>
       </c>
       <c r="F3" s="2">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3">
-        <v>8.4</v>
+        <v>11.32</v>
       </c>
       <c r="I3">
-        <v>5.11</v>
+        <v>10.34</v>
       </c>
       <c r="J3">
-        <v>8.4</v>
+        <v>10.43</v>
       </c>
       <c r="K3">
-        <v>8.640000000000001</v>
+        <v>11.32</v>
       </c>
       <c r="L3">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="M3">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="N3">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="O3">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P3">
-        <v>-0.24</v>
+        <v>0.89</v>
       </c>
       <c r="Q3">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="R3">
-        <v>6.3</v>
+        <v>0.99</v>
       </c>
       <c r="S3">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="T3">
-        <v>15.47</v>
-      </c>
-      <c r="U3" t="s">
-        <v>29</v>
+        <v>1.14</v>
+      </c>
+      <c r="U3">
+        <v>0.21</v>
+      </c>
+      <c r="V3" t="s">
+        <v>35</v>
       </c>
       <c r="W3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4">
-        <v>1707314400</v>
+        <v>1707753600</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>10000</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="E4" s="2">
-        <v>45329.58333333334</v>
+        <v>45334.66666666666</v>
       </c>
       <c r="F4" s="2">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4">
-        <v>8.48</v>
+        <v>10.63</v>
       </c>
       <c r="I4">
-        <v>5.51</v>
+        <v>9.65</v>
       </c>
       <c r="J4">
-        <v>8.48</v>
+        <v>9.26</v>
       </c>
       <c r="K4">
-        <v>8.68</v>
+        <v>10.63</v>
       </c>
       <c r="L4">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="M4">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="N4">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="O4">
         <v>73</v>
       </c>
       <c r="P4">
-        <v>-0.2</v>
+        <v>1.37</v>
       </c>
       <c r="Q4">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R4">
-        <v>5.45</v>
+        <v>0.77</v>
       </c>
       <c r="S4">
-        <v>264</v>
+        <v>4</v>
       </c>
       <c r="T4">
-        <v>13.72</v>
-      </c>
-      <c r="U4" t="s">
-        <v>29</v>
+        <v>0.73</v>
+      </c>
+      <c r="V4" t="s">
+        <v>36</v>
       </c>
       <c r="W4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5">
-        <v>1707318000</v>
+        <v>1707757200</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -1048,134 +1072,134 @@
         <v>10000</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="E5" s="2">
-        <v>45329.625</v>
+        <v>45334.70833333334</v>
       </c>
       <c r="F5" s="2">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
-        <v>7.87</v>
+        <v>9.9</v>
       </c>
       <c r="I5">
-        <v>5.14</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J5">
-        <v>7.56</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K5">
-        <v>7.87</v>
+        <v>9.9</v>
       </c>
       <c r="L5">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="M5">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="N5">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="O5">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P5">
-        <v>0.31</v>
+        <v>1.1</v>
       </c>
       <c r="Q5">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="R5">
-        <v>4.52</v>
+        <v>1.35</v>
       </c>
       <c r="S5">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="T5">
-        <v>10.85</v>
-      </c>
-      <c r="U5" t="s">
-        <v>29</v>
+        <v>1.39</v>
+      </c>
+      <c r="V5" t="s">
+        <v>36</v>
       </c>
       <c r="W5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6">
-        <v>1707321600</v>
+        <v>1707760800</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>10000</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="E6" s="2">
-        <v>45329.66666666666</v>
+        <v>45334.75</v>
       </c>
       <c r="F6" s="2">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6">
-        <v>6.47</v>
+        <v>9.18</v>
       </c>
       <c r="I6">
-        <v>3.56</v>
+        <v>8.33</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>8.59</v>
       </c>
       <c r="K6">
-        <v>6.47</v>
+        <v>9.18</v>
       </c>
       <c r="L6">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="M6">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="N6">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="O6">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="P6">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="Q6">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="R6">
-        <v>4.19</v>
+        <v>1.89</v>
       </c>
       <c r="S6">
-        <v>255</v>
+        <v>51</v>
       </c>
       <c r="T6">
-        <v>9.76</v>
-      </c>
-      <c r="U6" t="s">
-        <v>30</v>
+        <v>2.04</v>
+      </c>
+      <c r="V6" t="s">
+        <v>36</v>
       </c>
       <c r="W6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7">
-        <v>1707325200</v>
+        <v>1707764400</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -1184,655 +1208,658 @@
         <v>10000</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="E7" s="2">
-        <v>45329.70833333334</v>
+        <v>45334.79166666666</v>
       </c>
       <c r="F7" s="2">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7">
-        <v>5.99</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>5.99</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="K7">
-        <v>5.99</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="L7">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="M7">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="N7">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="O7">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R7">
-        <v>4.13</v>
+        <v>2.09</v>
       </c>
       <c r="S7">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="T7">
-        <v>10.02</v>
-      </c>
-      <c r="U7" t="s">
-        <v>30</v>
+        <v>2.47</v>
+      </c>
+      <c r="U7">
+        <v>0.12</v>
+      </c>
+      <c r="V7" t="s">
+        <v>36</v>
       </c>
       <c r="W7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8">
-        <v>1707328800</v>
+        <v>1707768000</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>10000</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="E8" s="2">
-        <v>45329.75</v>
+        <v>45334.83333333334</v>
       </c>
       <c r="F8" s="2">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8">
-        <v>6.04</v>
+        <v>8.9</v>
       </c>
       <c r="I8">
-        <v>3.11</v>
+        <v>7.8</v>
       </c>
       <c r="J8">
-        <v>6.04</v>
+        <v>8.9</v>
       </c>
       <c r="K8">
-        <v>6.04</v>
+        <v>8.9</v>
       </c>
       <c r="L8">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="M8">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="N8">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="O8">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="R8">
-        <v>4.04</v>
+        <v>2.13</v>
       </c>
       <c r="S8">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="T8">
-        <v>10.44</v>
-      </c>
-      <c r="U8" t="s">
-        <v>30</v>
+        <v>2.79</v>
+      </c>
+      <c r="V8" t="s">
+        <v>36</v>
       </c>
       <c r="W8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9">
-        <v>1707332400</v>
+        <v>1707771600</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>10000</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="E9" s="2">
-        <v>45329.79166666666</v>
+        <v>45334.875</v>
       </c>
       <c r="F9" s="2">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9">
-        <v>5.86</v>
+        <v>8.42</v>
       </c>
       <c r="I9">
-        <v>2.87</v>
+        <v>7.21</v>
       </c>
       <c r="J9">
-        <v>5.86</v>
+        <v>8.42</v>
       </c>
       <c r="K9">
-        <v>5.86</v>
+        <v>8.42</v>
       </c>
       <c r="L9">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="M9">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="N9">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="O9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="R9">
-        <v>4.08</v>
+        <v>2.17</v>
       </c>
       <c r="S9">
-        <v>245</v>
+        <v>13</v>
       </c>
       <c r="T9">
-        <v>10.67</v>
-      </c>
-      <c r="U9" t="s">
-        <v>30</v>
+        <v>2.78</v>
+      </c>
+      <c r="V9" t="s">
+        <v>36</v>
       </c>
       <c r="W9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10">
-        <v>1707336000</v>
+        <v>1707775200</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>10000</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="E10" s="2">
-        <v>45329.83333333334</v>
+        <v>45334.91666666666</v>
       </c>
       <c r="F10" s="2">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H10">
-        <v>5.7</v>
+        <v>8.42</v>
       </c>
       <c r="I10">
-        <v>2.84</v>
+        <v>7.41</v>
       </c>
       <c r="J10">
-        <v>5.7</v>
+        <v>8.42</v>
       </c>
       <c r="K10">
-        <v>5.7</v>
+        <v>8.42</v>
       </c>
       <c r="L10">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="M10">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="N10">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="O10">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="R10">
-        <v>3.79</v>
+        <v>1.94</v>
       </c>
       <c r="S10">
-        <v>243</v>
+        <v>9</v>
       </c>
       <c r="T10">
-        <v>11.98</v>
-      </c>
-      <c r="U10" t="s">
-        <v>30</v>
+        <v>2.56</v>
+      </c>
+      <c r="V10" t="s">
+        <v>36</v>
       </c>
       <c r="W10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11">
-        <v>1707339600</v>
+        <v>1707778800</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>10000</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="E11" s="2">
-        <v>45329.875</v>
+        <v>45334.95833333334</v>
       </c>
       <c r="F11" s="2">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H11">
-        <v>5.56</v>
+        <v>8.27</v>
       </c>
       <c r="I11">
-        <v>2.85</v>
+        <v>7.46</v>
       </c>
       <c r="J11">
-        <v>5.56</v>
+        <v>8.27</v>
       </c>
       <c r="K11">
-        <v>5.56</v>
+        <v>8.27</v>
       </c>
       <c r="L11">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="M11">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="N11">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="O11">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="R11">
-        <v>3.49</v>
+        <v>1.7</v>
       </c>
       <c r="S11">
-        <v>238</v>
+        <v>9</v>
       </c>
       <c r="T11">
-        <v>11.33</v>
-      </c>
-      <c r="U11" t="s">
-        <v>30</v>
+        <v>2.27</v>
+      </c>
+      <c r="V11" t="s">
+        <v>36</v>
       </c>
       <c r="W11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12">
-        <v>1707343200</v>
+        <v>1707782400</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>10000</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="E12" s="2">
-        <v>45329.91666666666</v>
+        <v>45335</v>
       </c>
       <c r="F12" s="2">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="G12">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>5.5</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I12">
-        <v>3.04</v>
+        <v>7.52</v>
       </c>
       <c r="J12">
-        <v>5.5</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="K12">
-        <v>5.5</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="L12">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="M12">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="N12">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="O12">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="R12">
-        <v>3.1</v>
+        <v>1.48</v>
       </c>
       <c r="S12">
-        <v>233</v>
+        <v>10</v>
       </c>
       <c r="T12">
-        <v>10.51</v>
-      </c>
-      <c r="U12" t="s">
-        <v>30</v>
+        <v>1.83</v>
+      </c>
+      <c r="V12" t="s">
+        <v>36</v>
       </c>
       <c r="W12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13">
-        <v>1707346800</v>
+        <v>1707786000</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>10000</v>
       </c>
       <c r="D13">
-        <v>0.07000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="E13" s="2">
-        <v>45329.95833333334</v>
+        <v>45335.04166666666</v>
       </c>
       <c r="F13" s="2">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="G13">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>5.43</v>
+        <v>7.96</v>
       </c>
       <c r="I13">
-        <v>3.22</v>
+        <v>7.96</v>
       </c>
       <c r="J13">
-        <v>5.43</v>
+        <v>7.96</v>
       </c>
       <c r="K13">
-        <v>5.43</v>
+        <v>7.96</v>
       </c>
       <c r="L13">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="M13">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="N13">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="O13">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="R13">
-        <v>2.73</v>
+        <v>1.02</v>
       </c>
       <c r="S13">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="T13">
-        <v>10.43</v>
-      </c>
-      <c r="U13" t="s">
-        <v>30</v>
+        <v>1.26</v>
+      </c>
+      <c r="V13" t="s">
+        <v>36</v>
       </c>
       <c r="W13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14">
-        <v>1707350400</v>
+        <v>1707789600</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>10000</v>
       </c>
       <c r="D14">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E14" s="2">
-        <v>45330</v>
+        <v>45335.08333333334</v>
       </c>
       <c r="F14" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>5.54</v>
+        <v>7.83</v>
       </c>
       <c r="I14">
-        <v>2.98</v>
+        <v>7.83</v>
       </c>
       <c r="J14">
-        <v>5.54</v>
+        <v>7.83</v>
       </c>
       <c r="K14">
-        <v>5.54</v>
+        <v>7.83</v>
       </c>
       <c r="L14">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="M14">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="N14">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O14">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="R14">
-        <v>3.25</v>
+        <v>0.84</v>
       </c>
       <c r="S14">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="T14">
-        <v>11.46</v>
-      </c>
-      <c r="U14" t="s">
-        <v>30</v>
-      </c>
-      <c r="V14">
-        <v>0.11</v>
+        <v>1.1</v>
+      </c>
+      <c r="V14" t="s">
+        <v>36</v>
       </c>
       <c r="W14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15">
-        <v>1707354000</v>
+        <v>1707793200</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>10000</v>
       </c>
       <c r="D15">
-        <v>0.19</v>
+        <v>0.79</v>
       </c>
       <c r="E15" s="2">
-        <v>45330.04166666666</v>
+        <v>45335.125</v>
       </c>
       <c r="F15" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>5.46</v>
+        <v>7.65</v>
       </c>
       <c r="I15">
-        <v>2.94</v>
+        <v>7.65</v>
       </c>
       <c r="J15">
-        <v>5.46</v>
+        <v>7.65</v>
       </c>
       <c r="K15">
-        <v>5.46</v>
+        <v>7.65</v>
       </c>
       <c r="L15">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M15">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="N15">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O15">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R15">
-        <v>3.17</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S15">
-        <v>223</v>
+        <v>349</v>
       </c>
       <c r="T15">
-        <v>11.57</v>
-      </c>
-      <c r="U15" t="s">
-        <v>30</v>
+        <v>1.02</v>
+      </c>
+      <c r="U15">
+        <v>0.15</v>
+      </c>
+      <c r="V15" t="s">
+        <v>36</v>
       </c>
       <c r="W15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16">
-        <v>1707357600</v>
+        <v>1707796800</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>8888</v>
+        <v>10000</v>
       </c>
       <c r="D16">
-        <v>0.15</v>
+        <v>0.96</v>
       </c>
       <c r="E16" s="2">
-        <v>45330.08333333334</v>
+        <v>45335.16666666666</v>
       </c>
       <c r="F16" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>5.42</v>
+        <v>7.47</v>
       </c>
       <c r="I16">
-        <v>2.97</v>
+        <v>7.47</v>
       </c>
       <c r="J16">
-        <v>5.42</v>
+        <v>7.47</v>
       </c>
       <c r="K16">
-        <v>5.42</v>
+        <v>7.47</v>
       </c>
       <c r="L16">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M16">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="N16">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="O16">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1841,66 +1868,69 @@
         <v>100</v>
       </c>
       <c r="R16">
-        <v>3.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S16">
-        <v>226</v>
+        <v>350</v>
       </c>
       <c r="T16">
-        <v>11.11</v>
-      </c>
-      <c r="U16" t="s">
-        <v>30</v>
+        <v>1.1</v>
+      </c>
+      <c r="U16">
+        <v>0.27</v>
+      </c>
+      <c r="V16" t="s">
+        <v>36</v>
       </c>
       <c r="W16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17">
-        <v>1707361200</v>
+        <v>1707800400</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>6955</v>
+        <v>10000</v>
       </c>
       <c r="D17">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>45330.125</v>
+        <v>45335.20833333334</v>
       </c>
       <c r="F17" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>5.36</v>
+        <v>7.25</v>
       </c>
       <c r="I17">
-        <v>3.09</v>
+        <v>7.25</v>
       </c>
       <c r="J17">
-        <v>5.36</v>
+        <v>7.25</v>
       </c>
       <c r="K17">
-        <v>5.36</v>
+        <v>7.25</v>
       </c>
       <c r="L17">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="M17">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="N17">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="O17">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1909,66 +1939,69 @@
         <v>100</v>
       </c>
       <c r="R17">
-        <v>2.79</v>
+        <v>1.11</v>
       </c>
       <c r="S17">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="T17">
-        <v>9.85</v>
-      </c>
-      <c r="U17" t="s">
-        <v>30</v>
+        <v>1.43</v>
+      </c>
+      <c r="U17">
+        <v>0.63</v>
+      </c>
+      <c r="V17" t="s">
+        <v>36</v>
       </c>
       <c r="W17" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18">
-        <v>1707364800</v>
+        <v>1707804000</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>8191</v>
+        <v>10000</v>
       </c>
       <c r="D18">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>45330.16666666666</v>
+        <v>45335.25</v>
       </c>
       <c r="F18" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H18">
-        <v>5.41</v>
+        <v>7.14</v>
       </c>
       <c r="I18">
-        <v>3.07</v>
+        <v>7.14</v>
       </c>
       <c r="J18">
-        <v>5.41</v>
+        <v>7.14</v>
       </c>
       <c r="K18">
-        <v>5.41</v>
+        <v>7.14</v>
       </c>
       <c r="L18">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M18">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="N18">
         <v>948</v>
       </c>
       <c r="O18">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1977,54 +2010,57 @@
         <v>100</v>
       </c>
       <c r="R18">
-        <v>2.9</v>
+        <v>1.24</v>
       </c>
       <c r="S18">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="T18">
-        <v>9.94</v>
-      </c>
-      <c r="U18" t="s">
-        <v>30</v>
+        <v>1.93</v>
+      </c>
+      <c r="U18">
+        <v>0.75</v>
+      </c>
+      <c r="V18" t="s">
+        <v>35</v>
       </c>
       <c r="W18" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19">
-        <v>1707368400</v>
+        <v>1707807600</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>10000</v>
       </c>
       <c r="D19">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
-        <v>45330.20833333334</v>
+        <v>45335.29166666666</v>
       </c>
       <c r="F19" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H19">
-        <v>5.31</v>
+        <v>7.09</v>
       </c>
       <c r="I19">
-        <v>3.07</v>
+        <v>6.23</v>
       </c>
       <c r="J19">
-        <v>5.31</v>
+        <v>7.09</v>
       </c>
       <c r="K19">
-        <v>5.31</v>
+        <v>7.09</v>
       </c>
       <c r="L19">
         <v>1008</v>
@@ -2033,10 +2069,10 @@
         <v>1008</v>
       </c>
       <c r="N19">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="O19">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2045,54 +2081,57 @@
         <v>100</v>
       </c>
       <c r="R19">
-        <v>2.75</v>
+        <v>1.59</v>
       </c>
       <c r="S19">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="T19">
-        <v>7.76</v>
-      </c>
-      <c r="U19" t="s">
-        <v>30</v>
+        <v>3.61</v>
+      </c>
+      <c r="U19">
+        <v>0.27</v>
+      </c>
+      <c r="V19" t="s">
+        <v>35</v>
       </c>
       <c r="W19" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20">
-        <v>1707372000</v>
+        <v>1707811200</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20">
-        <v>10000</v>
+        <v>8312</v>
       </c>
       <c r="D20">
-        <v>0.23</v>
+        <v>0.92</v>
       </c>
       <c r="E20" s="2">
-        <v>45330.25</v>
+        <v>45335.33333333334</v>
       </c>
       <c r="F20" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H20">
-        <v>5.19</v>
+        <v>6.89</v>
       </c>
       <c r="I20">
-        <v>3.09</v>
+        <v>5.83</v>
       </c>
       <c r="J20">
-        <v>5.19</v>
+        <v>6.89</v>
       </c>
       <c r="K20">
-        <v>5.19</v>
+        <v>6.89</v>
       </c>
       <c r="L20">
         <v>1008</v>
@@ -2104,7 +2143,7 @@
         <v>949</v>
       </c>
       <c r="O20">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -2113,24 +2152,27 @@
         <v>100</v>
       </c>
       <c r="R20">
-        <v>2.54</v>
+        <v>1.74</v>
       </c>
       <c r="S20">
-        <v>217</v>
+        <v>49</v>
       </c>
       <c r="T20">
-        <v>6.74</v>
-      </c>
-      <c r="U20" t="s">
-        <v>29</v>
+        <v>4.31</v>
+      </c>
+      <c r="U20">
+        <v>0.24</v>
+      </c>
+      <c r="V20" t="s">
+        <v>35</v>
       </c>
       <c r="W20" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21">
-        <v>1707375600</v>
+        <v>1707814800</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -2139,28 +2181,28 @@
         <v>10000</v>
       </c>
       <c r="D21">
-        <v>0.29</v>
+        <v>0.84</v>
       </c>
       <c r="E21" s="2">
-        <v>45330.29166666666</v>
+        <v>45335.375</v>
       </c>
       <c r="F21" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H21">
-        <v>5.23</v>
+        <v>6.86</v>
       </c>
       <c r="I21">
-        <v>3.25</v>
+        <v>5.65</v>
       </c>
       <c r="J21">
-        <v>5.23</v>
+        <v>6.86</v>
       </c>
       <c r="K21">
-        <v>5.23</v>
+        <v>6.86</v>
       </c>
       <c r="L21">
         <v>1009</v>
@@ -2169,10 +2211,10 @@
         <v>1009</v>
       </c>
       <c r="N21">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="O21">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2181,66 +2223,69 @@
         <v>100</v>
       </c>
       <c r="R21">
-        <v>2.41</v>
+        <v>1.88</v>
       </c>
       <c r="S21">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="T21">
-        <v>6.42</v>
-      </c>
-      <c r="U21" t="s">
-        <v>29</v>
+        <v>4.04</v>
+      </c>
+      <c r="U21">
+        <v>0.17</v>
+      </c>
+      <c r="V21" t="s">
+        <v>35</v>
       </c>
       <c r="W21" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22">
-        <v>1707379200</v>
+        <v>1707818400</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>10000</v>
       </c>
       <c r="D22">
-        <v>0.29</v>
+        <v>0.76</v>
       </c>
       <c r="E22" s="2">
-        <v>45330.33333333334</v>
+        <v>45335.41666666666</v>
       </c>
       <c r="F22" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22">
-        <v>5.38</v>
+        <v>7.01</v>
       </c>
       <c r="I22">
-        <v>3.33</v>
+        <v>6.19</v>
       </c>
       <c r="J22">
-        <v>5.38</v>
+        <v>7.01</v>
       </c>
       <c r="K22">
-        <v>5.38</v>
+        <v>7.01</v>
       </c>
       <c r="L22">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="M22">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="N22">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="O22">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2249,66 +2294,66 @@
         <v>100</v>
       </c>
       <c r="R22">
-        <v>2.53</v>
+        <v>1.54</v>
       </c>
       <c r="S22">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="T22">
-        <v>7.39</v>
-      </c>
-      <c r="U22" t="s">
-        <v>29</v>
+        <v>3.34</v>
+      </c>
+      <c r="V22" t="s">
+        <v>35</v>
       </c>
       <c r="W22" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23">
-        <v>1707382800</v>
+        <v>1707822000</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C23">
         <v>10000</v>
       </c>
       <c r="D23">
-        <v>0.23</v>
+        <v>0.76</v>
       </c>
       <c r="E23" s="2">
-        <v>45330.375</v>
+        <v>45335.45833333334</v>
       </c>
       <c r="F23" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H23">
-        <v>5.75</v>
+        <v>7.01</v>
       </c>
       <c r="I23">
-        <v>3.73</v>
+        <v>7.01</v>
       </c>
       <c r="J23">
-        <v>5.75</v>
+        <v>7.01</v>
       </c>
       <c r="K23">
-        <v>5.75</v>
+        <v>7.01</v>
       </c>
       <c r="L23">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="M23">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="N23">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="O23">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2317,66 +2362,66 @@
         <v>100</v>
       </c>
       <c r="R23">
-        <v>2.57</v>
+        <v>1.24</v>
       </c>
       <c r="S23">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="T23">
-        <v>7.16</v>
-      </c>
-      <c r="U23" t="s">
-        <v>29</v>
+        <v>2.93</v>
+      </c>
+      <c r="V23" t="s">
+        <v>35</v>
       </c>
       <c r="W23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24">
-        <v>1707386400</v>
+        <v>1707825600</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>10000</v>
       </c>
       <c r="D24">
-        <v>0.23</v>
+        <v>0.76</v>
       </c>
       <c r="E24" s="2">
-        <v>45330.41666666666</v>
+        <v>45335.5</v>
       </c>
       <c r="F24" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H24">
-        <v>6.11</v>
+        <v>7.19</v>
       </c>
       <c r="I24">
-        <v>3.91</v>
+        <v>7.19</v>
       </c>
       <c r="J24">
-        <v>6.11</v>
+        <v>7.19</v>
       </c>
       <c r="K24">
-        <v>6.11</v>
+        <v>7.19</v>
       </c>
       <c r="L24">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="M24">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="N24">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="O24">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2385,66 +2430,66 @@
         <v>100</v>
       </c>
       <c r="R24">
-        <v>2.9</v>
+        <v>1.31</v>
       </c>
       <c r="S24">
-        <v>224</v>
+        <v>39</v>
       </c>
       <c r="T24">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="U24" t="s">
-        <v>29</v>
+        <v>2.79</v>
+      </c>
+      <c r="V24" t="s">
+        <v>35</v>
       </c>
       <c r="W24" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25">
-        <v>1707390000</v>
+        <v>1707829200</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>10000</v>
       </c>
       <c r="D25">
-        <v>0.23</v>
+        <v>0.6</v>
       </c>
       <c r="E25" s="2">
-        <v>45330.45833333334</v>
+        <v>45335.54166666666</v>
       </c>
       <c r="F25" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G25">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H25">
-        <v>6.56</v>
+        <v>7.47</v>
       </c>
       <c r="I25">
-        <v>4.54</v>
+        <v>6.67</v>
       </c>
       <c r="J25">
-        <v>6.56</v>
+        <v>7.47</v>
       </c>
       <c r="K25">
-        <v>6.56</v>
+        <v>7.47</v>
       </c>
       <c r="L25">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="M25">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="N25">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="O25">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2453,66 +2498,66 @@
         <v>100</v>
       </c>
       <c r="R25">
-        <v>2.77</v>
+        <v>1.58</v>
       </c>
       <c r="S25">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="T25">
-        <v>10.19</v>
-      </c>
-      <c r="U25" t="s">
-        <v>29</v>
+        <v>3.33</v>
+      </c>
+      <c r="V25" t="s">
+        <v>35</v>
       </c>
       <c r="W25" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26">
-        <v>1707393600</v>
+        <v>1707832800</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>10000</v>
       </c>
       <c r="D26">
-        <v>0.23</v>
+        <v>0.52</v>
       </c>
       <c r="E26" s="2">
-        <v>45330.5</v>
+        <v>45335.58333333334</v>
       </c>
       <c r="F26" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G26">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H26">
-        <v>6.68</v>
+        <v>7.48</v>
       </c>
       <c r="I26">
-        <v>4.51</v>
+        <v>6.39</v>
       </c>
       <c r="J26">
-        <v>6.68</v>
+        <v>7.48</v>
       </c>
       <c r="K26">
-        <v>6.68</v>
+        <v>7.48</v>
       </c>
       <c r="L26">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="M26">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="N26">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="O26">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2521,66 +2566,66 @@
         <v>100</v>
       </c>
       <c r="R26">
-        <v>3.02</v>
+        <v>1.86</v>
       </c>
       <c r="S26">
-        <v>232</v>
+        <v>43</v>
       </c>
       <c r="T26">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="U26" t="s">
-        <v>29</v>
+        <v>3.21</v>
+      </c>
+      <c r="V26" t="s">
+        <v>35</v>
       </c>
       <c r="W26" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27">
-        <v>1707397200</v>
+        <v>1707836400</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>10000</v>
       </c>
       <c r="D27">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="E27" s="2">
-        <v>45330.54166666666</v>
+        <v>45335.625</v>
       </c>
       <c r="F27" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G27">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H27">
-        <v>6.62</v>
+        <v>6.91</v>
       </c>
       <c r="I27">
-        <v>4.93</v>
+        <v>5.75</v>
       </c>
       <c r="J27">
-        <v>6.62</v>
+        <v>6.91</v>
       </c>
       <c r="K27">
-        <v>6.62</v>
+        <v>6.91</v>
       </c>
       <c r="L27">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="M27">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="N27">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="O27">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2589,66 +2634,66 @@
         <v>100</v>
       </c>
       <c r="R27">
-        <v>2.36</v>
+        <v>1.84</v>
       </c>
       <c r="S27">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="T27">
-        <v>6.27</v>
-      </c>
-      <c r="U27" t="s">
-        <v>29</v>
+        <v>3.26</v>
+      </c>
+      <c r="V27" t="s">
+        <v>35</v>
       </c>
       <c r="W27" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28">
-        <v>1707400800</v>
+        <v>1707840000</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C28">
         <v>10000</v>
       </c>
       <c r="D28">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="E28" s="2">
-        <v>45330.58333333334</v>
+        <v>45335.66666666666</v>
       </c>
       <c r="F28" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G28">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H28">
-        <v>6.25</v>
+        <v>5.97</v>
       </c>
       <c r="I28">
-        <v>4.77</v>
+        <v>4.63</v>
       </c>
       <c r="J28">
-        <v>6.25</v>
+        <v>5.97</v>
       </c>
       <c r="K28">
-        <v>6.25</v>
+        <v>5.97</v>
       </c>
       <c r="L28">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="M28">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="N28">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="O28">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2657,69 +2702,66 @@
         <v>100</v>
       </c>
       <c r="R28">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="S28">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="T28">
-        <v>5.14</v>
-      </c>
-      <c r="U28" t="s">
-        <v>29</v>
-      </c>
-      <c r="V28">
-        <v>0.16</v>
+        <v>3.1</v>
+      </c>
+      <c r="V28" t="s">
+        <v>36</v>
       </c>
       <c r="W28" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29">
-        <v>1707404400</v>
+        <v>1707843600</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29">
         <v>10000</v>
       </c>
       <c r="D29">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="E29" s="2">
-        <v>45330.625</v>
+        <v>45335.70833333334</v>
       </c>
       <c r="F29" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G29">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H29">
-        <v>6.22</v>
+        <v>5.27</v>
       </c>
       <c r="I29">
-        <v>4.8</v>
+        <v>3.71</v>
       </c>
       <c r="J29">
-        <v>6.22</v>
+        <v>5.27</v>
       </c>
       <c r="K29">
-        <v>6.22</v>
+        <v>5.27</v>
       </c>
       <c r="L29">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="M29">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="N29">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="O29">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2728,66 +2770,66 @@
         <v>100</v>
       </c>
       <c r="R29">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="S29">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="T29">
-        <v>4.75</v>
-      </c>
-      <c r="U29" t="s">
-        <v>29</v>
+        <v>3.18</v>
+      </c>
+      <c r="V29" t="s">
+        <v>36</v>
       </c>
       <c r="W29" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30">
-        <v>1707408000</v>
+        <v>1707847200</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30">
         <v>10000</v>
       </c>
       <c r="D30">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="E30" s="2">
-        <v>45330.66666666666</v>
+        <v>45335.75</v>
       </c>
       <c r="F30" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G30">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H30">
-        <v>6.2</v>
+        <v>4.74</v>
       </c>
       <c r="I30">
-        <v>4.58</v>
+        <v>3.04</v>
       </c>
       <c r="J30">
-        <v>6.2</v>
+        <v>4.74</v>
       </c>
       <c r="K30">
-        <v>6.2</v>
+        <v>4.74</v>
       </c>
       <c r="L30">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="M30">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="N30">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="O30">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2796,66 +2838,66 @@
         <v>100</v>
       </c>
       <c r="R30">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="S30">
-        <v>209</v>
+        <v>66</v>
       </c>
       <c r="T30">
-        <v>5.19</v>
-      </c>
-      <c r="U30" t="s">
-        <v>30</v>
+        <v>3.21</v>
+      </c>
+      <c r="V30" t="s">
+        <v>36</v>
       </c>
       <c r="W30" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31">
-        <v>1707411600</v>
+        <v>1707850800</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C31">
         <v>10000</v>
       </c>
       <c r="D31">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="E31" s="2">
-        <v>45330.70833333334</v>
+        <v>45335.79166666666</v>
       </c>
       <c r="F31" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G31">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31">
-        <v>6.37</v>
+        <v>4.45</v>
       </c>
       <c r="I31">
-        <v>4.61</v>
+        <v>2.71</v>
       </c>
       <c r="J31">
-        <v>6.37</v>
+        <v>4.45</v>
       </c>
       <c r="K31">
-        <v>6.37</v>
+        <v>4.45</v>
       </c>
       <c r="L31">
-        <v>1007</v>
+        <v>1016</v>
       </c>
       <c r="M31">
-        <v>1007</v>
+        <v>1016</v>
       </c>
       <c r="N31">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="O31">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2864,69 +2906,66 @@
         <v>100</v>
       </c>
       <c r="R31">
-        <v>2.39</v>
+        <v>2.02</v>
       </c>
       <c r="S31">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="T31">
-        <v>6.68</v>
-      </c>
-      <c r="U31" t="s">
-        <v>30</v>
-      </c>
-      <c r="V31">
-        <v>0.16</v>
+        <v>3.34</v>
+      </c>
+      <c r="V31" t="s">
+        <v>36</v>
       </c>
       <c r="W31" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32">
-        <v>1707415200</v>
+        <v>1707854400</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <v>10000</v>
       </c>
       <c r="D32">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="E32" s="2">
-        <v>45330.75</v>
+        <v>45335.83333333334</v>
       </c>
       <c r="F32" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G32">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H32">
-        <v>6.68</v>
+        <v>4.26</v>
       </c>
       <c r="I32">
-        <v>4.81</v>
+        <v>2.66</v>
       </c>
       <c r="J32">
-        <v>6.68</v>
+        <v>4.26</v>
       </c>
       <c r="K32">
-        <v>6.68</v>
+        <v>4.26</v>
       </c>
       <c r="L32">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="M32">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="N32">
-        <v>948</v>
+        <v>957</v>
       </c>
       <c r="O32">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2935,66 +2974,66 @@
         <v>100</v>
       </c>
       <c r="R32">
-        <v>2.6</v>
+        <v>1.86</v>
       </c>
       <c r="S32">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="T32">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="U32" t="s">
-        <v>30</v>
+        <v>3.34</v>
+      </c>
+      <c r="V32" t="s">
+        <v>36</v>
       </c>
       <c r="W32" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33">
-        <v>1707418800</v>
+        <v>1707858000</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33">
         <v>10000</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="E33" s="2">
-        <v>45330.79166666666</v>
+        <v>45335.875</v>
       </c>
       <c r="F33" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G33">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H33">
-        <v>6.39</v>
+        <v>4.08</v>
       </c>
       <c r="I33">
-        <v>4.88</v>
+        <v>2.68</v>
       </c>
       <c r="J33">
-        <v>6.39</v>
+        <v>4.08</v>
       </c>
       <c r="K33">
-        <v>6.39</v>
+        <v>4.08</v>
       </c>
       <c r="L33">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="M33">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="N33">
-        <v>948</v>
+        <v>957</v>
       </c>
       <c r="O33">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -3003,66 +3042,66 @@
         <v>100</v>
       </c>
       <c r="R33">
-        <v>2.11</v>
+        <v>1.67</v>
       </c>
       <c r="S33">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="T33">
-        <v>5.09</v>
-      </c>
-      <c r="U33" t="s">
-        <v>30</v>
+        <v>2.94</v>
+      </c>
+      <c r="V33" t="s">
+        <v>36</v>
       </c>
       <c r="W33" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34">
-        <v>1707422400</v>
+        <v>1707861600</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34">
         <v>10000</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E34" s="2">
-        <v>45330.83333333334</v>
+        <v>45335.91666666666</v>
       </c>
       <c r="F34" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G34">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H34">
-        <v>6.23</v>
+        <v>3.8</v>
       </c>
       <c r="I34">
-        <v>4.86</v>
+        <v>2.16</v>
       </c>
       <c r="J34">
-        <v>6.23</v>
+        <v>3.8</v>
       </c>
       <c r="K34">
-        <v>6.23</v>
+        <v>3.8</v>
       </c>
       <c r="L34">
-        <v>1007</v>
+        <v>1018</v>
       </c>
       <c r="M34">
-        <v>1007</v>
+        <v>1018</v>
       </c>
       <c r="N34">
-        <v>948</v>
+        <v>958</v>
       </c>
       <c r="O34">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -3071,66 +3110,66 @@
         <v>100</v>
       </c>
       <c r="R34">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="S34">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="T34">
-        <v>4.46</v>
-      </c>
-      <c r="U34" t="s">
-        <v>30</v>
+        <v>2.95</v>
+      </c>
+      <c r="V34" t="s">
+        <v>36</v>
       </c>
       <c r="W34" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35">
-        <v>1707426000</v>
+        <v>1707865200</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35">
         <v>10000</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E35" s="2">
-        <v>45330.875</v>
+        <v>45335.95833333334</v>
       </c>
       <c r="F35" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="G35">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H35">
-        <v>6.21</v>
+        <v>3.75</v>
       </c>
       <c r="I35">
-        <v>4.7</v>
+        <v>1.81</v>
       </c>
       <c r="J35">
-        <v>6.21</v>
+        <v>3.75</v>
       </c>
       <c r="K35">
-        <v>6.21</v>
+        <v>3.75</v>
       </c>
       <c r="L35">
-        <v>1007</v>
+        <v>1018</v>
       </c>
       <c r="M35">
-        <v>1007</v>
+        <v>1018</v>
       </c>
       <c r="N35">
-        <v>948</v>
+        <v>958</v>
       </c>
       <c r="O35">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -3139,66 +3178,66 @@
         <v>100</v>
       </c>
       <c r="R35">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S35">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c r="T35">
-        <v>4.87</v>
-      </c>
-      <c r="U35" t="s">
-        <v>30</v>
+        <v>3.65</v>
+      </c>
+      <c r="V35" t="s">
+        <v>36</v>
       </c>
       <c r="W35" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36">
-        <v>1707429600</v>
+        <v>1707868800</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C36">
         <v>10000</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E36" s="2">
-        <v>45330.91666666666</v>
+        <v>45336</v>
       </c>
       <c r="F36" s="2">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="G36">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>6.21</v>
+        <v>3.66</v>
       </c>
       <c r="I36">
-        <v>4.94</v>
+        <v>1.66</v>
       </c>
       <c r="J36">
-        <v>6.21</v>
+        <v>3.66</v>
       </c>
       <c r="K36">
-        <v>6.21</v>
+        <v>3.66</v>
       </c>
       <c r="L36">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="M36">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="N36">
-        <v>948</v>
+        <v>958</v>
       </c>
       <c r="O36">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3207,66 +3246,66 @@
         <v>100</v>
       </c>
       <c r="R36">
-        <v>1.84</v>
+        <v>2.14</v>
       </c>
       <c r="S36">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c r="T36">
-        <v>4.35</v>
-      </c>
-      <c r="U36" t="s">
-        <v>30</v>
+        <v>3.97</v>
+      </c>
+      <c r="V36" t="s">
+        <v>36</v>
       </c>
       <c r="W36" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37">
-        <v>1707433200</v>
+        <v>1707872400</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C37">
         <v>10000</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E37" s="2">
-        <v>45330.95833333334</v>
+        <v>45336.04166666666</v>
       </c>
       <c r="F37" s="2">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="G37">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>6.06</v>
+        <v>3.49</v>
       </c>
       <c r="I37">
-        <v>4.96</v>
+        <v>1.52</v>
       </c>
       <c r="J37">
-        <v>6.06</v>
+        <v>3.49</v>
       </c>
       <c r="K37">
-        <v>6.06</v>
+        <v>3.49</v>
       </c>
       <c r="L37">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="M37">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="N37">
-        <v>948</v>
+        <v>959</v>
       </c>
       <c r="O37">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -3275,202 +3314,202 @@
         <v>100</v>
       </c>
       <c r="R37">
-        <v>1.66</v>
+        <v>2.08</v>
       </c>
       <c r="S37">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="T37">
-        <v>3.25</v>
-      </c>
-      <c r="U37" t="s">
-        <v>30</v>
+        <v>3.83</v>
+      </c>
+      <c r="V37" t="s">
+        <v>36</v>
       </c>
       <c r="W37" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38">
-        <v>1707436800</v>
+        <v>1707876000</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38">
         <v>10000</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E38" s="2">
-        <v>45331</v>
+        <v>45336.08333333334</v>
       </c>
       <c r="F38" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>6.01</v>
+        <v>3.17</v>
       </c>
       <c r="I38">
-        <v>4.83</v>
+        <v>1.32</v>
       </c>
       <c r="J38">
-        <v>6.01</v>
+        <v>3.17</v>
       </c>
       <c r="K38">
-        <v>6.01</v>
+        <v>3.17</v>
       </c>
       <c r="L38">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="M38">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="N38">
-        <v>947</v>
+        <v>959</v>
       </c>
       <c r="O38">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R38">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="S38">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="T38">
-        <v>3.18</v>
-      </c>
-      <c r="U38" t="s">
-        <v>30</v>
+        <v>3.12</v>
+      </c>
+      <c r="V38" t="s">
+        <v>36</v>
       </c>
       <c r="W38" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:23">
       <c r="A39">
-        <v>1707440400</v>
+        <v>1707879600</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39">
         <v>10000</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E39" s="2">
-        <v>45331.04166666666</v>
+        <v>45336.125</v>
       </c>
       <c r="F39" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>5.93</v>
+        <v>2.79</v>
       </c>
       <c r="I39">
-        <v>4.79</v>
+        <v>0.86</v>
       </c>
       <c r="J39">
-        <v>5.93</v>
+        <v>2.79</v>
       </c>
       <c r="K39">
-        <v>5.93</v>
+        <v>2.79</v>
       </c>
       <c r="L39">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="M39">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="N39">
-        <v>947</v>
+        <v>960</v>
       </c>
       <c r="O39">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R39">
-        <v>1.68</v>
+        <v>1.94</v>
       </c>
       <c r="S39">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="T39">
-        <v>2.62</v>
-      </c>
-      <c r="U39" t="s">
-        <v>30</v>
+        <v>2.82</v>
+      </c>
+      <c r="V39" t="s">
+        <v>36</v>
       </c>
       <c r="W39" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40">
-        <v>1707444000</v>
+        <v>1707883200</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C40">
         <v>10000</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E40" s="2">
-        <v>45331.08333333334</v>
+        <v>45336.16666666666</v>
       </c>
       <c r="F40" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H40">
-        <v>5.91</v>
+        <v>2.57</v>
       </c>
       <c r="I40">
-        <v>4.9</v>
+        <v>0.61</v>
       </c>
       <c r="J40">
-        <v>5.91</v>
+        <v>2.57</v>
       </c>
       <c r="K40">
-        <v>5.91</v>
+        <v>2.57</v>
       </c>
       <c r="L40">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="M40">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="N40">
-        <v>947</v>
+        <v>960</v>
       </c>
       <c r="O40">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -3479,66 +3518,66 @@
         <v>99</v>
       </c>
       <c r="R40">
-        <v>1.57</v>
+        <v>1.94</v>
       </c>
       <c r="S40">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="T40">
-        <v>2.18</v>
-      </c>
-      <c r="U40" t="s">
-        <v>30</v>
+        <v>2.54</v>
+      </c>
+      <c r="V40" t="s">
+        <v>36</v>
       </c>
       <c r="W40" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:23">
       <c r="A41">
-        <v>1707447600</v>
+        <v>1707886800</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C41">
         <v>10000</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E41" s="2">
-        <v>45331.125</v>
+        <v>45336.20833333334</v>
       </c>
       <c r="F41" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H41">
-        <v>5.97</v>
+        <v>2.3</v>
       </c>
       <c r="I41">
-        <v>5.05</v>
+        <v>0.26</v>
       </c>
       <c r="J41">
-        <v>5.97</v>
+        <v>2.3</v>
       </c>
       <c r="K41">
-        <v>5.97</v>
+        <v>2.3</v>
       </c>
       <c r="L41">
-        <v>1005</v>
+        <v>1021</v>
       </c>
       <c r="M41">
-        <v>1005</v>
+        <v>1021</v>
       </c>
       <c r="N41">
-        <v>947</v>
+        <v>960</v>
       </c>
       <c r="O41">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -3547,24 +3586,24 @@
         <v>99</v>
       </c>
       <c r="R41">
-        <v>1.5</v>
+        <v>1.97</v>
       </c>
       <c r="S41">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="T41">
-        <v>1.98</v>
-      </c>
-      <c r="U41" t="s">
-        <v>30</v>
+        <v>2.81</v>
+      </c>
+      <c r="V41" t="s">
+        <v>36</v>
       </c>
       <c r="W41" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:23">
       <c r="A42">
-        <v>1707451200</v>
+        <v>1707890400</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -3573,40 +3612,40 @@
         <v>10000</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E42" s="2">
-        <v>45331.16666666666</v>
+        <v>45336.25</v>
       </c>
       <c r="F42" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H42">
-        <v>5.63</v>
+        <v>2.4</v>
       </c>
       <c r="I42">
-        <v>4.65</v>
+        <v>0.47</v>
       </c>
       <c r="J42">
-        <v>5.63</v>
+        <v>2.4</v>
       </c>
       <c r="K42">
-        <v>5.63</v>
+        <v>2.4</v>
       </c>
       <c r="L42">
-        <v>1006</v>
+        <v>1022</v>
       </c>
       <c r="M42">
-        <v>1006</v>
+        <v>1022</v>
       </c>
       <c r="N42">
-        <v>947</v>
+        <v>961</v>
       </c>
       <c r="O42">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -3615,24 +3654,24 @@
         <v>99</v>
       </c>
       <c r="R42">
-        <v>1.51</v>
+        <v>1.89</v>
       </c>
       <c r="S42">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="T42">
-        <v>1.65</v>
-      </c>
-      <c r="U42" t="s">
-        <v>30</v>
+        <v>3.11</v>
+      </c>
+      <c r="V42" t="s">
+        <v>35</v>
       </c>
       <c r="W42" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:23">
       <c r="A43">
-        <v>1707454800</v>
+        <v>1707894000</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -3644,66 +3683,66 @@
         <v>0</v>
       </c>
       <c r="E43" s="2">
-        <v>45331.20833333334</v>
+        <v>45336.29166666666</v>
       </c>
       <c r="F43" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H43">
-        <v>5.97</v>
+        <v>3.46</v>
       </c>
       <c r="I43">
-        <v>4.84</v>
+        <v>1.77</v>
       </c>
       <c r="J43">
-        <v>5.97</v>
+        <v>3.46</v>
       </c>
       <c r="K43">
-        <v>5.97</v>
+        <v>3.46</v>
       </c>
       <c r="L43">
-        <v>1006</v>
+        <v>1022</v>
       </c>
       <c r="M43">
-        <v>1006</v>
+        <v>1022</v>
       </c>
       <c r="N43">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="O43">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="P43">
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R43">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="S43">
-        <v>175</v>
+        <v>58</v>
       </c>
       <c r="T43">
-        <v>1.89</v>
-      </c>
-      <c r="U43" t="s">
-        <v>30</v>
+        <v>3.74</v>
+      </c>
+      <c r="V43" t="s">
+        <v>35</v>
       </c>
       <c r="W43" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:23">
       <c r="A44">
-        <v>1707458400</v>
+        <v>1707897600</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C44">
         <v>10000</v>
@@ -3712,105 +3751,105 @@
         <v>0</v>
       </c>
       <c r="E44" s="2">
-        <v>45331.25</v>
+        <v>45336.33333333334</v>
       </c>
       <c r="F44" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G44">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H44">
-        <v>6.03</v>
+        <v>4.39</v>
       </c>
       <c r="I44">
-        <v>5.24</v>
+        <v>2.41</v>
       </c>
       <c r="J44">
-        <v>6.03</v>
+        <v>4.39</v>
       </c>
       <c r="K44">
-        <v>6.03</v>
+        <v>4.39</v>
       </c>
       <c r="L44">
-        <v>1006</v>
+        <v>1022</v>
       </c>
       <c r="M44">
-        <v>1006</v>
+        <v>1022</v>
       </c>
       <c r="N44">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="O44">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R44">
-        <v>1.41</v>
+        <v>2.25</v>
       </c>
       <c r="S44">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c r="T44">
-        <v>1.7</v>
-      </c>
-      <c r="U44" t="s">
-        <v>29</v>
+        <v>3.94</v>
+      </c>
+      <c r="V44" t="s">
+        <v>35</v>
       </c>
       <c r="W44" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:23">
       <c r="A45">
-        <v>1707462000</v>
+        <v>1707901200</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C45">
         <v>10000</v>
       </c>
       <c r="D45">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2">
-        <v>45331.29166666666</v>
+        <v>45336.375</v>
       </c>
       <c r="F45" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G45">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H45">
-        <v>6.24</v>
+        <v>5.26</v>
       </c>
       <c r="I45">
-        <v>5.34</v>
+        <v>3.33</v>
       </c>
       <c r="J45">
-        <v>6.24</v>
+        <v>5.26</v>
       </c>
       <c r="K45">
-        <v>6.24</v>
+        <v>5.26</v>
       </c>
       <c r="L45">
-        <v>1006</v>
+        <v>1022</v>
       </c>
       <c r="M45">
-        <v>1006</v>
+        <v>1022</v>
       </c>
       <c r="N45">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="O45">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -3819,66 +3858,66 @@
         <v>100</v>
       </c>
       <c r="R45">
-        <v>1.52</v>
+        <v>2.36</v>
       </c>
       <c r="S45">
-        <v>202</v>
+        <v>65</v>
       </c>
       <c r="T45">
-        <v>2.41</v>
-      </c>
-      <c r="U45" t="s">
-        <v>29</v>
+        <v>3.75</v>
+      </c>
+      <c r="V45" t="s">
+        <v>35</v>
       </c>
       <c r="W45" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:23">
       <c r="A46">
-        <v>1707465600</v>
+        <v>1707904800</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C46">
         <v>10000</v>
       </c>
       <c r="D46">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E46" s="2">
-        <v>45331.33333333334</v>
+        <v>45336.41666666666</v>
       </c>
       <c r="F46" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G46">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H46">
-        <v>6.26</v>
+        <v>6.03</v>
       </c>
       <c r="I46">
-        <v>6.26</v>
+        <v>4.53</v>
       </c>
       <c r="J46">
-        <v>6.26</v>
+        <v>6.03</v>
       </c>
       <c r="K46">
-        <v>6.26</v>
+        <v>6.03</v>
       </c>
       <c r="L46">
-        <v>1006</v>
+        <v>1022</v>
       </c>
       <c r="M46">
-        <v>1006</v>
+        <v>1022</v>
       </c>
       <c r="N46">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="O46">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -3887,66 +3926,66 @@
         <v>100</v>
       </c>
       <c r="R46">
-        <v>1.17</v>
+        <v>2.04</v>
       </c>
       <c r="S46">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="T46">
-        <v>2.32</v>
-      </c>
-      <c r="U46" t="s">
-        <v>29</v>
+        <v>3.39</v>
+      </c>
+      <c r="V46" t="s">
+        <v>35</v>
       </c>
       <c r="W46" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:23">
       <c r="A47">
-        <v>1707469200</v>
+        <v>1707908400</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C47">
         <v>10000</v>
       </c>
       <c r="D47">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E47" s="2">
-        <v>45331.375</v>
+        <v>45336.45833333334</v>
       </c>
       <c r="F47" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G47">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H47">
-        <v>6.33</v>
+        <v>6.61</v>
       </c>
       <c r="I47">
-        <v>6.33</v>
+        <v>5.5</v>
       </c>
       <c r="J47">
-        <v>6.33</v>
+        <v>6.61</v>
       </c>
       <c r="K47">
-        <v>6.33</v>
+        <v>6.61</v>
       </c>
       <c r="L47">
-        <v>1006</v>
+        <v>1022</v>
       </c>
       <c r="M47">
-        <v>1006</v>
+        <v>1022</v>
       </c>
       <c r="N47">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="O47">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -3955,66 +3994,66 @@
         <v>100</v>
       </c>
       <c r="R47">
-        <v>1.08</v>
+        <v>1.75</v>
       </c>
       <c r="S47">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="T47">
-        <v>2.24</v>
-      </c>
-      <c r="U47" t="s">
-        <v>29</v>
+        <v>3.04</v>
+      </c>
+      <c r="V47" t="s">
+        <v>35</v>
       </c>
       <c r="W47" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:23">
       <c r="A48">
-        <v>1707472800</v>
+        <v>1707912000</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C48">
         <v>10000</v>
       </c>
       <c r="D48">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E48" s="2">
-        <v>45331.41666666666</v>
+        <v>45336.5</v>
       </c>
       <c r="F48" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G48">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H48">
-        <v>6.64</v>
+        <v>7.09</v>
       </c>
       <c r="I48">
-        <v>6.64</v>
+        <v>7.09</v>
       </c>
       <c r="J48">
-        <v>6.64</v>
+        <v>7.09</v>
       </c>
       <c r="K48">
-        <v>6.64</v>
+        <v>7.09</v>
       </c>
       <c r="L48">
-        <v>1006</v>
+        <v>1021</v>
       </c>
       <c r="M48">
-        <v>1006</v>
+        <v>1021</v>
       </c>
       <c r="N48">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="O48">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -4026,506 +4065,497 @@
         <v>1.31</v>
       </c>
       <c r="S48">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="T48">
-        <v>2.67</v>
-      </c>
-      <c r="U48" t="s">
-        <v>29</v>
+        <v>2.72</v>
+      </c>
+      <c r="V48" t="s">
+        <v>35</v>
       </c>
       <c r="W48" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:23">
       <c r="A49">
-        <v>1707476400</v>
+        <v>1707915600</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C49">
         <v>10000</v>
       </c>
       <c r="D49">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="E49" s="2">
-        <v>45331.45833333334</v>
+        <v>45336.54166666666</v>
       </c>
       <c r="F49" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G49">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H49">
-        <v>6.8</v>
+        <v>7.19</v>
       </c>
       <c r="I49">
-        <v>5.79</v>
+        <v>7.19</v>
       </c>
       <c r="J49">
-        <v>6.8</v>
+        <v>7.19</v>
       </c>
       <c r="K49">
-        <v>6.8</v>
+        <v>7.19</v>
       </c>
       <c r="L49">
-        <v>1005</v>
+        <v>1021</v>
       </c>
       <c r="M49">
-        <v>1005</v>
+        <v>1021</v>
       </c>
       <c r="N49">
-        <v>946</v>
+        <v>962</v>
       </c>
       <c r="O49">
+        <v>49</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>99</v>
+      </c>
+      <c r="R49">
+        <v>0.84</v>
+      </c>
+      <c r="S49">
+        <v>53</v>
+      </c>
+      <c r="T49">
+        <v>2.4</v>
+      </c>
+      <c r="V49" t="s">
+        <v>35</v>
+      </c>
+      <c r="W49" t="s">
         <v>84</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>100</v>
-      </c>
-      <c r="R49">
-        <v>1.68</v>
-      </c>
-      <c r="S49">
-        <v>215</v>
-      </c>
-      <c r="T49">
-        <v>4.35</v>
-      </c>
-      <c r="U49" t="s">
-        <v>29</v>
-      </c>
-      <c r="W49" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:23">
       <c r="A50">
-        <v>1707480000</v>
+        <v>1707919200</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C50">
         <v>10000</v>
       </c>
       <c r="D50">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="E50" s="2">
-        <v>45331.5</v>
+        <v>45336.58333333334</v>
       </c>
       <c r="F50" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G50">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H50">
-        <v>6.6</v>
+        <v>6.99</v>
       </c>
       <c r="I50">
-        <v>6.6</v>
+        <v>6.99</v>
       </c>
       <c r="J50">
-        <v>6.6</v>
+        <v>6.99</v>
       </c>
       <c r="K50">
-        <v>6.6</v>
+        <v>6.99</v>
       </c>
       <c r="L50">
-        <v>1005</v>
+        <v>1022</v>
       </c>
       <c r="M50">
-        <v>1005</v>
+        <v>1022</v>
       </c>
       <c r="N50">
-        <v>946</v>
+        <v>962</v>
       </c>
       <c r="O50">
+        <v>50</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>94</v>
+      </c>
+      <c r="R50">
+        <v>0.71</v>
+      </c>
+      <c r="S50">
+        <v>68</v>
+      </c>
+      <c r="T50">
+        <v>2.11</v>
+      </c>
+      <c r="V50" t="s">
+        <v>35</v>
+      </c>
+      <c r="W50" t="s">
         <v>85</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>100</v>
-      </c>
-      <c r="R50">
-        <v>1.19</v>
-      </c>
-      <c r="S50">
-        <v>210</v>
-      </c>
-      <c r="T50">
-        <v>3.48</v>
-      </c>
-      <c r="U50" t="s">
-        <v>29</v>
-      </c>
-      <c r="W50" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:23">
       <c r="A51">
-        <v>1707483600</v>
+        <v>1707922800</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C51">
         <v>10000</v>
       </c>
       <c r="D51">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="E51" s="2">
-        <v>45331.54166666666</v>
+        <v>45336.625</v>
       </c>
       <c r="F51" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G51">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H51">
-        <v>6.48</v>
+        <v>5.91</v>
       </c>
       <c r="I51">
-        <v>6.48</v>
+        <v>5.91</v>
       </c>
       <c r="J51">
-        <v>6.48</v>
+        <v>5.91</v>
       </c>
       <c r="K51">
-        <v>6.48</v>
+        <v>5.91</v>
       </c>
       <c r="L51">
-        <v>1005</v>
+        <v>1022</v>
       </c>
       <c r="M51">
-        <v>1005</v>
+        <v>1022</v>
       </c>
       <c r="N51">
-        <v>946</v>
+        <v>962</v>
       </c>
       <c r="O51">
+        <v>60</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>87</v>
+      </c>
+      <c r="R51">
+        <v>0.7</v>
+      </c>
+      <c r="S51">
         <v>86</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>100</v>
-      </c>
-      <c r="R51">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="S51">
-        <v>185</v>
-      </c>
       <c r="T51">
-        <v>1.81</v>
-      </c>
-      <c r="U51" t="s">
-        <v>29</v>
+        <v>1.55</v>
+      </c>
+      <c r="V51" t="s">
+        <v>35</v>
       </c>
       <c r="W51" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:23">
       <c r="A52">
-        <v>1707487200</v>
+        <v>1707926400</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C52">
         <v>10000</v>
       </c>
       <c r="D52">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="E52" s="2">
-        <v>45331.58333333334</v>
+        <v>45336.66666666666</v>
       </c>
       <c r="F52" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G52">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H52">
-        <v>6.46</v>
+        <v>4.22</v>
       </c>
       <c r="I52">
-        <v>6.46</v>
+        <v>3.03</v>
       </c>
       <c r="J52">
-        <v>6.46</v>
+        <v>4.22</v>
       </c>
       <c r="K52">
-        <v>6.46</v>
+        <v>4.22</v>
       </c>
       <c r="L52">
-        <v>1004</v>
+        <v>1023</v>
       </c>
       <c r="M52">
-        <v>1004</v>
+        <v>1023</v>
       </c>
       <c r="N52">
-        <v>946</v>
+        <v>963</v>
       </c>
       <c r="O52">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="P52">
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="R52">
-        <v>0.46</v>
+        <v>1.52</v>
       </c>
       <c r="S52">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="T52">
-        <v>1.47</v>
-      </c>
-      <c r="U52" t="s">
-        <v>29</v>
-      </c>
-      <c r="V52">
-        <v>0.11</v>
+        <v>1.76</v>
+      </c>
+      <c r="V52" t="s">
+        <v>36</v>
       </c>
       <c r="W52" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:23">
       <c r="A53">
-        <v>1707490800</v>
+        <v>1707930000</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C53">
         <v>10000</v>
       </c>
       <c r="D53">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="E53" s="2">
-        <v>45331.625</v>
+        <v>45336.70833333334</v>
       </c>
       <c r="F53" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G53">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H53">
-        <v>6.28</v>
+        <v>3.24</v>
       </c>
       <c r="I53">
-        <v>6.28</v>
+        <v>1.24</v>
       </c>
       <c r="J53">
-        <v>6.28</v>
+        <v>3.24</v>
       </c>
       <c r="K53">
-        <v>6.28</v>
+        <v>3.24</v>
       </c>
       <c r="L53">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="M53">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="N53">
-        <v>946</v>
+        <v>963</v>
       </c>
       <c r="O53">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="R53">
-        <v>0.58</v>
+        <v>2.07</v>
       </c>
       <c r="S53">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="T53">
-        <v>1.65</v>
-      </c>
-      <c r="U53" t="s">
-        <v>29</v>
-      </c>
-      <c r="V53">
-        <v>0.34</v>
+        <v>2.68</v>
+      </c>
+      <c r="V53" t="s">
+        <v>36</v>
       </c>
       <c r="W53" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:23">
       <c r="A54">
-        <v>1707494400</v>
+        <v>1707933600</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C54">
         <v>10000</v>
       </c>
       <c r="D54">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="E54" s="2">
-        <v>45331.66666666666</v>
+        <v>45336.75</v>
       </c>
       <c r="F54" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G54">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H54">
-        <v>6.37</v>
+        <v>2.55</v>
       </c>
       <c r="I54">
-        <v>6.37</v>
+        <v>0.16</v>
       </c>
       <c r="J54">
-        <v>6.37</v>
+        <v>2.55</v>
       </c>
       <c r="K54">
-        <v>6.37</v>
+        <v>2.55</v>
       </c>
       <c r="L54">
-        <v>1004</v>
+        <v>1024</v>
       </c>
       <c r="M54">
-        <v>1004</v>
+        <v>1024</v>
       </c>
       <c r="N54">
-        <v>946</v>
+        <v>964</v>
       </c>
       <c r="O54">
+        <v>75</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>91</v>
+      </c>
+      <c r="R54">
+        <v>2.33</v>
+      </c>
+      <c r="S54">
+        <v>68</v>
+      </c>
+      <c r="T54">
+        <v>2.94</v>
+      </c>
+      <c r="V54" t="s">
+        <v>36</v>
+      </c>
+      <c r="W54" t="s">
         <v>89</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>100</v>
-      </c>
-      <c r="R54">
-        <v>0.88</v>
-      </c>
-      <c r="S54">
-        <v>171</v>
-      </c>
-      <c r="T54">
-        <v>1.47</v>
-      </c>
-      <c r="U54" t="s">
-        <v>30</v>
-      </c>
-      <c r="V54">
-        <v>0.27</v>
-      </c>
-      <c r="W54" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:23">
       <c r="A55">
-        <v>1707498000</v>
+        <v>1707937200</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C55">
         <v>10000</v>
       </c>
       <c r="D55">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="E55" s="2">
-        <v>45331.70833333334</v>
+        <v>45336.79166666666</v>
       </c>
       <c r="F55" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G55">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H55">
-        <v>6.7</v>
+        <v>2.03</v>
       </c>
       <c r="I55">
-        <v>6.7</v>
+        <v>-0.57</v>
       </c>
       <c r="J55">
-        <v>6.7</v>
+        <v>2.03</v>
       </c>
       <c r="K55">
-        <v>6.7</v>
+        <v>2.03</v>
       </c>
       <c r="L55">
-        <v>1004</v>
+        <v>1025</v>
       </c>
       <c r="M55">
-        <v>1004</v>
+        <v>1025</v>
       </c>
       <c r="N55">
-        <v>945</v>
+        <v>964</v>
       </c>
       <c r="O55">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="R55">
-        <v>0.59</v>
+        <v>2.45</v>
       </c>
       <c r="S55">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="T55">
-        <v>0.96</v>
-      </c>
-      <c r="U55" t="s">
-        <v>30</v>
+        <v>3.04</v>
+      </c>
+      <c r="V55" t="s">
+        <v>36</v>
       </c>
       <c r="W55" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:23">
       <c r="A56">
-        <v>1707501600</v>
+        <v>1707940800</v>
       </c>
       <c r="B56" t="s">
         <v>27</v>
@@ -4534,2175 +4564,2109 @@
         <v>10000</v>
       </c>
       <c r="D56">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="E56" s="2">
-        <v>45331.75</v>
+        <v>45336.83333333334</v>
       </c>
       <c r="F56" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G56">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H56">
-        <v>6.64</v>
+        <v>1.53</v>
       </c>
       <c r="I56">
-        <v>6.64</v>
+        <v>-1.2</v>
       </c>
       <c r="J56">
-        <v>6.64</v>
+        <v>1.53</v>
       </c>
       <c r="K56">
-        <v>6.64</v>
+        <v>1.53</v>
       </c>
       <c r="L56">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="M56">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="N56">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O56">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="R56">
-        <v>0.6</v>
+        <v>2.49</v>
       </c>
       <c r="S56">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="T56">
-        <v>1.01</v>
-      </c>
-      <c r="U56" t="s">
-        <v>30</v>
-      </c>
-      <c r="V56">
-        <v>0.17</v>
+        <v>3.08</v>
+      </c>
+      <c r="V56" t="s">
+        <v>36</v>
       </c>
       <c r="W56" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:23">
       <c r="A57">
-        <v>1707505200</v>
+        <v>1707944400</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>10000</v>
       </c>
       <c r="D57">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="E57" s="2">
-        <v>45331.79166666666</v>
+        <v>45336.875</v>
       </c>
       <c r="F57" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G57">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H57">
-        <v>6.68</v>
+        <v>1.08</v>
       </c>
       <c r="I57">
-        <v>6.68</v>
+        <v>-1.79</v>
       </c>
       <c r="J57">
-        <v>6.68</v>
+        <v>1.08</v>
       </c>
       <c r="K57">
-        <v>6.68</v>
+        <v>1.08</v>
       </c>
       <c r="L57">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="M57">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="N57">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O57">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="R57">
-        <v>1.22</v>
+        <v>2.55</v>
       </c>
       <c r="S57">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="T57">
-        <v>1.54</v>
-      </c>
-      <c r="U57" t="s">
-        <v>30</v>
-      </c>
-      <c r="V57">
-        <v>0.34</v>
+        <v>3.32</v>
+      </c>
+      <c r="V57" t="s">
+        <v>36</v>
       </c>
       <c r="W57" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:23">
       <c r="A58">
-        <v>1707508800</v>
+        <v>1707948000</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>10000</v>
       </c>
       <c r="D58">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="E58" s="2">
-        <v>45331.83333333334</v>
+        <v>45336.91666666666</v>
       </c>
       <c r="F58" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G58">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H58">
-        <v>6.74</v>
+        <v>0.76</v>
       </c>
       <c r="I58">
-        <v>5.93</v>
+        <v>-2.18</v>
       </c>
       <c r="J58">
-        <v>6.74</v>
+        <v>0.76</v>
       </c>
       <c r="K58">
-        <v>6.74</v>
+        <v>0.76</v>
       </c>
       <c r="L58">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="M58">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="N58">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O58">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="R58">
-        <v>1.5</v>
+        <v>2.56</v>
       </c>
       <c r="S58">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="T58">
-        <v>2.72</v>
-      </c>
-      <c r="U58" t="s">
-        <v>30</v>
-      </c>
-      <c r="V58">
-        <v>0.5</v>
+        <v>3.39</v>
+      </c>
+      <c r="V58" t="s">
+        <v>36</v>
       </c>
       <c r="W58" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:23">
       <c r="A59">
-        <v>1707512400</v>
+        <v>1707951600</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>10000</v>
       </c>
       <c r="D59">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="E59" s="2">
-        <v>45331.875</v>
+        <v>45336.95833333334</v>
       </c>
       <c r="F59" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="G59">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H59">
-        <v>6.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I59">
-        <v>5.77</v>
+        <v>-2.32</v>
       </c>
       <c r="J59">
-        <v>6.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K59">
-        <v>6.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L59">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="M59">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="N59">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O59">
+        <v>78</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>38</v>
+      </c>
+      <c r="R59">
+        <v>2.46</v>
+      </c>
+      <c r="S59">
+        <v>66</v>
+      </c>
+      <c r="T59">
+        <v>3.17</v>
+      </c>
+      <c r="V59" t="s">
+        <v>36</v>
+      </c>
+      <c r="W59" t="s">
         <v>94</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>100</v>
-      </c>
-      <c r="R59">
-        <v>1.55</v>
-      </c>
-      <c r="S59">
-        <v>185</v>
-      </c>
-      <c r="T59">
-        <v>2.47</v>
-      </c>
-      <c r="U59" t="s">
-        <v>30</v>
-      </c>
-      <c r="V59">
-        <v>0.62</v>
-      </c>
-      <c r="W59" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:23">
       <c r="A60">
-        <v>1707516000</v>
+        <v>1707955200</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>10000</v>
       </c>
       <c r="D60">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="E60" s="2">
-        <v>45331.91666666666</v>
+        <v>45337</v>
       </c>
       <c r="F60" s="2">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="G60">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>6.58</v>
+        <v>0.47</v>
       </c>
       <c r="I60">
-        <v>5.42</v>
+        <v>-2.27</v>
       </c>
       <c r="J60">
-        <v>6.58</v>
+        <v>0.47</v>
       </c>
       <c r="K60">
-        <v>6.58</v>
+        <v>0.47</v>
       </c>
       <c r="L60">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="M60">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="N60">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O60">
+        <v>77</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>35</v>
+      </c>
+      <c r="R60">
+        <v>2.31</v>
+      </c>
+      <c r="S60">
+        <v>68</v>
+      </c>
+      <c r="T60">
+        <v>2.99</v>
+      </c>
+      <c r="V60" t="s">
+        <v>36</v>
+      </c>
+      <c r="W60" t="s">
         <v>95</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>100</v>
-      </c>
-      <c r="R60">
-        <v>1.79</v>
-      </c>
-      <c r="S60">
-        <v>162</v>
-      </c>
-      <c r="T60">
-        <v>2.39</v>
-      </c>
-      <c r="U60" t="s">
-        <v>30</v>
-      </c>
-      <c r="V60">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W60" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:23">
       <c r="A61">
-        <v>1707519600</v>
+        <v>1707958800</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C61">
         <v>10000</v>
       </c>
       <c r="D61">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="E61" s="2">
-        <v>45331.95833333334</v>
+        <v>45337.04166666666</v>
       </c>
       <c r="F61" s="2">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="G61">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>6.52</v>
+        <v>0.38</v>
       </c>
       <c r="I61">
-        <v>5.58</v>
+        <v>-2.16</v>
       </c>
       <c r="J61">
-        <v>6.52</v>
+        <v>0.38</v>
       </c>
       <c r="K61">
-        <v>6.52</v>
+        <v>0.38</v>
       </c>
       <c r="L61">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="M61">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="N61">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O61">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="R61">
-        <v>1.58</v>
+        <v>2.12</v>
       </c>
       <c r="S61">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="T61">
-        <v>2.11</v>
-      </c>
-      <c r="U61" t="s">
-        <v>30</v>
-      </c>
-      <c r="V61">
-        <v>0.35</v>
+        <v>2.56</v>
+      </c>
+      <c r="V61" t="s">
+        <v>36</v>
       </c>
       <c r="W61" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:23">
       <c r="A62">
-        <v>1707523200</v>
+        <v>1707962400</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C62">
-        <v>8544</v>
+        <v>10000</v>
       </c>
       <c r="D62">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="E62" s="2">
-        <v>45332</v>
+        <v>45337.08333333334</v>
       </c>
       <c r="F62" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62">
-        <v>6.39</v>
+        <v>0.33</v>
       </c>
       <c r="I62">
-        <v>5.34</v>
+        <v>-2</v>
       </c>
       <c r="J62">
-        <v>6.39</v>
+        <v>0.33</v>
       </c>
       <c r="K62">
-        <v>6.39</v>
+        <v>0.33</v>
       </c>
       <c r="L62">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="M62">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="N62">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O62">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="P62">
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="R62">
-        <v>1.66</v>
+        <v>1.94</v>
       </c>
       <c r="S62">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="T62">
-        <v>2.43</v>
-      </c>
-      <c r="U62" t="s">
-        <v>30</v>
-      </c>
-      <c r="V62">
-        <v>0.59</v>
+        <v>2.28</v>
+      </c>
+      <c r="V62" t="s">
+        <v>36</v>
       </c>
       <c r="W62" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:23">
       <c r="A63">
-        <v>1707526800</v>
+        <v>1707966000</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63">
-        <v>7581</v>
+        <v>10000</v>
       </c>
       <c r="D63">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="E63" s="2">
-        <v>45332.04166666666</v>
+        <v>45337.125</v>
       </c>
       <c r="F63" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63">
-        <v>6.45</v>
+        <v>0.31</v>
       </c>
       <c r="I63">
-        <v>5.38</v>
+        <v>-1.92</v>
       </c>
       <c r="J63">
-        <v>6.45</v>
+        <v>0.31</v>
       </c>
       <c r="K63">
-        <v>6.45</v>
+        <v>0.31</v>
       </c>
       <c r="L63">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="M63">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="N63">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O63">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="R63">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="S63">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="T63">
-        <v>2.41</v>
-      </c>
-      <c r="U63" t="s">
-        <v>30</v>
-      </c>
-      <c r="V63">
-        <v>0.95</v>
+        <v>2.01</v>
+      </c>
+      <c r="V63" t="s">
+        <v>36</v>
       </c>
       <c r="W63" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:23">
       <c r="A64">
-        <v>1707530400</v>
+        <v>1707969600</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64">
-        <v>8626</v>
+        <v>10000</v>
       </c>
       <c r="D64">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="E64" s="2">
-        <v>45332.08333333334</v>
+        <v>45337.16666666666</v>
       </c>
       <c r="F64" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H64">
-        <v>6.59</v>
+        <v>0.36</v>
       </c>
       <c r="I64">
-        <v>5.42</v>
+        <v>-1.64</v>
       </c>
       <c r="J64">
-        <v>6.59</v>
+        <v>0.36</v>
       </c>
       <c r="K64">
-        <v>6.59</v>
+        <v>0.36</v>
       </c>
       <c r="L64">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="M64">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="N64">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O64">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S64">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="T64">
-        <v>2.67</v>
-      </c>
-      <c r="U64" t="s">
-        <v>30</v>
-      </c>
-      <c r="V64">
-        <v>0.7</v>
+        <v>1.89</v>
+      </c>
+      <c r="V64" t="s">
+        <v>36</v>
       </c>
       <c r="W64" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:23">
       <c r="A65">
-        <v>1707534000</v>
+        <v>1707973200</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>10000</v>
       </c>
       <c r="D65">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="E65" s="2">
-        <v>45332.125</v>
+        <v>45337.20833333334</v>
       </c>
       <c r="F65" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H65">
-        <v>6.82</v>
+        <v>0.32</v>
       </c>
       <c r="I65">
-        <v>5.72</v>
+        <v>-1.48</v>
       </c>
       <c r="J65">
-        <v>6.82</v>
+        <v>0.32</v>
       </c>
       <c r="K65">
-        <v>6.82</v>
+        <v>0.32</v>
       </c>
       <c r="L65">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="M65">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="N65">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O65">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
       <c r="Q65">
+        <v>47</v>
+      </c>
+      <c r="R65">
+        <v>1.56</v>
+      </c>
+      <c r="S65">
+        <v>73</v>
+      </c>
+      <c r="T65">
+        <v>1.45</v>
+      </c>
+      <c r="V65" t="s">
+        <v>36</v>
+      </c>
+      <c r="W65" t="s">
         <v>100</v>
-      </c>
-      <c r="R65">
-        <v>1.77</v>
-      </c>
-      <c r="S65">
-        <v>156</v>
-      </c>
-      <c r="T65">
-        <v>2.56</v>
-      </c>
-      <c r="U65" t="s">
-        <v>30</v>
-      </c>
-      <c r="V65">
-        <v>0.22</v>
-      </c>
-      <c r="W65" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:23">
       <c r="A66">
-        <v>1707537600</v>
+        <v>1707976800</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C66">
         <v>10000</v>
       </c>
       <c r="D66">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="E66" s="2">
-        <v>45332.16666666666</v>
+        <v>45337.25</v>
       </c>
       <c r="F66" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H66">
-        <v>7</v>
+        <v>0.68</v>
       </c>
       <c r="I66">
-        <v>6.18</v>
+        <v>-0.82</v>
       </c>
       <c r="J66">
-        <v>7</v>
+        <v>0.68</v>
       </c>
       <c r="K66">
-        <v>7</v>
+        <v>0.68</v>
       </c>
       <c r="L66">
-        <v>1004</v>
+        <v>1027</v>
       </c>
       <c r="M66">
-        <v>1004</v>
+        <v>1027</v>
       </c>
       <c r="N66">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O66">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="R66">
+        <v>1.4</v>
+      </c>
+      <c r="S66">
+        <v>78</v>
+      </c>
+      <c r="T66">
         <v>1.54</v>
       </c>
-      <c r="S66">
-        <v>162</v>
-      </c>
-      <c r="T66">
-        <v>1.7</v>
-      </c>
-      <c r="U66" t="s">
-        <v>30</v>
+      <c r="V66" t="s">
+        <v>35</v>
       </c>
       <c r="W66" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:23">
       <c r="A67">
-        <v>1707541200</v>
+        <v>1707980400</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C67">
         <v>10000</v>
       </c>
       <c r="D67">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="E67" s="2">
-        <v>45332.20833333334</v>
+        <v>45337.29166666666</v>
       </c>
       <c r="F67" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G67">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H67">
-        <v>6.93</v>
+        <v>2.26</v>
       </c>
       <c r="I67">
-        <v>6.02</v>
+        <v>2.26</v>
       </c>
       <c r="J67">
-        <v>6.93</v>
+        <v>2.26</v>
       </c>
       <c r="K67">
-        <v>6.93</v>
+        <v>2.26</v>
       </c>
       <c r="L67">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="M67">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="N67">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O67">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="R67">
-        <v>1.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="S67">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="T67">
-        <v>1.81</v>
-      </c>
-      <c r="U67" t="s">
-        <v>30</v>
-      </c>
-      <c r="V67">
-        <v>0.33</v>
+        <v>1.31</v>
+      </c>
+      <c r="V67" t="s">
+        <v>35</v>
       </c>
       <c r="W67" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:23">
       <c r="A68">
-        <v>1707544800</v>
+        <v>1707984000</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C68">
         <v>10000</v>
       </c>
       <c r="D68">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="E68" s="2">
-        <v>45332.25</v>
+        <v>45337.33333333334</v>
       </c>
       <c r="F68" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G68">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H68">
-        <v>6.82</v>
+        <v>3.92</v>
       </c>
       <c r="I68">
-        <v>6.16</v>
+        <v>3.92</v>
       </c>
       <c r="J68">
-        <v>6.82</v>
+        <v>3.92</v>
       </c>
       <c r="K68">
-        <v>6.82</v>
+        <v>3.92</v>
       </c>
       <c r="L68">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="M68">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="N68">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O68">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="R68">
-        <v>1.39</v>
+        <v>0.27</v>
       </c>
       <c r="S68">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="T68">
-        <v>1.65</v>
-      </c>
-      <c r="U68" t="s">
-        <v>29</v>
-      </c>
-      <c r="V68">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
+      </c>
+      <c r="V68" t="s">
+        <v>35</v>
       </c>
       <c r="W68" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:23">
       <c r="A69">
-        <v>1707548400</v>
+        <v>1707987600</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C69">
         <v>10000</v>
       </c>
       <c r="D69">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="E69" s="2">
-        <v>45332.29166666666</v>
+        <v>45337.375</v>
       </c>
       <c r="F69" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G69">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H69">
-        <v>6.95</v>
+        <v>5.22</v>
       </c>
       <c r="I69">
-        <v>6.24</v>
+        <v>5.22</v>
       </c>
       <c r="J69">
-        <v>6.95</v>
+        <v>5.22</v>
       </c>
       <c r="K69">
-        <v>6.95</v>
+        <v>5.22</v>
       </c>
       <c r="L69">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="M69">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="N69">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O69">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="R69">
-        <v>1.44</v>
+        <v>0.78</v>
       </c>
       <c r="S69">
-        <v>148</v>
+        <v>257</v>
       </c>
       <c r="T69">
-        <v>1.7</v>
-      </c>
-      <c r="U69" t="s">
-        <v>29</v>
-      </c>
-      <c r="V69">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
+      </c>
+      <c r="V69" t="s">
+        <v>35</v>
       </c>
       <c r="W69" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:23">
       <c r="A70">
-        <v>1707552000</v>
+        <v>1707991200</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C70">
         <v>10000</v>
       </c>
       <c r="D70">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="E70" s="2">
-        <v>45332.33333333334</v>
+        <v>45337.41666666666</v>
       </c>
       <c r="F70" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G70">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H70">
-        <v>7.13</v>
+        <v>5.87</v>
       </c>
       <c r="I70">
-        <v>6.47</v>
+        <v>4.71</v>
       </c>
       <c r="J70">
-        <v>7.13</v>
+        <v>5.87</v>
       </c>
       <c r="K70">
-        <v>7.13</v>
+        <v>5.87</v>
       </c>
       <c r="L70">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="M70">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="N70">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O70">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="R70">
-        <v>1.42</v>
+        <v>1.69</v>
       </c>
       <c r="S70">
-        <v>122</v>
+        <v>257</v>
       </c>
       <c r="T70">
-        <v>1.74</v>
-      </c>
-      <c r="U70" t="s">
-        <v>29</v>
-      </c>
-      <c r="V70">
-        <v>0.22</v>
+        <v>1.15</v>
+      </c>
+      <c r="V70" t="s">
+        <v>35</v>
       </c>
       <c r="W70" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:23">
       <c r="A71">
-        <v>1707555600</v>
+        <v>1707994800</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C71">
         <v>10000</v>
       </c>
       <c r="D71">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="E71" s="2">
-        <v>45332.375</v>
+        <v>45337.45833333334</v>
       </c>
       <c r="F71" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G71">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H71">
-        <v>7.37</v>
+        <v>6.3</v>
       </c>
       <c r="I71">
-        <v>6.69</v>
+        <v>5.12</v>
       </c>
       <c r="J71">
-        <v>7.37</v>
+        <v>6.3</v>
       </c>
       <c r="K71">
-        <v>7.37</v>
+        <v>6.3</v>
       </c>
       <c r="L71">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="M71">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="N71">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O71">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="R71">
-        <v>1.47</v>
+        <v>1.77</v>
       </c>
       <c r="S71">
-        <v>122</v>
+        <v>257</v>
       </c>
       <c r="T71">
-        <v>1.78</v>
-      </c>
-      <c r="U71" t="s">
-        <v>29</v>
+        <v>1.23</v>
+      </c>
+      <c r="V71" t="s">
+        <v>35</v>
       </c>
       <c r="W71" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:23">
       <c r="A72">
-        <v>1707559200</v>
+        <v>1707998400</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C72">
         <v>10000</v>
       </c>
       <c r="D72">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="E72" s="2">
-        <v>45332.41666666666</v>
+        <v>45337.5</v>
       </c>
       <c r="F72" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G72">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H72">
-        <v>7.45</v>
+        <v>6.5</v>
       </c>
       <c r="I72">
-        <v>6.87</v>
+        <v>5.51</v>
       </c>
       <c r="J72">
-        <v>7.45</v>
+        <v>6.5</v>
       </c>
       <c r="K72">
-        <v>7.45</v>
+        <v>6.5</v>
       </c>
       <c r="L72">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="M72">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="N72">
-        <v>947</v>
+        <v>965</v>
       </c>
       <c r="O72">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="R72">
-        <v>1.39</v>
+        <v>1.62</v>
       </c>
       <c r="S72">
-        <v>120</v>
+        <v>264</v>
       </c>
       <c r="T72">
-        <v>1.77</v>
-      </c>
-      <c r="U72" t="s">
-        <v>29</v>
-      </c>
-      <c r="V72">
-        <v>0.12</v>
+        <v>1.15</v>
+      </c>
+      <c r="V72" t="s">
+        <v>35</v>
       </c>
       <c r="W72" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:23">
       <c r="A73">
-        <v>1707562800</v>
+        <v>1708002000</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C73">
         <v>10000</v>
       </c>
       <c r="D73">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="E73" s="2">
-        <v>45332.45833333334</v>
+        <v>45337.54166666666</v>
       </c>
       <c r="F73" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G73">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H73">
-        <v>7.49</v>
+        <v>6.43</v>
       </c>
       <c r="I73">
-        <v>7.49</v>
+        <v>5.69</v>
       </c>
       <c r="J73">
-        <v>7.49</v>
+        <v>6.43</v>
       </c>
       <c r="K73">
-        <v>7.49</v>
+        <v>6.43</v>
       </c>
       <c r="L73">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="M73">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="N73">
-        <v>946</v>
+        <v>964</v>
       </c>
       <c r="O73">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="R73">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="S73">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="T73">
-        <v>1.6</v>
-      </c>
-      <c r="U73" t="s">
-        <v>29</v>
-      </c>
-      <c r="V73">
-        <v>0.11</v>
+        <v>0.98</v>
+      </c>
+      <c r="V73" t="s">
+        <v>35</v>
       </c>
       <c r="W73" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:23">
       <c r="A74">
-        <v>1707566400</v>
+        <v>1708005600</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C74">
         <v>10000</v>
       </c>
       <c r="D74">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="E74" s="2">
-        <v>45332.5</v>
+        <v>45337.58333333334</v>
       </c>
       <c r="F74" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G74">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H74">
-        <v>8.02</v>
+        <v>6.08</v>
       </c>
       <c r="I74">
-        <v>8.02</v>
+        <v>5.36</v>
       </c>
       <c r="J74">
-        <v>8.02</v>
+        <v>6.08</v>
       </c>
       <c r="K74">
-        <v>8.02</v>
+        <v>6.08</v>
       </c>
       <c r="L74">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="M74">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="N74">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O74">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="R74">
-        <v>0.99</v>
+        <v>1.36</v>
       </c>
       <c r="S74">
-        <v>129</v>
+        <v>263</v>
       </c>
       <c r="T74">
-        <v>1.43</v>
-      </c>
-      <c r="U74" t="s">
-        <v>29</v>
-      </c>
-      <c r="V74">
-        <v>0.16</v>
+        <v>1.18</v>
+      </c>
+      <c r="V74" t="s">
+        <v>35</v>
       </c>
       <c r="W74" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:23">
       <c r="A75">
-        <v>1707570000</v>
+        <v>1708009200</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C75">
         <v>10000</v>
       </c>
       <c r="D75">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="E75" s="2">
-        <v>45332.54166666666</v>
+        <v>45337.625</v>
       </c>
       <c r="F75" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G75">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H75">
-        <v>7.93</v>
+        <v>4.64</v>
       </c>
       <c r="I75">
-        <v>7.93</v>
+        <v>4.64</v>
       </c>
       <c r="J75">
-        <v>7.93</v>
+        <v>4.64</v>
       </c>
       <c r="K75">
-        <v>7.93</v>
+        <v>4.64</v>
       </c>
       <c r="L75">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="M75">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="N75">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O75">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="R75">
-        <v>0.88</v>
+        <v>1.05</v>
       </c>
       <c r="S75">
-        <v>104</v>
+        <v>250</v>
       </c>
       <c r="T75">
-        <v>1.31</v>
-      </c>
-      <c r="U75" t="s">
-        <v>29</v>
+        <v>1.11</v>
+      </c>
+      <c r="V75" t="s">
+        <v>35</v>
       </c>
       <c r="W75" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:23">
       <c r="A76">
-        <v>1707573600</v>
+        <v>1708012800</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C76">
         <v>10000</v>
       </c>
       <c r="D76">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="E76" s="2">
-        <v>45332.58333333334</v>
+        <v>45337.66666666666</v>
       </c>
       <c r="F76" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G76">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H76">
-        <v>7.77</v>
+        <v>2.73</v>
       </c>
       <c r="I76">
-        <v>7.29</v>
+        <v>2.73</v>
       </c>
       <c r="J76">
-        <v>7.77</v>
+        <v>2.73</v>
       </c>
       <c r="K76">
-        <v>7.77</v>
+        <v>2.73</v>
       </c>
       <c r="L76">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="M76">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="N76">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O76">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="R76">
-        <v>1.35</v>
+        <v>0.32</v>
       </c>
       <c r="S76">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="T76">
-        <v>1.5</v>
-      </c>
-      <c r="U76" t="s">
-        <v>29</v>
-      </c>
-      <c r="V76">
-        <v>0.12</v>
+        <v>0.59</v>
+      </c>
+      <c r="V76" t="s">
+        <v>36</v>
       </c>
       <c r="W76" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:23">
       <c r="A77">
-        <v>1707577200</v>
+        <v>1708016400</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C77">
         <v>10000</v>
       </c>
       <c r="D77">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="E77" s="2">
-        <v>45332.625</v>
+        <v>45337.70833333334</v>
       </c>
       <c r="F77" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G77">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H77">
-        <v>7.77</v>
+        <v>2.16</v>
       </c>
       <c r="I77">
-        <v>7.21</v>
+        <v>2.16</v>
       </c>
       <c r="J77">
-        <v>7.77</v>
+        <v>2.16</v>
       </c>
       <c r="K77">
-        <v>7.77</v>
+        <v>2.16</v>
       </c>
       <c r="L77">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="M77">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="N77">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O77">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="R77">
-        <v>1.41</v>
+        <v>0.84</v>
       </c>
       <c r="S77">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="T77">
-        <v>1.62</v>
-      </c>
-      <c r="U77" t="s">
-        <v>29</v>
-      </c>
-      <c r="V77">
-        <v>0.12</v>
+        <v>0.85</v>
+      </c>
+      <c r="V77" t="s">
+        <v>36</v>
       </c>
       <c r="W77" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:23">
       <c r="A78">
-        <v>1707580800</v>
+        <v>1708020000</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C78">
         <v>10000</v>
       </c>
       <c r="D78">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="E78" s="2">
-        <v>45332.66666666666</v>
+        <v>45337.75</v>
       </c>
       <c r="F78" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G78">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H78">
-        <v>7.55</v>
+        <v>1.77</v>
       </c>
       <c r="I78">
-        <v>6.91</v>
+        <v>0.29</v>
       </c>
       <c r="J78">
-        <v>7.55</v>
+        <v>1.77</v>
       </c>
       <c r="K78">
-        <v>7.55</v>
+        <v>1.77</v>
       </c>
       <c r="L78">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="M78">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="N78">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="O78">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="R78">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="S78">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="T78">
-        <v>1.5</v>
-      </c>
-      <c r="U78" t="s">
-        <v>30</v>
-      </c>
-      <c r="V78">
-        <v>0.27</v>
+        <v>1.31</v>
+      </c>
+      <c r="V78" t="s">
+        <v>36</v>
       </c>
       <c r="W78" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:23">
       <c r="A79">
-        <v>1707584400</v>
+        <v>1708023600</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C79">
         <v>10000</v>
       </c>
       <c r="D79">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="E79" s="2">
-        <v>45332.70833333334</v>
+        <v>45337.79166666666</v>
       </c>
       <c r="F79" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G79">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H79">
-        <v>7.52</v>
+        <v>1.45</v>
       </c>
       <c r="I79">
-        <v>6.88</v>
+        <v>-0.12</v>
       </c>
       <c r="J79">
-        <v>7.52</v>
+        <v>1.45</v>
       </c>
       <c r="K79">
-        <v>7.52</v>
+        <v>1.45</v>
       </c>
       <c r="L79">
-        <v>1005</v>
+        <v>1027</v>
       </c>
       <c r="M79">
-        <v>1005</v>
+        <v>1027</v>
       </c>
       <c r="N79">
-        <v>946</v>
+        <v>966</v>
       </c>
       <c r="O79">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="S79">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T79">
-        <v>1.47</v>
-      </c>
-      <c r="U79" t="s">
-        <v>30</v>
-      </c>
-      <c r="V79">
-        <v>0.24</v>
+        <v>1.28</v>
+      </c>
+      <c r="V79" t="s">
+        <v>36</v>
       </c>
       <c r="W79" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:23">
       <c r="A80">
-        <v>1707588000</v>
+        <v>1708027200</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C80">
         <v>10000</v>
       </c>
       <c r="D80">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E80" s="2">
-        <v>45332.75</v>
+        <v>45337.83333333334</v>
       </c>
       <c r="F80" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G80">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H80">
-        <v>7.55</v>
+        <v>1.29</v>
       </c>
       <c r="I80">
-        <v>6.41</v>
+        <v>1.29</v>
       </c>
       <c r="J80">
-        <v>7.55</v>
+        <v>1.29</v>
       </c>
       <c r="K80">
-        <v>7.55</v>
+        <v>1.29</v>
       </c>
       <c r="L80">
-        <v>1005</v>
+        <v>1027</v>
       </c>
       <c r="M80">
-        <v>1005</v>
+        <v>1027</v>
       </c>
       <c r="N80">
-        <v>947</v>
+        <v>966</v>
       </c>
       <c r="O80">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R80">
-        <v>1.92</v>
+        <v>1.32</v>
       </c>
       <c r="S80">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="T80">
-        <v>1.8</v>
-      </c>
-      <c r="U80" t="s">
-        <v>30</v>
-      </c>
-      <c r="V80">
-        <v>0.11</v>
+        <v>1.2</v>
+      </c>
+      <c r="V80" t="s">
+        <v>36</v>
       </c>
       <c r="W80" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:23">
       <c r="A81">
-        <v>1707591600</v>
+        <v>1708030800</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C81">
         <v>10000</v>
       </c>
       <c r="D81">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="E81" s="2">
-        <v>45332.79166666666</v>
+        <v>45337.875</v>
       </c>
       <c r="F81" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G81">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H81">
-        <v>7.64</v>
+        <v>1.17</v>
       </c>
       <c r="I81">
-        <v>6.54</v>
+        <v>-0.2</v>
       </c>
       <c r="J81">
-        <v>7.64</v>
+        <v>1.17</v>
       </c>
       <c r="K81">
-        <v>7.64</v>
+        <v>1.17</v>
       </c>
       <c r="L81">
-        <v>1005</v>
+        <v>1027</v>
       </c>
       <c r="M81">
-        <v>1005</v>
+        <v>1027</v>
       </c>
       <c r="N81">
-        <v>947</v>
+        <v>966</v>
       </c>
       <c r="O81">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>1.9</v>
+        <v>1.36</v>
       </c>
       <c r="S81">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="T81">
-        <v>1.88</v>
-      </c>
-      <c r="U81" t="s">
-        <v>30</v>
+        <v>1.22</v>
+      </c>
+      <c r="V81" t="s">
+        <v>36</v>
       </c>
       <c r="W81" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:23">
       <c r="A82">
-        <v>1707595200</v>
+        <v>1708034400</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C82">
         <v>10000</v>
       </c>
       <c r="D82">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="E82" s="2">
-        <v>45332.83333333334</v>
+        <v>45337.91666666666</v>
       </c>
       <c r="F82" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G82">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H82">
-        <v>7.78</v>
+        <v>1.1</v>
       </c>
       <c r="I82">
-        <v>6.71</v>
+        <v>-0.44</v>
       </c>
       <c r="J82">
-        <v>7.78</v>
+        <v>1.1</v>
       </c>
       <c r="K82">
-        <v>7.78</v>
+        <v>1.1</v>
       </c>
       <c r="L82">
-        <v>1005</v>
+        <v>1027</v>
       </c>
       <c r="M82">
-        <v>1005</v>
+        <v>1027</v>
       </c>
       <c r="N82">
-        <v>946</v>
+        <v>966</v>
       </c>
       <c r="O82">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R82">
-        <v>1.89</v>
+        <v>1.46</v>
       </c>
       <c r="S82">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="T82">
-        <v>1.79</v>
-      </c>
-      <c r="U82" t="s">
-        <v>30</v>
+        <v>1.32</v>
+      </c>
+      <c r="V82" t="s">
+        <v>36</v>
       </c>
       <c r="W82" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:23">
       <c r="A83">
-        <v>1707598800</v>
+        <v>1708038000</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C83">
         <v>10000</v>
       </c>
       <c r="D83">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="E83" s="2">
-        <v>45332.875</v>
+        <v>45337.95833333334</v>
       </c>
       <c r="F83" s="2">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="G83">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H83">
-        <v>7.93</v>
+        <v>1.02</v>
       </c>
       <c r="I83">
-        <v>6.7</v>
+        <v>1.02</v>
       </c>
       <c r="J83">
-        <v>7.93</v>
+        <v>1.02</v>
       </c>
       <c r="K83">
-        <v>7.93</v>
+        <v>1.02</v>
       </c>
       <c r="L83">
-        <v>1004</v>
+        <v>1027</v>
       </c>
       <c r="M83">
-        <v>1004</v>
+        <v>1027</v>
       </c>
       <c r="N83">
-        <v>946</v>
+        <v>966</v>
       </c>
       <c r="O83">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="R83">
-        <v>2.09</v>
+        <v>1.29</v>
       </c>
       <c r="S83">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T83">
-        <v>1.91</v>
-      </c>
-      <c r="U83" t="s">
-        <v>30</v>
+        <v>1.21</v>
+      </c>
+      <c r="V83" t="s">
+        <v>36</v>
       </c>
       <c r="W83" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:23">
       <c r="A84">
-        <v>1707602400</v>
+        <v>1708041600</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C84">
         <v>10000</v>
       </c>
       <c r="D84">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="E84" s="2">
-        <v>45332.91666666666</v>
+        <v>45338</v>
       </c>
       <c r="F84" s="2">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="G84">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>7.2</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I84">
-        <v>6.22</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J84">
-        <v>7.2</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K84">
-        <v>7.2</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L84">
-        <v>1004</v>
+        <v>1027</v>
       </c>
       <c r="M84">
-        <v>1004</v>
+        <v>1027</v>
       </c>
       <c r="N84">
-        <v>946</v>
+        <v>966</v>
       </c>
       <c r="O84">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="R84">
-        <v>1.71</v>
+        <v>1.32</v>
       </c>
       <c r="S84">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="T84">
-        <v>1.71</v>
-      </c>
-      <c r="U84" t="s">
-        <v>30</v>
+        <v>1.19</v>
+      </c>
+      <c r="V84" t="s">
+        <v>36</v>
       </c>
       <c r="W84" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:23">
       <c r="A85">
-        <v>1707606000</v>
+        <v>1708045200</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C85">
         <v>10000</v>
       </c>
       <c r="D85">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="E85" s="2">
-        <v>45332.95833333334</v>
+        <v>45338.04166666666</v>
       </c>
       <c r="F85" s="2">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="G85">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>7.38</v>
+        <v>0.84</v>
       </c>
       <c r="I85">
-        <v>6.45</v>
+        <v>0.84</v>
       </c>
       <c r="J85">
-        <v>7.38</v>
+        <v>0.84</v>
       </c>
       <c r="K85">
-        <v>7.38</v>
+        <v>0.84</v>
       </c>
       <c r="L85">
-        <v>1004</v>
+        <v>1027</v>
       </c>
       <c r="M85">
-        <v>1004</v>
+        <v>1027</v>
       </c>
       <c r="N85">
-        <v>946</v>
+        <v>966</v>
       </c>
       <c r="O85">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="P85">
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="R85">
-        <v>1.69</v>
+        <v>1.18</v>
       </c>
       <c r="S85">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="T85">
-        <v>1.67</v>
-      </c>
-      <c r="U85" t="s">
-        <v>30</v>
+        <v>1.11</v>
+      </c>
+      <c r="V85" t="s">
+        <v>36</v>
       </c>
       <c r="W85" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:23">
       <c r="A86">
-        <v>1707609600</v>
+        <v>1708048800</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C86">
         <v>10000</v>
       </c>
       <c r="D86">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="E86" s="2">
-        <v>45333</v>
+        <v>45338.08333333334</v>
       </c>
       <c r="F86" s="2">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>7.6</v>
+        <v>0.77</v>
       </c>
       <c r="I86">
-        <v>6.33</v>
+        <v>0.77</v>
       </c>
       <c r="J86">
-        <v>7.6</v>
+        <v>0.77</v>
       </c>
       <c r="K86">
-        <v>7.6</v>
+        <v>0.77</v>
       </c>
       <c r="L86">
-        <v>1004</v>
+        <v>1027</v>
       </c>
       <c r="M86">
-        <v>1004</v>
+        <v>1027</v>
       </c>
       <c r="N86">
-        <v>946</v>
+        <v>966</v>
       </c>
       <c r="O86">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="R86">
-        <v>2.07</v>
+        <v>1.31</v>
       </c>
       <c r="S86">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="T86">
-        <v>1.86</v>
-      </c>
-      <c r="U86" t="s">
-        <v>30</v>
+        <v>1.18</v>
+      </c>
+      <c r="V86" t="s">
+        <v>36</v>
       </c>
       <c r="W86" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:23">
       <c r="A87">
-        <v>1707613200</v>
+        <v>1708052400</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C87">
         <v>10000</v>
@@ -6711,66 +6675,66 @@
         <v>0</v>
       </c>
       <c r="E87" s="2">
-        <v>45333.04166666666</v>
+        <v>45338.125</v>
       </c>
       <c r="F87" s="2">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H87">
-        <v>7.66</v>
+        <v>0.7</v>
       </c>
       <c r="I87">
-        <v>6.17</v>
+        <v>-0.76</v>
       </c>
       <c r="J87">
-        <v>7.66</v>
+        <v>0.7</v>
       </c>
       <c r="K87">
-        <v>7.66</v>
+        <v>0.7</v>
       </c>
       <c r="L87">
-        <v>1004</v>
+        <v>1027</v>
       </c>
       <c r="M87">
-        <v>1004</v>
+        <v>1027</v>
       </c>
       <c r="N87">
-        <v>945</v>
+        <v>966</v>
       </c>
       <c r="O87">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="R87">
-        <v>2.35</v>
+        <v>1.38</v>
       </c>
       <c r="S87">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="T87">
-        <v>2.81</v>
-      </c>
-      <c r="U87" t="s">
-        <v>30</v>
+        <v>1.26</v>
+      </c>
+      <c r="V87" t="s">
+        <v>36</v>
       </c>
       <c r="W87" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:23">
       <c r="A88">
-        <v>1707616800</v>
+        <v>1708056000</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C88">
         <v>10000</v>
@@ -6779,66 +6743,66 @@
         <v>0</v>
       </c>
       <c r="E88" s="2">
-        <v>45333.08333333334</v>
+        <v>45338.16666666666</v>
       </c>
       <c r="F88" s="2">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H88">
-        <v>7.45</v>
+        <v>0.6</v>
       </c>
       <c r="I88">
-        <v>5.89</v>
+        <v>0.6</v>
       </c>
       <c r="J88">
-        <v>7.45</v>
+        <v>0.6</v>
       </c>
       <c r="K88">
-        <v>7.45</v>
+        <v>0.6</v>
       </c>
       <c r="L88">
-        <v>1004</v>
+        <v>1027</v>
       </c>
       <c r="M88">
-        <v>1004</v>
+        <v>1027</v>
       </c>
       <c r="N88">
-        <v>945</v>
+        <v>966</v>
       </c>
       <c r="O88">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="P88">
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="R88">
-        <v>2.39</v>
+        <v>1.09</v>
       </c>
       <c r="S88">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T88">
-        <v>2.17</v>
-      </c>
-      <c r="U88" t="s">
-        <v>30</v>
+        <v>0.99</v>
+      </c>
+      <c r="V88" t="s">
+        <v>36</v>
       </c>
       <c r="W88" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:23">
       <c r="A89">
-        <v>1707620400</v>
+        <v>1708059600</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C89">
         <v>10000</v>
@@ -6847,66 +6811,66 @@
         <v>0</v>
       </c>
       <c r="E89" s="2">
-        <v>45333.125</v>
+        <v>45338.20833333334</v>
       </c>
       <c r="F89" s="2">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H89">
-        <v>7.53</v>
+        <v>0.54</v>
       </c>
       <c r="I89">
-        <v>6.58</v>
+        <v>0.54</v>
       </c>
       <c r="J89">
-        <v>7.53</v>
+        <v>0.54</v>
       </c>
       <c r="K89">
-        <v>7.53</v>
+        <v>0.54</v>
       </c>
       <c r="L89">
-        <v>1004</v>
+        <v>1028</v>
       </c>
       <c r="M89">
-        <v>1004</v>
+        <v>1028</v>
       </c>
       <c r="N89">
-        <v>945</v>
+        <v>966</v>
       </c>
       <c r="O89">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P89">
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="R89">
-        <v>1.73</v>
+        <v>1.25</v>
       </c>
       <c r="S89">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="T89">
-        <v>1.68</v>
-      </c>
-      <c r="U89" t="s">
-        <v>30</v>
+        <v>1.17</v>
+      </c>
+      <c r="V89" t="s">
+        <v>36</v>
       </c>
       <c r="W89" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" spans="1:23">
       <c r="A90">
-        <v>1707624000</v>
+        <v>1708063200</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C90">
         <v>10000</v>
@@ -6915,66 +6879,66 @@
         <v>0</v>
       </c>
       <c r="E90" s="2">
-        <v>45333.16666666666</v>
+        <v>45338.25</v>
       </c>
       <c r="F90" s="2">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="G90">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H90">
-        <v>7.68</v>
+        <v>0.87</v>
       </c>
       <c r="I90">
-        <v>6.5</v>
+        <v>0.87</v>
       </c>
       <c r="J90">
-        <v>7.68</v>
+        <v>0.87</v>
       </c>
       <c r="K90">
-        <v>7.68</v>
+        <v>0.87</v>
       </c>
       <c r="L90">
-        <v>1004</v>
+        <v>1028</v>
       </c>
       <c r="M90">
-        <v>1004</v>
+        <v>1028</v>
       </c>
       <c r="N90">
-        <v>945</v>
+        <v>967</v>
       </c>
       <c r="O90">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P90">
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="R90">
-        <v>1.99</v>
+        <v>1.31</v>
       </c>
       <c r="S90">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="T90">
-        <v>1.99</v>
-      </c>
-      <c r="U90" t="s">
-        <v>30</v>
+        <v>1.18</v>
+      </c>
+      <c r="V90" t="s">
+        <v>35</v>
       </c>
       <c r="W90" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:23">
       <c r="A91">
-        <v>1707627600</v>
+        <v>1708066800</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C91">
         <v>10000</v>
@@ -6983,66 +6947,66 @@
         <v>0</v>
       </c>
       <c r="E91" s="2">
-        <v>45333.20833333334</v>
+        <v>45338.29166666666</v>
       </c>
       <c r="F91" s="2">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="G91">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H91">
-        <v>7.17</v>
+        <v>2.8</v>
       </c>
       <c r="I91">
-        <v>5.63</v>
+        <v>2.8</v>
       </c>
       <c r="J91">
-        <v>7.17</v>
+        <v>2.8</v>
       </c>
       <c r="K91">
-        <v>7.17</v>
+        <v>2.8</v>
       </c>
       <c r="L91">
-        <v>1003</v>
+        <v>1028</v>
       </c>
       <c r="M91">
-        <v>1003</v>
+        <v>1028</v>
       </c>
       <c r="N91">
-        <v>945</v>
+        <v>967</v>
       </c>
       <c r="O91">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>2.3</v>
+        <v>0.65</v>
       </c>
       <c r="S91">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="T91">
-        <v>2.18</v>
-      </c>
-      <c r="U91" t="s">
-        <v>30</v>
+        <v>0.8</v>
+      </c>
+      <c r="V91" t="s">
+        <v>35</v>
       </c>
       <c r="W91" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:23">
       <c r="A92">
-        <v>1707631200</v>
+        <v>1708070400</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C92">
         <v>10000</v>
@@ -7051,66 +7015,66 @@
         <v>0</v>
       </c>
       <c r="E92" s="2">
-        <v>45333.25</v>
+        <v>45338.33333333334</v>
       </c>
       <c r="F92" s="2">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="G92">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H92">
-        <v>7.55</v>
+        <v>4.63</v>
       </c>
       <c r="I92">
-        <v>6.14</v>
+        <v>4.63</v>
       </c>
       <c r="J92">
-        <v>7.55</v>
+        <v>4.63</v>
       </c>
       <c r="K92">
-        <v>7.55</v>
+        <v>4.63</v>
       </c>
       <c r="L92">
-        <v>1004</v>
+        <v>1028</v>
       </c>
       <c r="M92">
-        <v>1004</v>
+        <v>1028</v>
       </c>
       <c r="N92">
-        <v>945</v>
+        <v>967</v>
       </c>
       <c r="O92">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="P92">
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>2.23</v>
+        <v>0.06</v>
       </c>
       <c r="S92">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="T92">
-        <v>2.41</v>
-      </c>
-      <c r="U92" t="s">
-        <v>29</v>
+        <v>0.45</v>
+      </c>
+      <c r="V92" t="s">
+        <v>35</v>
       </c>
       <c r="W92" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:23">
       <c r="A93">
-        <v>1707634800</v>
+        <v>1708074000</v>
       </c>
       <c r="B93" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C93">
         <v>10000</v>
@@ -7119,66 +7083,66 @@
         <v>0</v>
       </c>
       <c r="E93" s="2">
-        <v>45333.29166666666</v>
+        <v>45338.375</v>
       </c>
       <c r="F93" s="2">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="G93">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H93">
-        <v>8.460000000000001</v>
+        <v>6.02</v>
       </c>
       <c r="I93">
-        <v>7.46</v>
+        <v>6.02</v>
       </c>
       <c r="J93">
-        <v>8.460000000000001</v>
+        <v>6.02</v>
       </c>
       <c r="K93">
-        <v>8.460000000000001</v>
+        <v>6.02</v>
       </c>
       <c r="L93">
-        <v>1003</v>
+        <v>1028</v>
       </c>
       <c r="M93">
-        <v>1003</v>
+        <v>1028</v>
       </c>
       <c r="N93">
-        <v>945</v>
+        <v>967</v>
       </c>
       <c r="O93">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1.93</v>
+        <v>0.79</v>
       </c>
       <c r="S93">
-        <v>97</v>
+        <v>255</v>
       </c>
       <c r="T93">
-        <v>2.94</v>
-      </c>
-      <c r="U93" t="s">
-        <v>29</v>
+        <v>0.53</v>
+      </c>
+      <c r="V93" t="s">
+        <v>35</v>
       </c>
       <c r="W93" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:23">
       <c r="A94">
-        <v>1707638400</v>
+        <v>1708077600</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C94">
         <v>10000</v>
@@ -7187,66 +7151,66 @@
         <v>0</v>
       </c>
       <c r="E94" s="2">
-        <v>45333.33333333334</v>
+        <v>45338.41666666666</v>
       </c>
       <c r="F94" s="2">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="G94">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H94">
-        <v>9.94</v>
+        <v>6.94</v>
       </c>
       <c r="I94">
-        <v>9.31</v>
+        <v>6.94</v>
       </c>
       <c r="J94">
-        <v>9.94</v>
+        <v>6.94</v>
       </c>
       <c r="K94">
-        <v>9.94</v>
+        <v>6.94</v>
       </c>
       <c r="L94">
-        <v>1003</v>
+        <v>1028</v>
       </c>
       <c r="M94">
-        <v>1003</v>
+        <v>1028</v>
       </c>
       <c r="N94">
-        <v>945</v>
+        <v>968</v>
       </c>
       <c r="O94">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="P94">
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>1.78</v>
+        <v>1.21</v>
       </c>
       <c r="S94">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c r="T94">
-        <v>4.38</v>
-      </c>
-      <c r="U94" t="s">
-        <v>29</v>
+        <v>0.78</v>
+      </c>
+      <c r="V94" t="s">
+        <v>35</v>
       </c>
       <c r="W94" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:23">
       <c r="A95">
-        <v>1707642000</v>
+        <v>1708081200</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C95">
         <v>10000</v>
@@ -7255,66 +7219,66 @@
         <v>0</v>
       </c>
       <c r="E95" s="2">
-        <v>45333.375</v>
+        <v>45338.45833333334</v>
       </c>
       <c r="F95" s="2">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="G95">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H95">
-        <v>12.3</v>
+        <v>7.49</v>
       </c>
       <c r="I95">
-        <v>11.02</v>
+        <v>6.82</v>
       </c>
       <c r="J95">
-        <v>12.3</v>
+        <v>7.49</v>
       </c>
       <c r="K95">
-        <v>12.3</v>
+        <v>7.49</v>
       </c>
       <c r="L95">
-        <v>1002</v>
+        <v>1027</v>
       </c>
       <c r="M95">
-        <v>1002</v>
+        <v>1027</v>
       </c>
       <c r="N95">
-        <v>945</v>
+        <v>967</v>
       </c>
       <c r="O95">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P95">
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="S95">
-        <v>139</v>
+        <v>257</v>
       </c>
       <c r="T95">
-        <v>5.8</v>
-      </c>
-      <c r="U95" t="s">
-        <v>29</v>
+        <v>0.97</v>
+      </c>
+      <c r="V95" t="s">
+        <v>35</v>
       </c>
       <c r="W95" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:23">
       <c r="A96">
-        <v>1707645600</v>
+        <v>1708084800</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C96">
         <v>10000</v>
@@ -7323,66 +7287,66 @@
         <v>0</v>
       </c>
       <c r="E96" s="2">
-        <v>45333.41666666666</v>
+        <v>45338.5</v>
       </c>
       <c r="F96" s="2">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="G96">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H96">
-        <v>13.19</v>
+        <v>7.72</v>
       </c>
       <c r="I96">
-        <v>11.84</v>
+        <v>7.04</v>
       </c>
       <c r="J96">
-        <v>13.19</v>
+        <v>7.72</v>
       </c>
       <c r="K96">
-        <v>13.19</v>
+        <v>7.72</v>
       </c>
       <c r="L96">
-        <v>1002</v>
+        <v>1027</v>
       </c>
       <c r="M96">
-        <v>1002</v>
+        <v>1027</v>
       </c>
       <c r="N96">
-        <v>944</v>
+        <v>967</v>
       </c>
       <c r="O96">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="P96">
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>2.03</v>
+        <v>1.51</v>
       </c>
       <c r="S96">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="T96">
-        <v>5.85</v>
-      </c>
-      <c r="U96" t="s">
-        <v>29</v>
+        <v>0.98</v>
+      </c>
+      <c r="V96" t="s">
+        <v>35</v>
       </c>
       <c r="W96" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:23">
       <c r="A97">
-        <v>1707649200</v>
+        <v>1708088400</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C97">
         <v>10000</v>
@@ -7391,58 +7355,58 @@
         <v>0</v>
       </c>
       <c r="E97" s="2">
-        <v>45333.45833333334</v>
+        <v>45338.54166666666</v>
       </c>
       <c r="F97" s="2">
-        <v>45333</v>
+        <v>45338</v>
       </c>
       <c r="G97">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H97">
-        <v>13.67</v>
+        <v>7.63</v>
       </c>
       <c r="I97">
-        <v>12.32</v>
+        <v>7.63</v>
       </c>
       <c r="J97">
-        <v>13.67</v>
+        <v>7.63</v>
       </c>
       <c r="K97">
-        <v>13.67</v>
+        <v>7.63</v>
       </c>
       <c r="L97">
-        <v>1001</v>
+        <v>1027</v>
       </c>
       <c r="M97">
-        <v>1001</v>
+        <v>1027</v>
       </c>
       <c r="N97">
-        <v>944</v>
+        <v>967</v>
       </c>
       <c r="O97">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P97">
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>2.33</v>
+        <v>1.31</v>
       </c>
       <c r="S97">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="T97">
-        <v>6.02</v>
-      </c>
-      <c r="U97" t="s">
-        <v>29</v>
+        <v>0.73</v>
+      </c>
+      <c r="V97" t="s">
+        <v>35</v>
       </c>
       <c r="W97" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/RAAL/Production/Input/weather.xlsx
+++ b/RAAL/Production/Input/weather.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mynexte-my.sharepoint.com/personal/andrei_ionita_mynexte_com/Documents/Desktop/ML/Forecast_app/RAAL/Production/Input/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDD423CC511565404E19D7A6025D665493" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BDCEE16-4B04-449A-8BD3-907C02D893D6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -265,11 +284,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,13 +352,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -377,7 +404,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -411,6 +438,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -445,9 +473,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -620,14 +649,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,7 +757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1707829200</v>
       </c>
@@ -715,7 +771,7 @@
         <v>0.68</v>
       </c>
       <c r="E2" s="2">
-        <v>45335.54166666666</v>
+        <v>45335.541666666657</v>
       </c>
       <c r="F2" s="2">
         <v>45335</v>
@@ -769,7 +825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1707832800</v>
       </c>
@@ -783,7 +839,7 @@
         <v>0.65</v>
       </c>
       <c r="E3" s="2">
-        <v>45335.58333333334</v>
+        <v>45335.583333333343</v>
       </c>
       <c r="F3" s="2">
         <v>45335</v>
@@ -828,7 +884,7 @@
         <v>43</v>
       </c>
       <c r="T3">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="U3" t="s">
         <v>32</v>
@@ -837,7 +893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1707836400</v>
       </c>
@@ -905,7 +961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1707840000</v>
       </c>
@@ -919,7 +975,7 @@
         <v>0.65</v>
       </c>
       <c r="E5" s="2">
-        <v>45335.66666666666</v>
+        <v>45335.666666666657</v>
       </c>
       <c r="F5" s="2">
         <v>45335</v>
@@ -973,7 +1029,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1707843600</v>
       </c>
@@ -984,10 +1040,10 @@
         <v>10000</v>
       </c>
       <c r="D6">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E6" s="2">
-        <v>45335.70833333334</v>
+        <v>45335.708333333343</v>
       </c>
       <c r="F6" s="2">
         <v>45335</v>
@@ -1041,7 +1097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1707847200</v>
       </c>
@@ -1100,7 +1156,7 @@
         <v>53</v>
       </c>
       <c r="T7">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="U7" t="s">
         <v>33</v>
@@ -1109,7 +1165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1707850800</v>
       </c>
@@ -1123,7 +1179,7 @@
         <v>0.33</v>
       </c>
       <c r="E8" s="2">
-        <v>45335.79166666666</v>
+        <v>45335.791666666657</v>
       </c>
       <c r="F8" s="2">
         <v>45335</v>
@@ -1177,7 +1233,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1707854400</v>
       </c>
@@ -1191,7 +1247,7 @@
         <v>0.33</v>
       </c>
       <c r="E9" s="2">
-        <v>45335.83333333334</v>
+        <v>45335.833333333343</v>
       </c>
       <c r="F9" s="2">
         <v>45335</v>
@@ -1245,7 +1301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1707858000</v>
       </c>
@@ -1268,16 +1324,16 @@
         <v>21</v>
       </c>
       <c r="H10">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I10">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J10">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K10">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L10">
         <v>1015</v>
@@ -1298,7 +1354,7 @@
         <v>100</v>
       </c>
       <c r="R10">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="S10">
         <v>23</v>
@@ -1313,7 +1369,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1707861600</v>
       </c>
@@ -1327,7 +1383,7 @@
         <v>0.45</v>
       </c>
       <c r="E11" s="2">
-        <v>45335.91666666666</v>
+        <v>45335.916666666657</v>
       </c>
       <c r="F11" s="2">
         <v>45335</v>
@@ -1384,7 +1440,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1707865200</v>
       </c>
@@ -1398,7 +1454,7 @@
         <v>0.64</v>
       </c>
       <c r="E12" s="2">
-        <v>45335.95833333334</v>
+        <v>45335.958333333343</v>
       </c>
       <c r="F12" s="2">
         <v>45335</v>
@@ -1449,13 +1505,13 @@
         <v>33</v>
       </c>
       <c r="V12">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="X12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1707868800</v>
       </c>
@@ -1526,7 +1582,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1707872400</v>
       </c>
@@ -1540,7 +1596,7 @@
         <v>0.71</v>
       </c>
       <c r="E14" s="2">
-        <v>45336.04166666666</v>
+        <v>45336.041666666657</v>
       </c>
       <c r="F14" s="2">
         <v>45336</v>
@@ -1597,7 +1653,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1707876000</v>
       </c>
@@ -1611,7 +1667,7 @@
         <v>0.67</v>
       </c>
       <c r="E15" s="2">
-        <v>45336.08333333334</v>
+        <v>45336.083333333343</v>
       </c>
       <c r="F15" s="2">
         <v>45336</v>
@@ -1668,7 +1724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1707879600</v>
       </c>
@@ -1727,7 +1783,7 @@
         <v>320</v>
       </c>
       <c r="T16">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="U16" t="s">
         <v>33</v>
@@ -1736,7 +1792,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1707883200</v>
       </c>
@@ -1750,7 +1806,7 @@
         <v>0.59</v>
       </c>
       <c r="E17" s="2">
-        <v>45336.16666666666</v>
+        <v>45336.166666666657</v>
       </c>
       <c r="F17" s="2">
         <v>45336</v>
@@ -1789,7 +1845,7 @@
         <v>100</v>
       </c>
       <c r="R17">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S17">
         <v>324</v>
@@ -1804,7 +1860,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1707886800</v>
       </c>
@@ -1818,7 +1874,7 @@
         <v>0.51</v>
       </c>
       <c r="E18" s="2">
-        <v>45336.20833333334</v>
+        <v>45336.208333333343</v>
       </c>
       <c r="F18" s="2">
         <v>45336</v>
@@ -1872,7 +1928,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1707890400</v>
       </c>
@@ -1925,7 +1981,7 @@
         <v>100</v>
       </c>
       <c r="R19">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="S19">
         <v>352</v>
@@ -1940,7 +1996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1707894000</v>
       </c>
@@ -1951,10 +2007,10 @@
         <v>10000</v>
       </c>
       <c r="D20">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E20" s="2">
-        <v>45336.29166666666</v>
+        <v>45336.291666666657</v>
       </c>
       <c r="F20" s="2">
         <v>45336</v>
@@ -1993,7 +2049,7 @@
         <v>99</v>
       </c>
       <c r="R20">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="S20">
         <v>356</v>
@@ -2008,7 +2064,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1707897600</v>
       </c>
@@ -2022,7 +2078,7 @@
         <v>0.04</v>
       </c>
       <c r="E21" s="2">
-        <v>45336.33333333334</v>
+        <v>45336.333333333343</v>
       </c>
       <c r="F21" s="2">
         <v>45336</v>
@@ -2076,7 +2132,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1707901200</v>
       </c>
@@ -2144,7 +2200,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1707904800</v>
       </c>
@@ -2158,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>45336.41666666666</v>
+        <v>45336.416666666657</v>
       </c>
       <c r="F23" s="2">
         <v>45336</v>
@@ -2212,7 +2268,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1707908400</v>
       </c>
@@ -2226,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>45336.45833333334</v>
+        <v>45336.458333333343</v>
       </c>
       <c r="F24" s="2">
         <v>45336</v>
@@ -2280,7 +2336,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1707912000</v>
       </c>
@@ -2348,7 +2404,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1707915600</v>
       </c>
@@ -2362,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>45336.54166666666</v>
+        <v>45336.541666666657</v>
       </c>
       <c r="F26" s="2">
         <v>45336</v>
@@ -2416,7 +2472,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1707919200</v>
       </c>
@@ -2430,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>45336.58333333334</v>
+        <v>45336.583333333343</v>
       </c>
       <c r="F27" s="2">
         <v>45336</v>
@@ -2484,7 +2540,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1707922800</v>
       </c>
@@ -2537,7 +2593,7 @@
         <v>99</v>
       </c>
       <c r="R28">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S28">
         <v>303</v>
@@ -2552,7 +2608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1707926400</v>
       </c>
@@ -2566,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>45336.66666666666</v>
+        <v>45336.666666666657</v>
       </c>
       <c r="F29" s="2">
         <v>45336</v>
@@ -2620,7 +2676,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1707930000</v>
       </c>
@@ -2634,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>45336.70833333334</v>
+        <v>45336.708333333343</v>
       </c>
       <c r="F30" s="2">
         <v>45336</v>
@@ -2688,7 +2744,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1707933600</v>
       </c>
@@ -2756,7 +2812,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1707937200</v>
       </c>
@@ -2770,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="2">
-        <v>45336.79166666666</v>
+        <v>45336.791666666657</v>
       </c>
       <c r="F32" s="2">
         <v>45336</v>
@@ -2824,7 +2880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1707940800</v>
       </c>
@@ -2838,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>45336.83333333334</v>
+        <v>45336.833333333343</v>
       </c>
       <c r="F33" s="2">
         <v>45336</v>
@@ -2892,7 +2948,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1707944400</v>
       </c>
@@ -2945,13 +3001,13 @@
         <v>59</v>
       </c>
       <c r="R34">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="S34">
         <v>63</v>
       </c>
       <c r="T34">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="U34" t="s">
         <v>33</v>
@@ -2960,7 +3016,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1707948000</v>
       </c>
@@ -2974,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="2">
-        <v>45336.91666666666</v>
+        <v>45336.916666666657</v>
       </c>
       <c r="F35" s="2">
         <v>45336</v>
@@ -3013,13 +3069,13 @@
         <v>59</v>
       </c>
       <c r="R35">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="S35">
         <v>65</v>
       </c>
       <c r="T35">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="U35" t="s">
         <v>33</v>
@@ -3028,7 +3084,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1707951600</v>
       </c>
@@ -3042,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="2">
-        <v>45336.95833333334</v>
+        <v>45336.958333333343</v>
       </c>
       <c r="F36" s="2">
         <v>45336</v>
@@ -3096,7 +3152,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1707955200</v>
       </c>
@@ -3155,7 +3211,7 @@
         <v>69</v>
       </c>
       <c r="T37">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="U37" t="s">
         <v>33</v>
@@ -3164,7 +3220,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1707958800</v>
       </c>
@@ -3178,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="2">
-        <v>45337.04166666666</v>
+        <v>45337.041666666657</v>
       </c>
       <c r="F38" s="2">
         <v>45337</v>
@@ -3232,7 +3288,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1707962400</v>
       </c>
@@ -3246,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="2">
-        <v>45337.08333333334</v>
+        <v>45337.083333333343</v>
       </c>
       <c r="F39" s="2">
         <v>45337</v>
@@ -3300,7 +3356,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1707966000</v>
       </c>
@@ -3326,7 +3382,7 @@
         <v>0.64</v>
       </c>
       <c r="I40">
-        <v>-1.09</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="J40">
         <v>0.64</v>
@@ -3368,7 +3424,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1707969600</v>
       </c>
@@ -3382,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>45337.16666666666</v>
+        <v>45337.166666666657</v>
       </c>
       <c r="F41" s="2">
         <v>45337</v>
@@ -3436,7 +3492,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1707973200</v>
       </c>
@@ -3450,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="2">
-        <v>45337.20833333334</v>
+        <v>45337.208333333343</v>
       </c>
       <c r="F42" s="2">
         <v>45337</v>
@@ -3504,7 +3560,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1707976800</v>
       </c>
@@ -3572,7 +3628,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1707980400</v>
       </c>
@@ -3586,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="2">
-        <v>45337.29166666666</v>
+        <v>45337.291666666657</v>
       </c>
       <c r="F44" s="2">
         <v>45337</v>
@@ -3595,16 +3651,16 @@
         <v>7</v>
       </c>
       <c r="H44">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I44">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J44">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="K44">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="L44">
         <v>1025</v>
@@ -3640,7 +3696,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1707984000</v>
       </c>
@@ -3654,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="2">
-        <v>45337.33333333334</v>
+        <v>45337.333333333343</v>
       </c>
       <c r="F45" s="2">
         <v>45337</v>
@@ -3693,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="R45">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="S45">
         <v>335</v>
@@ -3708,7 +3764,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1707987600</v>
       </c>
@@ -3776,7 +3832,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1707991200</v>
       </c>
@@ -3790,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="2">
-        <v>45337.41666666666</v>
+        <v>45337.416666666657</v>
       </c>
       <c r="F47" s="2">
         <v>45337</v>
@@ -3835,7 +3891,7 @@
         <v>269</v>
       </c>
       <c r="T47">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="U47" t="s">
         <v>32</v>
@@ -3844,7 +3900,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1707994800</v>
       </c>
@@ -3858,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="2">
-        <v>45337.45833333334</v>
+        <v>45337.458333333343</v>
       </c>
       <c r="F48" s="2">
         <v>45337</v>
@@ -3912,7 +3968,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1707998400</v>
       </c>

--- a/RAAL/Production/Input/weather.xlsx
+++ b/RAAL/Production/Input/weather.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mynexte-my.sharepoint.com/personal/andrei_ionita_mynexte_com/Documents/Desktop/ML/Forecast_app/RAAL/Production/Input/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDD423CC511565404E19D7A6025D665493" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BDCEE16-4B04-449A-8BD3-907C02D893D6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="130">
   <si>
     <t>dt</t>
   </si>
@@ -119,16 +100,16 @@
     <t>[{'id': 600, 'main': 'Snow', 'description': 'light snow', 'icon': '13n'}]</t>
   </si>
   <si>
+    <t>[{'id': 500, 'main': 'Rain', 'description': 'light rain', 'icon': '10d'}]</t>
+  </si>
+  <si>
     <t>[{'id': 803, 'main': 'Clouds', 'description': 'broken clouds', 'icon': '04n'}]</t>
   </si>
   <si>
     <t>[{'id': 802, 'main': 'Clouds', 'description': 'scattered clouds', 'icon': '03n'}]</t>
   </si>
   <si>
-    <t>[{'id': 802, 'main': 'Clouds', 'description': 'scattered clouds', 'icon': '03d'}]</t>
-  </si>
-  <si>
-    <t>[{'id': 801, 'main': 'Clouds', 'description': 'few clouds', 'icon': '02d'}]</t>
+    <t>[{'id': 600, 'main': 'Snow', 'description': 'light snow', 'icon': '13d'}]</t>
   </si>
   <si>
     <t>d</t>
@@ -137,158 +118,302 @@
     <t>n</t>
   </si>
   <si>
-    <t>13.02.202413</t>
-  </si>
-  <si>
-    <t>13.02.202414</t>
-  </si>
-  <si>
-    <t>13.02.202415</t>
-  </si>
-  <si>
-    <t>13.02.202416</t>
-  </si>
-  <si>
-    <t>13.02.202417</t>
-  </si>
-  <si>
-    <t>13.02.202418</t>
-  </si>
-  <si>
-    <t>13.02.202419</t>
-  </si>
-  <si>
-    <t>13.02.202420</t>
-  </si>
-  <si>
-    <t>13.02.202421</t>
-  </si>
-  <si>
-    <t>13.02.202422</t>
-  </si>
-  <si>
-    <t>13.02.202423</t>
-  </si>
-  <si>
-    <t>14.02.20240</t>
-  </si>
-  <si>
-    <t>14.02.20241</t>
-  </si>
-  <si>
-    <t>14.02.20242</t>
-  </si>
-  <si>
-    <t>14.02.20243</t>
-  </si>
-  <si>
-    <t>14.02.20244</t>
-  </si>
-  <si>
-    <t>14.02.20245</t>
-  </si>
-  <si>
-    <t>14.02.20246</t>
-  </si>
-  <si>
-    <t>14.02.20247</t>
-  </si>
-  <si>
-    <t>14.02.20248</t>
-  </si>
-  <si>
-    <t>14.02.20249</t>
-  </si>
-  <si>
-    <t>14.02.202410</t>
-  </si>
-  <si>
-    <t>14.02.202411</t>
-  </si>
-  <si>
-    <t>14.02.202412</t>
-  </si>
-  <si>
-    <t>14.02.202413</t>
-  </si>
-  <si>
-    <t>14.02.202414</t>
-  </si>
-  <si>
-    <t>14.02.202415</t>
-  </si>
-  <si>
-    <t>14.02.202416</t>
-  </si>
-  <si>
-    <t>14.02.202417</t>
-  </si>
-  <si>
-    <t>14.02.202418</t>
-  </si>
-  <si>
-    <t>14.02.202419</t>
-  </si>
-  <si>
-    <t>14.02.202420</t>
-  </si>
-  <si>
-    <t>14.02.202421</t>
-  </si>
-  <si>
-    <t>14.02.202422</t>
-  </si>
-  <si>
-    <t>14.02.202423</t>
-  </si>
-  <si>
-    <t>15.02.20240</t>
-  </si>
-  <si>
-    <t>15.02.20241</t>
-  </si>
-  <si>
-    <t>15.02.20242</t>
-  </si>
-  <si>
-    <t>15.02.20243</t>
-  </si>
-  <si>
-    <t>15.02.20244</t>
-  </si>
-  <si>
-    <t>15.02.20245</t>
-  </si>
-  <si>
-    <t>15.02.20246</t>
-  </si>
-  <si>
-    <t>15.02.20247</t>
-  </si>
-  <si>
-    <t>15.02.20248</t>
-  </si>
-  <si>
-    <t>15.02.20249</t>
-  </si>
-  <si>
-    <t>15.02.202410</t>
-  </si>
-  <si>
-    <t>15.02.202411</t>
-  </si>
-  <si>
-    <t>15.02.202412</t>
+    <t>19.02.202415</t>
+  </si>
+  <si>
+    <t>19.02.202416</t>
+  </si>
+  <si>
+    <t>19.02.202417</t>
+  </si>
+  <si>
+    <t>19.02.202418</t>
+  </si>
+  <si>
+    <t>19.02.202419</t>
+  </si>
+  <si>
+    <t>19.02.202420</t>
+  </si>
+  <si>
+    <t>19.02.202421</t>
+  </si>
+  <si>
+    <t>19.02.202422</t>
+  </si>
+  <si>
+    <t>19.02.202423</t>
+  </si>
+  <si>
+    <t>20.02.20240</t>
+  </si>
+  <si>
+    <t>20.02.20241</t>
+  </si>
+  <si>
+    <t>20.02.20242</t>
+  </si>
+  <si>
+    <t>20.02.20243</t>
+  </si>
+  <si>
+    <t>20.02.20244</t>
+  </si>
+  <si>
+    <t>20.02.20245</t>
+  </si>
+  <si>
+    <t>20.02.20246</t>
+  </si>
+  <si>
+    <t>20.02.20247</t>
+  </si>
+  <si>
+    <t>20.02.20248</t>
+  </si>
+  <si>
+    <t>20.02.20249</t>
+  </si>
+  <si>
+    <t>20.02.202410</t>
+  </si>
+  <si>
+    <t>20.02.202411</t>
+  </si>
+  <si>
+    <t>20.02.202412</t>
+  </si>
+  <si>
+    <t>20.02.202413</t>
+  </si>
+  <si>
+    <t>20.02.202414</t>
+  </si>
+  <si>
+    <t>20.02.202415</t>
+  </si>
+  <si>
+    <t>20.02.202416</t>
+  </si>
+  <si>
+    <t>20.02.202417</t>
+  </si>
+  <si>
+    <t>20.02.202418</t>
+  </si>
+  <si>
+    <t>20.02.202419</t>
+  </si>
+  <si>
+    <t>20.02.202420</t>
+  </si>
+  <si>
+    <t>20.02.202421</t>
+  </si>
+  <si>
+    <t>20.02.202422</t>
+  </si>
+  <si>
+    <t>20.02.202423</t>
+  </si>
+  <si>
+    <t>21.02.20240</t>
+  </si>
+  <si>
+    <t>21.02.20241</t>
+  </si>
+  <si>
+    <t>21.02.20242</t>
+  </si>
+  <si>
+    <t>21.02.20243</t>
+  </si>
+  <si>
+    <t>21.02.20244</t>
+  </si>
+  <si>
+    <t>21.02.20245</t>
+  </si>
+  <si>
+    <t>21.02.20246</t>
+  </si>
+  <si>
+    <t>21.02.20247</t>
+  </si>
+  <si>
+    <t>21.02.20248</t>
+  </si>
+  <si>
+    <t>21.02.20249</t>
+  </si>
+  <si>
+    <t>21.02.202410</t>
+  </si>
+  <si>
+    <t>21.02.202411</t>
+  </si>
+  <si>
+    <t>21.02.202412</t>
+  </si>
+  <si>
+    <t>21.02.202413</t>
+  </si>
+  <si>
+    <t>21.02.202414</t>
+  </si>
+  <si>
+    <t>21.02.202415</t>
+  </si>
+  <si>
+    <t>21.02.202416</t>
+  </si>
+  <si>
+    <t>21.02.202417</t>
+  </si>
+  <si>
+    <t>21.02.202418</t>
+  </si>
+  <si>
+    <t>21.02.202419</t>
+  </si>
+  <si>
+    <t>21.02.202420</t>
+  </si>
+  <si>
+    <t>21.02.202421</t>
+  </si>
+  <si>
+    <t>21.02.202422</t>
+  </si>
+  <si>
+    <t>21.02.202423</t>
+  </si>
+  <si>
+    <t>22.02.20240</t>
+  </si>
+  <si>
+    <t>22.02.20241</t>
+  </si>
+  <si>
+    <t>22.02.20242</t>
+  </si>
+  <si>
+    <t>22.02.20243</t>
+  </si>
+  <si>
+    <t>22.02.20244</t>
+  </si>
+  <si>
+    <t>22.02.20245</t>
+  </si>
+  <si>
+    <t>22.02.20246</t>
+  </si>
+  <si>
+    <t>22.02.20247</t>
+  </si>
+  <si>
+    <t>22.02.20248</t>
+  </si>
+  <si>
+    <t>22.02.20249</t>
+  </si>
+  <si>
+    <t>22.02.202410</t>
+  </si>
+  <si>
+    <t>22.02.202411</t>
+  </si>
+  <si>
+    <t>22.02.202412</t>
+  </si>
+  <si>
+    <t>22.02.202413</t>
+  </si>
+  <si>
+    <t>22.02.202414</t>
+  </si>
+  <si>
+    <t>22.02.202415</t>
+  </si>
+  <si>
+    <t>22.02.202416</t>
+  </si>
+  <si>
+    <t>22.02.202417</t>
+  </si>
+  <si>
+    <t>22.02.202418</t>
+  </si>
+  <si>
+    <t>22.02.202419</t>
+  </si>
+  <si>
+    <t>22.02.202420</t>
+  </si>
+  <si>
+    <t>22.02.202421</t>
+  </si>
+  <si>
+    <t>22.02.202422</t>
+  </si>
+  <si>
+    <t>22.02.202423</t>
+  </si>
+  <si>
+    <t>23.02.20240</t>
+  </si>
+  <si>
+    <t>23.02.20241</t>
+  </si>
+  <si>
+    <t>23.02.20242</t>
+  </si>
+  <si>
+    <t>23.02.20243</t>
+  </si>
+  <si>
+    <t>23.02.20244</t>
+  </si>
+  <si>
+    <t>23.02.20245</t>
+  </si>
+  <si>
+    <t>23.02.20246</t>
+  </si>
+  <si>
+    <t>23.02.20247</t>
+  </si>
+  <si>
+    <t>23.02.20248</t>
+  </si>
+  <si>
+    <t>23.02.20249</t>
+  </si>
+  <si>
+    <t>23.02.202410</t>
+  </si>
+  <si>
+    <t>23.02.202411</t>
+  </si>
+  <si>
+    <t>23.02.202412</t>
+  </si>
+  <si>
+    <t>23.02.202413</t>
+  </si>
+  <si>
+    <t>23.02.202414</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,21 +477,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -404,7 +521,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -438,7 +555,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -473,10 +589,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -649,41 +764,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,9 +845,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2">
-        <v>1707829200</v>
+        <v>1708354800</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -768,55 +856,55 @@
         <v>10000</v>
       </c>
       <c r="D2">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>45335.541666666657</v>
+        <v>45341.625</v>
       </c>
       <c r="F2" s="2">
-        <v>45335</v>
+        <v>45341</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2">
-        <v>5.81</v>
+        <v>5.98</v>
       </c>
       <c r="I2">
-        <v>5.81</v>
+        <v>4.73</v>
       </c>
       <c r="J2">
-        <v>5.81</v>
+        <v>5.45</v>
       </c>
       <c r="K2">
-        <v>7.32</v>
+        <v>5.98</v>
       </c>
       <c r="L2">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="M2">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="N2">
-        <v>950</v>
+        <v>964</v>
       </c>
       <c r="O2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="P2">
-        <v>-1.51</v>
+        <v>0.53</v>
       </c>
       <c r="Q2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R2">
-        <v>0.97</v>
+        <v>1.79</v>
       </c>
       <c r="S2">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="T2">
-        <v>2.67</v>
+        <v>2.94</v>
       </c>
       <c r="U2" t="s">
         <v>32</v>
@@ -825,145 +913,145 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3">
-        <v>1707832800</v>
+        <v>1708358400</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>10000</v>
       </c>
       <c r="D3">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>45335.583333333343</v>
+        <v>45341.66666666666</v>
       </c>
       <c r="F3" s="2">
-        <v>45335</v>
+        <v>45341</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3">
-        <v>6.14</v>
+        <v>5.52</v>
       </c>
       <c r="I3">
-        <v>6.14</v>
+        <v>5.52</v>
       </c>
       <c r="J3">
-        <v>6.14</v>
+        <v>3.67</v>
       </c>
       <c r="K3">
-        <v>7.21</v>
+        <v>5.52</v>
       </c>
       <c r="L3">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="M3">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="N3">
-        <v>951</v>
+        <v>964</v>
       </c>
       <c r="O3">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="P3">
-        <v>-1.07</v>
+        <v>1.85</v>
       </c>
       <c r="Q3">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R3">
-        <v>0.95</v>
+        <v>1.26</v>
       </c>
       <c r="S3">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c r="T3">
-        <v>2.4900000000000002</v>
+        <v>1.46</v>
       </c>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4">
-        <v>1707836400</v>
+        <v>1708362000</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>10000</v>
       </c>
       <c r="D4">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>45335.625</v>
+        <v>45341.70833333334</v>
       </c>
       <c r="F4" s="2">
-        <v>45335</v>
+        <v>45341</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4">
-        <v>6.07</v>
+        <v>4.96</v>
       </c>
       <c r="I4">
-        <v>6.07</v>
+        <v>4.96</v>
       </c>
       <c r="J4">
-        <v>6.07</v>
+        <v>3.42</v>
       </c>
       <c r="K4">
-        <v>6.49</v>
+        <v>4.96</v>
       </c>
       <c r="L4">
-        <v>1010</v>
+        <v>1024</v>
       </c>
       <c r="M4">
-        <v>1010</v>
+        <v>1024</v>
       </c>
       <c r="N4">
-        <v>951</v>
+        <v>964</v>
       </c>
       <c r="O4">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="P4">
-        <v>-0.42</v>
+        <v>1.54</v>
       </c>
       <c r="Q4">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R4">
-        <v>1.24</v>
+        <v>0.98</v>
       </c>
       <c r="S4">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="T4">
-        <v>2.98</v>
+        <v>1.14</v>
       </c>
       <c r="U4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5">
-        <v>1707840000</v>
+        <v>1708365600</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -972,55 +1060,55 @@
         <v>10000</v>
       </c>
       <c r="D5">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>45335.666666666657</v>
+        <v>45341.75</v>
       </c>
       <c r="F5" s="2">
-        <v>45335</v>
+        <v>45341</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H5">
-        <v>5.75</v>
+        <v>4.35</v>
       </c>
       <c r="I5">
-        <v>4.84</v>
+        <v>4.35</v>
       </c>
       <c r="J5">
-        <v>5.75</v>
+        <v>3.27</v>
       </c>
       <c r="K5">
-        <v>5.83</v>
+        <v>4.35</v>
       </c>
       <c r="L5">
-        <v>1011</v>
+        <v>1025</v>
       </c>
       <c r="M5">
-        <v>1011</v>
+        <v>1025</v>
       </c>
       <c r="N5">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="O5">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="P5">
-        <v>-0.08</v>
+        <v>1.08</v>
       </c>
       <c r="Q5">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R5">
-        <v>1.47</v>
+        <v>0.92</v>
       </c>
       <c r="S5">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="T5">
-        <v>3.15</v>
+        <v>1.02</v>
       </c>
       <c r="U5" t="s">
         <v>33</v>
@@ -1029,9 +1117,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6">
-        <v>1707843600</v>
+        <v>1708369200</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -1040,55 +1128,55 @@
         <v>10000</v>
       </c>
       <c r="D6">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>45335.708333333343</v>
+        <v>45341.79166666666</v>
       </c>
       <c r="F6" s="2">
-        <v>45335</v>
+        <v>45341</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6">
-        <v>5.36</v>
+        <v>3.56</v>
       </c>
       <c r="I6">
-        <v>4.42</v>
+        <v>3.56</v>
       </c>
       <c r="J6">
-        <v>5.36</v>
+        <v>2.95</v>
       </c>
       <c r="K6">
-        <v>5.36</v>
+        <v>3.56</v>
       </c>
       <c r="L6">
-        <v>1012</v>
+        <v>1024</v>
       </c>
       <c r="M6">
-        <v>1012</v>
+        <v>1024</v>
       </c>
       <c r="N6">
-        <v>953</v>
+        <v>964</v>
       </c>
       <c r="O6">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="Q6">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R6">
-        <v>1.45</v>
+        <v>0.76</v>
       </c>
       <c r="S6">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="T6">
-        <v>2.76</v>
+        <v>0.91</v>
       </c>
       <c r="U6" t="s">
         <v>33</v>
@@ -1097,9 +1185,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7">
-        <v>1707847200</v>
+        <v>1708372800</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -1108,40 +1196,40 @@
         <v>10000</v>
       </c>
       <c r="D7">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>45335.75</v>
+        <v>45341.83333333334</v>
       </c>
       <c r="F7" s="2">
-        <v>45335</v>
+        <v>45341</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7">
-        <v>5.08</v>
+        <v>2.71</v>
       </c>
       <c r="I7">
-        <v>5.08</v>
+        <v>2.71</v>
       </c>
       <c r="J7">
-        <v>5.08</v>
+        <v>2.71</v>
       </c>
       <c r="K7">
-        <v>5.08</v>
+        <v>2.71</v>
       </c>
       <c r="L7">
-        <v>1013</v>
+        <v>1025</v>
       </c>
       <c r="M7">
-        <v>1013</v>
+        <v>1025</v>
       </c>
       <c r="N7">
-        <v>953</v>
+        <v>964</v>
       </c>
       <c r="O7">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1150,13 +1238,13 @@
         <v>100</v>
       </c>
       <c r="R7">
-        <v>1.31</v>
+        <v>0.7</v>
       </c>
       <c r="S7">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="T7">
-        <v>2.4700000000000002</v>
+        <v>0.87</v>
       </c>
       <c r="U7" t="s">
         <v>33</v>
@@ -1165,9 +1253,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8">
-        <v>1707850800</v>
+        <v>1708376400</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -1176,40 +1264,40 @@
         <v>10000</v>
       </c>
       <c r="D8">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>45335.791666666657</v>
+        <v>45341.875</v>
       </c>
       <c r="F8" s="2">
-        <v>45335</v>
+        <v>45341</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8">
-        <v>4.82</v>
+        <v>2.62</v>
       </c>
       <c r="I8">
-        <v>4.82</v>
+        <v>2.62</v>
       </c>
       <c r="J8">
-        <v>4.82</v>
+        <v>2.62</v>
       </c>
       <c r="K8">
-        <v>4.82</v>
+        <v>2.62</v>
       </c>
       <c r="L8">
-        <v>1014</v>
+        <v>1024</v>
       </c>
       <c r="M8">
-        <v>1014</v>
+        <v>1024</v>
       </c>
       <c r="N8">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="O8">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1218,13 +1306,13 @@
         <v>100</v>
       </c>
       <c r="R8">
-        <v>1.22</v>
+        <v>0.73</v>
       </c>
       <c r="S8">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="T8">
-        <v>2.34</v>
+        <v>0.78</v>
       </c>
       <c r="U8" t="s">
         <v>33</v>
@@ -1233,9 +1321,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9">
-        <v>1707854400</v>
+        <v>1708380000</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -1244,55 +1332,55 @@
         <v>10000</v>
       </c>
       <c r="D9">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>45335.833333333343</v>
+        <v>45341.91666666666</v>
       </c>
       <c r="F9" s="2">
-        <v>45335</v>
+        <v>45341</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H9">
-        <v>4.59</v>
+        <v>2.34</v>
       </c>
       <c r="I9">
-        <v>4.59</v>
+        <v>2.34</v>
       </c>
       <c r="J9">
-        <v>4.59</v>
+        <v>2.34</v>
       </c>
       <c r="K9">
-        <v>4.59</v>
+        <v>2.34</v>
       </c>
       <c r="L9">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="M9">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="N9">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="O9">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R9">
-        <v>0.98</v>
+        <v>0.64</v>
       </c>
       <c r="S9">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="T9">
-        <v>2.16</v>
+        <v>0.72</v>
       </c>
       <c r="U9" t="s">
         <v>33</v>
@@ -1301,9 +1389,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10">
-        <v>1707858000</v>
+        <v>1708383600</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1312,55 +1400,55 @@
         <v>10000</v>
       </c>
       <c r="D10">
-        <v>0.37</v>
+        <v>0.01</v>
       </c>
       <c r="E10" s="2">
-        <v>45335.875</v>
+        <v>45341.95833333334</v>
       </c>
       <c r="F10" s="2">
-        <v>45335</v>
+        <v>45341</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H10">
-        <v>4.4000000000000004</v>
+        <v>2.5</v>
       </c>
       <c r="I10">
-        <v>4.4000000000000004</v>
+        <v>2.5</v>
       </c>
       <c r="J10">
-        <v>4.4000000000000004</v>
+        <v>2.5</v>
       </c>
       <c r="K10">
-        <v>4.4000000000000004</v>
+        <v>2.5</v>
       </c>
       <c r="L10">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="M10">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="N10">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="O10">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R10">
-        <v>1.1499999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="S10">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="T10">
-        <v>2.36</v>
+        <v>0.49</v>
       </c>
       <c r="U10" t="s">
         <v>33</v>
@@ -1369,119 +1457,116 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11">
-        <v>1707861600</v>
+        <v>1708387200</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>6278</v>
+        <v>10000</v>
       </c>
       <c r="D11">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="E11" s="2">
-        <v>45335.916666666657</v>
+        <v>45342</v>
       </c>
       <c r="F11" s="2">
-        <v>45335</v>
+        <v>45342</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>3.77</v>
+        <v>3.07</v>
       </c>
       <c r="I11">
-        <v>3.77</v>
+        <v>3.07</v>
       </c>
       <c r="J11">
-        <v>3.77</v>
+        <v>3.07</v>
       </c>
       <c r="K11">
-        <v>3.77</v>
+        <v>3.07</v>
       </c>
       <c r="L11">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="M11">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="N11">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="O11">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R11">
-        <v>1.32</v>
+        <v>0.09</v>
       </c>
       <c r="S11">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="T11">
-        <v>2.62</v>
+        <v>0.34</v>
       </c>
       <c r="U11" t="s">
         <v>33</v>
       </c>
-      <c r="V11">
-        <v>0.18</v>
-      </c>
       <c r="X11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12">
-        <v>1707865200</v>
+        <v>1708390800</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>10000</v>
+        <v>2826</v>
       </c>
       <c r="D12">
-        <v>0.64</v>
+        <v>0.28</v>
       </c>
       <c r="E12" s="2">
-        <v>45335.958333333343</v>
+        <v>45342.04166666666</v>
       </c>
       <c r="F12" s="2">
-        <v>45335</v>
+        <v>45342</v>
       </c>
       <c r="G12">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>3.26</v>
+        <v>2.54</v>
       </c>
       <c r="I12">
-        <v>3.26</v>
+        <v>2.54</v>
       </c>
       <c r="J12">
-        <v>3.26</v>
+        <v>2.54</v>
       </c>
       <c r="K12">
-        <v>3.26</v>
+        <v>2.54</v>
       </c>
       <c r="L12">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="M12">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="N12">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="O12">
         <v>91</v>
@@ -1493,69 +1578,66 @@
         <v>100</v>
       </c>
       <c r="R12">
-        <v>1.3</v>
+        <v>0.24</v>
       </c>
       <c r="S12">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="T12">
-        <v>2.38</v>
+        <v>0.58</v>
       </c>
       <c r="U12" t="s">
         <v>33</v>
       </c>
-      <c r="V12">
-        <v>0.28000000000000003</v>
-      </c>
       <c r="X12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13">
-        <v>1707868800</v>
+        <v>1708394400</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13">
-        <v>10000</v>
+        <v>1334</v>
       </c>
       <c r="D13">
-        <v>0.75</v>
+        <v>0.32</v>
       </c>
       <c r="E13" s="2">
-        <v>45336</v>
+        <v>45342.08333333334</v>
       </c>
       <c r="F13" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>3.11</v>
+        <v>2.65</v>
       </c>
       <c r="I13">
-        <v>3.11</v>
+        <v>2.65</v>
       </c>
       <c r="J13">
-        <v>3.11</v>
+        <v>2.65</v>
       </c>
       <c r="K13">
-        <v>3.11</v>
+        <v>2.65</v>
       </c>
       <c r="L13">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="M13">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="N13">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="O13">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1564,69 +1646,69 @@
         <v>100</v>
       </c>
       <c r="R13">
-        <v>1.05</v>
+        <v>0.06</v>
       </c>
       <c r="S13">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="T13">
-        <v>1.99</v>
+        <v>0.46</v>
       </c>
       <c r="U13" t="s">
         <v>33</v>
       </c>
       <c r="V13">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="X13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14">
-        <v>1707872400</v>
+        <v>1708398000</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>10000</v>
+        <v>897</v>
       </c>
       <c r="D14">
-        <v>0.71</v>
+        <v>0.36</v>
       </c>
       <c r="E14" s="2">
-        <v>45336.041666666657</v>
+        <v>45342.125</v>
       </c>
       <c r="F14" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>2.99</v>
+        <v>2.8</v>
       </c>
       <c r="I14">
-        <v>2.99</v>
+        <v>2.8</v>
       </c>
       <c r="J14">
-        <v>2.99</v>
+        <v>2.8</v>
       </c>
       <c r="K14">
-        <v>2.99</v>
+        <v>2.8</v>
       </c>
       <c r="L14">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="M14">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="N14">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="O14">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1635,69 +1717,69 @@
         <v>100</v>
       </c>
       <c r="R14">
-        <v>0.78</v>
+        <v>0.49</v>
       </c>
       <c r="S14">
-        <v>352</v>
+        <v>239</v>
       </c>
       <c r="T14">
-        <v>1.31</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="U14" t="s">
         <v>33</v>
       </c>
-      <c r="W14">
+      <c r="V14">
         <v>0.17</v>
       </c>
       <c r="X14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15">
-        <v>1707876000</v>
+        <v>1708401600</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
-        <v>5541</v>
+        <v>680</v>
       </c>
       <c r="D15">
-        <v>0.67</v>
+        <v>0.36</v>
       </c>
       <c r="E15" s="2">
-        <v>45336.083333333343</v>
+        <v>45342.16666666666</v>
       </c>
       <c r="F15" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>2.75</v>
+        <v>2.83</v>
       </c>
       <c r="I15">
-        <v>2.75</v>
+        <v>2.83</v>
       </c>
       <c r="J15">
-        <v>2.75</v>
+        <v>2.83</v>
       </c>
       <c r="K15">
-        <v>2.75</v>
+        <v>2.83</v>
       </c>
       <c r="L15">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="M15">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="N15">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="O15">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1706,69 +1788,69 @@
         <v>100</v>
       </c>
       <c r="R15">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
       <c r="S15">
-        <v>324</v>
+        <v>229</v>
       </c>
       <c r="T15">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
       <c r="U15" t="s">
         <v>33</v>
       </c>
-      <c r="V15">
-        <v>0.13</v>
+      <c r="W15">
+        <v>0.19</v>
       </c>
       <c r="X15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16">
-        <v>1707879600</v>
+        <v>1708405200</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>3061</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <v>0.63</v>
+        <v>0.4</v>
       </c>
       <c r="E16" s="2">
-        <v>45336.125</v>
+        <v>45342.20833333334</v>
       </c>
       <c r="F16" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>2.69</v>
+        <v>2.8</v>
       </c>
       <c r="I16">
-        <v>2.69</v>
+        <v>2.8</v>
       </c>
       <c r="J16">
-        <v>2.69</v>
+        <v>2.8</v>
       </c>
       <c r="K16">
-        <v>2.69</v>
+        <v>2.8</v>
       </c>
       <c r="L16">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="M16">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="N16">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="O16">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1777,66 +1859,69 @@
         <v>100</v>
       </c>
       <c r="R16">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="S16">
-        <v>320</v>
+        <v>226</v>
       </c>
       <c r="T16">
-        <v>1.0900000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="U16" t="s">
         <v>33</v>
       </c>
+      <c r="V16">
+        <v>0.19</v>
+      </c>
       <c r="X16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="A17">
-        <v>1707883200</v>
+        <v>1708408800</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C17">
-        <v>5934</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="E17" s="2">
-        <v>45336.166666666657</v>
+        <v>45342.25</v>
       </c>
       <c r="F17" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H17">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="I17">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="J17">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="K17">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="L17">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="M17">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="N17">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="O17">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1845,66 +1930,69 @@
         <v>100</v>
       </c>
       <c r="R17">
-        <v>0.57999999999999996</v>
+        <v>0.53</v>
       </c>
       <c r="S17">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="T17">
-        <v>0.99</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="U17" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="V17">
+        <v>0.15</v>
       </c>
       <c r="X17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24">
       <c r="A18">
-        <v>1707886800</v>
+        <v>1708412400</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18">
-        <v>10000</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>0.51</v>
+        <v>0.24</v>
       </c>
       <c r="E18" s="2">
-        <v>45336.208333333343</v>
+        <v>45342.29166666666</v>
       </c>
       <c r="F18" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H18">
-        <v>2.39</v>
+        <v>2.97</v>
       </c>
       <c r="I18">
-        <v>2.39</v>
+        <v>2.97</v>
       </c>
       <c r="J18">
-        <v>2.39</v>
+        <v>2.97</v>
       </c>
       <c r="K18">
-        <v>2.39</v>
+        <v>2.97</v>
       </c>
       <c r="L18">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="M18">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="N18">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="O18">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1913,66 +2001,66 @@
         <v>100</v>
       </c>
       <c r="R18">
-        <v>0.18</v>
+        <v>0.63</v>
       </c>
       <c r="S18">
-        <v>318</v>
+        <v>238</v>
       </c>
       <c r="T18">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="U18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24">
       <c r="A19">
-        <v>1707890400</v>
+        <v>1708416000</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19">
-        <v>10000</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>0.35</v>
+        <v>0.16</v>
       </c>
       <c r="E19" s="2">
-        <v>45336.25</v>
+        <v>45342.33333333334</v>
       </c>
       <c r="F19" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>2.39</v>
+        <v>3.06</v>
       </c>
       <c r="I19">
-        <v>2.39</v>
+        <v>3.06</v>
       </c>
       <c r="J19">
-        <v>2.39</v>
+        <v>3.06</v>
       </c>
       <c r="K19">
-        <v>2.39</v>
+        <v>3.06</v>
       </c>
       <c r="L19">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="M19">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="N19">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="O19">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1981,13 +2069,13 @@
         <v>100</v>
       </c>
       <c r="R19">
-        <v>0.28000000000000003</v>
+        <v>0.75</v>
       </c>
       <c r="S19">
-        <v>352</v>
+        <v>239</v>
       </c>
       <c r="T19">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="U19" t="s">
         <v>32</v>
@@ -1996,66 +2084,66 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24">
       <c r="A20">
-        <v>1707894000</v>
+        <v>1708419600</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20">
-        <v>10000</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="E20" s="2">
-        <v>45336.291666666657</v>
+        <v>45342.375</v>
       </c>
       <c r="F20" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H20">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="I20">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="J20">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="K20">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="L20">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="M20">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="N20">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="O20">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R20">
-        <v>0.56999999999999995</v>
+        <v>0.97</v>
       </c>
       <c r="S20">
-        <v>356</v>
+        <v>241</v>
       </c>
       <c r="T20">
-        <v>1.42</v>
+        <v>1.12</v>
       </c>
       <c r="U20" t="s">
         <v>32</v>
@@ -2064,51 +2152,51 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24">
       <c r="A21">
-        <v>1707897600</v>
+        <v>1708423200</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="C21">
-        <v>10000</v>
+        <v>45</v>
       </c>
       <c r="D21">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>45336.333333333343</v>
+        <v>45342.41666666666</v>
       </c>
       <c r="F21" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21">
-        <v>3.79</v>
+        <v>3.31</v>
       </c>
       <c r="I21">
-        <v>3.79</v>
+        <v>3.31</v>
       </c>
       <c r="J21">
-        <v>3.79</v>
+        <v>3.31</v>
       </c>
       <c r="K21">
-        <v>3.79</v>
+        <v>3.31</v>
       </c>
       <c r="L21">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="M21">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="N21">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="O21">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2117,13 +2205,13 @@
         <v>100</v>
       </c>
       <c r="R21">
-        <v>0.89</v>
+        <v>1.01</v>
       </c>
       <c r="S21">
-        <v>32</v>
+        <v>245</v>
       </c>
       <c r="T21">
-        <v>1.97</v>
+        <v>1.25</v>
       </c>
       <c r="U21" t="s">
         <v>32</v>
@@ -2132,51 +2220,51 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24">
       <c r="A22">
-        <v>1707901200</v>
+        <v>1708426800</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22">
-        <v>10000</v>
+        <v>134</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>45336.375</v>
+        <v>45342.45833333334</v>
       </c>
       <c r="F22" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H22">
-        <v>4.72</v>
+        <v>3.44</v>
       </c>
       <c r="I22">
-        <v>4.72</v>
+        <v>3.44</v>
       </c>
       <c r="J22">
-        <v>4.72</v>
+        <v>3.44</v>
       </c>
       <c r="K22">
-        <v>4.72</v>
+        <v>3.44</v>
       </c>
       <c r="L22">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="M22">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="N22">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="O22">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2185,13 +2273,13 @@
         <v>100</v>
       </c>
       <c r="R22">
-        <v>0.97</v>
+        <v>1.11</v>
       </c>
       <c r="S22">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="T22">
-        <v>2.38</v>
+        <v>1.42</v>
       </c>
       <c r="U22" t="s">
         <v>32</v>
@@ -2200,51 +2288,51 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24">
       <c r="A23">
-        <v>1707904800</v>
+        <v>1708430400</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23">
-        <v>10000</v>
+        <v>168</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>45336.416666666657</v>
+        <v>45342.5</v>
       </c>
       <c r="F23" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H23">
-        <v>5.55</v>
+        <v>3.55</v>
       </c>
       <c r="I23">
-        <v>5.55</v>
+        <v>3.55</v>
       </c>
       <c r="J23">
-        <v>5.55</v>
+        <v>3.55</v>
       </c>
       <c r="K23">
-        <v>5.55</v>
+        <v>3.55</v>
       </c>
       <c r="L23">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="M23">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="N23">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="O23">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2253,13 +2341,13 @@
         <v>100</v>
       </c>
       <c r="R23">
-        <v>0.82</v>
+        <v>1.14</v>
       </c>
       <c r="S23">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="T23">
-        <v>2.19</v>
+        <v>1.51</v>
       </c>
       <c r="U23" t="s">
         <v>32</v>
@@ -2268,51 +2356,51 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24">
       <c r="A24">
-        <v>1707908400</v>
+        <v>1708434000</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>10000</v>
+        <v>949</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>45336.458333333343</v>
+        <v>45342.54166666666</v>
       </c>
       <c r="F24" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H24">
-        <v>6.2</v>
+        <v>3.64</v>
       </c>
       <c r="I24">
-        <v>6.2</v>
+        <v>3.64</v>
       </c>
       <c r="J24">
-        <v>6.2</v>
+        <v>3.64</v>
       </c>
       <c r="K24">
-        <v>6.2</v>
+        <v>3.64</v>
       </c>
       <c r="L24">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="M24">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="N24">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="O24">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2321,13 +2409,13 @@
         <v>100</v>
       </c>
       <c r="R24">
-        <v>0.72</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="S24">
-        <v>341</v>
+        <v>260</v>
       </c>
       <c r="T24">
-        <v>1.86</v>
+        <v>1.32</v>
       </c>
       <c r="U24" t="s">
         <v>32</v>
@@ -2336,51 +2424,51 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24">
       <c r="A25">
-        <v>1707912000</v>
+        <v>1708437600</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25">
-        <v>10000</v>
+        <v>4362</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>45336.5</v>
+        <v>45342.58333333334</v>
       </c>
       <c r="F25" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H25">
-        <v>6.53</v>
+        <v>3.72</v>
       </c>
       <c r="I25">
-        <v>6.53</v>
+        <v>3.72</v>
       </c>
       <c r="J25">
-        <v>6.53</v>
+        <v>3.72</v>
       </c>
       <c r="K25">
-        <v>6.53</v>
+        <v>3.72</v>
       </c>
       <c r="L25">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="M25">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="N25">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="O25">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2389,13 +2477,13 @@
         <v>100</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="S25">
-        <v>310</v>
+        <v>252</v>
       </c>
       <c r="T25">
-        <v>1.82</v>
+        <v>1.23</v>
       </c>
       <c r="U25" t="s">
         <v>32</v>
@@ -2404,51 +2492,51 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24">
       <c r="A26">
-        <v>1707915600</v>
+        <v>1708441200</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26">
-        <v>10000</v>
+        <v>6094</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>45336.541666666657</v>
+        <v>45342.625</v>
       </c>
       <c r="F26" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G26">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H26">
-        <v>6.52</v>
+        <v>3.65</v>
       </c>
       <c r="I26">
-        <v>6.52</v>
+        <v>3.65</v>
       </c>
       <c r="J26">
-        <v>6.52</v>
+        <v>3.65</v>
       </c>
       <c r="K26">
-        <v>6.52</v>
+        <v>3.65</v>
       </c>
       <c r="L26">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="M26">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="N26">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="O26">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2457,13 +2545,13 @@
         <v>100</v>
       </c>
       <c r="R26">
-        <v>1.29</v>
+        <v>0.47</v>
       </c>
       <c r="S26">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="T26">
-        <v>1.62</v>
+        <v>0.71</v>
       </c>
       <c r="U26" t="s">
         <v>32</v>
@@ -2472,12 +2560,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24">
       <c r="A27">
-        <v>1707919200</v>
+        <v>1708444800</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>10000</v>
@@ -2486,66 +2574,66 @@
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>45336.583333333343</v>
+        <v>45342.66666666666</v>
       </c>
       <c r="F27" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G27">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H27">
-        <v>6.37</v>
+        <v>2.76</v>
       </c>
       <c r="I27">
-        <v>6.37</v>
+        <v>2.76</v>
       </c>
       <c r="J27">
-        <v>6.37</v>
+        <v>2.76</v>
       </c>
       <c r="K27">
-        <v>6.37</v>
+        <v>2.76</v>
       </c>
       <c r="L27">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="M27">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="N27">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="O27">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="R27">
-        <v>0.98</v>
+        <v>0.39</v>
       </c>
       <c r="S27">
-        <v>299</v>
+        <v>191</v>
       </c>
       <c r="T27">
-        <v>1.48</v>
+        <v>0.53</v>
       </c>
       <c r="U27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24">
       <c r="A28">
-        <v>1707922800</v>
+        <v>1708448400</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28">
         <v>10000</v>
@@ -2554,66 +2642,66 @@
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>45336.625</v>
+        <v>45342.70833333334</v>
       </c>
       <c r="F28" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G28">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H28">
-        <v>5.89</v>
+        <v>2.13</v>
       </c>
       <c r="I28">
-        <v>5.89</v>
+        <v>2.13</v>
       </c>
       <c r="J28">
-        <v>5.89</v>
+        <v>2.13</v>
       </c>
       <c r="K28">
-        <v>5.89</v>
+        <v>2.13</v>
       </c>
       <c r="L28">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="M28">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="N28">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="O28">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="R28">
-        <v>0.57999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="S28">
-        <v>303</v>
+        <v>152</v>
       </c>
       <c r="T28">
-        <v>1.17</v>
+        <v>0.37</v>
       </c>
       <c r="U28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24">
       <c r="A29">
-        <v>1707926400</v>
+        <v>1708452000</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>10000</v>
@@ -2622,52 +2710,52 @@
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>45336.666666666657</v>
+        <v>45342.75</v>
       </c>
       <c r="F29" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G29">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H29">
-        <v>4.47</v>
+        <v>1.96</v>
       </c>
       <c r="I29">
-        <v>4.47</v>
+        <v>1.96</v>
       </c>
       <c r="J29">
-        <v>4.47</v>
+        <v>1.96</v>
       </c>
       <c r="K29">
-        <v>4.47</v>
+        <v>1.96</v>
       </c>
       <c r="L29">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="M29">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="N29">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="O29">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="R29">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S29">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="T29">
-        <v>1.18</v>
+        <v>0.78</v>
       </c>
       <c r="U29" t="s">
         <v>33</v>
@@ -2676,12 +2764,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24">
       <c r="A30">
-        <v>1707930000</v>
+        <v>1708455600</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>10000</v>
@@ -2690,52 +2778,52 @@
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>45336.708333333343</v>
+        <v>45342.79166666666</v>
       </c>
       <c r="F30" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G30">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30">
-        <v>3.32</v>
+        <v>1.7</v>
       </c>
       <c r="I30">
-        <v>2.21</v>
+        <v>1.7</v>
       </c>
       <c r="J30">
-        <v>3.32</v>
+        <v>1.7</v>
       </c>
       <c r="K30">
-        <v>3.32</v>
+        <v>1.7</v>
       </c>
       <c r="L30">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="M30">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="N30">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="O30">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="R30">
-        <v>1.38</v>
+        <v>0.73</v>
       </c>
       <c r="S30">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="T30">
-        <v>1.62</v>
+        <v>0.77</v>
       </c>
       <c r="U30" t="s">
         <v>33</v>
@@ -2744,12 +2832,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24">
       <c r="A31">
-        <v>1707933600</v>
+        <v>1708459200</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>10000</v>
@@ -2758,52 +2846,52 @@
         <v>0</v>
       </c>
       <c r="E31" s="2">
-        <v>45336.75</v>
+        <v>45342.83333333334</v>
       </c>
       <c r="F31" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G31">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H31">
-        <v>2.57</v>
+        <v>1.66</v>
       </c>
       <c r="I31">
-        <v>0.76</v>
+        <v>1.66</v>
       </c>
       <c r="J31">
-        <v>2.57</v>
+        <v>1.66</v>
       </c>
       <c r="K31">
-        <v>2.57</v>
+        <v>1.66</v>
       </c>
       <c r="L31">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="M31">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="N31">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="O31">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="R31">
-        <v>1.81</v>
+        <v>0.82</v>
       </c>
       <c r="S31">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="T31">
-        <v>2.11</v>
+        <v>0.78</v>
       </c>
       <c r="U31" t="s">
         <v>33</v>
@@ -2812,12 +2900,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24">
       <c r="A32">
-        <v>1707937200</v>
+        <v>1708462800</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>10000</v>
@@ -2826,52 +2914,52 @@
         <v>0</v>
       </c>
       <c r="E32" s="2">
-        <v>45336.791666666657</v>
+        <v>45342.875</v>
       </c>
       <c r="F32" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G32">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H32">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="I32">
-        <v>0.08</v>
+        <v>1.81</v>
       </c>
       <c r="J32">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="K32">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="L32">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="M32">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="N32">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="O32">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>0.93</v>
       </c>
       <c r="S32">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="U32" t="s">
         <v>33</v>
@@ -2880,12 +2968,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24">
       <c r="A33">
-        <v>1707940800</v>
+        <v>1708466400</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33">
         <v>10000</v>
@@ -2894,52 +2982,52 @@
         <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>45336.833333333343</v>
+        <v>45342.91666666666</v>
       </c>
       <c r="F33" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G33">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H33">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="I33">
-        <v>-0.27</v>
+        <v>2.03</v>
       </c>
       <c r="J33">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="K33">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="L33">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="M33">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="N33">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="O33">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R33">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="S33">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="T33">
-        <v>2.34</v>
+        <v>1.04</v>
       </c>
       <c r="U33" t="s">
         <v>33</v>
@@ -2948,12 +3036,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24">
       <c r="A34">
-        <v>1707944400</v>
+        <v>1708470000</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34">
         <v>10000</v>
@@ -2962,52 +3050,52 @@
         <v>0</v>
       </c>
       <c r="E34" s="2">
-        <v>45336.875</v>
+        <v>45342.95833333334</v>
       </c>
       <c r="F34" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="G34">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H34">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>-0.78</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="K34">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="M34">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="N34">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="O34">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="R34">
-        <v>2.0299999999999998</v>
+        <v>1.01</v>
       </c>
       <c r="S34">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="T34">
-        <v>2.2599999999999998</v>
+        <v>0.96</v>
       </c>
       <c r="U34" t="s">
         <v>33</v>
@@ -3016,12 +3104,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24">
       <c r="A35">
-        <v>1707948000</v>
+        <v>1708473600</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35">
         <v>10000</v>
@@ -3030,52 +3118,52 @@
         <v>0</v>
       </c>
       <c r="E35" s="2">
-        <v>45336.916666666657</v>
+        <v>45343</v>
       </c>
       <c r="F35" s="2">
-        <v>45336</v>
+        <v>45343</v>
       </c>
       <c r="G35">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>1.31</v>
+        <v>2.14</v>
       </c>
       <c r="I35">
-        <v>-0.97</v>
+        <v>2.14</v>
       </c>
       <c r="J35">
-        <v>1.31</v>
+        <v>2.14</v>
       </c>
       <c r="K35">
-        <v>1.31</v>
+        <v>2.14</v>
       </c>
       <c r="L35">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="M35">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="N35">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="O35">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="R35">
-        <v>2.0299999999999998</v>
+        <v>1.02</v>
       </c>
       <c r="S35">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="T35">
-        <v>2.2599999999999998</v>
+        <v>1.04</v>
       </c>
       <c r="U35" t="s">
         <v>33</v>
@@ -3084,12 +3172,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24">
       <c r="A36">
-        <v>1707951600</v>
+        <v>1708477200</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C36">
         <v>10000</v>
@@ -3098,25 +3186,25 @@
         <v>0</v>
       </c>
       <c r="E36" s="2">
-        <v>45336.958333333343</v>
+        <v>45343.04166666666</v>
       </c>
       <c r="F36" s="2">
-        <v>45336</v>
+        <v>45343</v>
       </c>
       <c r="G36">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>1.24</v>
+        <v>2.66</v>
       </c>
       <c r="I36">
-        <v>-0.96</v>
+        <v>2.66</v>
       </c>
       <c r="J36">
-        <v>1.24</v>
+        <v>2.66</v>
       </c>
       <c r="K36">
-        <v>1.24</v>
+        <v>2.66</v>
       </c>
       <c r="L36">
         <v>1025</v>
@@ -3128,22 +3216,22 @@
         <v>964</v>
       </c>
       <c r="O36">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="R36">
-        <v>1.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="S36">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="T36">
-        <v>2.34</v>
+        <v>1.04</v>
       </c>
       <c r="U36" t="s">
         <v>33</v>
@@ -3152,12 +3240,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24">
       <c r="A37">
-        <v>1707955200</v>
+        <v>1708480800</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C37">
         <v>10000</v>
@@ -3166,52 +3254,52 @@
         <v>0</v>
       </c>
       <c r="E37" s="2">
-        <v>45337</v>
+        <v>45343.08333333334</v>
       </c>
       <c r="F37" s="2">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>1.25</v>
+        <v>2.82</v>
       </c>
       <c r="I37">
-        <v>-0.83</v>
+        <v>2.82</v>
       </c>
       <c r="J37">
-        <v>1.25</v>
+        <v>2.82</v>
       </c>
       <c r="K37">
-        <v>1.25</v>
+        <v>2.82</v>
       </c>
       <c r="L37">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="M37">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N37">
         <v>964</v>
       </c>
       <c r="O37">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="R37">
-        <v>1.86</v>
+        <v>0.71</v>
       </c>
       <c r="S37">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="T37">
-        <v>2.2400000000000002</v>
+        <v>0.74</v>
       </c>
       <c r="U37" t="s">
         <v>33</v>
@@ -3220,12 +3308,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24">
       <c r="A38">
-        <v>1707958800</v>
+        <v>1708484400</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C38">
         <v>10000</v>
@@ -3234,52 +3322,52 @@
         <v>0</v>
       </c>
       <c r="E38" s="2">
-        <v>45337.041666666657</v>
+        <v>45343.125</v>
       </c>
       <c r="F38" s="2">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>0.88</v>
+        <v>2.8</v>
       </c>
       <c r="I38">
-        <v>-1.22</v>
+        <v>2.8</v>
       </c>
       <c r="J38">
-        <v>0.88</v>
+        <v>2.8</v>
       </c>
       <c r="K38">
-        <v>0.88</v>
+        <v>2.8</v>
       </c>
       <c r="L38">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="M38">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N38">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O38">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="R38">
-        <v>1.83</v>
+        <v>0.46</v>
       </c>
       <c r="S38">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="T38">
-        <v>1.98</v>
+        <v>0.51</v>
       </c>
       <c r="U38" t="s">
         <v>33</v>
@@ -3288,12 +3376,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24">
       <c r="A39">
-        <v>1707962400</v>
+        <v>1708488000</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C39">
         <v>10000</v>
@@ -3302,52 +3390,52 @@
         <v>0</v>
       </c>
       <c r="E39" s="2">
-        <v>45337.083333333343</v>
+        <v>45343.16666666666</v>
       </c>
       <c r="F39" s="2">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>0.71</v>
+        <v>2.82</v>
       </c>
       <c r="I39">
-        <v>-1.21</v>
+        <v>2.82</v>
       </c>
       <c r="J39">
-        <v>0.71</v>
+        <v>2.82</v>
       </c>
       <c r="K39">
-        <v>0.71</v>
+        <v>2.82</v>
       </c>
       <c r="L39">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="M39">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N39">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O39">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="R39">
-        <v>1.68</v>
+        <v>0.54</v>
       </c>
       <c r="S39">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="T39">
-        <v>1.85</v>
+        <v>0.63</v>
       </c>
       <c r="U39" t="s">
         <v>33</v>
@@ -3356,12 +3444,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24">
       <c r="A40">
-        <v>1707966000</v>
+        <v>1708491600</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C40">
         <v>10000</v>
@@ -3370,52 +3458,52 @@
         <v>0</v>
       </c>
       <c r="E40" s="2">
-        <v>45337.125</v>
+        <v>45343.20833333334</v>
       </c>
       <c r="F40" s="2">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H40">
-        <v>0.64</v>
+        <v>2.88</v>
       </c>
       <c r="I40">
-        <v>-1.0900000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="J40">
-        <v>0.64</v>
+        <v>2.88</v>
       </c>
       <c r="K40">
-        <v>0.64</v>
+        <v>2.88</v>
       </c>
       <c r="L40">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="M40">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N40">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O40">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="R40">
-        <v>1.54</v>
+        <v>1.17</v>
       </c>
       <c r="S40">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="T40">
-        <v>1.75</v>
+        <v>1.09</v>
       </c>
       <c r="U40" t="s">
         <v>33</v>
@@ -3424,12 +3512,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24">
       <c r="A41">
-        <v>1707969600</v>
+        <v>1708495200</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C41">
         <v>10000</v>
@@ -3438,188 +3526,188 @@
         <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>45337.166666666657</v>
+        <v>45343.25</v>
       </c>
       <c r="F41" s="2">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H41">
-        <v>0.61</v>
+        <v>3.13</v>
       </c>
       <c r="I41">
-        <v>-1</v>
+        <v>3.13</v>
       </c>
       <c r="J41">
-        <v>0.61</v>
+        <v>3.13</v>
       </c>
       <c r="K41">
-        <v>0.61</v>
+        <v>3.13</v>
       </c>
       <c r="L41">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="M41">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N41">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O41">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P41">
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="R41">
-        <v>1.46</v>
+        <v>1.04</v>
       </c>
       <c r="S41">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="T41">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="U41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X41" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24">
       <c r="A42">
-        <v>1707973200</v>
+        <v>1708498800</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C42">
         <v>10000</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E42" s="2">
-        <v>45337.208333333343</v>
+        <v>45343.29166666666</v>
       </c>
       <c r="F42" s="2">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H42">
-        <v>0.61</v>
+        <v>3.96</v>
       </c>
       <c r="I42">
-        <v>-0.85</v>
+        <v>3.96</v>
       </c>
       <c r="J42">
-        <v>0.61</v>
+        <v>3.96</v>
       </c>
       <c r="K42">
-        <v>0.61</v>
+        <v>3.96</v>
       </c>
       <c r="L42">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="M42">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N42">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O42">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="R42">
-        <v>1.37</v>
+        <v>0.62</v>
       </c>
       <c r="S42">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="T42">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="U42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24">
       <c r="A43">
-        <v>1707976800</v>
+        <v>1708502400</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C43">
         <v>10000</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E43" s="2">
-        <v>45337.25</v>
+        <v>45343.33333333334</v>
       </c>
       <c r="F43" s="2">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="G43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H43">
-        <v>0.93</v>
+        <v>4.53</v>
       </c>
       <c r="I43">
-        <v>-0.49</v>
+        <v>3.51</v>
       </c>
       <c r="J43">
-        <v>0.93</v>
+        <v>4.53</v>
       </c>
       <c r="K43">
-        <v>0.93</v>
+        <v>4.53</v>
       </c>
       <c r="L43">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="M43">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N43">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O43">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P43">
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="R43">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="S43">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="T43">
-        <v>1.51</v>
+        <v>1.95</v>
       </c>
       <c r="U43" t="s">
         <v>32</v>
@@ -3628,66 +3716,66 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24">
       <c r="A44">
-        <v>1707980400</v>
+        <v>1708506000</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C44">
         <v>10000</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="E44" s="2">
-        <v>45337.291666666657</v>
+        <v>45343.375</v>
       </c>
       <c r="F44" s="2">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="G44">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H44">
-        <v>2.5499999999999998</v>
+        <v>4.96</v>
       </c>
       <c r="I44">
-        <v>2.5499999999999998</v>
+        <v>4.96</v>
       </c>
       <c r="J44">
-        <v>2.5499999999999998</v>
+        <v>4.96</v>
       </c>
       <c r="K44">
-        <v>2.5499999999999998</v>
+        <v>4.96</v>
       </c>
       <c r="L44">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="M44">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N44">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O44">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="R44">
-        <v>0.79</v>
+        <v>1.33</v>
       </c>
       <c r="S44">
-        <v>63</v>
+        <v>231</v>
       </c>
       <c r="T44">
-        <v>1.29</v>
+        <v>2.41</v>
       </c>
       <c r="U44" t="s">
         <v>32</v>
@@ -3696,66 +3784,66 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24">
       <c r="A45">
-        <v>1707984000</v>
+        <v>1708509600</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C45">
         <v>10000</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="E45" s="2">
-        <v>45337.333333333343</v>
+        <v>45343.41666666666</v>
       </c>
       <c r="F45" s="2">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="G45">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H45">
-        <v>4.13</v>
+        <v>5.58</v>
       </c>
       <c r="I45">
-        <v>4.13</v>
+        <v>4.53</v>
       </c>
       <c r="J45">
-        <v>4.13</v>
+        <v>5.58</v>
       </c>
       <c r="K45">
-        <v>4.13</v>
+        <v>5.58</v>
       </c>
       <c r="L45">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="M45">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="N45">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O45">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="R45">
-        <v>0.28999999999999998</v>
+        <v>1.56</v>
       </c>
       <c r="S45">
-        <v>335</v>
+        <v>222</v>
       </c>
       <c r="T45">
-        <v>0.89</v>
+        <v>2.81</v>
       </c>
       <c r="U45" t="s">
         <v>32</v>
@@ -3764,276 +3852,3570 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24">
       <c r="A46">
-        <v>1707987600</v>
+        <v>1708513200</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>10000</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="E46" s="2">
-        <v>45337.375</v>
+        <v>45343.45833333334</v>
       </c>
       <c r="F46" s="2">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="G46">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H46">
-        <v>5.41</v>
+        <v>5.52</v>
       </c>
       <c r="I46">
-        <v>5.41</v>
+        <v>3.79</v>
       </c>
       <c r="J46">
-        <v>5.41</v>
+        <v>5.52</v>
       </c>
       <c r="K46">
-        <v>5.41</v>
+        <v>5.52</v>
       </c>
       <c r="L46">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="M46">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="N46">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O46">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="P46">
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="R46">
-        <v>0.75</v>
+        <v>2.19</v>
       </c>
       <c r="S46">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="T46">
-        <v>0.82</v>
+        <v>3.2</v>
       </c>
       <c r="U46" t="s">
         <v>32</v>
       </c>
+      <c r="V46">
+        <v>0.12</v>
+      </c>
       <c r="X46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24">
       <c r="A47">
-        <v>1707991200</v>
+        <v>1708516800</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C47">
-        <v>10000</v>
+        <v>1007</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="E47" s="2">
-        <v>45337.416666666657</v>
+        <v>45343.5</v>
       </c>
       <c r="F47" s="2">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="G47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H47">
-        <v>6.22</v>
+        <v>4.74</v>
       </c>
       <c r="I47">
-        <v>5.52</v>
+        <v>3.23</v>
       </c>
       <c r="J47">
-        <v>6.22</v>
+        <v>4.74</v>
       </c>
       <c r="K47">
-        <v>6.22</v>
+        <v>4.74</v>
       </c>
       <c r="L47">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="M47">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="N47">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="O47">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="R47">
-        <v>1.36</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="T47">
-        <v>1.1100000000000001</v>
+        <v>2.78</v>
       </c>
       <c r="U47" t="s">
         <v>32</v>
       </c>
+      <c r="V47">
+        <v>0.28</v>
+      </c>
       <c r="X47" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24">
       <c r="A48">
-        <v>1707994800</v>
+        <v>1708520400</v>
       </c>
       <c r="B48" t="s">
         <v>31</v>
       </c>
       <c r="C48">
-        <v>10000</v>
+        <v>792</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="E48" s="2">
-        <v>45337.458333333343</v>
+        <v>45343.54166666666</v>
       </c>
       <c r="F48" s="2">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="G48">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H48">
-        <v>6.72</v>
+        <v>4.64</v>
       </c>
       <c r="I48">
-        <v>5.82</v>
+        <v>3.59</v>
       </c>
       <c r="J48">
-        <v>6.72</v>
+        <v>4.64</v>
       </c>
       <c r="K48">
-        <v>6.72</v>
+        <v>4.64</v>
       </c>
       <c r="L48">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="M48">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="N48">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="O48">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="R48">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="S48">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="T48">
-        <v>1.3</v>
+        <v>2.49</v>
       </c>
       <c r="U48" t="s">
         <v>32</v>
       </c>
+      <c r="W48">
+        <v>0.2</v>
+      </c>
       <c r="X48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24">
       <c r="A49">
-        <v>1707998400</v>
+        <v>1708524000</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>10000</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="E49" s="2">
-        <v>45337.5</v>
+        <v>45343.58333333334</v>
       </c>
       <c r="F49" s="2">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="G49">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H49">
-        <v>6.96</v>
+        <v>4.9</v>
       </c>
       <c r="I49">
-        <v>5.88</v>
+        <v>4.9</v>
       </c>
       <c r="J49">
-        <v>6.96</v>
+        <v>4.9</v>
       </c>
       <c r="K49">
-        <v>6.96</v>
+        <v>4.9</v>
       </c>
       <c r="L49">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="M49">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="N49">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="O49">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="R49">
-        <v>1.77</v>
+        <v>1.25</v>
       </c>
       <c r="S49">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="T49">
-        <v>1.23</v>
+        <v>2.61</v>
       </c>
       <c r="U49" t="s">
         <v>32</v>
       </c>
+      <c r="V49">
+        <v>0.13</v>
+      </c>
       <c r="X49" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50">
+        <v>1708527600</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>10000</v>
+      </c>
+      <c r="D50">
+        <v>0.6</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45343.625</v>
+      </c>
+      <c r="F50" s="2">
+        <v>45343</v>
+      </c>
+      <c r="G50">
+        <v>15</v>
+      </c>
+      <c r="H50">
+        <v>4.57</v>
+      </c>
+      <c r="I50">
+        <v>4.57</v>
+      </c>
+      <c r="J50">
+        <v>4.57</v>
+      </c>
+      <c r="K50">
+        <v>4.57</v>
+      </c>
+      <c r="L50">
+        <v>1022</v>
+      </c>
+      <c r="M50">
+        <v>1022</v>
+      </c>
+      <c r="N50">
+        <v>962</v>
+      </c>
+      <c r="O50">
+        <v>80</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>93</v>
+      </c>
+      <c r="R50">
+        <v>0.57</v>
+      </c>
+      <c r="S50">
+        <v>311</v>
+      </c>
+      <c r="T50">
+        <v>1.32</v>
+      </c>
+      <c r="U50" t="s">
+        <v>32</v>
+      </c>
+      <c r="X50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51">
+        <v>1708531200</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>10000</v>
+      </c>
+      <c r="D51">
+        <v>0.52</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45343.66666666666</v>
+      </c>
+      <c r="F51" s="2">
+        <v>45343</v>
+      </c>
+      <c r="G51">
+        <v>16</v>
+      </c>
+      <c r="H51">
+        <v>3.08</v>
+      </c>
+      <c r="I51">
+        <v>3.08</v>
+      </c>
+      <c r="J51">
+        <v>3.08</v>
+      </c>
+      <c r="K51">
+        <v>3.08</v>
+      </c>
+      <c r="L51">
+        <v>1022</v>
+      </c>
+      <c r="M51">
+        <v>1022</v>
+      </c>
+      <c r="N51">
+        <v>962</v>
+      </c>
+      <c r="O51">
+        <v>87</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>90</v>
+      </c>
+      <c r="R51">
+        <v>0.35</v>
+      </c>
+      <c r="S51">
+        <v>253</v>
+      </c>
+      <c r="T51">
+        <v>0.73</v>
+      </c>
+      <c r="U51" t="s">
+        <v>33</v>
+      </c>
+      <c r="X51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="A52">
+        <v>1708534800</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <v>10000</v>
+      </c>
+      <c r="D52">
+        <v>0.48</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45343.70833333334</v>
+      </c>
+      <c r="F52" s="2">
+        <v>45343</v>
+      </c>
+      <c r="G52">
+        <v>17</v>
+      </c>
+      <c r="H52">
+        <v>3.66</v>
+      </c>
+      <c r="I52">
+        <v>3.66</v>
+      </c>
+      <c r="J52">
+        <v>3.66</v>
+      </c>
+      <c r="K52">
+        <v>3.66</v>
+      </c>
+      <c r="L52">
+        <v>1022</v>
+      </c>
+      <c r="M52">
+        <v>1022</v>
+      </c>
+      <c r="N52">
+        <v>962</v>
+      </c>
+      <c r="O52">
+        <v>86</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>92</v>
+      </c>
+      <c r="R52">
+        <v>0.98</v>
+      </c>
+      <c r="S52">
+        <v>244</v>
+      </c>
+      <c r="T52">
+        <v>1.69</v>
+      </c>
+      <c r="U52" t="s">
+        <v>33</v>
+      </c>
+      <c r="X52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53">
+        <v>1708538400</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>3775</v>
+      </c>
+      <c r="D53">
+        <v>0.44</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45343.75</v>
+      </c>
+      <c r="F53" s="2">
+        <v>45343</v>
+      </c>
+      <c r="G53">
+        <v>18</v>
+      </c>
+      <c r="H53">
+        <v>3.69</v>
+      </c>
+      <c r="I53">
+        <v>3.69</v>
+      </c>
+      <c r="J53">
+        <v>3.69</v>
+      </c>
+      <c r="K53">
+        <v>3.69</v>
+      </c>
+      <c r="L53">
+        <v>1022</v>
+      </c>
+      <c r="M53">
+        <v>1022</v>
+      </c>
+      <c r="N53">
+        <v>962</v>
+      </c>
+      <c r="O53">
+        <v>89</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>93</v>
+      </c>
+      <c r="R53">
+        <v>0.96</v>
+      </c>
+      <c r="S53">
+        <v>219</v>
+      </c>
+      <c r="T53">
+        <v>1.74</v>
+      </c>
+      <c r="U53" t="s">
+        <v>33</v>
+      </c>
+      <c r="V53">
+        <v>0.11</v>
+      </c>
+      <c r="X53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
+      <c r="A54">
+        <v>1708542000</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54">
+        <v>7474</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45343.79166666666</v>
+      </c>
+      <c r="F54" s="2">
+        <v>45343</v>
+      </c>
+      <c r="G54">
+        <v>19</v>
+      </c>
+      <c r="H54">
+        <v>3.58</v>
+      </c>
+      <c r="I54">
+        <v>3.58</v>
+      </c>
+      <c r="J54">
+        <v>3.58</v>
+      </c>
+      <c r="K54">
+        <v>3.58</v>
+      </c>
+      <c r="L54">
+        <v>1022</v>
+      </c>
+      <c r="M54">
+        <v>1022</v>
+      </c>
+      <c r="N54">
+        <v>962</v>
+      </c>
+      <c r="O54">
+        <v>90</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>100</v>
+      </c>
+      <c r="R54">
+        <v>0.97</v>
+      </c>
+      <c r="S54">
+        <v>208</v>
+      </c>
+      <c r="T54">
+        <v>1.64</v>
+      </c>
+      <c r="U54" t="s">
+        <v>33</v>
+      </c>
+      <c r="X54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55">
+        <v>1708545600</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55">
+        <v>10000</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45343.83333333334</v>
+      </c>
+      <c r="F55" s="2">
+        <v>45343</v>
+      </c>
+      <c r="G55">
+        <v>20</v>
+      </c>
+      <c r="H55">
+        <v>3.53</v>
+      </c>
+      <c r="I55">
+        <v>3.53</v>
+      </c>
+      <c r="J55">
+        <v>3.53</v>
+      </c>
+      <c r="K55">
+        <v>3.53</v>
+      </c>
+      <c r="L55">
+        <v>1022</v>
+      </c>
+      <c r="M55">
+        <v>1022</v>
+      </c>
+      <c r="N55">
+        <v>962</v>
+      </c>
+      <c r="O55">
+        <v>89</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>100</v>
+      </c>
+      <c r="R55">
+        <v>1.08</v>
+      </c>
+      <c r="S55">
+        <v>197</v>
+      </c>
+      <c r="T55">
+        <v>1.58</v>
+      </c>
+      <c r="U55" t="s">
+        <v>33</v>
+      </c>
+      <c r="X55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="A56">
+        <v>1708549200</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56">
+        <v>10000</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45343.875</v>
+      </c>
+      <c r="F56" s="2">
+        <v>45343</v>
+      </c>
+      <c r="G56">
+        <v>21</v>
+      </c>
+      <c r="H56">
+        <v>3.49</v>
+      </c>
+      <c r="I56">
+        <v>3.49</v>
+      </c>
+      <c r="J56">
+        <v>3.49</v>
+      </c>
+      <c r="K56">
+        <v>3.49</v>
+      </c>
+      <c r="L56">
+        <v>1022</v>
+      </c>
+      <c r="M56">
+        <v>1022</v>
+      </c>
+      <c r="N56">
+        <v>961</v>
+      </c>
+      <c r="O56">
+        <v>87</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>100</v>
+      </c>
+      <c r="R56">
+        <v>1.19</v>
+      </c>
+      <c r="S56">
+        <v>204</v>
+      </c>
+      <c r="T56">
+        <v>1.75</v>
+      </c>
+      <c r="U56" t="s">
+        <v>33</v>
+      </c>
+      <c r="X56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57">
+        <v>1708552800</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <v>10000</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45343.91666666666</v>
+      </c>
+      <c r="F57" s="2">
+        <v>45343</v>
+      </c>
+      <c r="G57">
+        <v>22</v>
+      </c>
+      <c r="H57">
+        <v>3.43</v>
+      </c>
+      <c r="I57">
+        <v>2.16</v>
+      </c>
+      <c r="J57">
+        <v>3.43</v>
+      </c>
+      <c r="K57">
+        <v>3.43</v>
+      </c>
+      <c r="L57">
+        <v>1021</v>
+      </c>
+      <c r="M57">
+        <v>1021</v>
+      </c>
+      <c r="N57">
+        <v>961</v>
+      </c>
+      <c r="O57">
+        <v>85</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>100</v>
+      </c>
+      <c r="R57">
+        <v>1.5</v>
+      </c>
+      <c r="S57">
+        <v>215</v>
+      </c>
+      <c r="T57">
+        <v>2.26</v>
+      </c>
+      <c r="U57" t="s">
+        <v>33</v>
+      </c>
+      <c r="X57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58">
+        <v>1708556400</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <v>1054</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45343.95833333334</v>
+      </c>
+      <c r="F58" s="2">
+        <v>45343</v>
+      </c>
+      <c r="G58">
+        <v>23</v>
+      </c>
+      <c r="H58">
+        <v>2.62</v>
+      </c>
+      <c r="I58">
+        <v>1.23</v>
+      </c>
+      <c r="J58">
+        <v>2.62</v>
+      </c>
+      <c r="K58">
+        <v>2.62</v>
+      </c>
+      <c r="L58">
+        <v>1022</v>
+      </c>
+      <c r="M58">
+        <v>1022</v>
+      </c>
+      <c r="N58">
+        <v>961</v>
+      </c>
+      <c r="O58">
+        <v>96</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>100</v>
+      </c>
+      <c r="R58">
+        <v>1.5</v>
+      </c>
+      <c r="S58">
+        <v>231</v>
+      </c>
+      <c r="T58">
+        <v>2.67</v>
+      </c>
+      <c r="U58" t="s">
+        <v>33</v>
+      </c>
+      <c r="X58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59">
+        <v>1708560000</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59">
+        <v>95</v>
+      </c>
+      <c r="D59">
+        <v>0.21</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45344</v>
+      </c>
+      <c r="F59" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>2.87</v>
+      </c>
+      <c r="I59">
+        <v>1.74</v>
+      </c>
+      <c r="J59">
+        <v>2.87</v>
+      </c>
+      <c r="K59">
+        <v>2.87</v>
+      </c>
+      <c r="L59">
+        <v>1021</v>
+      </c>
+      <c r="M59">
+        <v>1021</v>
+      </c>
+      <c r="N59">
+        <v>961</v>
+      </c>
+      <c r="O59">
+        <v>99</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>100</v>
+      </c>
+      <c r="R59">
+        <v>1.35</v>
+      </c>
+      <c r="S59">
+        <v>212</v>
+      </c>
+      <c r="T59">
+        <v>2.44</v>
+      </c>
+      <c r="U59" t="s">
+        <v>33</v>
+      </c>
+      <c r="V59">
+        <v>0.34</v>
+      </c>
+      <c r="X59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60">
+        <v>1708563600</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <v>74</v>
+      </c>
+      <c r="D60">
+        <v>0.4</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45344.04166666666</v>
+      </c>
+      <c r="F60" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>3.03</v>
+      </c>
+      <c r="I60">
+        <v>1.54</v>
+      </c>
+      <c r="J60">
+        <v>3.03</v>
+      </c>
+      <c r="K60">
+        <v>3.03</v>
+      </c>
+      <c r="L60">
+        <v>1021</v>
+      </c>
+      <c r="M60">
+        <v>1021</v>
+      </c>
+      <c r="N60">
+        <v>960</v>
+      </c>
+      <c r="O60">
+        <v>99</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>100</v>
+      </c>
+      <c r="R60">
+        <v>1.62</v>
+      </c>
+      <c r="S60">
+        <v>224</v>
+      </c>
+      <c r="T60">
+        <v>2.83</v>
+      </c>
+      <c r="U60" t="s">
+        <v>33</v>
+      </c>
+      <c r="W60">
+        <v>0.16</v>
+      </c>
+      <c r="X60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61">
+        <v>1708567200</v>
+      </c>
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61">
+        <v>57</v>
+      </c>
+      <c r="D61">
+        <v>0.48</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45344.08333333334</v>
+      </c>
+      <c r="F61" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>2.96</v>
+      </c>
+      <c r="I61">
+        <v>1.86</v>
+      </c>
+      <c r="J61">
+        <v>2.96</v>
+      </c>
+      <c r="K61">
+        <v>2.96</v>
+      </c>
+      <c r="L61">
+        <v>1020</v>
+      </c>
+      <c r="M61">
+        <v>1020</v>
+      </c>
+      <c r="N61">
+        <v>960</v>
+      </c>
+      <c r="O61">
+        <v>99</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>100</v>
+      </c>
+      <c r="R61">
+        <v>1.34</v>
+      </c>
+      <c r="S61">
+        <v>215</v>
+      </c>
+      <c r="T61">
+        <v>2.38</v>
+      </c>
+      <c r="U61" t="s">
+        <v>33</v>
+      </c>
+      <c r="V61">
+        <v>0.23</v>
+      </c>
+      <c r="X61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="A62">
+        <v>1708570800</v>
+      </c>
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62">
+        <v>39</v>
+      </c>
+      <c r="D62">
+        <v>0.43</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45344.125</v>
+      </c>
+      <c r="F62" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>2.92</v>
+      </c>
+      <c r="I62">
+        <v>2.92</v>
+      </c>
+      <c r="J62">
+        <v>2.92</v>
+      </c>
+      <c r="K62">
+        <v>2.92</v>
+      </c>
+      <c r="L62">
+        <v>1020</v>
+      </c>
+      <c r="M62">
+        <v>1020</v>
+      </c>
+      <c r="N62">
+        <v>959</v>
+      </c>
+      <c r="O62">
+        <v>99</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>100</v>
+      </c>
+      <c r="R62">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="S62">
+        <v>190</v>
+      </c>
+      <c r="T62">
+        <v>1.52</v>
+      </c>
+      <c r="U62" t="s">
+        <v>33</v>
+      </c>
+      <c r="V62">
+        <v>0.17</v>
+      </c>
+      <c r="X62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63">
+        <v>1708574400</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63">
+        <v>682</v>
+      </c>
+      <c r="D63">
+        <v>0.4</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45344.16666666666</v>
+      </c>
+      <c r="F63" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G63">
+        <v>4</v>
+      </c>
+      <c r="H63">
+        <v>2.87</v>
+      </c>
+      <c r="I63">
+        <v>2.87</v>
+      </c>
+      <c r="J63">
+        <v>2.87</v>
+      </c>
+      <c r="K63">
+        <v>2.87</v>
+      </c>
+      <c r="L63">
+        <v>1019</v>
+      </c>
+      <c r="M63">
+        <v>1019</v>
+      </c>
+      <c r="N63">
+        <v>959</v>
+      </c>
+      <c r="O63">
+        <v>99</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>100</v>
+      </c>
+      <c r="R63">
+        <v>0.59</v>
+      </c>
+      <c r="S63">
+        <v>182</v>
+      </c>
+      <c r="T63">
+        <v>1.24</v>
+      </c>
+      <c r="U63" t="s">
+        <v>33</v>
+      </c>
+      <c r="V63">
+        <v>0.11</v>
+      </c>
+      <c r="X63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="A64">
+        <v>1708578000</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64">
+        <v>697</v>
+      </c>
+      <c r="D64">
+        <v>0.36</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45344.20833333334</v>
+      </c>
+      <c r="F64" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <v>2.76</v>
+      </c>
+      <c r="I64">
+        <v>2.76</v>
+      </c>
+      <c r="J64">
+        <v>2.76</v>
+      </c>
+      <c r="K64">
+        <v>2.76</v>
+      </c>
+      <c r="L64">
+        <v>1019</v>
+      </c>
+      <c r="M64">
+        <v>1019</v>
+      </c>
+      <c r="N64">
+        <v>959</v>
+      </c>
+      <c r="O64">
+        <v>99</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>100</v>
+      </c>
+      <c r="R64">
+        <v>0.73</v>
+      </c>
+      <c r="S64">
+        <v>162</v>
+      </c>
+      <c r="T64">
+        <v>1.24</v>
+      </c>
+      <c r="U64" t="s">
+        <v>33</v>
+      </c>
+      <c r="X64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="A65">
+        <v>1708581600</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65">
+        <v>1466</v>
+      </c>
+      <c r="D65">
+        <v>0.28</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45344.25</v>
+      </c>
+      <c r="F65" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G65">
+        <v>6</v>
+      </c>
+      <c r="H65">
+        <v>2.85</v>
+      </c>
+      <c r="I65">
+        <v>2.85</v>
+      </c>
+      <c r="J65">
+        <v>2.85</v>
+      </c>
+      <c r="K65">
+        <v>2.85</v>
+      </c>
+      <c r="L65">
+        <v>1019</v>
+      </c>
+      <c r="M65">
+        <v>1019</v>
+      </c>
+      <c r="N65">
+        <v>958</v>
+      </c>
+      <c r="O65">
+        <v>97</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>100</v>
+      </c>
+      <c r="R65">
+        <v>0.72</v>
+      </c>
+      <c r="S65">
+        <v>149</v>
+      </c>
+      <c r="T65">
+        <v>1.32</v>
+      </c>
+      <c r="U65" t="s">
+        <v>32</v>
+      </c>
+      <c r="X65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="A66">
+        <v>1708585200</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66">
+        <v>5425</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45344.29166666666</v>
+      </c>
+      <c r="F66" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G66">
+        <v>7</v>
+      </c>
+      <c r="H66">
+        <v>3.42</v>
+      </c>
+      <c r="I66">
+        <v>3.42</v>
+      </c>
+      <c r="J66">
+        <v>3.42</v>
+      </c>
+      <c r="K66">
+        <v>3.42</v>
+      </c>
+      <c r="L66">
+        <v>1019</v>
+      </c>
+      <c r="M66">
+        <v>1019</v>
+      </c>
+      <c r="N66">
+        <v>958</v>
+      </c>
+      <c r="O66">
+        <v>91</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>99</v>
+      </c>
+      <c r="R66">
+        <v>0.51</v>
+      </c>
+      <c r="S66">
+        <v>157</v>
+      </c>
+      <c r="T66">
+        <v>1.16</v>
+      </c>
+      <c r="U66" t="s">
+        <v>32</v>
+      </c>
+      <c r="X66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
+      <c r="A67">
+        <v>1708588800</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67">
+        <v>6532</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45344.33333333334</v>
+      </c>
+      <c r="F67" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G67">
+        <v>8</v>
+      </c>
+      <c r="H67">
+        <v>4.48</v>
+      </c>
+      <c r="I67">
+        <v>4.48</v>
+      </c>
+      <c r="J67">
+        <v>4.48</v>
+      </c>
+      <c r="K67">
+        <v>4.48</v>
+      </c>
+      <c r="L67">
+        <v>1018</v>
+      </c>
+      <c r="M67">
+        <v>1018</v>
+      </c>
+      <c r="N67">
+        <v>958</v>
+      </c>
+      <c r="O67">
+        <v>84</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>100</v>
+      </c>
+      <c r="R67">
+        <v>0.41</v>
+      </c>
+      <c r="S67">
+        <v>207</v>
+      </c>
+      <c r="T67">
+        <v>1.16</v>
+      </c>
+      <c r="U67" t="s">
+        <v>32</v>
+      </c>
+      <c r="X67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="A68">
+        <v>1708592400</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68">
+        <v>10000</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45344.375</v>
+      </c>
+      <c r="F68" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G68">
+        <v>9</v>
+      </c>
+      <c r="H68">
+        <v>5.63</v>
+      </c>
+      <c r="I68">
+        <v>5.63</v>
+      </c>
+      <c r="J68">
+        <v>5.63</v>
+      </c>
+      <c r="K68">
+        <v>5.63</v>
+      </c>
+      <c r="L68">
+        <v>1017</v>
+      </c>
+      <c r="M68">
+        <v>1017</v>
+      </c>
+      <c r="N68">
+        <v>958</v>
+      </c>
+      <c r="O68">
+        <v>77</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>100</v>
+      </c>
+      <c r="R68">
+        <v>1.1</v>
+      </c>
+      <c r="S68">
+        <v>244</v>
+      </c>
+      <c r="T68">
+        <v>1.91</v>
+      </c>
+      <c r="U68" t="s">
+        <v>32</v>
+      </c>
+      <c r="X68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
+      <c r="A69">
+        <v>1708596000</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69">
+        <v>10000</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45344.41666666666</v>
+      </c>
+      <c r="F69" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G69">
+        <v>10</v>
+      </c>
+      <c r="H69">
+        <v>6.69</v>
+      </c>
+      <c r="I69">
+        <v>6.08</v>
+      </c>
+      <c r="J69">
+        <v>6.69</v>
+      </c>
+      <c r="K69">
+        <v>6.69</v>
+      </c>
+      <c r="L69">
+        <v>1017</v>
+      </c>
+      <c r="M69">
+        <v>1017</v>
+      </c>
+      <c r="N69">
+        <v>957</v>
+      </c>
+      <c r="O69">
+        <v>72</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>100</v>
+      </c>
+      <c r="R69">
+        <v>1.34</v>
+      </c>
+      <c r="S69">
+        <v>239</v>
+      </c>
+      <c r="T69">
+        <v>2.34</v>
+      </c>
+      <c r="U69" t="s">
+        <v>32</v>
+      </c>
+      <c r="X69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
+      <c r="A70">
+        <v>1708599600</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70">
+        <v>10000</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45344.45833333334</v>
+      </c>
+      <c r="F70" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G70">
+        <v>11</v>
+      </c>
+      <c r="H70">
+        <v>7.28</v>
+      </c>
+      <c r="I70">
+        <v>6.69</v>
+      </c>
+      <c r="J70">
+        <v>7.28</v>
+      </c>
+      <c r="K70">
+        <v>7.28</v>
+      </c>
+      <c r="L70">
+        <v>1015</v>
+      </c>
+      <c r="M70">
+        <v>1015</v>
+      </c>
+      <c r="N70">
+        <v>956</v>
+      </c>
+      <c r="O70">
+        <v>68</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>100</v>
+      </c>
+      <c r="R70">
+        <v>1.38</v>
+      </c>
+      <c r="S70">
+        <v>239</v>
+      </c>
+      <c r="T70">
+        <v>2.56</v>
+      </c>
+      <c r="U70" t="s">
+        <v>32</v>
+      </c>
+      <c r="X70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
+      <c r="A71">
+        <v>1708603200</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71">
+        <v>10000</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45344.5</v>
+      </c>
+      <c r="F71" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G71">
+        <v>12</v>
+      </c>
+      <c r="H71">
+        <v>7.78</v>
+      </c>
+      <c r="I71">
+        <v>7.78</v>
+      </c>
+      <c r="J71">
+        <v>7.78</v>
+      </c>
+      <c r="K71">
+        <v>7.78</v>
+      </c>
+      <c r="L71">
+        <v>1014</v>
+      </c>
+      <c r="M71">
+        <v>1014</v>
+      </c>
+      <c r="N71">
+        <v>955</v>
+      </c>
+      <c r="O71">
+        <v>65</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>100</v>
+      </c>
+      <c r="R71">
+        <v>1.32</v>
+      </c>
+      <c r="S71">
+        <v>225</v>
+      </c>
+      <c r="T71">
+        <v>2.63</v>
+      </c>
+      <c r="U71" t="s">
+        <v>32</v>
+      </c>
+      <c r="X71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
+      <c r="A72">
+        <v>1708606800</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72">
+        <v>10000</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45344.54166666666</v>
+      </c>
+      <c r="F72" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G72">
+        <v>13</v>
+      </c>
+      <c r="H72">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="I72">
+        <v>7.71</v>
+      </c>
+      <c r="J72">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="K72">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="L72">
+        <v>1013</v>
+      </c>
+      <c r="M72">
+        <v>1013</v>
+      </c>
+      <c r="N72">
+        <v>954</v>
+      </c>
+      <c r="O72">
+        <v>63</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>90</v>
+      </c>
+      <c r="R72">
+        <v>1.42</v>
+      </c>
+      <c r="S72">
+        <v>213</v>
+      </c>
+      <c r="T72">
+        <v>2.86</v>
+      </c>
+      <c r="U72" t="s">
+        <v>32</v>
+      </c>
+      <c r="X72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
+      <c r="A73">
+        <v>1708610400</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73">
+        <v>10000</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45344.58333333334</v>
+      </c>
+      <c r="F73" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G73">
+        <v>14</v>
+      </c>
+      <c r="H73">
+        <v>8.26</v>
+      </c>
+      <c r="I73">
+        <v>7.57</v>
+      </c>
+      <c r="J73">
+        <v>8.26</v>
+      </c>
+      <c r="K73">
+        <v>8.26</v>
+      </c>
+      <c r="L73">
+        <v>1013</v>
+      </c>
+      <c r="M73">
+        <v>1013</v>
+      </c>
+      <c r="N73">
+        <v>954</v>
+      </c>
+      <c r="O73">
+        <v>62</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>85</v>
+      </c>
+      <c r="R73">
+        <v>1.59</v>
+      </c>
+      <c r="S73">
+        <v>209</v>
+      </c>
+      <c r="T73">
+        <v>3.32</v>
+      </c>
+      <c r="U73" t="s">
+        <v>32</v>
+      </c>
+      <c r="X73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
+      <c r="A74">
+        <v>1708614000</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74">
+        <v>10000</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45344.625</v>
+      </c>
+      <c r="F74" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G74">
+        <v>15</v>
+      </c>
+      <c r="H74">
+        <v>7.44</v>
+      </c>
+      <c r="I74">
+        <v>7.44</v>
+      </c>
+      <c r="J74">
+        <v>7.44</v>
+      </c>
+      <c r="K74">
+        <v>7.44</v>
+      </c>
+      <c r="L74">
+        <v>1012</v>
+      </c>
+      <c r="M74">
+        <v>1012</v>
+      </c>
+      <c r="N74">
+        <v>953</v>
+      </c>
+      <c r="O74">
+        <v>68</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>88</v>
+      </c>
+      <c r="R74">
+        <v>1.31</v>
+      </c>
+      <c r="S74">
+        <v>207</v>
+      </c>
+      <c r="T74">
+        <v>2.23</v>
+      </c>
+      <c r="U74" t="s">
+        <v>32</v>
+      </c>
+      <c r="X74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
+      <c r="A75">
+        <v>1708617600</v>
+      </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75">
+        <v>10000</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45344.66666666666</v>
+      </c>
+      <c r="F75" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G75">
+        <v>16</v>
+      </c>
+      <c r="H75">
+        <v>5.82</v>
+      </c>
+      <c r="I75">
+        <v>5.82</v>
+      </c>
+      <c r="J75">
+        <v>5.82</v>
+      </c>
+      <c r="K75">
+        <v>5.82</v>
+      </c>
+      <c r="L75">
+        <v>1012</v>
+      </c>
+      <c r="M75">
+        <v>1012</v>
+      </c>
+      <c r="N75">
+        <v>953</v>
+      </c>
+      <c r="O75">
+        <v>76</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>91</v>
+      </c>
+      <c r="R75">
+        <v>1.26</v>
+      </c>
+      <c r="S75">
+        <v>165</v>
+      </c>
+      <c r="T75">
+        <v>1.44</v>
+      </c>
+      <c r="U75" t="s">
+        <v>33</v>
+      </c>
+      <c r="X75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
+      <c r="A76">
+        <v>1708621200</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>10000</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45344.70833333334</v>
+      </c>
+      <c r="F76" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G76">
+        <v>17</v>
+      </c>
+      <c r="H76">
+        <v>4.83</v>
+      </c>
+      <c r="I76">
+        <v>3.83</v>
+      </c>
+      <c r="J76">
+        <v>4.83</v>
+      </c>
+      <c r="K76">
+        <v>4.83</v>
+      </c>
+      <c r="L76">
+        <v>1012</v>
+      </c>
+      <c r="M76">
+        <v>1012</v>
+      </c>
+      <c r="N76">
+        <v>953</v>
+      </c>
+      <c r="O76">
+        <v>79</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>93</v>
+      </c>
+      <c r="R76">
+        <v>1.44</v>
+      </c>
+      <c r="S76">
+        <v>136</v>
+      </c>
+      <c r="T76">
+        <v>1.48</v>
+      </c>
+      <c r="U76" t="s">
+        <v>33</v>
+      </c>
+      <c r="X76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
+      <c r="A77">
+        <v>1708624800</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77">
+        <v>10000</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45344.75</v>
+      </c>
+      <c r="F77" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G77">
+        <v>18</v>
+      </c>
+      <c r="H77">
+        <v>4.22</v>
+      </c>
+      <c r="I77">
+        <v>2.96</v>
+      </c>
+      <c r="J77">
+        <v>4.22</v>
+      </c>
+      <c r="K77">
+        <v>4.22</v>
+      </c>
+      <c r="L77">
+        <v>1012</v>
+      </c>
+      <c r="M77">
+        <v>1012</v>
+      </c>
+      <c r="N77">
+        <v>953</v>
+      </c>
+      <c r="O77">
+        <v>80</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>94</v>
+      </c>
+      <c r="R77">
+        <v>1.57</v>
+      </c>
+      <c r="S77">
+        <v>121</v>
+      </c>
+      <c r="T77">
+        <v>1.55</v>
+      </c>
+      <c r="U77" t="s">
+        <v>33</v>
+      </c>
+      <c r="X77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
+      <c r="A78">
+        <v>1708628400</v>
+      </c>
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78">
+        <v>10000</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45344.79166666666</v>
+      </c>
+      <c r="F78" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G78">
+        <v>19</v>
+      </c>
+      <c r="H78">
+        <v>4.37</v>
+      </c>
+      <c r="I78">
+        <v>3.2</v>
+      </c>
+      <c r="J78">
+        <v>4.37</v>
+      </c>
+      <c r="K78">
+        <v>4.37</v>
+      </c>
+      <c r="L78">
+        <v>1012</v>
+      </c>
+      <c r="M78">
+        <v>1012</v>
+      </c>
+      <c r="N78">
+        <v>952</v>
+      </c>
+      <c r="O78">
+        <v>78</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>100</v>
+      </c>
+      <c r="R78">
+        <v>1.52</v>
+      </c>
+      <c r="S78">
+        <v>134</v>
+      </c>
+      <c r="T78">
+        <v>1.63</v>
+      </c>
+      <c r="U78" t="s">
+        <v>33</v>
+      </c>
+      <c r="X78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
+      <c r="A79">
+        <v>1708632000</v>
+      </c>
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79">
+        <v>10000</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45344.83333333334</v>
+      </c>
+      <c r="F79" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G79">
+        <v>20</v>
+      </c>
+      <c r="H79">
+        <v>4.4</v>
+      </c>
+      <c r="I79">
+        <v>3.43</v>
+      </c>
+      <c r="J79">
+        <v>4.4</v>
+      </c>
+      <c r="K79">
+        <v>4.4</v>
+      </c>
+      <c r="L79">
+        <v>1011</v>
+      </c>
+      <c r="M79">
+        <v>1011</v>
+      </c>
+      <c r="N79">
+        <v>952</v>
+      </c>
+      <c r="O79">
+        <v>77</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>99</v>
+      </c>
+      <c r="R79">
+        <v>1.38</v>
+      </c>
+      <c r="S79">
+        <v>129</v>
+      </c>
+      <c r="T79">
+        <v>1.65</v>
+      </c>
+      <c r="U79" t="s">
+        <v>33</v>
+      </c>
+      <c r="X79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
+      <c r="A80">
+        <v>1708635600</v>
+      </c>
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80">
+        <v>10000</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45344.875</v>
+      </c>
+      <c r="F80" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G80">
+        <v>21</v>
+      </c>
+      <c r="H80">
+        <v>4.07</v>
+      </c>
+      <c r="I80">
+        <v>4.07</v>
+      </c>
+      <c r="J80">
+        <v>4.07</v>
+      </c>
+      <c r="K80">
+        <v>4.07</v>
+      </c>
+      <c r="L80">
+        <v>1011</v>
+      </c>
+      <c r="M80">
+        <v>1011</v>
+      </c>
+      <c r="N80">
+        <v>951</v>
+      </c>
+      <c r="O80">
+        <v>77</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>99</v>
+      </c>
+      <c r="R80">
+        <v>0.89</v>
+      </c>
+      <c r="S80">
+        <v>151</v>
+      </c>
+      <c r="T80">
+        <v>1.13</v>
+      </c>
+      <c r="U80" t="s">
+        <v>33</v>
+      </c>
+      <c r="X80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
+      <c r="A81">
+        <v>1708639200</v>
+      </c>
+      <c r="B81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81">
+        <v>10000</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45344.91666666666</v>
+      </c>
+      <c r="F81" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G81">
+        <v>22</v>
+      </c>
+      <c r="H81">
+        <v>3.94</v>
+      </c>
+      <c r="I81">
+        <v>3.94</v>
+      </c>
+      <c r="J81">
+        <v>3.94</v>
+      </c>
+      <c r="K81">
+        <v>3.94</v>
+      </c>
+      <c r="L81">
+        <v>1011</v>
+      </c>
+      <c r="M81">
+        <v>1011</v>
+      </c>
+      <c r="N81">
+        <v>951</v>
+      </c>
+      <c r="O81">
+        <v>78</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>95</v>
+      </c>
+      <c r="R81">
+        <v>1.11</v>
+      </c>
+      <c r="S81">
+        <v>134</v>
+      </c>
+      <c r="T81">
+        <v>1.18</v>
+      </c>
+      <c r="U81" t="s">
+        <v>33</v>
+      </c>
+      <c r="X81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
+      <c r="A82">
+        <v>1708642800</v>
+      </c>
+      <c r="B82" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82">
+        <v>10000</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45344.95833333334</v>
+      </c>
+      <c r="F82" s="2">
+        <v>45344</v>
+      </c>
+      <c r="G82">
+        <v>23</v>
+      </c>
+      <c r="H82">
+        <v>3.9</v>
+      </c>
+      <c r="I82">
+        <v>2.92</v>
+      </c>
+      <c r="J82">
+        <v>3.9</v>
+      </c>
+      <c r="K82">
+        <v>3.9</v>
+      </c>
+      <c r="L82">
+        <v>1011</v>
+      </c>
+      <c r="M82">
+        <v>1011</v>
+      </c>
+      <c r="N82">
+        <v>951</v>
+      </c>
+      <c r="O82">
+        <v>77</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>95</v>
+      </c>
+      <c r="R82">
+        <v>1.34</v>
+      </c>
+      <c r="S82">
+        <v>140</v>
+      </c>
+      <c r="T82">
+        <v>1.36</v>
+      </c>
+      <c r="U82" t="s">
+        <v>33</v>
+      </c>
+      <c r="X82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
+      <c r="A83">
+        <v>1708646400</v>
+      </c>
+      <c r="B83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83">
+        <v>10000</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45345</v>
+      </c>
+      <c r="F83" s="2">
+        <v>45345</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>4</v>
+      </c>
+      <c r="I83">
+        <v>2.99</v>
+      </c>
+      <c r="J83">
+        <v>4</v>
+      </c>
+      <c r="K83">
+        <v>4</v>
+      </c>
+      <c r="L83">
+        <v>1011</v>
+      </c>
+      <c r="M83">
+        <v>1011</v>
+      </c>
+      <c r="N83">
+        <v>951</v>
+      </c>
+      <c r="O83">
+        <v>77</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>96</v>
+      </c>
+      <c r="R83">
+        <v>1.37</v>
+      </c>
+      <c r="S83">
+        <v>137</v>
+      </c>
+      <c r="T83">
+        <v>1.37</v>
+      </c>
+      <c r="U83" t="s">
+        <v>33</v>
+      </c>
+      <c r="X83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
+      <c r="A84">
+        <v>1708650000</v>
+      </c>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84">
+        <v>10000</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45345.04166666666</v>
+      </c>
+      <c r="F84" s="2">
+        <v>45345</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>4.2</v>
+      </c>
+      <c r="I84">
+        <v>4.2</v>
+      </c>
+      <c r="J84">
+        <v>4.2</v>
+      </c>
+      <c r="K84">
+        <v>4.2</v>
+      </c>
+      <c r="L84">
+        <v>1010</v>
+      </c>
+      <c r="M84">
+        <v>1010</v>
+      </c>
+      <c r="N84">
+        <v>951</v>
+      </c>
+      <c r="O84">
+        <v>76</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>100</v>
+      </c>
+      <c r="R84">
+        <v>1.33</v>
+      </c>
+      <c r="S84">
+        <v>145</v>
+      </c>
+      <c r="T84">
+        <v>1.44</v>
+      </c>
+      <c r="U84" t="s">
+        <v>33</v>
+      </c>
+      <c r="X84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
+      <c r="A85">
+        <v>1708653600</v>
+      </c>
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85">
+        <v>10000</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45345.08333333334</v>
+      </c>
+      <c r="F85" s="2">
+        <v>45345</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85">
+        <v>4.05</v>
+      </c>
+      <c r="I85">
+        <v>2.93</v>
+      </c>
+      <c r="J85">
+        <v>4.05</v>
+      </c>
+      <c r="K85">
+        <v>4.05</v>
+      </c>
+      <c r="L85">
+        <v>1010</v>
+      </c>
+      <c r="M85">
+        <v>1010</v>
+      </c>
+      <c r="N85">
+        <v>951</v>
+      </c>
+      <c r="O85">
+        <v>76</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>100</v>
+      </c>
+      <c r="R85">
+        <v>1.45</v>
+      </c>
+      <c r="S85">
+        <v>141</v>
+      </c>
+      <c r="T85">
+        <v>1.54</v>
+      </c>
+      <c r="U85" t="s">
+        <v>33</v>
+      </c>
+      <c r="X85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
+      <c r="A86">
+        <v>1708657200</v>
+      </c>
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86">
+        <v>10000</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45345.125</v>
+      </c>
+      <c r="F86" s="2">
+        <v>45345</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>4.23</v>
+      </c>
+      <c r="I86">
+        <v>2.81</v>
+      </c>
+      <c r="J86">
+        <v>4.23</v>
+      </c>
+      <c r="K86">
+        <v>4.23</v>
+      </c>
+      <c r="L86">
+        <v>1010</v>
+      </c>
+      <c r="M86">
+        <v>1010</v>
+      </c>
+      <c r="N86">
+        <v>950</v>
+      </c>
+      <c r="O86">
+        <v>75</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>100</v>
+      </c>
+      <c r="R86">
+        <v>1.7</v>
+      </c>
+      <c r="S86">
+        <v>143</v>
+      </c>
+      <c r="T86">
+        <v>2</v>
+      </c>
+      <c r="U86" t="s">
+        <v>33</v>
+      </c>
+      <c r="X86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
+      <c r="A87">
+        <v>1708660800</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87">
+        <v>10000</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45345.16666666666</v>
+      </c>
+      <c r="F87" s="2">
+        <v>45345</v>
+      </c>
+      <c r="G87">
+        <v>4</v>
+      </c>
+      <c r="H87">
+        <v>4.17</v>
+      </c>
+      <c r="I87">
+        <v>2.93</v>
+      </c>
+      <c r="J87">
+        <v>4.17</v>
+      </c>
+      <c r="K87">
+        <v>4.17</v>
+      </c>
+      <c r="L87">
+        <v>1009</v>
+      </c>
+      <c r="M87">
+        <v>1009</v>
+      </c>
+      <c r="N87">
+        <v>950</v>
+      </c>
+      <c r="O87">
+        <v>75</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>100</v>
+      </c>
+      <c r="R87">
+        <v>1.55</v>
+      </c>
+      <c r="S87">
+        <v>139</v>
+      </c>
+      <c r="T87">
+        <v>1.81</v>
+      </c>
+      <c r="U87" t="s">
+        <v>33</v>
+      </c>
+      <c r="X87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
+      <c r="A88">
+        <v>1708664400</v>
+      </c>
+      <c r="B88" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88">
+        <v>10000</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45345.20833333334</v>
+      </c>
+      <c r="F88" s="2">
+        <v>45345</v>
+      </c>
+      <c r="G88">
+        <v>5</v>
+      </c>
+      <c r="H88">
+        <v>3.95</v>
+      </c>
+      <c r="I88">
+        <v>3.95</v>
+      </c>
+      <c r="J88">
+        <v>3.95</v>
+      </c>
+      <c r="K88">
+        <v>3.95</v>
+      </c>
+      <c r="L88">
+        <v>1010</v>
+      </c>
+      <c r="M88">
+        <v>1010</v>
+      </c>
+      <c r="N88">
+        <v>950</v>
+      </c>
+      <c r="O88">
+        <v>75</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>100</v>
+      </c>
+      <c r="R88">
+        <v>0.82</v>
+      </c>
+      <c r="S88">
+        <v>129</v>
+      </c>
+      <c r="T88">
+        <v>1.03</v>
+      </c>
+      <c r="U88" t="s">
+        <v>33</v>
+      </c>
+      <c r="X88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
+      <c r="A89">
+        <v>1708668000</v>
+      </c>
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89">
+        <v>10000</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45345.25</v>
+      </c>
+      <c r="F89" s="2">
+        <v>45345</v>
+      </c>
+      <c r="G89">
+        <v>6</v>
+      </c>
+      <c r="H89">
+        <v>4.77</v>
+      </c>
+      <c r="I89">
+        <v>4.77</v>
+      </c>
+      <c r="J89">
+        <v>4.77</v>
+      </c>
+      <c r="K89">
+        <v>4.77</v>
+      </c>
+      <c r="L89">
+        <v>1010</v>
+      </c>
+      <c r="M89">
+        <v>1010</v>
+      </c>
+      <c r="N89">
+        <v>951</v>
+      </c>
+      <c r="O89">
+        <v>73</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>100</v>
+      </c>
+      <c r="R89">
+        <v>0.75</v>
+      </c>
+      <c r="S89">
+        <v>140</v>
+      </c>
+      <c r="T89">
+        <v>1.24</v>
+      </c>
+      <c r="U89" t="s">
+        <v>32</v>
+      </c>
+      <c r="X89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
+      <c r="A90">
+        <v>1708671600</v>
+      </c>
+      <c r="B90" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90">
+        <v>10000</v>
+      </c>
+      <c r="D90">
+        <v>0.23</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45345.29166666666</v>
+      </c>
+      <c r="F90" s="2">
+        <v>45345</v>
+      </c>
+      <c r="G90">
+        <v>7</v>
+      </c>
+      <c r="H90">
+        <v>6.04</v>
+      </c>
+      <c r="I90">
+        <v>6.04</v>
+      </c>
+      <c r="J90">
+        <v>6.04</v>
+      </c>
+      <c r="K90">
+        <v>6.04</v>
+      </c>
+      <c r="L90">
+        <v>1010</v>
+      </c>
+      <c r="M90">
+        <v>1010</v>
+      </c>
+      <c r="N90">
+        <v>951</v>
+      </c>
+      <c r="O90">
+        <v>70</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>100</v>
+      </c>
+      <c r="R90">
+        <v>0.89</v>
+      </c>
+      <c r="S90">
+        <v>131</v>
+      </c>
+      <c r="T90">
+        <v>2.59</v>
+      </c>
+      <c r="U90" t="s">
+        <v>32</v>
+      </c>
+      <c r="X90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
+      <c r="A91">
+        <v>1708675200</v>
+      </c>
+      <c r="B91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91">
+        <v>10000</v>
+      </c>
+      <c r="D91">
+        <v>0.19</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45345.33333333334</v>
+      </c>
+      <c r="F91" s="2">
+        <v>45345</v>
+      </c>
+      <c r="G91">
+        <v>8</v>
+      </c>
+      <c r="H91">
+        <v>6.95</v>
+      </c>
+      <c r="I91">
+        <v>6.95</v>
+      </c>
+      <c r="J91">
+        <v>6.95</v>
+      </c>
+      <c r="K91">
+        <v>6.95</v>
+      </c>
+      <c r="L91">
+        <v>1010</v>
+      </c>
+      <c r="M91">
+        <v>1010</v>
+      </c>
+      <c r="N91">
+        <v>951</v>
+      </c>
+      <c r="O91">
+        <v>70</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>100</v>
+      </c>
+      <c r="R91">
+        <v>1.3</v>
+      </c>
+      <c r="S91">
+        <v>128</v>
+      </c>
+      <c r="T91">
+        <v>3.01</v>
+      </c>
+      <c r="U91" t="s">
+        <v>32</v>
+      </c>
+      <c r="X91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
+      <c r="A92">
+        <v>1708678800</v>
+      </c>
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92">
+        <v>10000</v>
+      </c>
+      <c r="D92">
+        <v>0.19</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45345.375</v>
+      </c>
+      <c r="F92" s="2">
+        <v>45345</v>
+      </c>
+      <c r="G92">
+        <v>9</v>
+      </c>
+      <c r="H92">
+        <v>8.5</v>
+      </c>
+      <c r="I92">
+        <v>8.5</v>
+      </c>
+      <c r="J92">
+        <v>8.5</v>
+      </c>
+      <c r="K92">
+        <v>8.5</v>
+      </c>
+      <c r="L92">
+        <v>1010</v>
+      </c>
+      <c r="M92">
+        <v>1010</v>
+      </c>
+      <c r="N92">
+        <v>951</v>
+      </c>
+      <c r="O92">
+        <v>63</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>100</v>
+      </c>
+      <c r="R92">
+        <v>1.31</v>
+      </c>
+      <c r="S92">
+        <v>215</v>
+      </c>
+      <c r="T92">
+        <v>4.89</v>
+      </c>
+      <c r="U92" t="s">
+        <v>32</v>
+      </c>
+      <c r="X92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
+      <c r="A93">
+        <v>1708682400</v>
+      </c>
+      <c r="B93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93">
+        <v>10000</v>
+      </c>
+      <c r="D93">
+        <v>0.16</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45345.41666666666</v>
+      </c>
+      <c r="F93" s="2">
+        <v>45345</v>
+      </c>
+      <c r="G93">
+        <v>10</v>
+      </c>
+      <c r="H93">
+        <v>9.69</v>
+      </c>
+      <c r="I93">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J93">
+        <v>9.69</v>
+      </c>
+      <c r="K93">
+        <v>9.69</v>
+      </c>
+      <c r="L93">
+        <v>1009</v>
+      </c>
+      <c r="M93">
+        <v>1009</v>
+      </c>
+      <c r="N93">
+        <v>951</v>
+      </c>
+      <c r="O93">
+        <v>52</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>100</v>
+      </c>
+      <c r="R93">
+        <v>2.16</v>
+      </c>
+      <c r="S93">
+        <v>208</v>
+      </c>
+      <c r="T93">
+        <v>5.86</v>
+      </c>
+      <c r="U93" t="s">
+        <v>32</v>
+      </c>
+      <c r="X93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
+      <c r="A94">
+        <v>1708686000</v>
+      </c>
+      <c r="B94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94">
+        <v>10000</v>
+      </c>
+      <c r="D94">
+        <v>0.16</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45345.45833333334</v>
+      </c>
+      <c r="F94" s="2">
+        <v>45345</v>
+      </c>
+      <c r="G94">
+        <v>11</v>
+      </c>
+      <c r="H94">
+        <v>10.99</v>
+      </c>
+      <c r="I94">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="J94">
+        <v>10.99</v>
+      </c>
+      <c r="K94">
+        <v>10.99</v>
+      </c>
+      <c r="L94">
+        <v>1008</v>
+      </c>
+      <c r="M94">
+        <v>1008</v>
+      </c>
+      <c r="N94">
+        <v>950</v>
+      </c>
+      <c r="O94">
+        <v>47</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>100</v>
+      </c>
+      <c r="R94">
+        <v>2.33</v>
+      </c>
+      <c r="S94">
+        <v>206</v>
+      </c>
+      <c r="T94">
+        <v>5.97</v>
+      </c>
+      <c r="U94" t="s">
+        <v>32</v>
+      </c>
+      <c r="X94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
+      <c r="A95">
+        <v>1708689600</v>
+      </c>
+      <c r="B95" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95">
+        <v>10000</v>
+      </c>
+      <c r="D95">
+        <v>0.12</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45345.5</v>
+      </c>
+      <c r="F95" s="2">
+        <v>45345</v>
+      </c>
+      <c r="G95">
+        <v>12</v>
+      </c>
+      <c r="H95">
+        <v>11.54</v>
+      </c>
+      <c r="I95">
+        <v>9.92</v>
+      </c>
+      <c r="J95">
+        <v>11.54</v>
+      </c>
+      <c r="K95">
+        <v>11.54</v>
+      </c>
+      <c r="L95">
+        <v>1008</v>
+      </c>
+      <c r="M95">
+        <v>1008</v>
+      </c>
+      <c r="N95">
+        <v>950</v>
+      </c>
+      <c r="O95">
+        <v>45</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>100</v>
+      </c>
+      <c r="R95">
+        <v>2.4</v>
+      </c>
+      <c r="S95">
+        <v>202</v>
+      </c>
+      <c r="T95">
+        <v>5.47</v>
+      </c>
+      <c r="U95" t="s">
+        <v>32</v>
+      </c>
+      <c r="X95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
+      <c r="A96">
+        <v>1708693200</v>
+      </c>
+      <c r="B96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96">
+        <v>10000</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45345.54166666666</v>
+      </c>
+      <c r="F96" s="2">
+        <v>45345</v>
+      </c>
+      <c r="G96">
+        <v>13</v>
+      </c>
+      <c r="H96">
+        <v>11.74</v>
+      </c>
+      <c r="I96">
+        <v>10.12</v>
+      </c>
+      <c r="J96">
+        <v>11.74</v>
+      </c>
+      <c r="K96">
+        <v>11.74</v>
+      </c>
+      <c r="L96">
+        <v>1008</v>
+      </c>
+      <c r="M96">
+        <v>1008</v>
+      </c>
+      <c r="N96">
+        <v>950</v>
+      </c>
+      <c r="O96">
+        <v>44</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>89</v>
+      </c>
+      <c r="R96">
+        <v>2.55</v>
+      </c>
+      <c r="S96">
+        <v>209</v>
+      </c>
+      <c r="T96">
+        <v>5.26</v>
+      </c>
+      <c r="U96" t="s">
+        <v>32</v>
+      </c>
+      <c r="X96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
+      <c r="A97">
+        <v>1708696800</v>
+      </c>
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97">
+        <v>10000</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45345.58333333334</v>
+      </c>
+      <c r="F97" s="2">
+        <v>45345</v>
+      </c>
+      <c r="G97">
+        <v>14</v>
+      </c>
+      <c r="H97">
+        <v>11.52</v>
+      </c>
+      <c r="I97">
+        <v>9.9</v>
+      </c>
+      <c r="J97">
+        <v>11.52</v>
+      </c>
+      <c r="K97">
+        <v>11.52</v>
+      </c>
+      <c r="L97">
+        <v>1008</v>
+      </c>
+      <c r="M97">
+        <v>1008</v>
+      </c>
+      <c r="N97">
+        <v>950</v>
+      </c>
+      <c r="O97">
+        <v>45</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>89</v>
+      </c>
+      <c r="R97">
+        <v>1.86</v>
+      </c>
+      <c r="S97">
+        <v>188</v>
+      </c>
+      <c r="T97">
+        <v>4.24</v>
+      </c>
+      <c r="U97" t="s">
+        <v>32</v>
+      </c>
+      <c r="X97" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/RAAL/Production/Input/weather.xlsx
+++ b/RAAL/Production/Input/weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="130">
   <si>
     <t>dt</t>
   </si>
@@ -85,328 +85,325 @@
     <t>Lookup</t>
   </si>
   <si>
+    <t>[{'id': 803, 'main': 'Clouds', 'description': 'broken clouds', 'icon': '04d'}]</t>
+  </si>
+  <si>
     <t>[{'id': 804, 'main': 'Clouds', 'description': 'overcast clouds', 'icon': '04d'}]</t>
   </si>
   <si>
     <t>[{'id': 804, 'main': 'Clouds', 'description': 'overcast clouds', 'icon': '04n'}]</t>
   </si>
   <si>
+    <t>[{'id': 802, 'main': 'Clouds', 'description': 'scattered clouds', 'icon': '03n'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 802, 'main': 'Clouds', 'description': 'scattered clouds', 'icon': '03d'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 500, 'main': 'Rain', 'description': 'light rain', 'icon': '10d'}]</t>
+  </si>
+  <si>
     <t>[{'id': 803, 'main': 'Clouds', 'description': 'broken clouds', 'icon': '04n'}]</t>
   </si>
   <si>
-    <t>[{'id': 500, 'main': 'Rain', 'description': 'light rain', 'icon': '10n'}]</t>
-  </si>
-  <si>
-    <t>[{'id': 803, 'main': 'Clouds', 'description': 'broken clouds', 'icon': '04d'}]</t>
-  </si>
-  <si>
-    <t>[{'id': 802, 'main': 'Clouds', 'description': 'scattered clouds', 'icon': '03d'}]</t>
-  </si>
-  <si>
-    <t>[{'id': 802, 'main': 'Clouds', 'description': 'scattered clouds', 'icon': '03n'}]</t>
-  </si>
-  <si>
-    <t>[{'id': 801, 'main': 'Clouds', 'description': 'few clouds', 'icon': '02n'}]</t>
+    <t>[{'id': 801, 'main': 'Clouds', 'description': 'few clouds', 'icon': '02d'}]</t>
   </si>
   <si>
     <t>[{'id': 800, 'main': 'Clear', 'description': 'clear sky', 'icon': '01d'}]</t>
   </si>
   <si>
-    <t>[{'id': 801, 'main': 'Clouds', 'description': 'few clouds', 'icon': '02d'}]</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
     <t>n</t>
   </si>
   <si>
-    <t>23.02.202414</t>
-  </si>
-  <si>
-    <t>23.02.202415</t>
-  </si>
-  <si>
-    <t>23.02.202416</t>
-  </si>
-  <si>
-    <t>23.02.202417</t>
-  </si>
-  <si>
-    <t>23.02.202418</t>
-  </si>
-  <si>
-    <t>23.02.202419</t>
-  </si>
-  <si>
-    <t>23.02.202420</t>
-  </si>
-  <si>
-    <t>23.02.202421</t>
-  </si>
-  <si>
-    <t>23.02.202422</t>
-  </si>
-  <si>
-    <t>23.02.202423</t>
-  </si>
-  <si>
-    <t>24.02.20240</t>
-  </si>
-  <si>
-    <t>24.02.20241</t>
-  </si>
-  <si>
-    <t>24.02.20242</t>
-  </si>
-  <si>
-    <t>24.02.20243</t>
-  </si>
-  <si>
-    <t>24.02.20244</t>
-  </si>
-  <si>
-    <t>24.02.20245</t>
-  </si>
-  <si>
-    <t>24.02.20246</t>
-  </si>
-  <si>
-    <t>24.02.20247</t>
-  </si>
-  <si>
-    <t>24.02.20248</t>
-  </si>
-  <si>
-    <t>24.02.20249</t>
-  </si>
-  <si>
-    <t>24.02.202410</t>
-  </si>
-  <si>
-    <t>24.02.202411</t>
-  </si>
-  <si>
-    <t>24.02.202412</t>
-  </si>
-  <si>
-    <t>24.02.202413</t>
-  </si>
-  <si>
-    <t>24.02.202414</t>
-  </si>
-  <si>
-    <t>24.02.202415</t>
-  </si>
-  <si>
-    <t>24.02.202416</t>
-  </si>
-  <si>
-    <t>24.02.202417</t>
-  </si>
-  <si>
-    <t>24.02.202418</t>
-  </si>
-  <si>
-    <t>24.02.202419</t>
-  </si>
-  <si>
-    <t>24.02.202420</t>
-  </si>
-  <si>
-    <t>24.02.202421</t>
-  </si>
-  <si>
-    <t>24.02.202422</t>
-  </si>
-  <si>
-    <t>24.02.202423</t>
-  </si>
-  <si>
-    <t>25.02.20240</t>
-  </si>
-  <si>
-    <t>25.02.20241</t>
-  </si>
-  <si>
-    <t>25.02.20242</t>
-  </si>
-  <si>
-    <t>25.02.20243</t>
-  </si>
-  <si>
-    <t>25.02.20244</t>
-  </si>
-  <si>
-    <t>25.02.20245</t>
-  </si>
-  <si>
-    <t>25.02.20246</t>
-  </si>
-  <si>
-    <t>25.02.20247</t>
-  </si>
-  <si>
-    <t>25.02.20248</t>
-  </si>
-  <si>
-    <t>25.02.20249</t>
-  </si>
-  <si>
-    <t>25.02.202410</t>
-  </si>
-  <si>
-    <t>25.02.202411</t>
-  </si>
-  <si>
-    <t>25.02.202412</t>
-  </si>
-  <si>
-    <t>25.02.202413</t>
-  </si>
-  <si>
-    <t>25.02.202414</t>
-  </si>
-  <si>
-    <t>25.02.202415</t>
-  </si>
-  <si>
-    <t>25.02.202416</t>
-  </si>
-  <si>
-    <t>25.02.202417</t>
-  </si>
-  <si>
-    <t>25.02.202418</t>
-  </si>
-  <si>
-    <t>25.02.202419</t>
-  </si>
-  <si>
-    <t>25.02.202420</t>
-  </si>
-  <si>
-    <t>25.02.202421</t>
-  </si>
-  <si>
-    <t>25.02.202422</t>
-  </si>
-  <si>
-    <t>25.02.202423</t>
-  </si>
-  <si>
-    <t>26.02.20240</t>
-  </si>
-  <si>
-    <t>26.02.20241</t>
-  </si>
-  <si>
-    <t>26.02.20242</t>
-  </si>
-  <si>
-    <t>26.02.20243</t>
-  </si>
-  <si>
-    <t>26.02.20244</t>
-  </si>
-  <si>
-    <t>26.02.20245</t>
-  </si>
-  <si>
-    <t>26.02.20246</t>
-  </si>
-  <si>
-    <t>26.02.20247</t>
-  </si>
-  <si>
-    <t>26.02.20248</t>
-  </si>
-  <si>
-    <t>26.02.20249</t>
-  </si>
-  <si>
-    <t>26.02.202410</t>
-  </si>
-  <si>
-    <t>26.02.202411</t>
-  </si>
-  <si>
-    <t>26.02.202412</t>
-  </si>
-  <si>
-    <t>26.02.202413</t>
-  </si>
-  <si>
-    <t>26.02.202414</t>
-  </si>
-  <si>
-    <t>26.02.202415</t>
-  </si>
-  <si>
-    <t>26.02.202416</t>
-  </si>
-  <si>
-    <t>26.02.202417</t>
-  </si>
-  <si>
-    <t>26.02.202418</t>
-  </si>
-  <si>
-    <t>26.02.202419</t>
-  </si>
-  <si>
-    <t>26.02.202420</t>
-  </si>
-  <si>
-    <t>26.02.202421</t>
-  </si>
-  <si>
-    <t>26.02.202422</t>
-  </si>
-  <si>
-    <t>26.02.202423</t>
-  </si>
-  <si>
-    <t>27.02.20240</t>
-  </si>
-  <si>
-    <t>27.02.20241</t>
-  </si>
-  <si>
-    <t>27.02.20242</t>
-  </si>
-  <si>
-    <t>27.02.20243</t>
-  </si>
-  <si>
-    <t>27.02.20244</t>
-  </si>
-  <si>
-    <t>27.02.20245</t>
-  </si>
-  <si>
-    <t>27.02.20246</t>
-  </si>
-  <si>
-    <t>27.02.20247</t>
-  </si>
-  <si>
-    <t>27.02.20248</t>
-  </si>
-  <si>
-    <t>27.02.20249</t>
-  </si>
-  <si>
-    <t>27.02.202410</t>
-  </si>
-  <si>
-    <t>27.02.202411</t>
-  </si>
-  <si>
-    <t>27.02.202412</t>
-  </si>
-  <si>
-    <t>27.02.202413</t>
+    <t>19.03.202410</t>
+  </si>
+  <si>
+    <t>19.03.202411</t>
+  </si>
+  <si>
+    <t>19.03.202412</t>
+  </si>
+  <si>
+    <t>19.03.202413</t>
+  </si>
+  <si>
+    <t>19.03.202414</t>
+  </si>
+  <si>
+    <t>19.03.202415</t>
+  </si>
+  <si>
+    <t>19.03.202416</t>
+  </si>
+  <si>
+    <t>19.03.202417</t>
+  </si>
+  <si>
+    <t>19.03.202418</t>
+  </si>
+  <si>
+    <t>19.03.202419</t>
+  </si>
+  <si>
+    <t>19.03.202420</t>
+  </si>
+  <si>
+    <t>19.03.202421</t>
+  </si>
+  <si>
+    <t>19.03.202422</t>
+  </si>
+  <si>
+    <t>19.03.202423</t>
+  </si>
+  <si>
+    <t>20.03.20240</t>
+  </si>
+  <si>
+    <t>20.03.20241</t>
+  </si>
+  <si>
+    <t>20.03.20242</t>
+  </si>
+  <si>
+    <t>20.03.20243</t>
+  </si>
+  <si>
+    <t>20.03.20244</t>
+  </si>
+  <si>
+    <t>20.03.20245</t>
+  </si>
+  <si>
+    <t>20.03.20246</t>
+  </si>
+  <si>
+    <t>20.03.20247</t>
+  </si>
+  <si>
+    <t>20.03.20248</t>
+  </si>
+  <si>
+    <t>20.03.20249</t>
+  </si>
+  <si>
+    <t>20.03.202410</t>
+  </si>
+  <si>
+    <t>20.03.202411</t>
+  </si>
+  <si>
+    <t>20.03.202412</t>
+  </si>
+  <si>
+    <t>20.03.202413</t>
+  </si>
+  <si>
+    <t>20.03.202414</t>
+  </si>
+  <si>
+    <t>20.03.202415</t>
+  </si>
+  <si>
+    <t>20.03.202416</t>
+  </si>
+  <si>
+    <t>20.03.202417</t>
+  </si>
+  <si>
+    <t>20.03.202418</t>
+  </si>
+  <si>
+    <t>20.03.202419</t>
+  </si>
+  <si>
+    <t>20.03.202420</t>
+  </si>
+  <si>
+    <t>20.03.202421</t>
+  </si>
+  <si>
+    <t>20.03.202422</t>
+  </si>
+  <si>
+    <t>20.03.202423</t>
+  </si>
+  <si>
+    <t>21.03.20240</t>
+  </si>
+  <si>
+    <t>21.03.20241</t>
+  </si>
+  <si>
+    <t>21.03.20242</t>
+  </si>
+  <si>
+    <t>21.03.20243</t>
+  </si>
+  <si>
+    <t>21.03.20244</t>
+  </si>
+  <si>
+    <t>21.03.20245</t>
+  </si>
+  <si>
+    <t>21.03.20246</t>
+  </si>
+  <si>
+    <t>21.03.20247</t>
+  </si>
+  <si>
+    <t>21.03.20248</t>
+  </si>
+  <si>
+    <t>21.03.20249</t>
+  </si>
+  <si>
+    <t>21.03.202410</t>
+  </si>
+  <si>
+    <t>21.03.202411</t>
+  </si>
+  <si>
+    <t>21.03.202412</t>
+  </si>
+  <si>
+    <t>21.03.202413</t>
+  </si>
+  <si>
+    <t>21.03.202414</t>
+  </si>
+  <si>
+    <t>21.03.202415</t>
+  </si>
+  <si>
+    <t>21.03.202416</t>
+  </si>
+  <si>
+    <t>21.03.202417</t>
+  </si>
+  <si>
+    <t>21.03.202418</t>
+  </si>
+  <si>
+    <t>21.03.202419</t>
+  </si>
+  <si>
+    <t>21.03.202420</t>
+  </si>
+  <si>
+    <t>21.03.202421</t>
+  </si>
+  <si>
+    <t>21.03.202422</t>
+  </si>
+  <si>
+    <t>21.03.202423</t>
+  </si>
+  <si>
+    <t>22.03.20240</t>
+  </si>
+  <si>
+    <t>22.03.20241</t>
+  </si>
+  <si>
+    <t>22.03.20242</t>
+  </si>
+  <si>
+    <t>22.03.20243</t>
+  </si>
+  <si>
+    <t>22.03.20244</t>
+  </si>
+  <si>
+    <t>22.03.20245</t>
+  </si>
+  <si>
+    <t>22.03.20246</t>
+  </si>
+  <si>
+    <t>22.03.20247</t>
+  </si>
+  <si>
+    <t>22.03.20248</t>
+  </si>
+  <si>
+    <t>22.03.20249</t>
+  </si>
+  <si>
+    <t>22.03.202410</t>
+  </si>
+  <si>
+    <t>22.03.202411</t>
+  </si>
+  <si>
+    <t>22.03.202412</t>
+  </si>
+  <si>
+    <t>22.03.202413</t>
+  </si>
+  <si>
+    <t>22.03.202414</t>
+  </si>
+  <si>
+    <t>22.03.202415</t>
+  </si>
+  <si>
+    <t>22.03.202416</t>
+  </si>
+  <si>
+    <t>22.03.202417</t>
+  </si>
+  <si>
+    <t>22.03.202418</t>
+  </si>
+  <si>
+    <t>22.03.202419</t>
+  </si>
+  <si>
+    <t>22.03.202420</t>
+  </si>
+  <si>
+    <t>22.03.202421</t>
+  </si>
+  <si>
+    <t>22.03.202422</t>
+  </si>
+  <si>
+    <t>22.03.202423</t>
+  </si>
+  <si>
+    <t>23.03.20240</t>
+  </si>
+  <si>
+    <t>23.03.20241</t>
+  </si>
+  <si>
+    <t>23.03.20242</t>
+  </si>
+  <si>
+    <t>23.03.20243</t>
+  </si>
+  <si>
+    <t>23.03.20244</t>
+  </si>
+  <si>
+    <t>23.03.20245</t>
+  </si>
+  <si>
+    <t>23.03.20246</t>
+  </si>
+  <si>
+    <t>23.03.20247</t>
+  </si>
+  <si>
+    <t>23.03.20248</t>
+  </si>
+  <si>
+    <t>23.03.20249</t>
   </si>
 </sst>
 </file>
@@ -847,7 +844,7 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2">
-        <v>1708696800</v>
+        <v>1710842400</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -859,63 +856,63 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>45345.58333333334</v>
+        <v>45370.41666666666</v>
       </c>
       <c r="F2" s="2">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>10.43</v>
+        <v>4.84</v>
       </c>
       <c r="I2">
-        <v>8.699999999999999</v>
+        <v>2.58</v>
       </c>
       <c r="J2">
-        <v>10.43</v>
+        <v>4.74</v>
       </c>
       <c r="K2">
-        <v>11.03</v>
+        <v>4.84</v>
       </c>
       <c r="L2">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="M2">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="N2">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="O2">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="P2">
-        <v>-0.6</v>
+        <v>0.1</v>
       </c>
       <c r="Q2">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="R2">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="S2">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="T2">
-        <v>5.42</v>
+        <v>2.56</v>
       </c>
       <c r="U2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3">
-        <v>1708700400</v>
+        <v>1710846000</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -927,66 +924,66 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>45345.625</v>
+        <v>45370.45833333334</v>
       </c>
       <c r="F3" s="2">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H3">
-        <v>10.34</v>
+        <v>5.11</v>
       </c>
       <c r="I3">
-        <v>8.66</v>
+        <v>2.5</v>
       </c>
       <c r="J3">
-        <v>9.970000000000001</v>
+        <v>5.11</v>
       </c>
       <c r="K3">
-        <v>10.34</v>
+        <v>5.47</v>
       </c>
       <c r="L3">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="M3">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="N3">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="O3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P3">
-        <v>0.37</v>
+        <v>-0.36</v>
       </c>
       <c r="Q3">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="R3">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="S3">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="T3">
-        <v>1.87</v>
+        <v>3.21</v>
       </c>
       <c r="U3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4">
-        <v>1708704000</v>
+        <v>1710849600</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>10000</v>
@@ -995,63 +992,63 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>45345.66666666666</v>
+        <v>45370.5</v>
       </c>
       <c r="F4" s="2">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4">
-        <v>9.35</v>
+        <v>5.39</v>
       </c>
       <c r="I4">
-        <v>9.35</v>
+        <v>2.79</v>
       </c>
       <c r="J4">
-        <v>7.73</v>
+        <v>5.39</v>
       </c>
       <c r="K4">
-        <v>9.35</v>
+        <v>5.74</v>
       </c>
       <c r="L4">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="M4">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="N4">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="O4">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P4">
-        <v>1.62</v>
+        <v>-0.35</v>
       </c>
       <c r="Q4">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="R4">
-        <v>0.96</v>
+        <v>3.26</v>
       </c>
       <c r="S4">
-        <v>163</v>
+        <v>257</v>
       </c>
       <c r="T4">
-        <v>0.95</v>
+        <v>3.82</v>
       </c>
       <c r="U4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5">
-        <v>1708707600</v>
+        <v>1710853200</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -1060,66 +1057,66 @@
         <v>10000</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="2">
-        <v>45345.70833333334</v>
+        <v>45370.54166666666</v>
       </c>
       <c r="F5" s="2">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H5">
-        <v>8.43</v>
+        <v>5.93</v>
       </c>
       <c r="I5">
-        <v>7.55</v>
+        <v>3.09</v>
       </c>
       <c r="J5">
-        <v>7.09</v>
+        <v>5.93</v>
       </c>
       <c r="K5">
-        <v>8.43</v>
+        <v>6.19</v>
       </c>
       <c r="L5">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="M5">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="N5">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="O5">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="P5">
-        <v>1.34</v>
+        <v>-0.26</v>
       </c>
       <c r="Q5">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>3.85</v>
       </c>
       <c r="S5">
-        <v>113</v>
+        <v>261</v>
       </c>
       <c r="T5">
-        <v>1.71</v>
+        <v>4.58</v>
       </c>
       <c r="U5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6">
-        <v>1708711200</v>
+        <v>1710856800</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -1128,66 +1125,66 @@
         <v>10000</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="2">
-        <v>45345.75</v>
+        <v>45370.58333333334</v>
       </c>
       <c r="F6" s="2">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H6">
-        <v>7.44</v>
+        <v>6.09</v>
       </c>
       <c r="I6">
-        <v>6.25</v>
+        <v>3.04</v>
       </c>
       <c r="J6">
-        <v>6.69</v>
+        <v>6.09</v>
       </c>
       <c r="K6">
-        <v>7.44</v>
+        <v>6.09</v>
       </c>
       <c r="L6">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="M6">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="N6">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="O6">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="P6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="R6">
-        <v>1.96</v>
+        <v>4.29</v>
       </c>
       <c r="S6">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="T6">
-        <v>1.81</v>
+        <v>5.33</v>
       </c>
       <c r="U6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7">
-        <v>1708714800</v>
+        <v>1710860400</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -1196,40 +1193,40 @@
         <v>10000</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="2">
-        <v>45345.79166666666</v>
+        <v>45370.625</v>
       </c>
       <c r="F7" s="2">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <v>6.5</v>
+        <v>5.43</v>
       </c>
       <c r="I7">
-        <v>5.22</v>
+        <v>2.26</v>
       </c>
       <c r="J7">
-        <v>6.5</v>
+        <v>5.43</v>
       </c>
       <c r="K7">
-        <v>6.5</v>
+        <v>5.43</v>
       </c>
       <c r="L7">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="M7">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="N7">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="O7">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1238,24 +1235,24 @@
         <v>100</v>
       </c>
       <c r="R7">
-        <v>1.89</v>
+        <v>4.24</v>
       </c>
       <c r="S7">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="T7">
-        <v>1.74</v>
+        <v>5.57</v>
       </c>
       <c r="U7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8">
-        <v>1708718400</v>
+        <v>1710864000</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1264,66 +1261,66 @@
         <v>10000</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E8" s="2">
-        <v>45345.83333333334</v>
+        <v>45370.66666666666</v>
       </c>
       <c r="F8" s="2">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H8">
-        <v>6.1</v>
+        <v>4.04</v>
       </c>
       <c r="I8">
-        <v>4.7</v>
+        <v>1.22</v>
       </c>
       <c r="J8">
-        <v>6.1</v>
+        <v>4.04</v>
       </c>
       <c r="K8">
-        <v>6.1</v>
+        <v>4.04</v>
       </c>
       <c r="L8">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="M8">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="N8">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="O8">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>3.18</v>
       </c>
       <c r="S8">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="T8">
-        <v>1.82</v>
+        <v>6.05</v>
       </c>
       <c r="U8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9">
-        <v>1708722000</v>
+        <v>1710867600</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -1332,66 +1329,66 @@
         <v>10000</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E9" s="2">
-        <v>45345.875</v>
+        <v>45370.70833333334</v>
       </c>
       <c r="F9" s="2">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H9">
-        <v>5.89</v>
+        <v>2.15</v>
       </c>
       <c r="I9">
-        <v>4.55</v>
+        <v>0.23</v>
       </c>
       <c r="J9">
-        <v>5.89</v>
+        <v>2.15</v>
       </c>
       <c r="K9">
-        <v>5.89</v>
+        <v>2.15</v>
       </c>
       <c r="L9">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="M9">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="N9">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="O9">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="R9">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>104</v>
+        <v>253</v>
       </c>
       <c r="T9">
-        <v>1.73</v>
+        <v>3.07</v>
       </c>
       <c r="U9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10">
-        <v>1708725600</v>
+        <v>1710871200</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1400,66 +1397,66 @@
         <v>10000</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E10" s="2">
-        <v>45345.91666666666</v>
+        <v>45370.75</v>
       </c>
       <c r="F10" s="2">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="G10">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H10">
-        <v>5.76</v>
+        <v>1.31</v>
       </c>
       <c r="I10">
-        <v>4.31</v>
+        <v>1.31</v>
       </c>
       <c r="J10">
-        <v>5.76</v>
+        <v>1.31</v>
       </c>
       <c r="K10">
-        <v>5.76</v>
+        <v>1.31</v>
       </c>
       <c r="L10">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="M10">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="N10">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="O10">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="R10">
-        <v>1.94</v>
+        <v>0.75</v>
       </c>
       <c r="S10">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="T10">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="U10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11">
-        <v>1708729200</v>
+        <v>1710874800</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1468,66 +1465,66 @@
         <v>10000</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E11" s="2">
-        <v>45345.95833333334</v>
+        <v>45370.79166666666</v>
       </c>
       <c r="F11" s="2">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="G11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H11">
-        <v>5.6</v>
+        <v>1.08</v>
       </c>
       <c r="I11">
-        <v>4.02</v>
+        <v>1.08</v>
       </c>
       <c r="J11">
-        <v>5.6</v>
+        <v>1.08</v>
       </c>
       <c r="K11">
-        <v>5.6</v>
+        <v>1.08</v>
       </c>
       <c r="L11">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="M11">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="N11">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="O11">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="R11">
-        <v>2.05</v>
+        <v>0.6</v>
       </c>
       <c r="S11">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="T11">
-        <v>1.91</v>
+        <v>1.19</v>
       </c>
       <c r="U11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12">
-        <v>1708732800</v>
+        <v>1710878400</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1536,134 +1533,134 @@
         <v>10000</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E12" s="2">
-        <v>45346</v>
+        <v>45370.83333333334</v>
       </c>
       <c r="F12" s="2">
-        <v>45346</v>
+        <v>45370</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>5.41</v>
+        <v>0.74</v>
       </c>
       <c r="I12">
-        <v>3.62</v>
+        <v>0.74</v>
       </c>
       <c r="J12">
-        <v>5.41</v>
+        <v>0.74</v>
       </c>
       <c r="K12">
-        <v>5.41</v>
+        <v>0.74</v>
       </c>
       <c r="L12">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="M12">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="N12">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="O12">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="R12">
-        <v>2.23</v>
+        <v>0.91</v>
       </c>
       <c r="S12">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="T12">
-        <v>2.01</v>
+        <v>1.1</v>
       </c>
       <c r="U12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13">
-        <v>1708736400</v>
+        <v>1710882000</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>10000</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E13" s="2">
-        <v>45346.04166666666</v>
+        <v>45370.875</v>
       </c>
       <c r="F13" s="2">
-        <v>45346</v>
+        <v>45370</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H13">
-        <v>5.27</v>
+        <v>0.57</v>
       </c>
       <c r="I13">
-        <v>3.7</v>
+        <v>0.57</v>
       </c>
       <c r="J13">
-        <v>5.27</v>
+        <v>0.57</v>
       </c>
       <c r="K13">
-        <v>5.27</v>
+        <v>0.57</v>
       </c>
       <c r="L13">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="M13">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="N13">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="O13">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R13">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="S13">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T13">
-        <v>1.88</v>
+        <v>1.08</v>
       </c>
       <c r="U13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14">
-        <v>1708740000</v>
+        <v>1710885600</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1672,66 +1669,66 @@
         <v>10000</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E14" s="2">
-        <v>45346.08333333334</v>
+        <v>45370.91666666666</v>
       </c>
       <c r="F14" s="2">
-        <v>45346</v>
+        <v>45370</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H14">
-        <v>5.1</v>
+        <v>0.55</v>
       </c>
       <c r="I14">
-        <v>3.47</v>
+        <v>0.55</v>
       </c>
       <c r="J14">
-        <v>5.1</v>
+        <v>0.55</v>
       </c>
       <c r="K14">
-        <v>5.1</v>
+        <v>0.55</v>
       </c>
       <c r="L14">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="M14">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="N14">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="O14">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="R14">
-        <v>2.01</v>
+        <v>0.95</v>
       </c>
       <c r="S14">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T14">
-        <v>1.84</v>
+        <v>0.97</v>
       </c>
       <c r="U14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15">
-        <v>1708743600</v>
+        <v>1710889200</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1740,542 +1737,542 @@
         <v>10000</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E15" s="2">
-        <v>45346.125</v>
+        <v>45370.95833333334</v>
       </c>
       <c r="F15" s="2">
-        <v>45346</v>
+        <v>45370</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H15">
-        <v>4.96</v>
+        <v>0.49</v>
       </c>
       <c r="I15">
-        <v>3.28</v>
+        <v>0.49</v>
       </c>
       <c r="J15">
-        <v>4.96</v>
+        <v>0.49</v>
       </c>
       <c r="K15">
-        <v>4.96</v>
+        <v>0.49</v>
       </c>
       <c r="L15">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="M15">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="N15">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="O15">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="R15">
-        <v>2.04</v>
+        <v>0.78</v>
       </c>
       <c r="S15">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="T15">
-        <v>1.88</v>
+        <v>0.82</v>
       </c>
       <c r="U15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16">
-        <v>1708747200</v>
+        <v>1710892800</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>10000</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E16" s="2">
-        <v>45346.16666666666</v>
+        <v>45371</v>
       </c>
       <c r="F16" s="2">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>4.97</v>
+        <v>0.55</v>
       </c>
       <c r="I16">
-        <v>3.4</v>
+        <v>0.55</v>
       </c>
       <c r="J16">
-        <v>4.97</v>
+        <v>0.55</v>
       </c>
       <c r="K16">
-        <v>4.97</v>
+        <v>0.55</v>
       </c>
       <c r="L16">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="M16">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="N16">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="O16">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="R16">
-        <v>1.94</v>
+        <v>0.92</v>
       </c>
       <c r="S16">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="T16">
-        <v>1.83</v>
+        <v>0.92</v>
       </c>
       <c r="U16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17">
-        <v>1708750800</v>
+        <v>1710896400</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>10000</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E17" s="2">
-        <v>45346.20833333334</v>
+        <v>45371.04166666666</v>
       </c>
       <c r="F17" s="2">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>5.37</v>
+        <v>0.33</v>
       </c>
       <c r="I17">
-        <v>3.81</v>
+        <v>0.33</v>
       </c>
       <c r="J17">
-        <v>5.37</v>
+        <v>0.33</v>
       </c>
       <c r="K17">
-        <v>5.37</v>
+        <v>0.33</v>
       </c>
       <c r="L17">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="M17">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="N17">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="O17">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="R17">
-        <v>1.99</v>
+        <v>0.89</v>
       </c>
       <c r="S17">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="T17">
-        <v>1.83</v>
+        <v>0.96</v>
       </c>
       <c r="U17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18">
-        <v>1708754400</v>
+        <v>1710900000</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>10000</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E18" s="2">
-        <v>45346.25</v>
+        <v>45371.08333333334</v>
       </c>
       <c r="F18" s="2">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>6.03</v>
+        <v>0.25</v>
       </c>
       <c r="I18">
-        <v>4.56</v>
+        <v>0.25</v>
       </c>
       <c r="J18">
-        <v>6.03</v>
+        <v>0.25</v>
       </c>
       <c r="K18">
-        <v>6.03</v>
+        <v>0.25</v>
       </c>
       <c r="L18">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="M18">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="N18">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="O18">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="R18">
-        <v>2.01</v>
+        <v>0.73</v>
       </c>
       <c r="S18">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="T18">
-        <v>1.92</v>
+        <v>0.82</v>
       </c>
       <c r="U18" t="s">
         <v>33</v>
       </c>
       <c r="W18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19">
-        <v>1708758000</v>
+        <v>1710903600</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>10000</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E19" s="2">
-        <v>45346.29166666666</v>
+        <v>45371.125</v>
       </c>
       <c r="F19" s="2">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>8.16</v>
+        <v>0.16</v>
       </c>
       <c r="I19">
-        <v>8.16</v>
+        <v>0.16</v>
       </c>
       <c r="J19">
-        <v>8.16</v>
+        <v>0.16</v>
       </c>
       <c r="K19">
-        <v>8.16</v>
+        <v>0.16</v>
       </c>
       <c r="L19">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="M19">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="N19">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="O19">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="R19">
-        <v>1.26</v>
+        <v>0.31</v>
       </c>
       <c r="S19">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T19">
-        <v>1.94</v>
+        <v>0.45</v>
       </c>
       <c r="U19" t="s">
         <v>33</v>
       </c>
       <c r="W19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20">
-        <v>1708761600</v>
+        <v>1710907200</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>10000</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E20" s="2">
-        <v>45346.33333333334</v>
+        <v>45371.16666666666</v>
       </c>
       <c r="F20" s="2">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>10.2</v>
+        <v>-0.01</v>
       </c>
       <c r="I20">
-        <v>8.76</v>
+        <v>-0.01</v>
       </c>
       <c r="J20">
-        <v>10.2</v>
+        <v>-0.01</v>
       </c>
       <c r="K20">
-        <v>10.2</v>
+        <v>-0.01</v>
       </c>
       <c r="L20">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="M20">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="N20">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="O20">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="R20">
-        <v>0.52</v>
+        <v>0.21</v>
       </c>
       <c r="S20">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="T20">
-        <v>1.51</v>
+        <v>0.25</v>
       </c>
       <c r="U20" t="s">
         <v>33</v>
       </c>
       <c r="W20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21">
-        <v>1708765200</v>
+        <v>1710910800</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>10000</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E21" s="2">
-        <v>45346.375</v>
+        <v>45371.20833333334</v>
       </c>
       <c r="F21" s="2">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="G21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H21">
-        <v>11.4</v>
+        <v>0.29</v>
       </c>
       <c r="I21">
-        <v>9.98</v>
+        <v>0.29</v>
       </c>
       <c r="J21">
-        <v>11.4</v>
+        <v>0.29</v>
       </c>
       <c r="K21">
-        <v>11.4</v>
+        <v>0.29</v>
       </c>
       <c r="L21">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="M21">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="N21">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="O21">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="R21">
-        <v>1.36</v>
+        <v>0.53</v>
       </c>
       <c r="S21">
         <v>231</v>
       </c>
       <c r="T21">
-        <v>3.1</v>
+        <v>0.54</v>
       </c>
       <c r="U21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22">
-        <v>1708768800</v>
+        <v>1710914400</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>10000</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E22" s="2">
-        <v>45346.41666666666</v>
+        <v>45371.25</v>
       </c>
       <c r="F22" s="2">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H22">
-        <v>11.96</v>
+        <v>1.7</v>
       </c>
       <c r="I22">
-        <v>10.54</v>
+        <v>1.7</v>
       </c>
       <c r="J22">
-        <v>11.96</v>
+        <v>1.7</v>
       </c>
       <c r="K22">
-        <v>11.96</v>
+        <v>1.7</v>
       </c>
       <c r="L22">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="M22">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="N22">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="O22">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="R22">
-        <v>1.66</v>
+        <v>1.1</v>
       </c>
       <c r="S22">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="T22">
-        <v>3.32</v>
+        <v>1.02</v>
       </c>
       <c r="U22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23">
-        <v>1708772400</v>
+        <v>1710918000</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -2284,66 +2281,66 @@
         <v>10000</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E23" s="2">
-        <v>45346.45833333334</v>
+        <v>45371.29166666666</v>
       </c>
       <c r="F23" s="2">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="G23">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H23">
-        <v>12.35</v>
+        <v>3.11</v>
       </c>
       <c r="I23">
-        <v>10.97</v>
+        <v>1.74</v>
       </c>
       <c r="J23">
-        <v>12.35</v>
+        <v>3.11</v>
       </c>
       <c r="K23">
-        <v>12.35</v>
+        <v>3.11</v>
       </c>
       <c r="L23">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="M23">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="N23">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="O23">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="R23">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="S23">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="T23">
-        <v>2.85</v>
+        <v>1.23</v>
       </c>
       <c r="U23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24">
-        <v>1708776000</v>
+        <v>1710921600</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -2352,66 +2349,66 @@
         <v>10000</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E24" s="2">
-        <v>45346.5</v>
+        <v>45371.33333333334</v>
       </c>
       <c r="F24" s="2">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H24">
-        <v>12.68</v>
+        <v>4.38</v>
       </c>
       <c r="I24">
-        <v>11.31</v>
+        <v>2.51</v>
       </c>
       <c r="J24">
-        <v>12.68</v>
+        <v>4.38</v>
       </c>
       <c r="K24">
-        <v>12.68</v>
+        <v>4.38</v>
       </c>
       <c r="L24">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="M24">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="N24">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="O24">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="R24">
-        <v>1.27</v>
+        <v>2.13</v>
       </c>
       <c r="S24">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="T24">
-        <v>2.86</v>
+        <v>1.7</v>
       </c>
       <c r="U24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25">
-        <v>1708779600</v>
+        <v>1710925200</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -2420,66 +2417,66 @@
         <v>10000</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E25" s="2">
-        <v>45346.54166666666</v>
+        <v>45371.375</v>
       </c>
       <c r="F25" s="2">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="G25">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>12.81</v>
+        <v>5.35</v>
       </c>
       <c r="I25">
-        <v>11.48</v>
+        <v>3.29</v>
       </c>
       <c r="J25">
-        <v>12.81</v>
+        <v>5.35</v>
       </c>
       <c r="K25">
-        <v>12.81</v>
+        <v>5.35</v>
       </c>
       <c r="L25">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="M25">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="N25">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="O25">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R25">
-        <v>1.29</v>
+        <v>2.53</v>
       </c>
       <c r="S25">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="T25">
-        <v>2.76</v>
+        <v>2.18</v>
       </c>
       <c r="U25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26">
-        <v>1708783200</v>
+        <v>1710928800</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -2488,66 +2485,66 @@
         <v>10000</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E26" s="2">
-        <v>45346.58333333334</v>
+        <v>45371.41666666666</v>
       </c>
       <c r="F26" s="2">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="G26">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H26">
-        <v>12.55</v>
+        <v>5.94</v>
       </c>
       <c r="I26">
-        <v>11.24</v>
+        <v>3.77</v>
       </c>
       <c r="J26">
-        <v>12.55</v>
+        <v>5.94</v>
       </c>
       <c r="K26">
-        <v>12.55</v>
+        <v>5.94</v>
       </c>
       <c r="L26">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="M26">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="N26">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="O26">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="R26">
-        <v>0.77</v>
+        <v>2.81</v>
       </c>
       <c r="S26">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="T26">
-        <v>1.59</v>
+        <v>2.79</v>
       </c>
       <c r="U26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27">
-        <v>1708786800</v>
+        <v>1710932400</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -2556,244 +2553,250 @@
         <v>10000</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="E27" s="2">
-        <v>45346.625</v>
+        <v>45371.45833333334</v>
       </c>
       <c r="F27" s="2">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="G27">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H27">
-        <v>11.36</v>
+        <v>6.37</v>
       </c>
       <c r="I27">
-        <v>10.14</v>
+        <v>4.05</v>
       </c>
       <c r="J27">
-        <v>11.36</v>
+        <v>6.37</v>
       </c>
       <c r="K27">
-        <v>11.36</v>
+        <v>6.37</v>
       </c>
       <c r="L27">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="M27">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="N27">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="O27">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="R27">
-        <v>0.38</v>
+        <v>3.15</v>
       </c>
       <c r="S27">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="T27">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="U27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28">
-        <v>1708790400</v>
+        <v>1710936000</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>10000</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="E28" s="2">
-        <v>45346.66666666666</v>
+        <v>45371.5</v>
       </c>
       <c r="F28" s="2">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="G28">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H28">
-        <v>10.26</v>
+        <v>6.03</v>
       </c>
       <c r="I28">
-        <v>9.01</v>
+        <v>3.58</v>
       </c>
       <c r="J28">
-        <v>10.26</v>
+        <v>6.03</v>
       </c>
       <c r="K28">
-        <v>10.26</v>
+        <v>6.03</v>
       </c>
       <c r="L28">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="M28">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="N28">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="O28">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="R28">
-        <v>0.71</v>
+        <v>3.24</v>
       </c>
       <c r="S28">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="T28">
-        <v>0.87</v>
+        <v>4.12</v>
       </c>
       <c r="U28" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="V28">
+        <v>0.11</v>
       </c>
       <c r="W28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29">
-        <v>1708794000</v>
+        <v>1710939600</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>10000</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="E29" s="2">
-        <v>45346.70833333334</v>
+        <v>45371.54166666666</v>
       </c>
       <c r="F29" s="2">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="G29">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H29">
-        <v>9.800000000000001</v>
+        <v>5.65</v>
       </c>
       <c r="I29">
-        <v>9.800000000000001</v>
+        <v>3.34</v>
       </c>
       <c r="J29">
-        <v>9.800000000000001</v>
+        <v>5.65</v>
       </c>
       <c r="K29">
-        <v>9.800000000000001</v>
+        <v>5.65</v>
       </c>
       <c r="L29">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="M29">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="N29">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="O29">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R29">
-        <v>1.3</v>
+        <v>2.93</v>
       </c>
       <c r="S29">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c r="T29">
-        <v>1.23</v>
+        <v>4.69</v>
       </c>
       <c r="U29" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="V29">
+        <v>0.1</v>
       </c>
       <c r="W29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30">
-        <v>1708797600</v>
+        <v>1710943200</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C30">
-        <v>10000</v>
+        <v>5542</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="E30" s="2">
-        <v>45346.75</v>
+        <v>45371.58333333334</v>
       </c>
       <c r="F30" s="2">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="G30">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H30">
-        <v>9.470000000000001</v>
+        <v>5.44</v>
       </c>
       <c r="I30">
-        <v>9.08</v>
+        <v>3.59</v>
       </c>
       <c r="J30">
-        <v>9.470000000000001</v>
+        <v>5.44</v>
       </c>
       <c r="K30">
-        <v>9.470000000000001</v>
+        <v>5.44</v>
       </c>
       <c r="L30">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="M30">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="N30">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="O30">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2802,66 +2805,69 @@
         <v>100</v>
       </c>
       <c r="R30">
-        <v>1.47</v>
+        <v>2.31</v>
       </c>
       <c r="S30">
-        <v>93</v>
+        <v>256</v>
       </c>
       <c r="T30">
-        <v>1.41</v>
+        <v>4.75</v>
       </c>
       <c r="U30" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="V30">
+        <v>0.16</v>
       </c>
       <c r="W30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31">
-        <v>1708801200</v>
+        <v>1710946800</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C31">
-        <v>10000</v>
+        <v>5054</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="E31" s="2">
-        <v>45346.79166666666</v>
+        <v>45371.625</v>
       </c>
       <c r="F31" s="2">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="G31">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H31">
-        <v>9.18</v>
+        <v>5.7</v>
       </c>
       <c r="I31">
-        <v>8.75</v>
+        <v>3.87</v>
       </c>
       <c r="J31">
-        <v>9.18</v>
+        <v>5.7</v>
       </c>
       <c r="K31">
-        <v>9.18</v>
+        <v>5.7</v>
       </c>
       <c r="L31">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="M31">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="N31">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="O31">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2870,24 +2876,27 @@
         <v>100</v>
       </c>
       <c r="R31">
-        <v>1.47</v>
+        <v>2.33</v>
       </c>
       <c r="S31">
-        <v>93</v>
+        <v>265</v>
       </c>
       <c r="T31">
-        <v>1.42</v>
+        <v>4.67</v>
       </c>
       <c r="U31" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="V31">
+        <v>0.16</v>
       </c>
       <c r="W31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32">
-        <v>1708804800</v>
+        <v>1710950400</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
@@ -2896,613 +2905,613 @@
         <v>10000</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="E32" s="2">
-        <v>45346.83333333334</v>
+        <v>45371.66666666666</v>
       </c>
       <c r="F32" s="2">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="G32">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H32">
-        <v>9.23</v>
+        <v>5.03</v>
       </c>
       <c r="I32">
-        <v>8.81</v>
+        <v>3.02</v>
       </c>
       <c r="J32">
-        <v>9.23</v>
+        <v>5.03</v>
       </c>
       <c r="K32">
-        <v>9.23</v>
+        <v>5.03</v>
       </c>
       <c r="L32">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="M32">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="N32">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="O32">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R32">
-        <v>1.46</v>
+        <v>2.4</v>
       </c>
       <c r="S32">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="T32">
-        <v>1.42</v>
+        <v>4.65</v>
       </c>
       <c r="U32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33">
-        <v>1708808400</v>
+        <v>1710954000</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C33">
         <v>10000</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="E33" s="2">
-        <v>45346.875</v>
+        <v>45371.70833333334</v>
       </c>
       <c r="F33" s="2">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="G33">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H33">
-        <v>9.32</v>
+        <v>3.32</v>
       </c>
       <c r="I33">
-        <v>8.960000000000001</v>
+        <v>1.83</v>
       </c>
       <c r="J33">
-        <v>9.32</v>
+        <v>3.32</v>
       </c>
       <c r="K33">
-        <v>9.32</v>
+        <v>3.32</v>
       </c>
       <c r="L33">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="M33">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="N33">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="O33">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="R33">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="S33">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="T33">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="U33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34">
-        <v>1708812000</v>
+        <v>1710957600</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34">
-        <v>10000</v>
+        <v>7546</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="E34" s="2">
-        <v>45346.91666666666</v>
+        <v>45371.75</v>
       </c>
       <c r="F34" s="2">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="G34">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H34">
-        <v>9.300000000000001</v>
+        <v>2.42</v>
       </c>
       <c r="I34">
-        <v>9.300000000000001</v>
+        <v>2.42</v>
       </c>
       <c r="J34">
-        <v>9.300000000000001</v>
+        <v>2.42</v>
       </c>
       <c r="K34">
-        <v>9.300000000000001</v>
+        <v>2.42</v>
       </c>
       <c r="L34">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="M34">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="N34">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="O34">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="R34">
-        <v>1.3</v>
+        <v>0.33</v>
       </c>
       <c r="S34">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="T34">
-        <v>1.32</v>
+        <v>1.95</v>
       </c>
       <c r="U34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35">
-        <v>1708815600</v>
+        <v>1710961200</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C35">
-        <v>10000</v>
+        <v>5147</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="E35" s="2">
-        <v>45346.95833333334</v>
+        <v>45371.79166666666</v>
       </c>
       <c r="F35" s="2">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="G35">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H35">
-        <v>9.4</v>
+        <v>1.72</v>
       </c>
       <c r="I35">
-        <v>9.4</v>
+        <v>1.72</v>
       </c>
       <c r="J35">
-        <v>9.4</v>
+        <v>1.72</v>
       </c>
       <c r="K35">
-        <v>9.4</v>
+        <v>1.72</v>
       </c>
       <c r="L35">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="M35">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="N35">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="O35">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="R35">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="S35">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="T35">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36">
-        <v>1708819200</v>
+        <v>1710964800</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C36">
-        <v>10000</v>
+        <v>4674</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="E36" s="2">
-        <v>45347</v>
+        <v>45371.83333333334</v>
       </c>
       <c r="F36" s="2">
-        <v>45347</v>
+        <v>45371</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H36">
-        <v>9.289999999999999</v>
+        <v>1.73</v>
       </c>
       <c r="I36">
-        <v>9.289999999999999</v>
+        <v>1.73</v>
       </c>
       <c r="J36">
-        <v>9.289999999999999</v>
+        <v>1.73</v>
       </c>
       <c r="K36">
-        <v>9.289999999999999</v>
+        <v>1.73</v>
       </c>
       <c r="L36">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="M36">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="N36">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="O36">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="R36">
-        <v>0.99</v>
+        <v>1.33</v>
       </c>
       <c r="S36">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="U36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37">
-        <v>1708822800</v>
+        <v>1710968400</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C37">
-        <v>10000</v>
+        <v>3950</v>
       </c>
       <c r="D37">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="E37" s="2">
-        <v>45347.04166666666</v>
+        <v>45371.875</v>
       </c>
       <c r="F37" s="2">
-        <v>45347</v>
+        <v>45371</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H37">
-        <v>9.24</v>
+        <v>2.28</v>
       </c>
       <c r="I37">
-        <v>9.24</v>
+        <v>0.87</v>
       </c>
       <c r="J37">
-        <v>9.24</v>
+        <v>2.28</v>
       </c>
       <c r="K37">
-        <v>9.24</v>
+        <v>2.28</v>
       </c>
       <c r="L37">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="M37">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="N37">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="O37">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="R37">
-        <v>0.78</v>
+        <v>1.48</v>
       </c>
       <c r="S37">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="T37">
-        <v>0.82</v>
+        <v>2.22</v>
       </c>
       <c r="U37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38">
-        <v>1708826400</v>
+        <v>1710972000</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C38">
         <v>10000</v>
       </c>
       <c r="D38">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="E38" s="2">
-        <v>45347.08333333334</v>
+        <v>45371.91666666666</v>
       </c>
       <c r="F38" s="2">
-        <v>45347</v>
+        <v>45371</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H38">
-        <v>9.039999999999999</v>
+        <v>2.34</v>
       </c>
       <c r="I38">
-        <v>8.49</v>
+        <v>0.87</v>
       </c>
       <c r="J38">
-        <v>9.039999999999999</v>
+        <v>2.34</v>
       </c>
       <c r="K38">
-        <v>9.039999999999999</v>
+        <v>2.34</v>
       </c>
       <c r="L38">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="M38">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="N38">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="O38">
+        <v>90</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>72</v>
       </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>100</v>
-      </c>
       <c r="R38">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="S38">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="T38">
-        <v>1.49</v>
+        <v>2.07</v>
       </c>
       <c r="U38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:23">
       <c r="A39">
-        <v>1708830000</v>
+        <v>1710975600</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C39">
         <v>10000</v>
       </c>
       <c r="D39">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="E39" s="2">
-        <v>45347.125</v>
+        <v>45371.95833333334</v>
       </c>
       <c r="F39" s="2">
-        <v>45347</v>
+        <v>45371</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H39">
-        <v>8.279999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="I39">
-        <v>7.35</v>
+        <v>0.29</v>
       </c>
       <c r="J39">
-        <v>8.279999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="K39">
-        <v>8.279999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="L39">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="M39">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="N39">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="O39">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="R39">
-        <v>1.82</v>
+        <v>1.43</v>
       </c>
       <c r="S39">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="T39">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="U39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40">
-        <v>1708833600</v>
+        <v>1710979200</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C40">
         <v>10000</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E40" s="2">
-        <v>45347.16666666666</v>
+        <v>45372</v>
       </c>
       <c r="F40" s="2">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>7.99</v>
+        <v>0.58</v>
       </c>
       <c r="I40">
-        <v>7.29</v>
+        <v>-1.24</v>
       </c>
       <c r="J40">
-        <v>7.99</v>
+        <v>0.58</v>
       </c>
       <c r="K40">
-        <v>7.99</v>
+        <v>0.58</v>
       </c>
       <c r="L40">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="M40">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="N40">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="O40">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R40">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="S40">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="T40">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="U40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:23">
       <c r="A41">
-        <v>1708837200</v>
+        <v>1710982800</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C41">
         <v>10000</v>
@@ -3511,66 +3520,66 @@
         <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>45347.20833333334</v>
+        <v>45372.04166666666</v>
       </c>
       <c r="F41" s="2">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>7.75</v>
+        <v>0.03</v>
       </c>
       <c r="I41">
-        <v>6.95</v>
+        <v>-1.95</v>
       </c>
       <c r="J41">
-        <v>7.75</v>
+        <v>0.03</v>
       </c>
       <c r="K41">
-        <v>7.75</v>
+        <v>0.03</v>
       </c>
       <c r="L41">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="M41">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="N41">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="O41">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P41">
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="R41">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S41">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="T41">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="U41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:23">
       <c r="A42">
-        <v>1708840800</v>
+        <v>1710986400</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>10000</v>
@@ -3579,66 +3588,66 @@
         <v>0</v>
       </c>
       <c r="E42" s="2">
-        <v>45347.25</v>
+        <v>45372.08333333334</v>
       </c>
       <c r="F42" s="2">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="G42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>8.18</v>
+        <v>-0.39</v>
       </c>
       <c r="I42">
-        <v>7.43</v>
+        <v>-2.59</v>
       </c>
       <c r="J42">
-        <v>8.18</v>
+        <v>-0.39</v>
       </c>
       <c r="K42">
-        <v>8.18</v>
+        <v>-0.39</v>
       </c>
       <c r="L42">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="M42">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="N42">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="O42">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="R42">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="S42">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="T42">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="U42" t="s">
         <v>33</v>
       </c>
       <c r="W42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:23">
       <c r="A43">
-        <v>1708844400</v>
+        <v>1710990000</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C43">
         <v>10000</v>
@@ -3647,66 +3656,66 @@
         <v>0</v>
       </c>
       <c r="E43" s="2">
-        <v>45347.29166666666</v>
+        <v>45372.125</v>
       </c>
       <c r="F43" s="2">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="G43">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>9.5</v>
+        <v>-0.57</v>
       </c>
       <c r="I43">
-        <v>8.890000000000001</v>
+        <v>-2.7</v>
       </c>
       <c r="J43">
-        <v>9.5</v>
+        <v>-0.57</v>
       </c>
       <c r="K43">
-        <v>9.5</v>
+        <v>-0.57</v>
       </c>
       <c r="L43">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="M43">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="N43">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="O43">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P43">
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="R43">
         <v>1.69</v>
       </c>
       <c r="S43">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="T43">
-        <v>2.11</v>
+        <v>1.51</v>
       </c>
       <c r="U43" t="s">
         <v>33</v>
       </c>
       <c r="W43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:23">
       <c r="A44">
-        <v>1708848000</v>
+        <v>1710993600</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C44">
         <v>10000</v>
@@ -3715,66 +3724,66 @@
         <v>0</v>
       </c>
       <c r="E44" s="2">
-        <v>45347.33333333334</v>
+        <v>45372.16666666666</v>
       </c>
       <c r="F44" s="2">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="G44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H44">
-        <v>11.16</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="I44">
-        <v>10</v>
+        <v>-2.53</v>
       </c>
       <c r="J44">
-        <v>11.16</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="K44">
-        <v>11.16</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="L44">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="M44">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="N44">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="O44">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="R44">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="S44">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="T44">
-        <v>2.27</v>
+        <v>1.4</v>
       </c>
       <c r="U44" t="s">
         <v>33</v>
       </c>
       <c r="W44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:23">
       <c r="A45">
-        <v>1708851600</v>
+        <v>1710997200</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C45">
         <v>10000</v>
@@ -3783,66 +3792,66 @@
         <v>0</v>
       </c>
       <c r="E45" s="2">
-        <v>45347.375</v>
+        <v>45372.20833333334</v>
       </c>
       <c r="F45" s="2">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="G45">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H45">
-        <v>12.5</v>
+        <v>-0.2</v>
       </c>
       <c r="I45">
-        <v>11.29</v>
+        <v>-2.08</v>
       </c>
       <c r="J45">
-        <v>12.5</v>
+        <v>-0.2</v>
       </c>
       <c r="K45">
-        <v>12.5</v>
+        <v>-0.2</v>
       </c>
       <c r="L45">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="M45">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="N45">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="O45">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="R45">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="S45">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="T45">
-        <v>2.06</v>
+        <v>1.69</v>
       </c>
       <c r="U45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:23">
       <c r="A46">
-        <v>1708855200</v>
+        <v>1711000800</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C46">
         <v>10000</v>
@@ -3851,66 +3860,66 @@
         <v>0</v>
       </c>
       <c r="E46" s="2">
-        <v>45347.41666666666</v>
+        <v>45372.25</v>
       </c>
       <c r="F46" s="2">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="G46">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H46">
-        <v>13.52</v>
+        <v>1.98</v>
       </c>
       <c r="I46">
-        <v>12.31</v>
+        <v>1.98</v>
       </c>
       <c r="J46">
-        <v>13.52</v>
+        <v>1.98</v>
       </c>
       <c r="K46">
-        <v>13.52</v>
+        <v>1.98</v>
       </c>
       <c r="L46">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="M46">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="N46">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="O46">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P46">
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="R46">
-        <v>0.58</v>
+        <v>1.3</v>
       </c>
       <c r="S46">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="T46">
-        <v>1.94</v>
+        <v>1.72</v>
       </c>
       <c r="U46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:23">
       <c r="A47">
-        <v>1708858800</v>
+        <v>1711004400</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C47">
         <v>10000</v>
@@ -3919,66 +3928,66 @@
         <v>0</v>
       </c>
       <c r="E47" s="2">
-        <v>45347.45833333334</v>
+        <v>45372.29166666666</v>
       </c>
       <c r="F47" s="2">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="G47">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H47">
-        <v>14.16</v>
+        <v>4.14</v>
       </c>
       <c r="I47">
-        <v>12.94</v>
+        <v>4.14</v>
       </c>
       <c r="J47">
-        <v>14.16</v>
+        <v>4.14</v>
       </c>
       <c r="K47">
-        <v>14.16</v>
+        <v>4.14</v>
       </c>
       <c r="L47">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="M47">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="N47">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="O47">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="R47">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="S47">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="T47">
-        <v>2.16</v>
+        <v>1.19</v>
       </c>
       <c r="U47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:23">
       <c r="A48">
-        <v>1708862400</v>
+        <v>1711008000</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C48">
         <v>10000</v>
@@ -3987,66 +3996,66 @@
         <v>0</v>
       </c>
       <c r="E48" s="2">
-        <v>45347.5</v>
+        <v>45372.33333333334</v>
       </c>
       <c r="F48" s="2">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="G48">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H48">
-        <v>14.13</v>
+        <v>5.84</v>
       </c>
       <c r="I48">
-        <v>12.93</v>
+        <v>5.84</v>
       </c>
       <c r="J48">
-        <v>14.13</v>
+        <v>5.84</v>
       </c>
       <c r="K48">
-        <v>14.13</v>
+        <v>5.84</v>
       </c>
       <c r="L48">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="M48">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="N48">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="O48">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="R48">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="S48">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="T48">
-        <v>2.37</v>
+        <v>1.19</v>
       </c>
       <c r="U48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:23">
       <c r="A49">
-        <v>1708866000</v>
+        <v>1711011600</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C49">
         <v>10000</v>
@@ -4055,66 +4064,66 @@
         <v>0</v>
       </c>
       <c r="E49" s="2">
-        <v>45347.54166666666</v>
+        <v>45372.375</v>
       </c>
       <c r="F49" s="2">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="G49">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H49">
-        <v>13.97</v>
+        <v>6.92</v>
       </c>
       <c r="I49">
-        <v>12.78</v>
+        <v>5.88</v>
       </c>
       <c r="J49">
-        <v>13.97</v>
+        <v>6.92</v>
       </c>
       <c r="K49">
-        <v>13.97</v>
+        <v>6.92</v>
       </c>
       <c r="L49">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="M49">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="N49">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="O49">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="R49">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="S49">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="T49">
-        <v>2.29</v>
+        <v>1.58</v>
       </c>
       <c r="U49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:23">
       <c r="A50">
-        <v>1708869600</v>
+        <v>1711015200</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C50">
         <v>10000</v>
@@ -4123,474 +4132,471 @@
         <v>0</v>
       </c>
       <c r="E50" s="2">
-        <v>45347.58333333334</v>
+        <v>45372.41666666666</v>
       </c>
       <c r="F50" s="2">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="G50">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H50">
-        <v>13.27</v>
+        <v>7.81</v>
       </c>
       <c r="I50">
-        <v>12.14</v>
+        <v>6.62</v>
       </c>
       <c r="J50">
-        <v>13.27</v>
+        <v>7.81</v>
       </c>
       <c r="K50">
-        <v>13.27</v>
+        <v>7.81</v>
       </c>
       <c r="L50">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="M50">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="N50">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="O50">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="P50">
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="R50">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="S50">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="T50">
-        <v>2.68</v>
+        <v>1.88</v>
       </c>
       <c r="U50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:23">
       <c r="A51">
-        <v>1708873200</v>
+        <v>1711018800</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C51">
         <v>10000</v>
       </c>
       <c r="D51">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E51" s="2">
-        <v>45347.625</v>
+        <v>45372.45833333334</v>
       </c>
       <c r="F51" s="2">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="G51">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H51">
-        <v>12.05</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="I51">
-        <v>11.01</v>
+        <v>6.98</v>
       </c>
       <c r="J51">
-        <v>12.05</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="K51">
-        <v>12.05</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="L51">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="M51">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="N51">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="O51">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="R51">
-        <v>1.26</v>
+        <v>2.42</v>
       </c>
       <c r="S51">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="T51">
-        <v>1.71</v>
+        <v>2.48</v>
       </c>
       <c r="U51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:23">
       <c r="A52">
-        <v>1708876800</v>
+        <v>1711022400</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C52">
         <v>10000</v>
       </c>
       <c r="D52">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E52" s="2">
-        <v>45347.66666666666</v>
+        <v>45372.5</v>
       </c>
       <c r="F52" s="2">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="G52">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H52">
-        <v>11.13</v>
+        <v>8.83</v>
       </c>
       <c r="I52">
-        <v>10.13</v>
+        <v>7.42</v>
       </c>
       <c r="J52">
-        <v>11.13</v>
+        <v>8.83</v>
       </c>
       <c r="K52">
-        <v>11.13</v>
+        <v>8.83</v>
       </c>
       <c r="L52">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="M52">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="N52">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="O52">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="P52">
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="R52">
-        <v>1.04</v>
+        <v>2.53</v>
       </c>
       <c r="S52">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="T52">
-        <v>1.49</v>
+        <v>2.97</v>
       </c>
       <c r="U52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:23">
       <c r="A53">
-        <v>1708880400</v>
+        <v>1711026000</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C53">
         <v>10000</v>
       </c>
       <c r="D53">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E53" s="2">
-        <v>45347.70833333334</v>
+        <v>45372.54166666666</v>
       </c>
       <c r="F53" s="2">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="G53">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H53">
-        <v>10.8</v>
+        <v>9.17</v>
       </c>
       <c r="I53">
-        <v>9.869999999999999</v>
+        <v>7.85</v>
       </c>
       <c r="J53">
-        <v>10.8</v>
+        <v>9.17</v>
       </c>
       <c r="K53">
-        <v>10.8</v>
+        <v>9.17</v>
       </c>
       <c r="L53">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="M53">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="N53">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="O53">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="R53">
-        <v>1.48</v>
+        <v>2.49</v>
       </c>
       <c r="S53">
-        <v>136</v>
+        <v>261</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>3.39</v>
       </c>
       <c r="U53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:23">
       <c r="A54">
-        <v>1708884000</v>
+        <v>1711029600</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C54">
         <v>10000</v>
       </c>
       <c r="D54">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="E54" s="2">
-        <v>45347.75</v>
+        <v>45372.58333333334</v>
       </c>
       <c r="F54" s="2">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="G54">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H54">
-        <v>10.45</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="I54">
-        <v>9.59</v>
+        <v>7.9</v>
       </c>
       <c r="J54">
-        <v>10.45</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="K54">
-        <v>10.45</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="L54">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="M54">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="N54">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="O54">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="R54">
-        <v>1.76</v>
+        <v>2.6</v>
       </c>
       <c r="S54">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="T54">
-        <v>2.53</v>
+        <v>3.48</v>
       </c>
       <c r="U54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:23">
       <c r="A55">
-        <v>1708887600</v>
+        <v>1711033200</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C55">
         <v>10000</v>
       </c>
       <c r="D55">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E55" s="2">
-        <v>45347.79166666666</v>
+        <v>45372.625</v>
       </c>
       <c r="F55" s="2">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="G55">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H55">
-        <v>10.27</v>
+        <v>8.73</v>
       </c>
       <c r="I55">
-        <v>9.42</v>
+        <v>7.04</v>
       </c>
       <c r="J55">
-        <v>10.27</v>
+        <v>8.73</v>
       </c>
       <c r="K55">
-        <v>10.27</v>
+        <v>8.73</v>
       </c>
       <c r="L55">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="M55">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="N55">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="O55">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="R55">
-        <v>1.68</v>
+        <v>2.92</v>
       </c>
       <c r="S55">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="T55">
-        <v>2.21</v>
+        <v>3.59</v>
       </c>
       <c r="U55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:23">
       <c r="A56">
-        <v>1708891200</v>
+        <v>1711036800</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C56">
         <v>10000</v>
       </c>
       <c r="D56">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E56" s="2">
-        <v>45347.83333333334</v>
+        <v>45372.66666666666</v>
       </c>
       <c r="F56" s="2">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="G56">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H56">
-        <v>9.99</v>
+        <v>6.59</v>
       </c>
       <c r="I56">
-        <v>9.800000000000001</v>
+        <v>4.91</v>
       </c>
       <c r="J56">
-        <v>9.99</v>
+        <v>6.59</v>
       </c>
       <c r="K56">
-        <v>9.99</v>
+        <v>6.59</v>
       </c>
       <c r="L56">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="M56">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N56">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="O56">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="R56">
-        <v>1.35</v>
+        <v>2.35</v>
       </c>
       <c r="S56">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="T56">
-        <v>1.6</v>
+        <v>4.45</v>
       </c>
       <c r="U56" t="s">
-        <v>34</v>
-      </c>
-      <c r="V56">
-        <v>0.11</v>
+        <v>32</v>
       </c>
       <c r="W56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:23">
       <c r="A57">
-        <v>1708894800</v>
+        <v>1711040400</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -4599,276 +4605,273 @@
         <v>10000</v>
       </c>
       <c r="D57">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="E57" s="2">
-        <v>45347.875</v>
+        <v>45372.70833333334</v>
       </c>
       <c r="F57" s="2">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="G57">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H57">
-        <v>9.710000000000001</v>
+        <v>4.17</v>
       </c>
       <c r="I57">
-        <v>9.449999999999999</v>
+        <v>3.13</v>
       </c>
       <c r="J57">
-        <v>9.710000000000001</v>
+        <v>4.17</v>
       </c>
       <c r="K57">
-        <v>9.710000000000001</v>
+        <v>4.17</v>
       </c>
       <c r="L57">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="M57">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N57">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="O57">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="R57">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S57">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="T57">
-        <v>1.4</v>
+        <v>1.84</v>
       </c>
       <c r="U57" t="s">
-        <v>34</v>
-      </c>
-      <c r="V57">
-        <v>0.22</v>
+        <v>33</v>
       </c>
       <c r="W57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:23">
       <c r="A58">
-        <v>1708898400</v>
+        <v>1711044000</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C58">
         <v>10000</v>
       </c>
       <c r="D58">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="E58" s="2">
-        <v>45347.91666666666</v>
+        <v>45372.75</v>
       </c>
       <c r="F58" s="2">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="G58">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H58">
-        <v>9.529999999999999</v>
+        <v>3.44</v>
       </c>
       <c r="I58">
-        <v>8.970000000000001</v>
+        <v>3.44</v>
       </c>
       <c r="J58">
-        <v>9.529999999999999</v>
+        <v>3.44</v>
       </c>
       <c r="K58">
-        <v>9.529999999999999</v>
+        <v>3.44</v>
       </c>
       <c r="L58">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="M58">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="N58">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="O58">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="R58">
-        <v>1.64</v>
+        <v>0.9</v>
       </c>
       <c r="S58">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="T58">
-        <v>1.78</v>
+        <v>1.17</v>
       </c>
       <c r="U58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:23">
       <c r="A59">
-        <v>1708902000</v>
+        <v>1711047600</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C59">
         <v>10000</v>
       </c>
       <c r="D59">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="E59" s="2">
-        <v>45347.95833333334</v>
+        <v>45372.79166666666</v>
       </c>
       <c r="F59" s="2">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="G59">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H59">
-        <v>8.699999999999999</v>
+        <v>2.99</v>
       </c>
       <c r="I59">
-        <v>8.01</v>
+        <v>1.71</v>
       </c>
       <c r="J59">
-        <v>8.699999999999999</v>
+        <v>2.99</v>
       </c>
       <c r="K59">
-        <v>8.699999999999999</v>
+        <v>2.99</v>
       </c>
       <c r="L59">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="M59">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="N59">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="O59">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P59">
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="R59">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="S59">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="T59">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="U59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:23">
       <c r="A60">
-        <v>1708905600</v>
+        <v>1711051200</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C60">
         <v>10000</v>
       </c>
       <c r="D60">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="E60" s="2">
-        <v>45348</v>
+        <v>45372.83333333334</v>
       </c>
       <c r="F60" s="2">
-        <v>45348</v>
+        <v>45372</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H60">
-        <v>8.34</v>
+        <v>2.83</v>
       </c>
       <c r="I60">
-        <v>7.7</v>
+        <v>1.23</v>
       </c>
       <c r="J60">
-        <v>8.34</v>
+        <v>2.83</v>
       </c>
       <c r="K60">
-        <v>8.34</v>
+        <v>2.83</v>
       </c>
       <c r="L60">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="M60">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="N60">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="O60">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="R60">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="S60">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="T60">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="U60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:23">
       <c r="A61">
-        <v>1708909200</v>
+        <v>1711054800</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C61">
         <v>10000</v>
@@ -4877,37 +4880,37 @@
         <v>0</v>
       </c>
       <c r="E61" s="2">
-        <v>45348.04166666666</v>
+        <v>45372.875</v>
       </c>
       <c r="F61" s="2">
-        <v>45348</v>
+        <v>45372</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H61">
-        <v>8.69</v>
+        <v>2.6</v>
       </c>
       <c r="I61">
-        <v>8.26</v>
+        <v>0.9</v>
       </c>
       <c r="J61">
-        <v>8.69</v>
+        <v>2.6</v>
       </c>
       <c r="K61">
-        <v>8.69</v>
+        <v>2.6</v>
       </c>
       <c r="L61">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="M61">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="N61">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="O61">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -4916,27 +4919,27 @@
         <v>100</v>
       </c>
       <c r="R61">
-        <v>1.41</v>
+        <v>1.73</v>
       </c>
       <c r="S61">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="T61">
-        <v>1.38</v>
+        <v>1.71</v>
       </c>
       <c r="U61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:23">
       <c r="A62">
-        <v>1708912800</v>
+        <v>1711058400</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C62">
         <v>10000</v>
@@ -4945,66 +4948,66 @@
         <v>0</v>
       </c>
       <c r="E62" s="2">
-        <v>45348.08333333334</v>
+        <v>45372.91666666666</v>
       </c>
       <c r="F62" s="2">
-        <v>45348</v>
+        <v>45372</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H62">
-        <v>8.19</v>
+        <v>2.42</v>
       </c>
       <c r="I62">
-        <v>7.33</v>
+        <v>0.65</v>
       </c>
       <c r="J62">
-        <v>8.19</v>
+        <v>2.42</v>
       </c>
       <c r="K62">
-        <v>8.19</v>
+        <v>2.42</v>
       </c>
       <c r="L62">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="M62">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="N62">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="O62">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P62">
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R62">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="S62">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T62">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="U62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:23">
       <c r="A63">
-        <v>1708916400</v>
+        <v>1711062000</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C63">
         <v>10000</v>
@@ -5013,66 +5016,66 @@
         <v>0</v>
       </c>
       <c r="E63" s="2">
-        <v>45348.125</v>
+        <v>45372.95833333334</v>
       </c>
       <c r="F63" s="2">
-        <v>45348</v>
+        <v>45372</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H63">
-        <v>7.52</v>
+        <v>2.27</v>
       </c>
       <c r="I63">
-        <v>6.3</v>
+        <v>0.57</v>
       </c>
       <c r="J63">
-        <v>7.52</v>
+        <v>2.27</v>
       </c>
       <c r="K63">
-        <v>7.52</v>
+        <v>2.27</v>
       </c>
       <c r="L63">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="M63">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="N63">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="O63">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="S63">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="T63">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="U63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:23">
       <c r="A64">
-        <v>1708920000</v>
+        <v>1711065600</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C64">
         <v>10000</v>
@@ -5081,66 +5084,66 @@
         <v>0</v>
       </c>
       <c r="E64" s="2">
-        <v>45348.16666666666</v>
+        <v>45373</v>
       </c>
       <c r="F64" s="2">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="G64">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>7.21</v>
+        <v>2.17</v>
       </c>
       <c r="I64">
-        <v>5.94</v>
+        <v>0.75</v>
       </c>
       <c r="J64">
-        <v>7.21</v>
+        <v>2.17</v>
       </c>
       <c r="K64">
-        <v>7.21</v>
+        <v>2.17</v>
       </c>
       <c r="L64">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="M64">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="N64">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="O64">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="S64">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="T64">
-        <v>1.81</v>
+        <v>1.34</v>
       </c>
       <c r="U64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:23">
       <c r="A65">
-        <v>1708923600</v>
+        <v>1711069200</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C65">
         <v>10000</v>
@@ -5149,66 +5152,66 @@
         <v>0</v>
       </c>
       <c r="E65" s="2">
-        <v>45348.20833333334</v>
+        <v>45373.04166666666</v>
       </c>
       <c r="F65" s="2">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>6.98</v>
+        <v>2.21</v>
       </c>
       <c r="I65">
-        <v>5.56</v>
+        <v>0.9</v>
       </c>
       <c r="J65">
-        <v>6.98</v>
+        <v>2.21</v>
       </c>
       <c r="K65">
-        <v>6.98</v>
+        <v>2.21</v>
       </c>
       <c r="L65">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="M65">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="N65">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="O65">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="R65">
-        <v>2.12</v>
+        <v>1.41</v>
       </c>
       <c r="S65">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="T65">
-        <v>1.88</v>
+        <v>1.28</v>
       </c>
       <c r="U65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:23">
       <c r="A66">
-        <v>1708927200</v>
+        <v>1711072800</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C66">
         <v>10000</v>
@@ -5217,66 +5220,66 @@
         <v>0</v>
       </c>
       <c r="E66" s="2">
-        <v>45348.25</v>
+        <v>45373.08333333334</v>
       </c>
       <c r="F66" s="2">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="G66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H66">
-        <v>7.47</v>
+        <v>2.39</v>
       </c>
       <c r="I66">
-        <v>6.29</v>
+        <v>2.39</v>
       </c>
       <c r="J66">
-        <v>7.47</v>
+        <v>2.39</v>
       </c>
       <c r="K66">
-        <v>7.47</v>
+        <v>2.39</v>
       </c>
       <c r="L66">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="M66">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="N66">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="O66">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="S66">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="T66">
-        <v>1.7</v>
+        <v>1.13</v>
       </c>
       <c r="U66" t="s">
         <v>33</v>
       </c>
       <c r="W66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:23">
       <c r="A67">
-        <v>1708930800</v>
+        <v>1711076400</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C67">
         <v>10000</v>
@@ -5285,66 +5288,66 @@
         <v>0</v>
       </c>
       <c r="E67" s="2">
-        <v>45348.29166666666</v>
+        <v>45373.125</v>
       </c>
       <c r="F67" s="2">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="G67">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H67">
-        <v>9.779999999999999</v>
+        <v>2.55</v>
       </c>
       <c r="I67">
-        <v>9.380000000000001</v>
+        <v>2.55</v>
       </c>
       <c r="J67">
-        <v>9.779999999999999</v>
+        <v>2.55</v>
       </c>
       <c r="K67">
-        <v>9.779999999999999</v>
+        <v>2.55</v>
       </c>
       <c r="L67">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="M67">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="N67">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="O67">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="R67">
-        <v>1.52</v>
+        <v>1.12</v>
       </c>
       <c r="S67">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="T67">
-        <v>2.11</v>
+        <v>1.1</v>
       </c>
       <c r="U67" t="s">
         <v>33</v>
       </c>
       <c r="W67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:23">
       <c r="A68">
-        <v>1708934400</v>
+        <v>1711080000</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C68">
         <v>10000</v>
@@ -5353,610 +5356,610 @@
         <v>0</v>
       </c>
       <c r="E68" s="2">
-        <v>45348.33333333334</v>
+        <v>45373.16666666666</v>
       </c>
       <c r="F68" s="2">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="G68">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H68">
-        <v>11.91</v>
+        <v>2.58</v>
       </c>
       <c r="I68">
-        <v>10.8</v>
+        <v>2.58</v>
       </c>
       <c r="J68">
-        <v>11.91</v>
+        <v>2.58</v>
       </c>
       <c r="K68">
-        <v>11.91</v>
+        <v>2.58</v>
       </c>
       <c r="L68">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="M68">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="N68">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="O68">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="R68">
-        <v>1.04</v>
+        <v>0.9</v>
       </c>
       <c r="S68">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="T68">
-        <v>1.72</v>
+        <v>0.89</v>
       </c>
       <c r="U68" t="s">
         <v>33</v>
       </c>
       <c r="W68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:23">
       <c r="A69">
-        <v>1708938000</v>
+        <v>1711083600</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C69">
         <v>10000</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E69" s="2">
-        <v>45348.375</v>
+        <v>45373.20833333334</v>
       </c>
       <c r="F69" s="2">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="G69">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H69">
-        <v>13.6</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>12.48</v>
+        <v>3</v>
       </c>
       <c r="J69">
-        <v>13.6</v>
+        <v>3</v>
       </c>
       <c r="K69">
-        <v>13.6</v>
+        <v>3</v>
       </c>
       <c r="L69">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="M69">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="N69">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="O69">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="R69">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="S69">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="T69">
-        <v>2.23</v>
+        <v>1.14</v>
       </c>
       <c r="U69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:23">
       <c r="A70">
-        <v>1708941600</v>
+        <v>1711087200</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C70">
         <v>10000</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E70" s="2">
-        <v>45348.41666666666</v>
+        <v>45373.25</v>
       </c>
       <c r="F70" s="2">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="G70">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H70">
-        <v>14.93</v>
+        <v>3.93</v>
       </c>
       <c r="I70">
-        <v>13.81</v>
+        <v>3.93</v>
       </c>
       <c r="J70">
-        <v>14.93</v>
+        <v>3.93</v>
       </c>
       <c r="K70">
-        <v>14.93</v>
+        <v>3.93</v>
       </c>
       <c r="L70">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="M70">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="N70">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="O70">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="R70">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="S70">
-        <v>207</v>
+        <v>46</v>
       </c>
       <c r="T70">
-        <v>2.91</v>
+        <v>1.43</v>
       </c>
       <c r="U70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:23">
       <c r="A71">
-        <v>1708945200</v>
+        <v>1711090800</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C71">
         <v>10000</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E71" s="2">
-        <v>45348.45833333334</v>
+        <v>45373.29166666666</v>
       </c>
       <c r="F71" s="2">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="G71">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H71">
-        <v>15.55</v>
+        <v>5.42</v>
       </c>
       <c r="I71">
-        <v>14.39</v>
+        <v>5.42</v>
       </c>
       <c r="J71">
-        <v>15.55</v>
+        <v>5.42</v>
       </c>
       <c r="K71">
-        <v>15.55</v>
+        <v>5.42</v>
       </c>
       <c r="L71">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="M71">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="N71">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="O71">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="R71">
-        <v>1.77</v>
+        <v>1.19</v>
       </c>
       <c r="S71">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="T71">
-        <v>3.41</v>
+        <v>2.17</v>
       </c>
       <c r="U71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:23">
       <c r="A72">
-        <v>1708948800</v>
+        <v>1711094400</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C72">
         <v>10000</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E72" s="2">
-        <v>45348.5</v>
+        <v>45373.33333333334</v>
       </c>
       <c r="F72" s="2">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="G72">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H72">
-        <v>15.98</v>
+        <v>6.97</v>
       </c>
       <c r="I72">
-        <v>14.78</v>
+        <v>6.97</v>
       </c>
       <c r="J72">
-        <v>15.98</v>
+        <v>6.97</v>
       </c>
       <c r="K72">
-        <v>15.98</v>
+        <v>6.97</v>
       </c>
       <c r="L72">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="M72">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="N72">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="O72">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="R72">
-        <v>1.67</v>
+        <v>1.31</v>
       </c>
       <c r="S72">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="U72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:23">
       <c r="A73">
-        <v>1708952400</v>
+        <v>1711098000</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C73">
         <v>10000</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E73" s="2">
-        <v>45348.54166666666</v>
+        <v>45373.375</v>
       </c>
       <c r="F73" s="2">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="G73">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H73">
-        <v>16.2</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="I73">
-        <v>14.97</v>
+        <v>7.21</v>
       </c>
       <c r="J73">
-        <v>16.2</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="K73">
-        <v>16.2</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="L73">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="M73">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="N73">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="O73">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="R73">
-        <v>1.7</v>
+        <v>2.23</v>
       </c>
       <c r="S73">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="T73">
-        <v>2.95</v>
+        <v>4.44</v>
       </c>
       <c r="U73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:23">
       <c r="A74">
-        <v>1708956000</v>
+        <v>1711101600</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C74">
         <v>10000</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E74" s="2">
-        <v>45348.58333333334</v>
+        <v>45373.41666666666</v>
       </c>
       <c r="F74" s="2">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="G74">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H74">
-        <v>16.02</v>
+        <v>9.33</v>
       </c>
       <c r="I74">
-        <v>14.75</v>
+        <v>7.82</v>
       </c>
       <c r="J74">
-        <v>16.02</v>
+        <v>9.33</v>
       </c>
       <c r="K74">
-        <v>16.02</v>
+        <v>9.33</v>
       </c>
       <c r="L74">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="M74">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="N74">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="O74">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="R74">
-        <v>1.63</v>
+        <v>2.81</v>
       </c>
       <c r="S74">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="T74">
-        <v>2.81</v>
+        <v>4.47</v>
       </c>
       <c r="U74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:23">
       <c r="A75">
-        <v>1708959600</v>
+        <v>1711105200</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C75">
         <v>10000</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E75" s="2">
-        <v>45348.625</v>
+        <v>45373.45833333334</v>
       </c>
       <c r="F75" s="2">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="G75">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H75">
-        <v>14.67</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="I75">
-        <v>13.47</v>
+        <v>8.59</v>
       </c>
       <c r="J75">
-        <v>14.67</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="K75">
-        <v>14.67</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="L75">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="M75">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="N75">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="O75">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="R75">
-        <v>1.11</v>
+        <v>2.65</v>
       </c>
       <c r="S75">
-        <v>243</v>
+        <v>70</v>
       </c>
       <c r="T75">
-        <v>1.49</v>
+        <v>3.91</v>
       </c>
       <c r="U75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:23">
       <c r="A76">
-        <v>1708963200</v>
+        <v>1711108800</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C76">
         <v>10000</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E76" s="2">
-        <v>45348.66666666666</v>
+        <v>45373.5</v>
       </c>
       <c r="F76" s="2">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="G76">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H76">
-        <v>12.14</v>
+        <v>10.08</v>
       </c>
       <c r="I76">
-        <v>10.85</v>
+        <v>8.19</v>
       </c>
       <c r="J76">
-        <v>12.14</v>
+        <v>10.08</v>
       </c>
       <c r="K76">
-        <v>12.14</v>
+        <v>10.08</v>
       </c>
       <c r="L76">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="M76">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="N76">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="O76">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="R76">
-        <v>0.27</v>
+        <v>3.3</v>
       </c>
       <c r="S76">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="T76">
-        <v>0.71</v>
+        <v>4.08</v>
       </c>
       <c r="U76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:23">
       <c r="A77">
-        <v>1708966800</v>
+        <v>1711112400</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C77">
         <v>10000</v>
@@ -5965,66 +5968,66 @@
         <v>0</v>
       </c>
       <c r="E77" s="2">
-        <v>45348.70833333334</v>
+        <v>45373.54166666666</v>
       </c>
       <c r="F77" s="2">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="G77">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H77">
-        <v>11.27</v>
+        <v>10.17</v>
       </c>
       <c r="I77">
-        <v>9.99</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="J77">
-        <v>11.27</v>
+        <v>10.17</v>
       </c>
       <c r="K77">
-        <v>11.27</v>
+        <v>10.17</v>
       </c>
       <c r="L77">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="M77">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="N77">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="O77">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="R77">
-        <v>1.06</v>
+        <v>3.29</v>
       </c>
       <c r="S77">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="T77">
-        <v>0.96</v>
+        <v>3.94</v>
       </c>
       <c r="U77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:23">
       <c r="A78">
-        <v>1708970400</v>
+        <v>1711116000</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C78">
         <v>10000</v>
@@ -6033,66 +6036,66 @@
         <v>0</v>
       </c>
       <c r="E78" s="2">
-        <v>45348.75</v>
+        <v>45373.58333333334</v>
       </c>
       <c r="F78" s="2">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="G78">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H78">
-        <v>10.65</v>
+        <v>9.82</v>
       </c>
       <c r="I78">
-        <v>9.390000000000001</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="J78">
-        <v>10.65</v>
+        <v>9.82</v>
       </c>
       <c r="K78">
-        <v>10.65</v>
+        <v>9.82</v>
       </c>
       <c r="L78">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="M78">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="N78">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="O78">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="R78">
-        <v>1.72</v>
+        <v>3.02</v>
       </c>
       <c r="S78">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="T78">
-        <v>1.57</v>
+        <v>3.75</v>
       </c>
       <c r="U78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:23">
       <c r="A79">
-        <v>1708974000</v>
+        <v>1711119600</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C79">
         <v>10000</v>
@@ -6101,66 +6104,66 @@
         <v>0</v>
       </c>
       <c r="E79" s="2">
-        <v>45348.79166666666</v>
+        <v>45373.625</v>
       </c>
       <c r="F79" s="2">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="G79">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H79">
-        <v>10.07</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="I79">
-        <v>8.800000000000001</v>
+        <v>6.94</v>
       </c>
       <c r="J79">
-        <v>10.07</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="K79">
-        <v>10.07</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="L79">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="M79">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="N79">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="O79">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R79">
-        <v>2.12</v>
+        <v>3.41</v>
       </c>
       <c r="S79">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="T79">
-        <v>1.91</v>
+        <v>4.12</v>
       </c>
       <c r="U79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:23">
       <c r="A80">
-        <v>1708977600</v>
+        <v>1711123200</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C80">
         <v>10000</v>
@@ -6169,66 +6172,66 @@
         <v>0</v>
       </c>
       <c r="E80" s="2">
-        <v>45348.83333333334</v>
+        <v>45373.66666666666</v>
       </c>
       <c r="F80" s="2">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="G80">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H80">
-        <v>9.539999999999999</v>
+        <v>7.02</v>
       </c>
       <c r="I80">
-        <v>8.58</v>
+        <v>4.84</v>
       </c>
       <c r="J80">
-        <v>9.539999999999999</v>
+        <v>7.02</v>
       </c>
       <c r="K80">
-        <v>9.539999999999999</v>
+        <v>7.02</v>
       </c>
       <c r="L80">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="M80">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="N80">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="O80">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="R80">
-        <v>2.09</v>
+        <v>3.14</v>
       </c>
       <c r="S80">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="T80">
-        <v>1.88</v>
+        <v>5.56</v>
       </c>
       <c r="U80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:23">
       <c r="A81">
-        <v>1708981200</v>
+        <v>1711126800</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C81">
         <v>10000</v>
@@ -6237,66 +6240,66 @@
         <v>0</v>
       </c>
       <c r="E81" s="2">
-        <v>45348.875</v>
+        <v>45373.70833333334</v>
       </c>
       <c r="F81" s="2">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="G81">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H81">
-        <v>9.01</v>
+        <v>4.55</v>
       </c>
       <c r="I81">
-        <v>8.050000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="J81">
-        <v>9.01</v>
+        <v>4.55</v>
       </c>
       <c r="K81">
-        <v>9.01</v>
+        <v>4.55</v>
       </c>
       <c r="L81">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="M81">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="N81">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="O81">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R81">
-        <v>1.99</v>
+        <v>2.7</v>
       </c>
       <c r="S81">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="T81">
-        <v>1.78</v>
+        <v>3.59</v>
       </c>
       <c r="U81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:23">
       <c r="A82">
-        <v>1708984800</v>
+        <v>1711130400</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C82">
         <v>10000</v>
@@ -6305,66 +6308,66 @@
         <v>0</v>
       </c>
       <c r="E82" s="2">
-        <v>45348.91666666666</v>
+        <v>45373.75</v>
       </c>
       <c r="F82" s="2">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="G82">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H82">
-        <v>8.58</v>
+        <v>3.38</v>
       </c>
       <c r="I82">
-        <v>7.54</v>
+        <v>0.98</v>
       </c>
       <c r="J82">
-        <v>8.58</v>
+        <v>3.38</v>
       </c>
       <c r="K82">
-        <v>8.58</v>
+        <v>3.38</v>
       </c>
       <c r="L82">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="M82">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="N82">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="O82">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="S82">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T82">
-        <v>1.69</v>
+        <v>2.92</v>
       </c>
       <c r="U82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:23">
       <c r="A83">
-        <v>1708988400</v>
+        <v>1711134000</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C83">
         <v>10000</v>
@@ -6373,66 +6376,66 @@
         <v>0</v>
       </c>
       <c r="E83" s="2">
-        <v>45348.95833333334</v>
+        <v>45373.79166666666</v>
       </c>
       <c r="F83" s="2">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="G83">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H83">
-        <v>8.16</v>
+        <v>2.68</v>
       </c>
       <c r="I83">
-        <v>7.09</v>
+        <v>0.18</v>
       </c>
       <c r="J83">
-        <v>8.16</v>
+        <v>2.68</v>
       </c>
       <c r="K83">
-        <v>8.16</v>
+        <v>2.68</v>
       </c>
       <c r="L83">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="M83">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="N83">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="O83">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="R83">
-        <v>1.95</v>
+        <v>2.47</v>
       </c>
       <c r="S83">
         <v>80</v>
       </c>
       <c r="T83">
-        <v>1.68</v>
+        <v>2.81</v>
       </c>
       <c r="U83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:23">
       <c r="A84">
-        <v>1708992000</v>
+        <v>1711137600</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C84">
         <v>10000</v>
@@ -6441,66 +6444,66 @@
         <v>0</v>
       </c>
       <c r="E84" s="2">
-        <v>45349</v>
+        <v>45373.83333333334</v>
       </c>
       <c r="F84" s="2">
-        <v>45349</v>
+        <v>45373</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H84">
-        <v>7.79</v>
+        <v>2.27</v>
       </c>
       <c r="I84">
-        <v>6.64</v>
+        <v>-0.15</v>
       </c>
       <c r="J84">
-        <v>7.79</v>
+        <v>2.27</v>
       </c>
       <c r="K84">
-        <v>7.79</v>
+        <v>2.27</v>
       </c>
       <c r="L84">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="M84">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="N84">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="O84">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="R84">
-        <v>1.98</v>
+        <v>2.31</v>
       </c>
       <c r="S84">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="T84">
-        <v>1.76</v>
+        <v>2.44</v>
       </c>
       <c r="U84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:23">
       <c r="A85">
-        <v>1708995600</v>
+        <v>1711141200</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C85">
         <v>10000</v>
@@ -6509,66 +6512,66 @@
         <v>0</v>
       </c>
       <c r="E85" s="2">
-        <v>45349.04166666666</v>
+        <v>45373.875</v>
       </c>
       <c r="F85" s="2">
-        <v>45349</v>
+        <v>45373</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H85">
-        <v>7.43</v>
+        <v>1.94</v>
       </c>
       <c r="I85">
-        <v>6.24</v>
+        <v>-0.41</v>
       </c>
       <c r="J85">
-        <v>7.43</v>
+        <v>1.94</v>
       </c>
       <c r="K85">
-        <v>7.43</v>
+        <v>1.94</v>
       </c>
       <c r="L85">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="M85">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="N85">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="O85">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="P85">
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="R85">
-        <v>1.96</v>
+        <v>2.19</v>
       </c>
       <c r="S85">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="T85">
-        <v>1.74</v>
+        <v>2.23</v>
       </c>
       <c r="U85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:23">
       <c r="A86">
-        <v>1708999200</v>
+        <v>1711144800</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C86">
         <v>10000</v>
@@ -6577,66 +6580,66 @@
         <v>0</v>
       </c>
       <c r="E86" s="2">
-        <v>45349.08333333334</v>
+        <v>45373.91666666666</v>
       </c>
       <c r="F86" s="2">
-        <v>45349</v>
+        <v>45373</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H86">
-        <v>7.09</v>
+        <v>1.73</v>
       </c>
       <c r="I86">
-        <v>5.79</v>
+        <v>-0.39</v>
       </c>
       <c r="J86">
-        <v>7.09</v>
+        <v>1.73</v>
       </c>
       <c r="K86">
-        <v>7.09</v>
+        <v>1.73</v>
       </c>
       <c r="L86">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="M86">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="N86">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="O86">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="R86">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="S86">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="T86">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="U86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:23">
       <c r="A87">
-        <v>1709002800</v>
+        <v>1711148400</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C87">
         <v>10000</v>
@@ -6645,37 +6648,37 @@
         <v>0</v>
       </c>
       <c r="E87" s="2">
-        <v>45349.125</v>
+        <v>45373.95833333334</v>
       </c>
       <c r="F87" s="2">
-        <v>45349</v>
+        <v>45373</v>
       </c>
       <c r="G87">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H87">
-        <v>6.85</v>
+        <v>1.46</v>
       </c>
       <c r="I87">
-        <v>5.52</v>
+        <v>-0.62</v>
       </c>
       <c r="J87">
-        <v>6.85</v>
+        <v>1.46</v>
       </c>
       <c r="K87">
-        <v>6.85</v>
+        <v>1.46</v>
       </c>
       <c r="L87">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="M87">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="N87">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="O87">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -6684,27 +6687,27 @@
         <v>28</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="S87">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="T87">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="U87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:23">
       <c r="A88">
-        <v>1709006400</v>
+        <v>1711152000</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C88">
         <v>10000</v>
@@ -6713,63 +6716,63 @@
         <v>0</v>
       </c>
       <c r="E88" s="2">
-        <v>45349.16666666666</v>
+        <v>45374</v>
       </c>
       <c r="F88" s="2">
-        <v>45349</v>
+        <v>45374</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>6.56</v>
+        <v>1.37</v>
       </c>
       <c r="I88">
-        <v>5.32</v>
+        <v>-0.41</v>
       </c>
       <c r="J88">
-        <v>6.56</v>
+        <v>1.37</v>
       </c>
       <c r="K88">
-        <v>6.56</v>
+        <v>1.37</v>
       </c>
       <c r="L88">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="M88">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="N88">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="O88">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="P88">
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R88">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="S88">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="T88">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="U88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:23">
       <c r="A89">
-        <v>1709010000</v>
+        <v>1711155600</v>
       </c>
       <c r="B89" t="s">
         <v>29</v>
@@ -6781,66 +6784,66 @@
         <v>0</v>
       </c>
       <c r="E89" s="2">
-        <v>45349.20833333334</v>
+        <v>45374.04166666666</v>
       </c>
       <c r="F89" s="2">
-        <v>45349</v>
+        <v>45374</v>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>6.19</v>
+        <v>2.14</v>
       </c>
       <c r="I89">
-        <v>5.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J89">
-        <v>6.19</v>
+        <v>2.14</v>
       </c>
       <c r="K89">
-        <v>6.19</v>
+        <v>2.14</v>
       </c>
       <c r="L89">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="M89">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="N89">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="O89">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="P89">
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="R89">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="S89">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="T89">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:23">
       <c r="A90">
-        <v>1709013600</v>
+        <v>1711159200</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C90">
         <v>10000</v>
@@ -6849,66 +6852,66 @@
         <v>0</v>
       </c>
       <c r="E90" s="2">
-        <v>45349.25</v>
+        <v>45374.08333333334</v>
       </c>
       <c r="F90" s="2">
-        <v>45349</v>
+        <v>45374</v>
       </c>
       <c r="G90">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H90">
-        <v>6.9</v>
+        <v>2.51</v>
       </c>
       <c r="I90">
-        <v>5.89</v>
+        <v>1.33</v>
       </c>
       <c r="J90">
-        <v>6.9</v>
+        <v>2.51</v>
       </c>
       <c r="K90">
-        <v>6.9</v>
+        <v>2.51</v>
       </c>
       <c r="L90">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="M90">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="N90">
         <v>960</v>
       </c>
       <c r="O90">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="P90">
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="R90">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="S90">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="T90">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="U90" t="s">
         <v>33</v>
       </c>
       <c r="W90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:23">
       <c r="A91">
-        <v>1709017200</v>
+        <v>1711162800</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C91">
         <v>10000</v>
@@ -6917,66 +6920,66 @@
         <v>0</v>
       </c>
       <c r="E91" s="2">
-        <v>45349.29166666666</v>
+        <v>45374.125</v>
       </c>
       <c r="F91" s="2">
-        <v>45349</v>
+        <v>45374</v>
       </c>
       <c r="G91">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H91">
-        <v>9.42</v>
+        <v>2.43</v>
       </c>
       <c r="I91">
-        <v>9.42</v>
+        <v>1.23</v>
       </c>
       <c r="J91">
-        <v>9.42</v>
+        <v>2.43</v>
       </c>
       <c r="K91">
-        <v>9.42</v>
+        <v>2.43</v>
       </c>
       <c r="L91">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="M91">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="N91">
         <v>960</v>
       </c>
       <c r="O91">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="R91">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="S91">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T91">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="U91" t="s">
         <v>33</v>
       </c>
       <c r="W91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:23">
       <c r="A92">
-        <v>1709020800</v>
+        <v>1711166400</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C92">
         <v>10000</v>
@@ -6985,66 +6988,66 @@
         <v>0</v>
       </c>
       <c r="E92" s="2">
-        <v>45349.33333333334</v>
+        <v>45374.16666666666</v>
       </c>
       <c r="F92" s="2">
-        <v>45349</v>
+        <v>45374</v>
       </c>
       <c r="G92">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H92">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
       <c r="I92">
-        <v>10.11</v>
+        <v>-0.51</v>
       </c>
       <c r="J92">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
       <c r="K92">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
       <c r="L92">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="M92">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="N92">
         <v>960</v>
       </c>
       <c r="O92">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="P92">
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="R92">
-        <v>0.52</v>
+        <v>1.56</v>
       </c>
       <c r="S92">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="T92">
-        <v>1.08</v>
+        <v>1.36</v>
       </c>
       <c r="U92" t="s">
         <v>33</v>
       </c>
       <c r="W92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:23">
       <c r="A93">
-        <v>1709024400</v>
+        <v>1711170000</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C93">
         <v>10000</v>
@@ -7053,66 +7056,66 @@
         <v>0</v>
       </c>
       <c r="E93" s="2">
-        <v>45349.375</v>
+        <v>45374.20833333334</v>
       </c>
       <c r="F93" s="2">
-        <v>45349</v>
+        <v>45374</v>
       </c>
       <c r="G93">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H93">
-        <v>13.46</v>
+        <v>1.64</v>
       </c>
       <c r="I93">
-        <v>11.91</v>
+        <v>0.13</v>
       </c>
       <c r="J93">
-        <v>13.46</v>
+        <v>1.64</v>
       </c>
       <c r="K93">
-        <v>13.46</v>
+        <v>1.64</v>
       </c>
       <c r="L93">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="M93">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="N93">
         <v>960</v>
       </c>
       <c r="O93">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="R93">
-        <v>0.51</v>
+        <v>1.49</v>
       </c>
       <c r="S93">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="T93">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="U93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W93" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:23">
       <c r="A94">
-        <v>1709028000</v>
+        <v>1711173600</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C94">
         <v>10000</v>
@@ -7121,66 +7124,66 @@
         <v>0</v>
       </c>
       <c r="E94" s="2">
-        <v>45349.41666666666</v>
+        <v>45374.25</v>
       </c>
       <c r="F94" s="2">
-        <v>45349</v>
+        <v>45374</v>
       </c>
       <c r="G94">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H94">
-        <v>14.37</v>
+        <v>4.01</v>
       </c>
       <c r="I94">
-        <v>12.85</v>
+        <v>4.01</v>
       </c>
       <c r="J94">
-        <v>14.37</v>
+        <v>4.01</v>
       </c>
       <c r="K94">
-        <v>14.37</v>
+        <v>4.01</v>
       </c>
       <c r="L94">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="M94">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="N94">
         <v>960</v>
       </c>
       <c r="O94">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="P94">
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="R94">
-        <v>1.78</v>
+        <v>0.65</v>
       </c>
       <c r="S94">
-        <v>246</v>
+        <v>72</v>
       </c>
       <c r="T94">
-        <v>2.21</v>
+        <v>0.93</v>
       </c>
       <c r="U94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:23">
       <c r="A95">
-        <v>1709031600</v>
+        <v>1711177200</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C95">
         <v>10000</v>
@@ -7189,194 +7192,194 @@
         <v>0</v>
       </c>
       <c r="E95" s="2">
-        <v>45349.45833333334</v>
+        <v>45374.29166666666</v>
       </c>
       <c r="F95" s="2">
-        <v>45349</v>
+        <v>45374</v>
       </c>
       <c r="G95">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H95">
-        <v>14.86</v>
+        <v>6.04</v>
       </c>
       <c r="I95">
-        <v>13.37</v>
+        <v>6.04</v>
       </c>
       <c r="J95">
-        <v>14.86</v>
+        <v>6.04</v>
       </c>
       <c r="K95">
-        <v>14.86</v>
+        <v>6.04</v>
       </c>
       <c r="L95">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="M95">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="N95">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="O95">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="P95">
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="R95">
-        <v>2.06</v>
+        <v>0.63</v>
       </c>
       <c r="S95">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="T95">
-        <v>2.79</v>
+        <v>0.67</v>
       </c>
       <c r="U95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:23">
       <c r="A96">
-        <v>1709035200</v>
+        <v>1711180800</v>
       </c>
       <c r="B96" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96">
+        <v>10000</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45374.33333333334</v>
+      </c>
+      <c r="F96" s="2">
+        <v>45374</v>
+      </c>
+      <c r="G96">
+        <v>8</v>
+      </c>
+      <c r="H96">
+        <v>7.37</v>
+      </c>
+      <c r="I96">
+        <v>6.52</v>
+      </c>
+      <c r="J96">
+        <v>7.37</v>
+      </c>
+      <c r="K96">
+        <v>7.37</v>
+      </c>
+      <c r="L96">
+        <v>1019</v>
+      </c>
+      <c r="M96">
+        <v>1019</v>
+      </c>
+      <c r="N96">
+        <v>960</v>
+      </c>
+      <c r="O96">
+        <v>57</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>24</v>
+      </c>
+      <c r="R96">
+        <v>1.61</v>
+      </c>
+      <c r="S96">
+        <v>255</v>
+      </c>
+      <c r="T96">
+        <v>1.4</v>
+      </c>
+      <c r="U96" t="s">
         <v>32</v>
       </c>
-      <c r="C96">
-        <v>10000</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96" s="2">
-        <v>45349.5</v>
-      </c>
-      <c r="F96" s="2">
-        <v>45349</v>
-      </c>
-      <c r="G96">
-        <v>12</v>
-      </c>
-      <c r="H96">
-        <v>15.3</v>
-      </c>
-      <c r="I96">
-        <v>13.83</v>
-      </c>
-      <c r="J96">
-        <v>15.3</v>
-      </c>
-      <c r="K96">
-        <v>15.3</v>
-      </c>
-      <c r="L96">
-        <v>1017</v>
-      </c>
-      <c r="M96">
-        <v>1017</v>
-      </c>
-      <c r="N96">
-        <v>959</v>
-      </c>
-      <c r="O96">
-        <v>36</v>
-      </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>11</v>
-      </c>
-      <c r="R96">
-        <v>1.87</v>
-      </c>
-      <c r="S96">
-        <v>241</v>
-      </c>
-      <c r="T96">
-        <v>3.04</v>
-      </c>
-      <c r="U96" t="s">
-        <v>33</v>
-      </c>
       <c r="W96" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:23">
       <c r="A97">
-        <v>1709038800</v>
+        <v>1711184400</v>
       </c>
       <c r="B97" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97">
+        <v>10000</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45374.375</v>
+      </c>
+      <c r="F97" s="2">
+        <v>45374</v>
+      </c>
+      <c r="G97">
+        <v>9</v>
+      </c>
+      <c r="H97">
+        <v>8.48</v>
+      </c>
+      <c r="I97">
+        <v>7.4</v>
+      </c>
+      <c r="J97">
+        <v>8.48</v>
+      </c>
+      <c r="K97">
+        <v>8.48</v>
+      </c>
+      <c r="L97">
+        <v>1019</v>
+      </c>
+      <c r="M97">
+        <v>1019</v>
+      </c>
+      <c r="N97">
+        <v>960</v>
+      </c>
+      <c r="O97">
+        <v>53</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>20</v>
+      </c>
+      <c r="R97">
+        <v>2.03</v>
+      </c>
+      <c r="S97">
+        <v>258</v>
+      </c>
+      <c r="T97">
+        <v>1.61</v>
+      </c>
+      <c r="U97" t="s">
         <v>32</v>
       </c>
-      <c r="C97">
-        <v>10000</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97" s="2">
-        <v>45349.54166666666</v>
-      </c>
-      <c r="F97" s="2">
-        <v>45349</v>
-      </c>
-      <c r="G97">
-        <v>13</v>
-      </c>
-      <c r="H97">
-        <v>15.61</v>
-      </c>
-      <c r="I97">
-        <v>14.09</v>
-      </c>
-      <c r="J97">
-        <v>15.61</v>
-      </c>
-      <c r="K97">
-        <v>15.61</v>
-      </c>
-      <c r="L97">
-        <v>1017</v>
-      </c>
-      <c r="M97">
-        <v>1017</v>
-      </c>
-      <c r="N97">
-        <v>959</v>
-      </c>
-      <c r="O97">
-        <v>33</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>21</v>
-      </c>
-      <c r="R97">
-        <v>1.8</v>
-      </c>
-      <c r="S97">
-        <v>232</v>
-      </c>
-      <c r="T97">
-        <v>3.3</v>
-      </c>
-      <c r="U97" t="s">
-        <v>33</v>
-      </c>
       <c r="W97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/RAAL/Production/Input/weather.xlsx
+++ b/RAAL/Production/Input/weather.xlsx
@@ -865,16 +865,16 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>4.84</v>
+        <v>5.43</v>
       </c>
       <c r="I2">
-        <v>2.58</v>
+        <v>3.28</v>
       </c>
       <c r="J2">
         <v>4.74</v>
       </c>
       <c r="K2">
-        <v>4.84</v>
+        <v>5.43</v>
       </c>
       <c r="L2">
         <v>1017</v>
@@ -886,13 +886,13 @@
         <v>957</v>
       </c>
       <c r="O2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P2">
-        <v>0.1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q2">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="R2">
         <v>2.66</v>
@@ -933,13 +933,13 @@
         <v>11</v>
       </c>
       <c r="H3">
-        <v>5.11</v>
+        <v>5.44</v>
       </c>
       <c r="I3">
-        <v>2.5</v>
+        <v>2.89</v>
       </c>
       <c r="J3">
-        <v>5.11</v>
+        <v>5.44</v>
       </c>
       <c r="K3">
         <v>5.47</v>
@@ -954,13 +954,13 @@
         <v>957</v>
       </c>
       <c r="O3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3">
-        <v>-0.36</v>
+        <v>-0.03</v>
       </c>
       <c r="Q3">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="R3">
         <v>3.2</v>
@@ -1001,22 +1001,22 @@
         <v>12</v>
       </c>
       <c r="H4">
-        <v>5.39</v>
+        <v>5.55</v>
       </c>
       <c r="I4">
-        <v>2.79</v>
+        <v>2.99</v>
       </c>
       <c r="J4">
-        <v>5.39</v>
+        <v>5.55</v>
       </c>
       <c r="K4">
         <v>5.74</v>
       </c>
       <c r="L4">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="M4">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="N4">
         <v>956</v>
@@ -1025,10 +1025,10 @@
         <v>47</v>
       </c>
       <c r="P4">
-        <v>-0.35</v>
+        <v>-0.19</v>
       </c>
       <c r="Q4">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R4">
         <v>3.26</v>
@@ -1069,34 +1069,34 @@
         <v>13</v>
       </c>
       <c r="H5">
-        <v>5.93</v>
+        <v>5.89</v>
       </c>
       <c r="I5">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="J5">
-        <v>5.93</v>
+        <v>5.89</v>
       </c>
       <c r="K5">
         <v>6.19</v>
       </c>
       <c r="L5">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="M5">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="N5">
         <v>956</v>
       </c>
       <c r="O5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P5">
-        <v>-0.26</v>
+        <v>-0.3</v>
       </c>
       <c r="Q5">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R5">
         <v>3.85</v>
@@ -1137,13 +1137,13 @@
         <v>14</v>
       </c>
       <c r="H6">
-        <v>6.09</v>
+        <v>5.96</v>
       </c>
       <c r="I6">
-        <v>3.04</v>
+        <v>2.88</v>
       </c>
       <c r="J6">
-        <v>6.09</v>
+        <v>5.96</v>
       </c>
       <c r="K6">
         <v>6.09</v>
@@ -1161,10 +1161,10 @@
         <v>45</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>-0.13</v>
       </c>
       <c r="Q6">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="R6">
         <v>4.29</v>
